--- a/dados.xlsx
+++ b/dados.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="37">
   <si>
     <t>objeto</t>
   </si>
@@ -39,6 +39,9 @@
   </si>
   <si>
     <t>corredicas_abertas</t>
+  </si>
+  <si>
+    <t>lista3</t>
   </si>
   <si>
     <t>frente_aberta</t>
@@ -75,6 +78,9 @@
   </si>
   <si>
     <t>arquivo</t>
+  </si>
+  <si>
+    <t>grupo_destino</t>
   </si>
   <si>
     <t>azul_petroleo</t>
@@ -492,7 +498,7 @@
         <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>6</v>
@@ -523,7 +529,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
@@ -557,7 +563,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
@@ -591,10 +597,10 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="1" t="s">
@@ -625,7 +631,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>5</v>
@@ -657,7 +663,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>5</v>
@@ -689,10 +695,10 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="1" t="s">
@@ -723,10 +729,10 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>6</v>
@@ -757,10 +763,10 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="1" t="s">
@@ -791,10 +797,10 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>6</v>
@@ -28473,15 +28479,21 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="11.25"/>
+    <col customWidth="1" min="2" max="2" width="33.88"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
-      <c r="C1" s="2"/>
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -28508,12 +28520,14 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
-      <c r="C2" s="2"/>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -28540,12 +28554,14 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -28572,12 +28588,14 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
-      <c r="C4" s="2"/>
+      <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -28604,12 +28622,14 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -28636,12 +28656,12 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
-      <c r="C6" s="2"/>
+      <c r="C6" s="1"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -28668,12 +28688,12 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
-      <c r="C7" s="2"/>
+      <c r="C7" s="1"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -28700,12 +28720,14 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
-      <c r="C8" s="2"/>
+      <c r="C8" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>

--- a/dados.xlsx
+++ b/dados.xlsx
@@ -86,43 +86,43 @@
     <t>azul_petroleo</t>
   </si>
   <si>
-    <t>millennium_falcon/textures/azul_petroleo.jpg</t>
+    <t>azul_petroleo.jpg</t>
   </si>
   <si>
     <t>cipres</t>
   </si>
   <si>
-    <t>millennium_falcon/textures/cipres.jpg</t>
+    <t>cipres.jpg</t>
   </si>
   <si>
     <t>black_metal</t>
   </si>
   <si>
-    <t>millennium_falcon/textures/black_metal.jpg</t>
+    <t>black_metal.jpg</t>
   </si>
   <si>
     <t>bronze</t>
   </si>
   <si>
-    <t>millennium_falcon/textures/bronze.jpg</t>
+    <t>bronze.jpg</t>
   </si>
   <si>
     <t>puxador1</t>
   </si>
   <si>
-    <t>millennium_falcon/textures/puxador1.png</t>
+    <t>puxador1.png</t>
   </si>
   <si>
     <t>puxador2</t>
   </si>
   <si>
-    <t>millennium_falcon/textures/puxador2.png</t>
+    <t>puxador2.png</t>
   </si>
   <si>
     <t>metal_polido</t>
   </si>
   <si>
-    <t>millennium_falcon/textures/metal_polido.jpg</t>
+    <t>metal_polido.jpg</t>
   </si>
 </sst>
 </file>

--- a/dados.xlsx
+++ b/dados.xlsx
@@ -32,7 +32,7 @@
     <t>gavetas_fechadas</t>
   </si>
   <si>
-    <t>lista1</t>
+    <t>tamponamento</t>
   </si>
   <si>
     <t>sim</t>
@@ -446,8 +446,8 @@
         <v>7</v>
       </c>
       <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -480,8 +480,8 @@
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
@@ -514,8 +514,8 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>

--- a/dados.xlsx
+++ b/dados.xlsx
@@ -32,7 +32,7 @@
     <t>gavetas_fechadas</t>
   </si>
   <si>
-    <t>tamponamento</t>
+    <t>tamponamentos</t>
   </si>
   <si>
     <t>sim</t>
@@ -44,7 +44,7 @@
     <t>corredicas_abertas</t>
   </si>
   <si>
-    <t>lista3</t>
+    <t>ferragens</t>
   </si>
   <si>
     <t>frente_aberta</t>
@@ -65,7 +65,7 @@
     <t>puxadores2_fechados</t>
   </si>
   <si>
-    <t>lista2</t>
+    <t>puxadores</t>
   </si>
   <si>
     <t>puxadores2_abertos</t>

--- a/dados.xlsx
+++ b/dados.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="39">
   <si>
     <t>objeto</t>
   </si>
@@ -27,6 +27,9 @@
   </si>
   <si>
     <t>visivel_inicialmente</t>
+  </si>
+  <si>
+    <t>preco</t>
   </si>
   <si>
     <t>gavetas_fechadas</t>
@@ -409,7 +412,9 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2"/>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -433,19 +438,21 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
-      <c r="F2" s="2"/>
+      <c r="F2" s="1">
+        <v>10.0</v>
+      </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="2"/>
@@ -469,17 +476,19 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="F3" s="1">
+        <v>11.0</v>
+      </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="2"/>
@@ -503,17 +512,19 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="F4" s="1">
+        <v>12.0</v>
+      </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="2"/>
@@ -537,17 +548,19 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="F5" s="1">
+        <v>13.0</v>
+      </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -571,19 +584,21 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
-      <c r="F6" s="2"/>
+      <c r="F6" s="1">
+        <v>14.0</v>
+      </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -607,19 +622,21 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
-      <c r="F7" s="2"/>
+      <c r="F7" s="1">
+        <v>15.0</v>
+      </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -643,17 +660,19 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
-      <c r="F8" s="2"/>
+      <c r="F8" s="1">
+        <v>16.0</v>
+      </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -677,17 +696,19 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
-      <c r="F9" s="2"/>
+      <c r="F9" s="1">
+        <v>17.0</v>
+      </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -711,17 +732,19 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E10" s="1"/>
-      <c r="F10" s="2"/>
+      <c r="F10" s="1">
+        <v>18.0</v>
+      </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -745,17 +768,19 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="C11" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+      <c r="F11" s="1">
+        <v>19.0</v>
+      </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -779,19 +804,21 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
-      <c r="F12" s="2"/>
+      <c r="F12" s="1">
+        <v>20.0</v>
+      </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -815,17 +842,19 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+      <c r="F13" s="1">
+        <v>21.0</v>
+      </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -28499,20 +28528,22 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="11.25"/>
-    <col customWidth="1" min="2" max="2" width="33.88"/>
+    <col customWidth="1" min="2" max="2" width="13.75"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
-      <c r="D1" s="2"/>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -28538,15 +28569,17 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
-      <c r="D2" s="2"/>
+      <c r="D2" s="1">
+        <v>20.0</v>
+      </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -28572,15 +28605,17 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
-      <c r="D3" s="2"/>
+      <c r="D3" s="1">
+        <v>21.0</v>
+      </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -28606,15 +28641,17 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" s="1">
+        <v>22.0</v>
+      </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -28640,15 +28677,17 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
-      <c r="D5" s="2"/>
+      <c r="D5" s="1">
+        <v>23.0</v>
+      </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -28674,13 +28713,15 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C6" s="1"/>
-      <c r="D6" s="2"/>
+      <c r="D6" s="1">
+        <v>24.0</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -28706,13 +28747,15 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C7" s="1"/>
-      <c r="D7" s="2"/>
+      <c r="D7" s="1">
+        <v>25.0</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -28738,15 +28781,17 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="1">
+        <v>26.0</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>

--- a/dados.xlsx
+++ b/dados.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="116">
   <si>
     <t>objeto</t>
   </si>
@@ -129,6 +129,237 @@
   </si>
   <si>
     <t>metal_polido.jpg</t>
+  </si>
+  <si>
+    <t>alabama</t>
+  </si>
+  <si>
+    <t>alecrim</t>
+  </si>
+  <si>
+    <t>ametista</t>
+  </si>
+  <si>
+    <t>antiqua</t>
+  </si>
+  <si>
+    <t>araucaria</t>
+  </si>
+  <si>
+    <t>areia</t>
+  </si>
+  <si>
+    <t>aura</t>
+  </si>
+  <si>
+    <t>azul_ardosia</t>
+  </si>
+  <si>
+    <t>azul_marinho</t>
+  </si>
+  <si>
+    <t>baviera</t>
+  </si>
+  <si>
+    <t>bilbao</t>
+  </si>
+  <si>
+    <t>branco_iceland</t>
+  </si>
+  <si>
+    <t>brisa</t>
+  </si>
+  <si>
+    <t>bronzina</t>
+  </si>
+  <si>
+    <t>capuccino</t>
+  </si>
+  <si>
+    <t>caribe</t>
+  </si>
+  <si>
+    <t>carvalho_capri</t>
+  </si>
+  <si>
+    <t>carvalho_natural</t>
+  </si>
+  <si>
+    <t>cinza_perfeito</t>
+  </si>
+  <si>
+    <t>cinza_urban</t>
+  </si>
+  <si>
+    <t>cobre</t>
+  </si>
+  <si>
+    <t>corten</t>
+  </si>
+  <si>
+    <t>cosmos</t>
+  </si>
+  <si>
+    <t>cromio</t>
+  </si>
+  <si>
+    <t>curupixa</t>
+  </si>
+  <si>
+    <t>curupixa_ripado</t>
+  </si>
+  <si>
+    <t>erva_mate</t>
+  </si>
+  <si>
+    <t>fendi</t>
+  </si>
+  <si>
+    <t>fontana</t>
+  </si>
+  <si>
+    <t>freijo</t>
+  </si>
+  <si>
+    <t>fresno_acores</t>
+  </si>
+  <si>
+    <t>fresno_aveiro</t>
+  </si>
+  <si>
+    <t>fresno_coimbra</t>
+  </si>
+  <si>
+    <t>fresno_madeira</t>
+  </si>
+  <si>
+    <t>gali</t>
+  </si>
+  <si>
+    <t>grafite</t>
+  </si>
+  <si>
+    <t>imbuia</t>
+  </si>
+  <si>
+    <t>jaspe</t>
+  </si>
+  <si>
+    <t>lisboa</t>
+  </si>
+  <si>
+    <t>lume</t>
+  </si>
+  <si>
+    <t>mageo_carvalho</t>
+  </si>
+  <si>
+    <t>mageo_imbuia</t>
+  </si>
+  <si>
+    <t>mageo_mel</t>
+  </si>
+  <si>
+    <t>mangue</t>
+  </si>
+  <si>
+    <t>marmo</t>
+  </si>
+  <si>
+    <t>marsala</t>
+  </si>
+  <si>
+    <t>maxi_branco</t>
+  </si>
+  <si>
+    <t>metal_champagne</t>
+  </si>
+  <si>
+    <t>neblina</t>
+  </si>
+  <si>
+    <t>nero</t>
+  </si>
+  <si>
+    <t>niquel</t>
+  </si>
+  <si>
+    <t>nogal_champagne</t>
+  </si>
+  <si>
+    <t>nogal_sevilha</t>
+  </si>
+  <si>
+    <t>nogueira_ambar</t>
+  </si>
+  <si>
+    <t>nogueira_rubi</t>
+  </si>
+  <si>
+    <t>noite</t>
+  </si>
+  <si>
+    <t>nuvem</t>
+  </si>
+  <si>
+    <t>onix</t>
+  </si>
+  <si>
+    <t>pau_ferro</t>
+  </si>
+  <si>
+    <t>peroba</t>
+  </si>
+  <si>
+    <t>petra</t>
+  </si>
+  <si>
+    <t>platina</t>
+  </si>
+  <si>
+    <t>preto_silk</t>
+  </si>
+  <si>
+    <t>quartzo</t>
+  </si>
+  <si>
+    <t>rosa_milkshake</t>
+  </si>
+  <si>
+    <t>salerno</t>
+  </si>
+  <si>
+    <t>santorini</t>
+  </si>
+  <si>
+    <t>savana</t>
+  </si>
+  <si>
+    <t>sonora</t>
+  </si>
+  <si>
+    <t>tauari</t>
+  </si>
+  <si>
+    <t>tauari_ripado</t>
+  </si>
+  <si>
+    <t>tear</t>
+  </si>
+  <si>
+    <t>tecno</t>
+  </si>
+  <si>
+    <t>teka_bianco</t>
+  </si>
+  <si>
+    <t>tela</t>
+  </si>
+  <si>
+    <t>terrino</t>
+  </si>
+  <si>
+    <t>tijolo</t>
   </si>
 </sst>
 </file>
@@ -28527,8 +28758,10 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="11.25"/>
-    <col customWidth="1" min="2" max="2" width="13.75"/>
+    <col customWidth="1" min="1" max="1" width="14.75"/>
+    <col customWidth="1" min="2" max="2" width="17.38"/>
+    <col customWidth="1" min="3" max="3" width="13.0"/>
+    <col customWidth="1" min="4" max="4" width="5.13"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -28816,10 +29049,19 @@
       <c r="Z8" s="2"/>
     </row>
     <row r="9">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
+      <c r="A9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="2" t="str">
+        <f t="shared" ref="B9:B12" si="1">CONCAT(A9,".jpg")</f>
+        <v>alabama.jpg</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="1">
+        <v>27.0</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -28844,10 +29086,19 @@
       <c r="Z9" s="2"/>
     </row>
     <row r="10">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
+      <c r="A10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>alecrim.jpg</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="1">
+        <v>28.0</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -28872,10 +29123,19 @@
       <c r="Z10" s="2"/>
     </row>
     <row r="11">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+      <c r="A11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>ametista.jpg</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="1">
+        <v>29.0</v>
+      </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -28900,10 +29160,19 @@
       <c r="Z11" s="2"/>
     </row>
     <row r="12">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
+      <c r="A12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>antiqua.jpg</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="1">
+        <v>30.0</v>
+      </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -28928,10 +29197,19 @@
       <c r="Z12" s="2"/>
     </row>
     <row r="13">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
+      <c r="A13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="2" t="str">
+        <f>CONCAT(A13,".png")</f>
+        <v>araucaria.png</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="1">
+        <v>31.0</v>
+      </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -28956,10 +29234,19 @@
       <c r="Z13" s="2"/>
     </row>
     <row r="14">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
+      <c r="A14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="2" t="str">
+        <f>CONCAT(A14,".jpg")</f>
+        <v>areia.jpg</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="1">
+        <v>32.0</v>
+      </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -28984,10 +29271,19 @@
       <c r="Z14" s="2"/>
     </row>
     <row r="15">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
+      <c r="A15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="2" t="str">
+        <f t="shared" ref="B15:B16" si="2">CONCAT(A15,".png")</f>
+        <v>aura.png</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="1">
+        <v>33.0</v>
+      </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -29012,10 +29308,19 @@
       <c r="Z15" s="2"/>
     </row>
     <row r="16">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
+      <c r="A16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>azul_ardosia.png</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="1">
+        <v>34.0</v>
+      </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -29040,10 +29345,19 @@
       <c r="Z16" s="2"/>
     </row>
     <row r="17">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
+      <c r="A17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="2" t="str">
+        <f t="shared" ref="B17:B20" si="3">CONCAT(A17,".jpg")</f>
+        <v>azul_marinho.jpg</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="1">
+        <v>35.0</v>
+      </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -29068,10 +29382,19 @@
       <c r="Z17" s="2"/>
     </row>
     <row r="18">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
+      <c r="A18" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>baviera.jpg</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="1">
+        <v>36.0</v>
+      </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -29096,10 +29419,19 @@
       <c r="Z18" s="2"/>
     </row>
     <row r="19">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
+      <c r="A19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>bilbao.jpg</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="1">
+        <v>37.0</v>
+      </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -29124,10 +29456,19 @@
       <c r="Z19" s="2"/>
     </row>
     <row r="20">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
+      <c r="A20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>branco_iceland.jpg</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="1">
+        <v>38.0</v>
+      </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -29152,10 +29493,19 @@
       <c r="Z20" s="2"/>
     </row>
     <row r="21">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
+      <c r="A21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="2" t="str">
+        <f>CONCAT(A21,".tif")</f>
+        <v>brisa.tif</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="1">
+        <v>39.0</v>
+      </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -29180,10 +29530,19 @@
       <c r="Z21" s="2"/>
     </row>
     <row r="22">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
+      <c r="A22" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="2" t="str">
+        <f t="shared" ref="B22:B26" si="4">CONCAT(A22,".jpg")</f>
+        <v>bronzina.jpg</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="1">
+        <v>40.0</v>
+      </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -29208,10 +29567,19 @@
       <c r="Z22" s="2"/>
     </row>
     <row r="23">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
+      <c r="A23" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>capuccino.jpg</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="1">
+        <v>41.0</v>
+      </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -29236,10 +29604,19 @@
       <c r="Z23" s="2"/>
     </row>
     <row r="24">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
+      <c r="A24" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>caribe.jpg</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="1">
+        <v>42.0</v>
+      </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -29264,10 +29641,19 @@
       <c r="Z24" s="2"/>
     </row>
     <row r="25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
+      <c r="A25" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>carvalho_capri.jpg</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="1">
+        <v>43.0</v>
+      </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
@@ -29292,10 +29678,19 @@
       <c r="Z25" s="2"/>
     </row>
     <row r="26">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
+      <c r="A26" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>carvalho_natural.jpg</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="1">
+        <v>44.0</v>
+      </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
@@ -29320,10 +29715,19 @@
       <c r="Z26" s="2"/>
     </row>
     <row r="27">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
+      <c r="A27" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" s="2" t="str">
+        <f>CONCAT(A27,".png")</f>
+        <v>cinza_perfeito.png</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="1">
+        <v>45.0</v>
+      </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
@@ -29348,10 +29752,19 @@
       <c r="Z27" s="2"/>
     </row>
     <row r="28">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
+      <c r="A28" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" s="2" t="str">
+        <f t="shared" ref="B28:B31" si="5">CONCAT(A28,".jpg")</f>
+        <v>cinza_urban.jpg</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="1">
+        <v>46.0</v>
+      </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
@@ -29376,10 +29789,19 @@
       <c r="Z28" s="2"/>
     </row>
     <row r="29">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
+      <c r="A29" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>cobre.jpg</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="1">
+        <v>47.0</v>
+      </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
@@ -29404,10 +29826,19 @@
       <c r="Z29" s="2"/>
     </row>
     <row r="30">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
+      <c r="A30" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>corten.jpg</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="1">
+        <v>48.0</v>
+      </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
@@ -29432,10 +29863,19 @@
       <c r="Z30" s="2"/>
     </row>
     <row r="31">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
+      <c r="A31" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>cosmos.jpg</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="1">
+        <v>49.0</v>
+      </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
@@ -29460,10 +29900,19 @@
       <c r="Z31" s="2"/>
     </row>
     <row r="32">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
+      <c r="A32" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" s="2" t="str">
+        <f>CONCAT(A32,".tif")</f>
+        <v>cromio.tif</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="1">
+        <v>50.0</v>
+      </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
@@ -29488,10 +29937,19 @@
       <c r="Z32" s="2"/>
     </row>
     <row r="33">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
+      <c r="A33" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33" s="2" t="str">
+        <f>CONCAT(A33,".jpg")</f>
+        <v>curupixa.jpg</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="1">
+        <v>51.0</v>
+      </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
@@ -29516,10 +29974,19 @@
       <c r="Z33" s="2"/>
     </row>
     <row r="34">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
+      <c r="A34" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" s="2" t="str">
+        <f t="shared" ref="B34:B35" si="6">CONCAT(A34,".png")</f>
+        <v>curupixa_ripado.png</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="1">
+        <v>52.0</v>
+      </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
@@ -29544,10 +30011,19 @@
       <c r="Z34" s="2"/>
     </row>
     <row r="35">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
+      <c r="A35" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B35" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>erva_mate.png</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" s="1">
+        <v>53.0</v>
+      </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
@@ -29572,10 +30048,19 @@
       <c r="Z35" s="2"/>
     </row>
     <row r="36">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
+      <c r="A36" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B36" s="2" t="str">
+        <f t="shared" ref="B36:B42" si="7">CONCAT(A36,".jpg")</f>
+        <v>fendi.jpg</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" s="1">
+        <v>54.0</v>
+      </c>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
@@ -29600,10 +30085,19 @@
       <c r="Z36" s="2"/>
     </row>
     <row r="37">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
+      <c r="A37" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B37" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>fontana.jpg</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" s="1">
+        <v>55.0</v>
+      </c>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
@@ -29628,10 +30122,19 @@
       <c r="Z37" s="2"/>
     </row>
     <row r="38">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
+      <c r="A38" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B38" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>freijo.jpg</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" s="1">
+        <v>56.0</v>
+      </c>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
@@ -29656,10 +30159,19 @@
       <c r="Z38" s="2"/>
     </row>
     <row r="39">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
+      <c r="A39" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B39" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>fresno_acores.jpg</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" s="1">
+        <v>57.0</v>
+      </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
@@ -29684,10 +30196,19 @@
       <c r="Z39" s="2"/>
     </row>
     <row r="40">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
+      <c r="A40" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B40" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>fresno_aveiro.jpg</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40" s="1">
+        <v>58.0</v>
+      </c>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
@@ -29712,10 +30233,19 @@
       <c r="Z40" s="2"/>
     </row>
     <row r="41">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
+      <c r="A41" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B41" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>fresno_coimbra.jpg</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41" s="1">
+        <v>59.0</v>
+      </c>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
@@ -29740,10 +30270,19 @@
       <c r="Z41" s="2"/>
     </row>
     <row r="42">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
+      <c r="A42" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B42" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>fresno_madeira.jpg</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" s="1">
+        <v>60.0</v>
+      </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
@@ -29768,10 +30307,19 @@
       <c r="Z42" s="2"/>
     </row>
     <row r="43">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
+      <c r="A43" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B43" s="2" t="str">
+        <f>CONCAT(A43,".png")</f>
+        <v>gali.png</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" s="1">
+        <v>61.0</v>
+      </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
@@ -29796,10 +30344,19 @@
       <c r="Z43" s="2"/>
     </row>
     <row r="44">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
+      <c r="A44" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B44" s="2" t="str">
+        <f t="shared" ref="B44:B45" si="8">CONCAT(A44,".jpg")</f>
+        <v>grafite.jpg</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44" s="1">
+        <v>62.0</v>
+      </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
@@ -29824,10 +30381,19 @@
       <c r="Z44" s="2"/>
     </row>
     <row r="45">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
+      <c r="A45" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B45" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>imbuia.jpg</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45" s="1">
+        <v>63.0</v>
+      </c>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
@@ -29852,10 +30418,19 @@
       <c r="Z45" s="2"/>
     </row>
     <row r="46">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
+      <c r="A46" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B46" s="2" t="str">
+        <f>CONCAT(A46,".png")</f>
+        <v>jaspe.png</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46" s="1">
+        <v>64.0</v>
+      </c>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
@@ -29880,10 +30455,19 @@
       <c r="Z46" s="2"/>
     </row>
     <row r="47">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
+      <c r="A47" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B47" s="2" t="str">
+        <f>CONCAT(A47,".jpg")</f>
+        <v>lisboa.jpg</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" s="1">
+        <v>65.0</v>
+      </c>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
@@ -29908,10 +30492,19 @@
       <c r="Z47" s="2"/>
     </row>
     <row r="48">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
+      <c r="A48" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B48" s="2" t="str">
+        <f>CONCAT(A48,".tif")</f>
+        <v>lume.tif</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D48" s="1">
+        <v>66.0</v>
+      </c>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
@@ -29936,10 +30529,19 @@
       <c r="Z48" s="2"/>
     </row>
     <row r="49">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
+      <c r="A49" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B49" s="2" t="str">
+        <f t="shared" ref="B49:B52" si="9">CONCAT(A49,".png")</f>
+        <v>mageo_carvalho.png</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D49" s="1">
+        <v>67.0</v>
+      </c>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
@@ -29964,10 +30566,19 @@
       <c r="Z49" s="2"/>
     </row>
     <row r="50">
-      <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
+      <c r="A50" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B50" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>mageo_imbuia.png</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D50" s="1">
+        <v>68.0</v>
+      </c>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
@@ -29992,10 +30603,19 @@
       <c r="Z50" s="2"/>
     </row>
     <row r="51">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
+      <c r="A51" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B51" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>mageo_mel.png</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D51" s="1">
+        <v>69.0</v>
+      </c>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
@@ -30020,10 +30640,19 @@
       <c r="Z51" s="2"/>
     </row>
     <row r="52">
-      <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
+      <c r="A52" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B52" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>mangue.png</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D52" s="1">
+        <v>70.0</v>
+      </c>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
@@ -30048,10 +30677,19 @@
       <c r="Z52" s="2"/>
     </row>
     <row r="53">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
+      <c r="A53" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B53" s="2" t="str">
+        <f t="shared" ref="B53:B56" si="10">CONCAT(A53,".jpg")</f>
+        <v>marmo.jpg</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D53" s="1">
+        <v>71.0</v>
+      </c>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
@@ -30076,10 +30714,19 @@
       <c r="Z53" s="2"/>
     </row>
     <row r="54">
-      <c r="A54" s="2"/>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
+      <c r="A54" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B54" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>marsala.jpg</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D54" s="1">
+        <v>72.0</v>
+      </c>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
@@ -30104,10 +30751,19 @@
       <c r="Z54" s="2"/>
     </row>
     <row r="55">
-      <c r="A55" s="2"/>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
+      <c r="A55" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B55" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>maxi_branco.jpg</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D55" s="1">
+        <v>73.0</v>
+      </c>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
@@ -30132,10 +30788,19 @@
       <c r="Z55" s="2"/>
     </row>
     <row r="56">
-      <c r="A56" s="2"/>
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
+      <c r="A56" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B56" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>metal_champagne.jpg</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D56" s="1">
+        <v>74.0</v>
+      </c>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
@@ -30160,10 +30825,19 @@
       <c r="Z56" s="2"/>
     </row>
     <row r="57">
-      <c r="A57" s="2"/>
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
+      <c r="A57" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B57" s="2" t="str">
+        <f>CONCAT(A57,".png")</f>
+        <v>neblina.png</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D57" s="1">
+        <v>75.0</v>
+      </c>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
@@ -30188,10 +30862,19 @@
       <c r="Z57" s="2"/>
     </row>
     <row r="58">
-      <c r="A58" s="2"/>
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
+      <c r="A58" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B58" s="2" t="str">
+        <f t="shared" ref="B58:B63" si="11">CONCAT(A58,".jpg")</f>
+        <v>nero.jpg</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D58" s="1">
+        <v>76.0</v>
+      </c>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
@@ -30216,10 +30899,19 @@
       <c r="Z58" s="2"/>
     </row>
     <row r="59">
-      <c r="A59" s="2"/>
-      <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
+      <c r="A59" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B59" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>niquel.jpg</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D59" s="1">
+        <v>77.0</v>
+      </c>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
@@ -30244,10 +30936,19 @@
       <c r="Z59" s="2"/>
     </row>
     <row r="60">
-      <c r="A60" s="2"/>
-      <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
+      <c r="A60" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B60" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>nogal_champagne.jpg</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D60" s="1">
+        <v>78.0</v>
+      </c>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
@@ -30272,10 +30973,19 @@
       <c r="Z60" s="2"/>
     </row>
     <row r="61">
-      <c r="A61" s="2"/>
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
+      <c r="A61" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B61" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>nogal_sevilha.jpg</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D61" s="1">
+        <v>79.0</v>
+      </c>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
@@ -30300,10 +31010,19 @@
       <c r="Z61" s="2"/>
     </row>
     <row r="62">
-      <c r="A62" s="2"/>
-      <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
+      <c r="A62" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B62" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>nogueira_ambar.jpg</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D62" s="1">
+        <v>80.0</v>
+      </c>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
@@ -30328,10 +31047,19 @@
       <c r="Z62" s="2"/>
     </row>
     <row r="63">
-      <c r="A63" s="2"/>
-      <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
+      <c r="A63" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B63" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>nogueira_rubi.jpg</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D63" s="1">
+        <v>81.0</v>
+      </c>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
@@ -30356,10 +31084,19 @@
       <c r="Z63" s="2"/>
     </row>
     <row r="64">
-      <c r="A64" s="2"/>
-      <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
+      <c r="A64" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B64" s="2" t="str">
+        <f>CONCAT(A64,".png")</f>
+        <v>noite.png</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D64" s="1">
+        <v>82.0</v>
+      </c>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
@@ -30384,10 +31121,19 @@
       <c r="Z64" s="2"/>
     </row>
     <row r="65">
-      <c r="A65" s="2"/>
-      <c r="B65" s="2"/>
-      <c r="C65" s="2"/>
-      <c r="D65" s="2"/>
+      <c r="A65" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B65" s="2" t="str">
+        <f>CONCAT(A65,".tif")</f>
+        <v>nuvem.tif</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D65" s="1">
+        <v>83.0</v>
+      </c>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
@@ -30412,10 +31158,19 @@
       <c r="Z65" s="2"/>
     </row>
     <row r="66">
-      <c r="A66" s="2"/>
-      <c r="B66" s="2"/>
-      <c r="C66" s="2"/>
-      <c r="D66" s="2"/>
+      <c r="A66" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B66" s="2" t="str">
+        <f t="shared" ref="B66:B69" si="12">CONCAT(A66,".jpg")</f>
+        <v>onix.jpg</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D66" s="1">
+        <v>84.0</v>
+      </c>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
@@ -30440,10 +31195,19 @@
       <c r="Z66" s="2"/>
     </row>
     <row r="67">
-      <c r="A67" s="2"/>
-      <c r="B67" s="2"/>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
+      <c r="A67" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B67" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>pau_ferro.jpg</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D67" s="1">
+        <v>85.0</v>
+      </c>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
@@ -30468,10 +31232,19 @@
       <c r="Z67" s="2"/>
     </row>
     <row r="68">
-      <c r="A68" s="2"/>
-      <c r="B68" s="2"/>
-      <c r="C68" s="2"/>
-      <c r="D68" s="2"/>
+      <c r="A68" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B68" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>peroba.jpg</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D68" s="1">
+        <v>86.0</v>
+      </c>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
@@ -30496,10 +31269,19 @@
       <c r="Z68" s="2"/>
     </row>
     <row r="69">
-      <c r="A69" s="2"/>
-      <c r="B69" s="2"/>
-      <c r="C69" s="2"/>
-      <c r="D69" s="2"/>
+      <c r="A69" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B69" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>petra.jpg</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D69" s="1">
+        <v>87.0</v>
+      </c>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
@@ -30524,10 +31306,19 @@
       <c r="Z69" s="2"/>
     </row>
     <row r="70">
-      <c r="A70" s="2"/>
-      <c r="B70" s="2"/>
-      <c r="C70" s="2"/>
-      <c r="D70" s="2"/>
+      <c r="A70" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B70" s="2" t="str">
+        <f>CONCAT(A70,".png")</f>
+        <v>platina.png</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D70" s="1">
+        <v>88.0</v>
+      </c>
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
@@ -30552,10 +31343,19 @@
       <c r="Z70" s="2"/>
     </row>
     <row r="71">
-      <c r="A71" s="2"/>
-      <c r="B71" s="2"/>
-      <c r="C71" s="2"/>
-      <c r="D71" s="2"/>
+      <c r="A71" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B71" s="2" t="str">
+        <f t="shared" ref="B71:B76" si="13">CONCAT(A71,".jpg")</f>
+        <v>preto_silk.jpg</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D71" s="1">
+        <v>89.0</v>
+      </c>
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
@@ -30580,10 +31380,19 @@
       <c r="Z71" s="2"/>
     </row>
     <row r="72">
-      <c r="A72" s="2"/>
-      <c r="B72" s="2"/>
-      <c r="C72" s="2"/>
-      <c r="D72" s="2"/>
+      <c r="A72" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B72" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>quartzo.jpg</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D72" s="1">
+        <v>90.0</v>
+      </c>
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
@@ -30608,10 +31417,19 @@
       <c r="Z72" s="2"/>
     </row>
     <row r="73">
-      <c r="A73" s="2"/>
-      <c r="B73" s="2"/>
-      <c r="C73" s="2"/>
-      <c r="D73" s="2"/>
+      <c r="A73" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B73" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>rosa_milkshake.jpg</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D73" s="1">
+        <v>91.0</v>
+      </c>
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
@@ -30636,10 +31454,19 @@
       <c r="Z73" s="2"/>
     </row>
     <row r="74">
-      <c r="A74" s="2"/>
-      <c r="B74" s="2"/>
-      <c r="C74" s="2"/>
-      <c r="D74" s="2"/>
+      <c r="A74" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B74" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>salerno.jpg</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D74" s="1">
+        <v>92.0</v>
+      </c>
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
@@ -30664,10 +31491,19 @@
       <c r="Z74" s="2"/>
     </row>
     <row r="75">
-      <c r="A75" s="2"/>
-      <c r="B75" s="2"/>
-      <c r="C75" s="2"/>
-      <c r="D75" s="2"/>
+      <c r="A75" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B75" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>santorini.jpg</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D75" s="1">
+        <v>93.0</v>
+      </c>
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
       <c r="G75" s="2"/>
@@ -30692,10 +31528,19 @@
       <c r="Z75" s="2"/>
     </row>
     <row r="76">
-      <c r="A76" s="2"/>
-      <c r="B76" s="2"/>
-      <c r="C76" s="2"/>
-      <c r="D76" s="2"/>
+      <c r="A76" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B76" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>savana.jpg</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D76" s="1">
+        <v>94.0</v>
+      </c>
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
       <c r="G76" s="2"/>
@@ -30720,10 +31565,19 @@
       <c r="Z76" s="2"/>
     </row>
     <row r="77">
-      <c r="A77" s="2"/>
-      <c r="B77" s="2"/>
-      <c r="C77" s="2"/>
-      <c r="D77" s="2"/>
+      <c r="A77" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B77" s="2" t="str">
+        <f>CONCAT(A77,".tif")</f>
+        <v>sonora.tif</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D77" s="1">
+        <v>95.0</v>
+      </c>
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
       <c r="G77" s="2"/>
@@ -30748,10 +31602,19 @@
       <c r="Z77" s="2"/>
     </row>
     <row r="78">
-      <c r="A78" s="2"/>
-      <c r="B78" s="2"/>
-      <c r="C78" s="2"/>
-      <c r="D78" s="2"/>
+      <c r="A78" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B78" s="2" t="str">
+        <f>CONCAT(A78,".jpg")</f>
+        <v>tauari.jpg</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D78" s="1">
+        <v>96.0</v>
+      </c>
       <c r="E78" s="2"/>
       <c r="F78" s="2"/>
       <c r="G78" s="2"/>
@@ -30776,10 +31639,19 @@
       <c r="Z78" s="2"/>
     </row>
     <row r="79">
-      <c r="A79" s="2"/>
-      <c r="B79" s="2"/>
-      <c r="C79" s="2"/>
-      <c r="D79" s="2"/>
+      <c r="A79" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B79" s="2" t="str">
+        <f t="shared" ref="B79:B81" si="14">CONCAT(A79,".png")</f>
+        <v>tauari_ripado.png</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D79" s="1">
+        <v>97.0</v>
+      </c>
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
       <c r="G79" s="2"/>
@@ -30804,10 +31676,19 @@
       <c r="Z79" s="2"/>
     </row>
     <row r="80">
-      <c r="A80" s="2"/>
-      <c r="B80" s="2"/>
-      <c r="C80" s="2"/>
-      <c r="D80" s="2"/>
+      <c r="A80" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B80" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>tear.png</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D80" s="1">
+        <v>98.0</v>
+      </c>
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
       <c r="G80" s="2"/>
@@ -30832,10 +31713,19 @@
       <c r="Z80" s="2"/>
     </row>
     <row r="81">
-      <c r="A81" s="2"/>
-      <c r="B81" s="2"/>
-      <c r="C81" s="2"/>
-      <c r="D81" s="2"/>
+      <c r="A81" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B81" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>tecno.png</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D81" s="1">
+        <v>99.0</v>
+      </c>
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
@@ -30860,10 +31750,19 @@
       <c r="Z81" s="2"/>
     </row>
     <row r="82">
-      <c r="A82" s="2"/>
-      <c r="B82" s="2"/>
-      <c r="C82" s="2"/>
-      <c r="D82" s="2"/>
+      <c r="A82" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B82" s="2" t="str">
+        <f t="shared" ref="B82:B83" si="15">CONCAT(A82,".jpg")</f>
+        <v>teka_bianco.jpg</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D82" s="1">
+        <v>100.0</v>
+      </c>
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
       <c r="G82" s="2"/>
@@ -30888,10 +31787,19 @@
       <c r="Z82" s="2"/>
     </row>
     <row r="83">
-      <c r="A83" s="2"/>
-      <c r="B83" s="2"/>
-      <c r="C83" s="2"/>
-      <c r="D83" s="2"/>
+      <c r="A83" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B83" s="2" t="str">
+        <f t="shared" si="15"/>
+        <v>tela.jpg</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D83" s="1">
+        <v>101.0</v>
+      </c>
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
       <c r="G83" s="2"/>
@@ -30916,10 +31824,19 @@
       <c r="Z83" s="2"/>
     </row>
     <row r="84">
-      <c r="A84" s="2"/>
-      <c r="B84" s="2"/>
-      <c r="C84" s="2"/>
-      <c r="D84" s="2"/>
+      <c r="A84" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B84" s="2" t="str">
+        <f>CONCAT(A84,".png")</f>
+        <v>terrino.png</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D84" s="1">
+        <v>102.0</v>
+      </c>
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
@@ -30944,10 +31861,19 @@
       <c r="Z84" s="2"/>
     </row>
     <row r="85">
-      <c r="A85" s="2"/>
-      <c r="B85" s="2"/>
-      <c r="C85" s="2"/>
-      <c r="D85" s="2"/>
+      <c r="A85" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B85" s="2" t="str">
+        <f>CONCAT(A85,".jpg")</f>
+        <v>tijolo.jpg</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D85" s="1">
+        <v>103.0</v>
+      </c>
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
       <c r="G85" s="2"/>

--- a/dados.xlsx
+++ b/dados.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="121">
   <si>
     <t>objeto</t>
   </si>
@@ -95,10 +95,16 @@
     <t>azul_petroleo.jpg</t>
   </si>
   <si>
+    <t>solidas</t>
+  </si>
+  <si>
     <t>cipres</t>
   </si>
   <si>
     <t>cipres.jpg</t>
+  </si>
+  <si>
+    <t>amadeiradas</t>
   </si>
   <si>
     <t>black_metal</t>
@@ -143,6 +149,9 @@
     <t>antiqua</t>
   </si>
   <si>
+    <t>antuerpia</t>
+  </si>
+  <si>
     <t>araucaria</t>
   </si>
   <si>
@@ -164,6 +173,9 @@
     <t>bilbao</t>
   </si>
   <si>
+    <t>branco</t>
+  </si>
+  <si>
     <t>branco_iceland</t>
   </si>
   <si>
@@ -171,6 +183,9 @@
   </si>
   <si>
     <t>bronzina</t>
+  </si>
+  <si>
+    <t>diversas</t>
   </si>
   <si>
     <t>capuccino</t>
@@ -681,9 +696,7 @@
       <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="1">
-        <v>10.0</v>
-      </c>
+      <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="2"/>
@@ -717,9 +730,7 @@
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="1">
-        <v>11.0</v>
-      </c>
+      <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="2"/>
@@ -754,7 +765,7 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="1">
-        <v>12.0</v>
+        <v>180.0</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -789,9 +800,7 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="1">
-        <v>13.0</v>
-      </c>
+      <c r="F5" s="1"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -827,9 +836,7 @@
       <c r="E6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="1">
-        <v>14.0</v>
-      </c>
+      <c r="F6" s="1"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -866,7 +873,7 @@
         <v>8</v>
       </c>
       <c r="F7" s="1">
-        <v>15.0</v>
+        <v>180.0</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -902,7 +909,7 @@
         <v>8</v>
       </c>
       <c r="F8" s="1">
-        <v>16.0</v>
+        <v>0.2</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -938,7 +945,7 @@
         <v>8</v>
       </c>
       <c r="F9" s="1">
-        <v>17.0</v>
+        <v>1.2</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -974,7 +981,7 @@
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1">
-        <v>18.0</v>
+        <v>160.0</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -1010,7 +1017,7 @@
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="1">
-        <v>19.0</v>
+        <v>160.0</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -1048,7 +1055,7 @@
         <v>8</v>
       </c>
       <c r="F12" s="1">
-        <v>20.0</v>
+        <v>150.0</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -1084,7 +1091,7 @@
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="1">
-        <v>21.0</v>
+        <v>150.0</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -28808,10 +28815,10 @@
         <v>26</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="D2" s="1">
-        <v>20.0</v>
+        <v>360.0</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -28838,16 +28845,16 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D3" s="1">
-        <v>21.0</v>
+        <v>361.0</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -28874,17 +28881,15 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="1">
-        <v>22.0</v>
-      </c>
+      <c r="D4" s="1"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -28910,17 +28915,15 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="1">
-        <v>23.0</v>
-      </c>
+      <c r="D5" s="1"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -28946,15 +28949,13 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C6" s="1"/>
-      <c r="D6" s="1">
-        <v>24.0</v>
-      </c>
+      <c r="D6" s="1"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -28980,15 +28981,13 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C7" s="1"/>
-      <c r="D7" s="1">
-        <v>25.0</v>
-      </c>
+      <c r="D7" s="1"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -29014,17 +29013,15 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="1">
-        <v>26.0</v>
-      </c>
+      <c r="D8" s="1"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -29050,17 +29047,17 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B9" s="2" t="str">
-        <f t="shared" ref="B9:B12" si="1">CONCAT(A9,".jpg")</f>
+        <f t="shared" ref="B9:B13" si="1">CONCAT(A9,".jpg")</f>
         <v>alabama.jpg</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D9" s="1">
-        <v>27.0</v>
+        <v>367.0</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -29087,17 +29084,17 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B10" s="2" t="str">
         <f t="shared" si="1"/>
         <v>alecrim.jpg</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="D10" s="1">
-        <v>28.0</v>
+        <v>368.0</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -29124,17 +29121,17 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B11" s="2" t="str">
         <f t="shared" si="1"/>
         <v>ametista.jpg</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="D11" s="1">
-        <v>29.0</v>
+        <v>369.0</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -29161,17 +29158,17 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B12" s="2" t="str">
         <f t="shared" si="1"/>
         <v>antiqua.jpg</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D12" s="1">
-        <v>30.0</v>
+        <v>370.0</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -29198,17 +29195,17 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B13" s="2" t="str">
-        <f>CONCAT(A13,".png")</f>
-        <v>araucaria.png</v>
+        <f t="shared" si="1"/>
+        <v>antuerpia.jpg</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D13" s="1">
-        <v>31.0</v>
+        <v>362.0</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -29235,17 +29232,17 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B14" s="2" t="str">
-        <f>CONCAT(A14,".jpg")</f>
-        <v>areia.jpg</v>
+        <f>CONCAT(A14,".png")</f>
+        <v>araucaria.png</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D14" s="1">
-        <v>32.0</v>
+        <v>371.0</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -29272,17 +29269,17 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B15" s="2" t="str">
-        <f t="shared" ref="B15:B16" si="2">CONCAT(A15,".png")</f>
-        <v>aura.png</v>
+        <f>CONCAT(A15,".jpg")</f>
+        <v>areia.jpg</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="D15" s="1">
-        <v>33.0</v>
+        <v>372.0</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -29309,17 +29306,17 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B16" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>azul_ardosia.png</v>
+        <f t="shared" ref="B16:B17" si="2">CONCAT(A16,".png")</f>
+        <v>aura.png</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="D16" s="1">
-        <v>34.0</v>
+        <v>373.0</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -29346,17 +29343,17 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B17" s="2" t="str">
-        <f t="shared" ref="B17:B20" si="3">CONCAT(A17,".jpg")</f>
-        <v>azul_marinho.jpg</v>
+        <f t="shared" si="2"/>
+        <v>azul_ardosia.png</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="D17" s="1">
-        <v>35.0</v>
+        <v>374.0</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -29383,17 +29380,17 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B18" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>baviera.jpg</v>
+        <f t="shared" ref="B18:B22" si="3">CONCAT(A18,".jpg")</f>
+        <v>azul_marinho.jpg</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="D18" s="1">
-        <v>36.0</v>
+        <v>375.0</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -29420,17 +29417,17 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B19" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>bilbao.jpg</v>
+        <v>baviera.jpg</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D19" s="1">
-        <v>37.0</v>
+        <v>376.0</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -29457,17 +29454,17 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B20" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>branco_iceland.jpg</v>
+        <v>bilbao.jpg</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D20" s="1">
-        <v>38.0</v>
+        <v>377.0</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -29494,17 +29491,17 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B21" s="2" t="str">
-        <f>CONCAT(A21,".tif")</f>
-        <v>brisa.tif</v>
+        <f t="shared" si="3"/>
+        <v>branco.jpg</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="D21" s="1">
-        <v>39.0</v>
+        <v>363.0</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
@@ -29531,17 +29528,17 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B22" s="2" t="str">
-        <f t="shared" ref="B22:B26" si="4">CONCAT(A22,".jpg")</f>
-        <v>bronzina.jpg</v>
+        <f t="shared" si="3"/>
+        <v>branco_iceland.jpg</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="D22" s="1">
-        <v>40.0</v>
+        <v>378.0</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
@@ -29568,17 +29565,17 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B23" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>capuccino.jpg</v>
+        <f>CONCAT(A23,".tif")</f>
+        <v>brisa.tif</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="D23" s="1">
-        <v>41.0</v>
+        <v>379.0</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
@@ -29605,17 +29602,17 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B24" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>caribe.jpg</v>
+        <f t="shared" ref="B24:B28" si="4">CONCAT(A24,".jpg")</f>
+        <v>bronzina.jpg</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="D24" s="1">
-        <v>42.0</v>
+        <v>380.0</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
@@ -29642,17 +29639,17 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B25" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>carvalho_capri.jpg</v>
+        <v>capuccino.jpg</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="D25" s="1">
-        <v>43.0</v>
+        <v>381.0</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
@@ -29679,17 +29676,17 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B26" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>carvalho_natural.jpg</v>
+        <v>caribe.jpg</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D26" s="1">
-        <v>44.0</v>
+        <v>382.0</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
@@ -29716,17 +29713,17 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B27" s="2" t="str">
-        <f>CONCAT(A27,".png")</f>
-        <v>cinza_perfeito.png</v>
+        <f t="shared" si="4"/>
+        <v>carvalho_capri.jpg</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D27" s="1">
-        <v>45.0</v>
+        <v>383.0</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
@@ -29753,17 +29750,17 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B28" s="2" t="str">
-        <f t="shared" ref="B28:B31" si="5">CONCAT(A28,".jpg")</f>
-        <v>cinza_urban.jpg</v>
+        <f t="shared" si="4"/>
+        <v>carvalho_natural.jpg</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D28" s="1">
-        <v>46.0</v>
+        <v>384.0</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
@@ -29790,17 +29787,17 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B29" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>cobre.jpg</v>
+        <f>CONCAT(A29,".png")</f>
+        <v>cinza_perfeito.png</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="D29" s="1">
-        <v>47.0</v>
+        <v>385.0</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
@@ -29827,17 +29824,17 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B30" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>corten.jpg</v>
+        <f t="shared" ref="B30:B33" si="5">CONCAT(A30,".jpg")</f>
+        <v>cinza_urban.jpg</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="D30" s="1">
-        <v>48.0</v>
+        <v>386.0</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
@@ -29864,17 +29861,17 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B31" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>cosmos.jpg</v>
+        <v>cobre.jpg</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="D31" s="1">
-        <v>49.0</v>
+        <v>387.0</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
@@ -29901,17 +29898,17 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B32" s="2" t="str">
-        <f>CONCAT(A32,".tif")</f>
-        <v>cromio.tif</v>
+        <f t="shared" si="5"/>
+        <v>corten.jpg</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="D32" s="1">
-        <v>50.0</v>
+        <v>388.0</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
@@ -29938,17 +29935,17 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B33" s="2" t="str">
-        <f>CONCAT(A33,".jpg")</f>
-        <v>curupixa.jpg</v>
+        <f t="shared" si="5"/>
+        <v>cosmos.jpg</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="D33" s="1">
-        <v>51.0</v>
+        <v>389.0</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
@@ -29975,17 +29972,17 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B34" s="2" t="str">
-        <f t="shared" ref="B34:B35" si="6">CONCAT(A34,".png")</f>
-        <v>curupixa_ripado.png</v>
+        <f>CONCAT(A34,".tif")</f>
+        <v>cromio.tif</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="D34" s="1">
-        <v>52.0</v>
+        <v>390.0</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
@@ -30012,17 +30009,17 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B35" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>erva_mate.png</v>
+        <f>CONCAT(A35,".jpg")</f>
+        <v>curupixa.jpg</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D35" s="1">
-        <v>53.0</v>
+        <v>391.0</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
@@ -30049,17 +30046,17 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B36" s="2" t="str">
-        <f t="shared" ref="B36:B42" si="7">CONCAT(A36,".jpg")</f>
-        <v>fendi.jpg</v>
+        <f t="shared" ref="B36:B37" si="6">CONCAT(A36,".png")</f>
+        <v>curupixa_ripado.png</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D36" s="1">
-        <v>54.0</v>
+        <v>392.0</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
@@ -30086,17 +30083,17 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B37" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>fontana.jpg</v>
+        <f t="shared" si="6"/>
+        <v>erva_mate.png</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="D37" s="1">
-        <v>55.0</v>
+        <v>393.0</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
@@ -30123,17 +30120,17 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B38" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>freijo.jpg</v>
+        <f t="shared" ref="B38:B44" si="7">CONCAT(A38,".jpg")</f>
+        <v>fendi.jpg</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="D38" s="1">
-        <v>56.0</v>
+        <v>394.0</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
@@ -30160,17 +30157,17 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B39" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>fresno_acores.jpg</v>
+        <v>fontana.jpg</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="D39" s="1">
-        <v>57.0</v>
+        <v>395.0</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
@@ -30197,17 +30194,17 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B40" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>fresno_aveiro.jpg</v>
+        <v>freijo.jpg</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D40" s="1">
-        <v>58.0</v>
+        <v>396.0</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
@@ -30234,17 +30231,17 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B41" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>fresno_coimbra.jpg</v>
+        <v>fresno_acores.jpg</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D41" s="1">
-        <v>59.0</v>
+        <v>397.0</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
@@ -30271,17 +30268,17 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B42" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>fresno_madeira.jpg</v>
+        <v>fresno_aveiro.jpg</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D42" s="1">
-        <v>60.0</v>
+        <v>398.0</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
@@ -30308,17 +30305,17 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B43" s="2" t="str">
-        <f>CONCAT(A43,".png")</f>
-        <v>gali.png</v>
+        <f t="shared" si="7"/>
+        <v>fresno_coimbra.jpg</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D43" s="1">
-        <v>61.0</v>
+        <v>399.0</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
@@ -30345,17 +30342,17 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B44" s="2" t="str">
-        <f t="shared" ref="B44:B45" si="8">CONCAT(A44,".jpg")</f>
-        <v>grafite.jpg</v>
+        <f t="shared" si="7"/>
+        <v>fresno_madeira.jpg</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D44" s="1">
-        <v>62.0</v>
+        <v>400.0</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
@@ -30382,17 +30379,17 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B45" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>imbuia.jpg</v>
+        <f>CONCAT(A45,".png")</f>
+        <v>gali.png</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="D45" s="1">
-        <v>63.0</v>
+        <v>401.0</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
@@ -30419,17 +30416,17 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B46" s="2" t="str">
-        <f>CONCAT(A46,".png")</f>
-        <v>jaspe.png</v>
+        <f t="shared" ref="B46:B47" si="8">CONCAT(A46,".jpg")</f>
+        <v>grafite.jpg</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="D46" s="1">
-        <v>64.0</v>
+        <v>402.0</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
@@ -30456,17 +30453,17 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B47" s="2" t="str">
-        <f>CONCAT(A47,".jpg")</f>
-        <v>lisboa.jpg</v>
+        <f t="shared" si="8"/>
+        <v>imbuia.jpg</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D47" s="1">
-        <v>65.0</v>
+        <v>403.0</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
@@ -30493,17 +30490,17 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B48" s="2" t="str">
-        <f>CONCAT(A48,".tif")</f>
-        <v>lume.tif</v>
+        <f>CONCAT(A48,".png")</f>
+        <v>jaspe.png</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="D48" s="1">
-        <v>66.0</v>
+        <v>404.0</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
@@ -30530,17 +30527,17 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B49" s="2" t="str">
-        <f t="shared" ref="B49:B52" si="9">CONCAT(A49,".png")</f>
-        <v>mageo_carvalho.png</v>
+        <f>CONCAT(A49,".jpg")</f>
+        <v>lisboa.jpg</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D49" s="1">
-        <v>67.0</v>
+        <v>405.0</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
@@ -30567,17 +30564,17 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B50" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>mageo_imbuia.png</v>
+        <f>CONCAT(A50,".tif")</f>
+        <v>lume.tif</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="D50" s="1">
-        <v>68.0</v>
+        <v>406.0</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
@@ -30604,17 +30601,17 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B51" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>mageo_mel.png</v>
+        <f t="shared" ref="B51:B54" si="9">CONCAT(A51,".png")</f>
+        <v>mageo_carvalho.png</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="D51" s="1">
-        <v>69.0</v>
+        <v>407.0</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
@@ -30641,17 +30638,17 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B52" s="2" t="str">
         <f t="shared" si="9"/>
-        <v>mangue.png</v>
+        <v>mageo_imbuia.png</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="D52" s="1">
-        <v>70.0</v>
+        <v>408.0</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
@@ -30678,17 +30675,17 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B53" s="2" t="str">
-        <f t="shared" ref="B53:B56" si="10">CONCAT(A53,".jpg")</f>
-        <v>marmo.jpg</v>
+        <f t="shared" si="9"/>
+        <v>mageo_mel.png</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="D53" s="1">
-        <v>71.0</v>
+        <v>409.0</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
@@ -30715,17 +30712,17 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B54" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>marsala.jpg</v>
+        <f t="shared" si="9"/>
+        <v>mangue.png</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="D54" s="1">
-        <v>72.0</v>
+        <v>410.0</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
@@ -30752,17 +30749,17 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B55" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>maxi_branco.jpg</v>
+        <f t="shared" ref="B55:B58" si="10">CONCAT(A55,".jpg")</f>
+        <v>marmo.jpg</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="D55" s="1">
-        <v>73.0</v>
+        <v>411.0</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
@@ -30789,17 +30786,17 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B56" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>metal_champagne.jpg</v>
+        <v>marsala.jpg</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="D56" s="1">
-        <v>74.0</v>
+        <v>412.0</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
@@ -30826,17 +30823,17 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B57" s="2" t="str">
-        <f>CONCAT(A57,".png")</f>
-        <v>neblina.png</v>
+        <f t="shared" si="10"/>
+        <v>maxi_branco.jpg</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="D57" s="1">
-        <v>75.0</v>
+        <v>413.0</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
@@ -30863,17 +30860,17 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B58" s="2" t="str">
-        <f t="shared" ref="B58:B63" si="11">CONCAT(A58,".jpg")</f>
-        <v>nero.jpg</v>
+        <f t="shared" si="10"/>
+        <v>metal_champagne.jpg</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="D58" s="1">
-        <v>76.0</v>
+        <v>414.0</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
@@ -30900,17 +30897,17 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B59" s="2" t="str">
-        <f t="shared" si="11"/>
-        <v>niquel.jpg</v>
+        <f>CONCAT(A59,".png")</f>
+        <v>neblina.png</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="D59" s="1">
-        <v>77.0</v>
+        <v>415.0</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
@@ -30937,17 +30934,17 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B60" s="2" t="str">
-        <f t="shared" si="11"/>
-        <v>nogal_champagne.jpg</v>
+        <f t="shared" ref="B60:B65" si="11">CONCAT(A60,".jpg")</f>
+        <v>nero.jpg</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D60" s="1">
-        <v>78.0</v>
+        <v>416.0</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
@@ -30974,17 +30971,17 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B61" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>nogal_sevilha.jpg</v>
+        <v>niquel.jpg</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="D61" s="1">
-        <v>79.0</v>
+        <v>417.0</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
@@ -31011,17 +31008,17 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B62" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>nogueira_ambar.jpg</v>
+        <v>nogal_champagne.jpg</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D62" s="1">
-        <v>80.0</v>
+        <v>418.0</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
@@ -31048,17 +31045,17 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B63" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>nogueira_rubi.jpg</v>
+        <v>nogal_sevilha.jpg</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D63" s="1">
-        <v>81.0</v>
+        <v>419.0</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
@@ -31085,17 +31082,17 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B64" s="2" t="str">
-        <f>CONCAT(A64,".png")</f>
-        <v>noite.png</v>
+        <f t="shared" si="11"/>
+        <v>nogueira_ambar.jpg</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D64" s="1">
-        <v>82.0</v>
+        <v>420.0</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
@@ -31122,17 +31119,17 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B65" s="2" t="str">
-        <f>CONCAT(A65,".tif")</f>
-        <v>nuvem.tif</v>
+        <f t="shared" si="11"/>
+        <v>nogueira_rubi.jpg</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D65" s="1">
-        <v>83.0</v>
+        <v>421.0</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
@@ -31159,17 +31156,17 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B66" s="2" t="str">
-        <f t="shared" ref="B66:B69" si="12">CONCAT(A66,".jpg")</f>
-        <v>onix.jpg</v>
+        <f>CONCAT(A66,".png")</f>
+        <v>noite.png</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="D66" s="1">
-        <v>84.0</v>
+        <v>422.0</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
@@ -31196,17 +31193,17 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B67" s="2" t="str">
-        <f t="shared" si="12"/>
-        <v>pau_ferro.jpg</v>
+        <f>CONCAT(A67,".tif")</f>
+        <v>nuvem.tif</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="D67" s="1">
-        <v>85.0</v>
+        <v>423.0</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
@@ -31233,17 +31230,17 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B68" s="2" t="str">
-        <f t="shared" si="12"/>
-        <v>peroba.jpg</v>
+        <f t="shared" ref="B68:B71" si="12">CONCAT(A68,".jpg")</f>
+        <v>onix.jpg</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="D68" s="1">
-        <v>86.0</v>
+        <v>424.0</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
@@ -31270,17 +31267,17 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B69" s="2" t="str">
         <f t="shared" si="12"/>
-        <v>petra.jpg</v>
+        <v>pau_ferro.jpg</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D69" s="1">
-        <v>87.0</v>
+        <v>425.0</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
@@ -31307,17 +31304,17 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B70" s="2" t="str">
-        <f>CONCAT(A70,".png")</f>
-        <v>platina.png</v>
+        <f t="shared" si="12"/>
+        <v>peroba.jpg</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D70" s="1">
-        <v>88.0</v>
+        <v>426.0</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
@@ -31344,17 +31341,17 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B71" s="2" t="str">
-        <f t="shared" ref="B71:B76" si="13">CONCAT(A71,".jpg")</f>
-        <v>preto_silk.jpg</v>
+        <f t="shared" si="12"/>
+        <v>petra.jpg</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="D71" s="1">
-        <v>89.0</v>
+        <v>427.0</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
@@ -31381,17 +31378,17 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B72" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v>quartzo.jpg</v>
+        <f>CONCAT(A72,".png")</f>
+        <v>platina.png</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="D72" s="1">
-        <v>90.0</v>
+        <v>428.0</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
@@ -31418,17 +31415,17 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B73" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v>rosa_milkshake.jpg</v>
+        <f t="shared" ref="B73:B78" si="13">CONCAT(A73,".jpg")</f>
+        <v>preto_silk.jpg</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="D73" s="1">
-        <v>91.0</v>
+        <v>429.0</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
@@ -31455,17 +31452,17 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B74" s="2" t="str">
         <f t="shared" si="13"/>
-        <v>salerno.jpg</v>
+        <v>quartzo.jpg</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="D74" s="1">
-        <v>92.0</v>
+        <v>430.0</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
@@ -31492,17 +31489,17 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B75" s="2" t="str">
         <f t="shared" si="13"/>
-        <v>santorini.jpg</v>
+        <v>rosa_milkshake.jpg</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="D75" s="1">
-        <v>93.0</v>
+        <v>431.0</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
@@ -31529,17 +31526,17 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B76" s="2" t="str">
         <f t="shared" si="13"/>
-        <v>savana.jpg</v>
+        <v>salerno.jpg</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D76" s="1">
-        <v>94.0</v>
+        <v>432.0</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
@@ -31566,17 +31563,17 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B77" s="2" t="str">
-        <f>CONCAT(A77,".tif")</f>
-        <v>sonora.tif</v>
+        <f t="shared" si="13"/>
+        <v>santorini.jpg</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="D77" s="1">
-        <v>95.0</v>
+        <v>433.0</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
@@ -31603,17 +31600,17 @@
     </row>
     <row r="78">
       <c r="A78" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B78" s="2" t="str">
-        <f>CONCAT(A78,".jpg")</f>
-        <v>tauari.jpg</v>
+        <f t="shared" si="13"/>
+        <v>savana.jpg</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D78" s="1">
-        <v>96.0</v>
+        <v>434.0</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" s="2"/>
@@ -31640,17 +31637,17 @@
     </row>
     <row r="79">
       <c r="A79" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B79" s="2" t="str">
-        <f t="shared" ref="B79:B81" si="14">CONCAT(A79,".png")</f>
-        <v>tauari_ripado.png</v>
+        <f>CONCAT(A79,".tif")</f>
+        <v>sonora.tif</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D79" s="1">
-        <v>97.0</v>
+        <v>435.0</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
@@ -31677,17 +31674,17 @@
     </row>
     <row r="80">
       <c r="A80" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B80" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>tear.png</v>
+        <f>CONCAT(A80,".jpg")</f>
+        <v>tauari.jpg</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D80" s="1">
-        <v>98.0</v>
+        <v>436.0</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
@@ -31714,17 +31711,17 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B81" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>tecno.png</v>
+        <f t="shared" ref="B81:B83" si="14">CONCAT(A81,".png")</f>
+        <v>tauari_ripado.png</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D81" s="1">
-        <v>99.0</v>
+        <v>437.0</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
@@ -31751,17 +31748,17 @@
     </row>
     <row r="82">
       <c r="A82" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B82" s="2" t="str">
-        <f t="shared" ref="B82:B83" si="15">CONCAT(A82,".jpg")</f>
-        <v>teka_bianco.jpg</v>
+        <f t="shared" si="14"/>
+        <v>tear.png</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="D82" s="1">
-        <v>100.0</v>
+        <v>438.0</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
@@ -31788,17 +31785,17 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B83" s="2" t="str">
-        <f t="shared" si="15"/>
-        <v>tela.jpg</v>
+        <f t="shared" si="14"/>
+        <v>tecno.png</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="D83" s="1">
-        <v>101.0</v>
+        <v>439.0</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
@@ -31825,17 +31822,17 @@
     </row>
     <row r="84">
       <c r="A84" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B84" s="2" t="str">
-        <f>CONCAT(A84,".png")</f>
-        <v>terrino.png</v>
+        <f t="shared" ref="B84:B85" si="15">CONCAT(A84,".jpg")</f>
+        <v>teka_bianco.jpg</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D84" s="1">
-        <v>102.0</v>
+        <v>440.0</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
@@ -31862,17 +31859,17 @@
     </row>
     <row r="85">
       <c r="A85" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B85" s="2" t="str">
-        <f>CONCAT(A85,".jpg")</f>
-        <v>tijolo.jpg</v>
+        <f t="shared" si="15"/>
+        <v>tela.jpg</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="D85" s="1">
-        <v>103.0</v>
+        <v>441.0</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
@@ -31898,10 +31895,19 @@
       <c r="Z85" s="2"/>
     </row>
     <row r="86">
-      <c r="A86" s="2"/>
-      <c r="B86" s="2"/>
-      <c r="C86" s="2"/>
-      <c r="D86" s="2"/>
+      <c r="A86" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B86" s="2" t="str">
+        <f>CONCAT(A86,".png")</f>
+        <v>terrino.png</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D86" s="1">
+        <v>442.0</v>
+      </c>
       <c r="E86" s="2"/>
       <c r="F86" s="2"/>
       <c r="G86" s="2"/>
@@ -31926,10 +31932,19 @@
       <c r="Z86" s="2"/>
     </row>
     <row r="87">
-      <c r="A87" s="2"/>
-      <c r="B87" s="2"/>
-      <c r="C87" s="2"/>
-      <c r="D87" s="2"/>
+      <c r="A87" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B87" s="2" t="str">
+        <f>CONCAT(A87,".jpg")</f>
+        <v>tijolo.jpg</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D87" s="1">
+        <v>443.0</v>
+      </c>
       <c r="E87" s="2"/>
       <c r="F87" s="2"/>
       <c r="G87" s="2"/>
@@ -57517,6 +57532,62 @@
       <c r="Y1000" s="2"/>
       <c r="Z1000" s="2"/>
     </row>
+    <row r="1001">
+      <c r="A1001" s="2"/>
+      <c r="B1001" s="2"/>
+      <c r="C1001" s="2"/>
+      <c r="D1001" s="2"/>
+      <c r="E1001" s="2"/>
+      <c r="F1001" s="2"/>
+      <c r="G1001" s="2"/>
+      <c r="H1001" s="2"/>
+      <c r="I1001" s="2"/>
+      <c r="J1001" s="2"/>
+      <c r="K1001" s="2"/>
+      <c r="L1001" s="2"/>
+      <c r="M1001" s="2"/>
+      <c r="N1001" s="2"/>
+      <c r="O1001" s="2"/>
+      <c r="P1001" s="2"/>
+      <c r="Q1001" s="2"/>
+      <c r="R1001" s="2"/>
+      <c r="S1001" s="2"/>
+      <c r="T1001" s="2"/>
+      <c r="U1001" s="2"/>
+      <c r="V1001" s="2"/>
+      <c r="W1001" s="2"/>
+      <c r="X1001" s="2"/>
+      <c r="Y1001" s="2"/>
+      <c r="Z1001" s="2"/>
+    </row>
+    <row r="1002">
+      <c r="A1002" s="2"/>
+      <c r="B1002" s="2"/>
+      <c r="C1002" s="2"/>
+      <c r="D1002" s="2"/>
+      <c r="E1002" s="2"/>
+      <c r="F1002" s="2"/>
+      <c r="G1002" s="2"/>
+      <c r="H1002" s="2"/>
+      <c r="I1002" s="2"/>
+      <c r="J1002" s="2"/>
+      <c r="K1002" s="2"/>
+      <c r="L1002" s="2"/>
+      <c r="M1002" s="2"/>
+      <c r="N1002" s="2"/>
+      <c r="O1002" s="2"/>
+      <c r="P1002" s="2"/>
+      <c r="Q1002" s="2"/>
+      <c r="R1002" s="2"/>
+      <c r="S1002" s="2"/>
+      <c r="T1002" s="2"/>
+      <c r="U1002" s="2"/>
+      <c r="V1002" s="2"/>
+      <c r="W1002" s="2"/>
+      <c r="X1002" s="2"/>
+      <c r="Y1002" s="2"/>
+      <c r="Z1002" s="2"/>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/dados.xlsx
+++ b/dados.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="122">
   <si>
     <t>objeto</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>grupo_destino</t>
+  </si>
+  <si>
+    <t>inicial</t>
   </si>
   <si>
     <t>azul_petroleo</t>
@@ -28784,7 +28787,9 @@
       <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="2"/>
+      <c r="E1" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -28809,18 +28814,18 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D2" s="1">
         <v>360.0</v>
       </c>
-      <c r="E2" s="2"/>
+      <c r="E2" s="1"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -28845,13 +28850,13 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D3" s="1">
         <v>361.0</v>
@@ -28881,16 +28886,16 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="1"/>
-      <c r="E4" s="2"/>
+      <c r="E4" s="1"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -28915,16 +28920,18 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="2"/>
+      <c r="E5" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -28949,10 +28956,10 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -28981,14 +28988,16 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="2"/>
+      <c r="E7" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -29013,16 +29022,18 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="1"/>
-      <c r="E8" s="2"/>
+      <c r="E8" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -29047,14 +29058,14 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B9" s="2" t="str">
         <f t="shared" ref="B9:B13" si="1">CONCAT(A9,".jpg")</f>
         <v>alabama.jpg</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D9" s="1">
         <v>367.0</v>
@@ -29084,14 +29095,14 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B10" s="2" t="str">
         <f t="shared" si="1"/>
         <v>alecrim.jpg</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D10" s="1">
         <v>368.0</v>
@@ -29121,14 +29132,14 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B11" s="2" t="str">
         <f t="shared" si="1"/>
         <v>ametista.jpg</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D11" s="1">
         <v>369.0</v>
@@ -29158,14 +29169,14 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B12" s="2" t="str">
         <f t="shared" si="1"/>
         <v>antiqua.jpg</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D12" s="1">
         <v>370.0</v>
@@ -29195,14 +29206,14 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B13" s="2" t="str">
         <f t="shared" si="1"/>
         <v>antuerpia.jpg</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D13" s="1">
         <v>362.0</v>
@@ -29232,14 +29243,14 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B14" s="2" t="str">
         <f>CONCAT(A14,".png")</f>
         <v>araucaria.png</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D14" s="1">
         <v>371.0</v>
@@ -29269,14 +29280,14 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B15" s="2" t="str">
         <f>CONCAT(A15,".jpg")</f>
         <v>areia.jpg</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D15" s="1">
         <v>372.0</v>
@@ -29306,14 +29317,14 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B16" s="2" t="str">
         <f t="shared" ref="B16:B17" si="2">CONCAT(A16,".png")</f>
         <v>aura.png</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D16" s="1">
         <v>373.0</v>
@@ -29343,14 +29354,14 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B17" s="2" t="str">
         <f t="shared" si="2"/>
         <v>azul_ardosia.png</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D17" s="1">
         <v>374.0</v>
@@ -29380,14 +29391,14 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B18" s="2" t="str">
         <f t="shared" ref="B18:B22" si="3">CONCAT(A18,".jpg")</f>
         <v>azul_marinho.jpg</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D18" s="1">
         <v>375.0</v>
@@ -29417,14 +29428,14 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B19" s="2" t="str">
         <f t="shared" si="3"/>
         <v>baviera.jpg</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D19" s="1">
         <v>376.0</v>
@@ -29454,14 +29465,14 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B20" s="2" t="str">
         <f t="shared" si="3"/>
         <v>bilbao.jpg</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D20" s="1">
         <v>377.0</v>
@@ -29491,14 +29502,14 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B21" s="2" t="str">
         <f t="shared" si="3"/>
         <v>branco.jpg</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D21" s="1">
         <v>363.0</v>
@@ -29528,14 +29539,14 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B22" s="2" t="str">
         <f t="shared" si="3"/>
         <v>branco_iceland.jpg</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D22" s="1">
         <v>378.0</v>
@@ -29565,14 +29576,14 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B23" s="2" t="str">
         <f>CONCAT(A23,".tif")</f>
         <v>brisa.tif</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D23" s="1">
         <v>379.0</v>
@@ -29602,14 +29613,14 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B24" s="2" t="str">
         <f t="shared" ref="B24:B28" si="4">CONCAT(A24,".jpg")</f>
         <v>bronzina.jpg</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D24" s="1">
         <v>380.0</v>
@@ -29639,14 +29650,14 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B25" s="2" t="str">
         <f t="shared" si="4"/>
         <v>capuccino.jpg</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D25" s="1">
         <v>381.0</v>
@@ -29676,19 +29687,21 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B26" s="2" t="str">
         <f t="shared" si="4"/>
         <v>caribe.jpg</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D26" s="1">
         <v>382.0</v>
       </c>
-      <c r="E26" s="2"/>
+      <c r="E26" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
@@ -29713,14 +29726,14 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B27" s="2" t="str">
         <f t="shared" si="4"/>
         <v>carvalho_capri.jpg</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D27" s="1">
         <v>383.0</v>
@@ -29750,14 +29763,14 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B28" s="2" t="str">
         <f t="shared" si="4"/>
         <v>carvalho_natural.jpg</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D28" s="1">
         <v>384.0</v>
@@ -29787,14 +29800,14 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B29" s="2" t="str">
         <f>CONCAT(A29,".png")</f>
         <v>cinza_perfeito.png</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D29" s="1">
         <v>385.0</v>
@@ -29824,14 +29837,14 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B30" s="2" t="str">
         <f t="shared" ref="B30:B33" si="5">CONCAT(A30,".jpg")</f>
         <v>cinza_urban.jpg</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D30" s="1">
         <v>386.0</v>
@@ -29861,14 +29874,14 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B31" s="2" t="str">
         <f t="shared" si="5"/>
         <v>cobre.jpg</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D31" s="1">
         <v>387.0</v>
@@ -29898,14 +29911,14 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B32" s="2" t="str">
         <f t="shared" si="5"/>
         <v>corten.jpg</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D32" s="1">
         <v>388.0</v>
@@ -29935,14 +29948,14 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B33" s="2" t="str">
         <f t="shared" si="5"/>
         <v>cosmos.jpg</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D33" s="1">
         <v>389.0</v>
@@ -29972,14 +29985,14 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B34" s="2" t="str">
         <f>CONCAT(A34,".tif")</f>
         <v>cromio.tif</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D34" s="1">
         <v>390.0</v>
@@ -30009,14 +30022,14 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B35" s="2" t="str">
         <f>CONCAT(A35,".jpg")</f>
         <v>curupixa.jpg</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D35" s="1">
         <v>391.0</v>
@@ -30046,14 +30059,14 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B36" s="2" t="str">
         <f t="shared" ref="B36:B37" si="6">CONCAT(A36,".png")</f>
         <v>curupixa_ripado.png</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D36" s="1">
         <v>392.0</v>
@@ -30083,14 +30096,14 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B37" s="2" t="str">
         <f t="shared" si="6"/>
         <v>erva_mate.png</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D37" s="1">
         <v>393.0</v>
@@ -30120,14 +30133,14 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B38" s="2" t="str">
         <f t="shared" ref="B38:B44" si="7">CONCAT(A38,".jpg")</f>
         <v>fendi.jpg</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D38" s="1">
         <v>394.0</v>
@@ -30157,14 +30170,14 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B39" s="2" t="str">
         <f t="shared" si="7"/>
         <v>fontana.jpg</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D39" s="1">
         <v>395.0</v>
@@ -30194,14 +30207,14 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B40" s="2" t="str">
         <f t="shared" si="7"/>
         <v>freijo.jpg</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D40" s="1">
         <v>396.0</v>
@@ -30231,14 +30244,14 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B41" s="2" t="str">
         <f t="shared" si="7"/>
         <v>fresno_acores.jpg</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D41" s="1">
         <v>397.0</v>
@@ -30268,14 +30281,14 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B42" s="2" t="str">
         <f t="shared" si="7"/>
         <v>fresno_aveiro.jpg</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D42" s="1">
         <v>398.0</v>
@@ -30305,14 +30318,14 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B43" s="2" t="str">
         <f t="shared" si="7"/>
         <v>fresno_coimbra.jpg</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D43" s="1">
         <v>399.0</v>
@@ -30342,14 +30355,14 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B44" s="2" t="str">
         <f t="shared" si="7"/>
         <v>fresno_madeira.jpg</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D44" s="1">
         <v>400.0</v>
@@ -30379,14 +30392,14 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B45" s="2" t="str">
         <f>CONCAT(A45,".png")</f>
         <v>gali.png</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D45" s="1">
         <v>401.0</v>
@@ -30416,14 +30429,14 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B46" s="2" t="str">
         <f t="shared" ref="B46:B47" si="8">CONCAT(A46,".jpg")</f>
         <v>grafite.jpg</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D46" s="1">
         <v>402.0</v>
@@ -30453,14 +30466,14 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B47" s="2" t="str">
         <f t="shared" si="8"/>
         <v>imbuia.jpg</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D47" s="1">
         <v>403.0</v>
@@ -30490,14 +30503,14 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B48" s="2" t="str">
         <f>CONCAT(A48,".png")</f>
         <v>jaspe.png</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D48" s="1">
         <v>404.0</v>
@@ -30527,14 +30540,14 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B49" s="2" t="str">
         <f>CONCAT(A49,".jpg")</f>
         <v>lisboa.jpg</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D49" s="1">
         <v>405.0</v>
@@ -30564,14 +30577,14 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B50" s="2" t="str">
         <f>CONCAT(A50,".tif")</f>
         <v>lume.tif</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D50" s="1">
         <v>406.0</v>
@@ -30601,14 +30614,14 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B51" s="2" t="str">
         <f t="shared" ref="B51:B54" si="9">CONCAT(A51,".png")</f>
         <v>mageo_carvalho.png</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D51" s="1">
         <v>407.0</v>
@@ -30638,14 +30651,14 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B52" s="2" t="str">
         <f t="shared" si="9"/>
         <v>mageo_imbuia.png</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D52" s="1">
         <v>408.0</v>
@@ -30675,14 +30688,14 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B53" s="2" t="str">
         <f t="shared" si="9"/>
         <v>mageo_mel.png</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D53" s="1">
         <v>409.0</v>
@@ -30712,14 +30725,14 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B54" s="2" t="str">
         <f t="shared" si="9"/>
         <v>mangue.png</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D54" s="1">
         <v>410.0</v>
@@ -30749,14 +30762,14 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B55" s="2" t="str">
         <f t="shared" ref="B55:B58" si="10">CONCAT(A55,".jpg")</f>
         <v>marmo.jpg</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D55" s="1">
         <v>411.0</v>
@@ -30786,14 +30799,14 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B56" s="2" t="str">
         <f t="shared" si="10"/>
         <v>marsala.jpg</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D56" s="1">
         <v>412.0</v>
@@ -30823,14 +30836,14 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B57" s="2" t="str">
         <f t="shared" si="10"/>
         <v>maxi_branco.jpg</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D57" s="1">
         <v>413.0</v>
@@ -30860,14 +30873,14 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B58" s="2" t="str">
         <f t="shared" si="10"/>
         <v>metal_champagne.jpg</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D58" s="1">
         <v>414.0</v>
@@ -30897,14 +30910,14 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B59" s="2" t="str">
         <f>CONCAT(A59,".png")</f>
         <v>neblina.png</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D59" s="1">
         <v>415.0</v>
@@ -30934,14 +30947,14 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B60" s="2" t="str">
         <f t="shared" ref="B60:B65" si="11">CONCAT(A60,".jpg")</f>
         <v>nero.jpg</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D60" s="1">
         <v>416.0</v>
@@ -30971,14 +30984,14 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B61" s="2" t="str">
         <f t="shared" si="11"/>
         <v>niquel.jpg</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D61" s="1">
         <v>417.0</v>
@@ -31008,14 +31021,14 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B62" s="2" t="str">
         <f t="shared" si="11"/>
         <v>nogal_champagne.jpg</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D62" s="1">
         <v>418.0</v>
@@ -31045,14 +31058,14 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B63" s="2" t="str">
         <f t="shared" si="11"/>
         <v>nogal_sevilha.jpg</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D63" s="1">
         <v>419.0</v>
@@ -31082,14 +31095,14 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B64" s="2" t="str">
         <f t="shared" si="11"/>
         <v>nogueira_ambar.jpg</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D64" s="1">
         <v>420.0</v>
@@ -31119,14 +31132,14 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B65" s="2" t="str">
         <f t="shared" si="11"/>
         <v>nogueira_rubi.jpg</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D65" s="1">
         <v>421.0</v>
@@ -31156,14 +31169,14 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B66" s="2" t="str">
         <f>CONCAT(A66,".png")</f>
         <v>noite.png</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D66" s="1">
         <v>422.0</v>
@@ -31193,14 +31206,14 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B67" s="2" t="str">
         <f>CONCAT(A67,".tif")</f>
         <v>nuvem.tif</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D67" s="1">
         <v>423.0</v>
@@ -31230,14 +31243,14 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B68" s="2" t="str">
         <f t="shared" ref="B68:B71" si="12">CONCAT(A68,".jpg")</f>
         <v>onix.jpg</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D68" s="1">
         <v>424.0</v>
@@ -31267,14 +31280,14 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B69" s="2" t="str">
         <f t="shared" si="12"/>
         <v>pau_ferro.jpg</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D69" s="1">
         <v>425.0</v>
@@ -31304,14 +31317,14 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B70" s="2" t="str">
         <f t="shared" si="12"/>
         <v>peroba.jpg</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D70" s="1">
         <v>426.0</v>
@@ -31341,14 +31354,14 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B71" s="2" t="str">
         <f t="shared" si="12"/>
         <v>petra.jpg</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D71" s="1">
         <v>427.0</v>
@@ -31378,14 +31391,14 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B72" s="2" t="str">
         <f>CONCAT(A72,".png")</f>
         <v>platina.png</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D72" s="1">
         <v>428.0</v>
@@ -31415,14 +31428,14 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B73" s="2" t="str">
         <f t="shared" ref="B73:B78" si="13">CONCAT(A73,".jpg")</f>
         <v>preto_silk.jpg</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D73" s="1">
         <v>429.0</v>
@@ -31452,14 +31465,14 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B74" s="2" t="str">
         <f t="shared" si="13"/>
         <v>quartzo.jpg</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D74" s="1">
         <v>430.0</v>
@@ -31489,14 +31502,14 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B75" s="2" t="str">
         <f t="shared" si="13"/>
         <v>rosa_milkshake.jpg</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D75" s="1">
         <v>431.0</v>
@@ -31526,14 +31539,14 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B76" s="2" t="str">
         <f t="shared" si="13"/>
         <v>salerno.jpg</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D76" s="1">
         <v>432.0</v>
@@ -31563,14 +31576,14 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B77" s="2" t="str">
         <f t="shared" si="13"/>
         <v>santorini.jpg</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D77" s="1">
         <v>433.0</v>
@@ -31600,14 +31613,14 @@
     </row>
     <row r="78">
       <c r="A78" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B78" s="2" t="str">
         <f t="shared" si="13"/>
         <v>savana.jpg</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D78" s="1">
         <v>434.0</v>
@@ -31637,14 +31650,14 @@
     </row>
     <row r="79">
       <c r="A79" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B79" s="2" t="str">
         <f>CONCAT(A79,".tif")</f>
         <v>sonora.tif</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D79" s="1">
         <v>435.0</v>
@@ -31674,14 +31687,14 @@
     </row>
     <row r="80">
       <c r="A80" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B80" s="2" t="str">
         <f>CONCAT(A80,".jpg")</f>
         <v>tauari.jpg</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D80" s="1">
         <v>436.0</v>
@@ -31711,14 +31724,14 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B81" s="2" t="str">
         <f t="shared" ref="B81:B83" si="14">CONCAT(A81,".png")</f>
         <v>tauari_ripado.png</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D81" s="1">
         <v>437.0</v>
@@ -31748,14 +31761,14 @@
     </row>
     <row r="82">
       <c r="A82" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B82" s="2" t="str">
         <f t="shared" si="14"/>
         <v>tear.png</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D82" s="1">
         <v>438.0</v>
@@ -31785,14 +31798,14 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B83" s="2" t="str">
         <f t="shared" si="14"/>
         <v>tecno.png</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D83" s="1">
         <v>439.0</v>
@@ -31822,14 +31835,14 @@
     </row>
     <row r="84">
       <c r="A84" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B84" s="2" t="str">
         <f t="shared" ref="B84:B85" si="15">CONCAT(A84,".jpg")</f>
         <v>teka_bianco.jpg</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D84" s="1">
         <v>440.0</v>
@@ -31859,14 +31872,14 @@
     </row>
     <row r="85">
       <c r="A85" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B85" s="2" t="str">
         <f t="shared" si="15"/>
         <v>tela.jpg</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D85" s="1">
         <v>441.0</v>
@@ -31896,14 +31909,14 @@
     </row>
     <row r="86">
       <c r="A86" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B86" s="2" t="str">
         <f>CONCAT(A86,".png")</f>
         <v>terrino.png</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D86" s="1">
         <v>442.0</v>
@@ -31933,14 +31946,14 @@
     </row>
     <row r="87">
       <c r="A87" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B87" s="2" t="str">
         <f>CONCAT(A87,".jpg")</f>
         <v>tijolo.jpg</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D87" s="1">
         <v>443.0</v>

--- a/dados.xlsx
+++ b/dados.xlsx
@@ -89,7 +89,7 @@
     <t>grupo_destino</t>
   </si>
   <si>
-    <t>inicial</t>
+    <t>default</t>
   </si>
   <si>
     <t>azul_petroleo</t>

--- a/dados.xlsx
+++ b/dados.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="123">
   <si>
     <t>objeto</t>
   </si>
@@ -126,6 +126,9 @@
   </si>
   <si>
     <t>puxador1.png</t>
+  </si>
+  <si>
+    <t>puxadores_tipo</t>
   </si>
   <si>
     <t>puxador2</t>
@@ -28961,7 +28964,9 @@
       <c r="B6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="D6" s="1"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -28988,12 +28993,14 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
         <v>8</v>
@@ -29022,10 +29029,10 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>11</v>
@@ -29058,7 +29065,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B9" s="2" t="str">
         <f t="shared" ref="B9:B13" si="1">CONCAT(A9,".jpg")</f>
@@ -29095,7 +29102,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B10" s="2" t="str">
         <f t="shared" si="1"/>
@@ -29132,7 +29139,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B11" s="2" t="str">
         <f t="shared" si="1"/>
@@ -29169,7 +29176,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B12" s="2" t="str">
         <f t="shared" si="1"/>
@@ -29206,7 +29213,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B13" s="2" t="str">
         <f t="shared" si="1"/>
@@ -29243,7 +29250,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B14" s="2" t="str">
         <f>CONCAT(A14,".png")</f>
@@ -29280,7 +29287,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B15" s="2" t="str">
         <f>CONCAT(A15,".jpg")</f>
@@ -29317,7 +29324,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B16" s="2" t="str">
         <f t="shared" ref="B16:B17" si="2">CONCAT(A16,".png")</f>
@@ -29354,7 +29361,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B17" s="2" t="str">
         <f t="shared" si="2"/>
@@ -29391,7 +29398,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B18" s="2" t="str">
         <f t="shared" ref="B18:B22" si="3">CONCAT(A18,".jpg")</f>
@@ -29428,7 +29435,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B19" s="2" t="str">
         <f t="shared" si="3"/>
@@ -29465,7 +29472,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B20" s="2" t="str">
         <f t="shared" si="3"/>
@@ -29502,7 +29509,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B21" s="2" t="str">
         <f t="shared" si="3"/>
@@ -29539,7 +29546,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B22" s="2" t="str">
         <f t="shared" si="3"/>
@@ -29576,7 +29583,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B23" s="2" t="str">
         <f>CONCAT(A23,".tif")</f>
@@ -29613,14 +29620,14 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B24" s="2" t="str">
         <f t="shared" ref="B24:B28" si="4">CONCAT(A24,".jpg")</f>
         <v>bronzina.jpg</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D24" s="1">
         <v>380.0</v>
@@ -29650,7 +29657,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B25" s="2" t="str">
         <f t="shared" si="4"/>
@@ -29687,7 +29694,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B26" s="2" t="str">
         <f t="shared" si="4"/>
@@ -29726,7 +29733,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B27" s="2" t="str">
         <f t="shared" si="4"/>
@@ -29763,7 +29770,7 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B28" s="2" t="str">
         <f t="shared" si="4"/>
@@ -29800,7 +29807,7 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B29" s="2" t="str">
         <f>CONCAT(A29,".png")</f>
@@ -29837,7 +29844,7 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B30" s="2" t="str">
         <f t="shared" ref="B30:B33" si="5">CONCAT(A30,".jpg")</f>
@@ -29874,7 +29881,7 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B31" s="2" t="str">
         <f t="shared" si="5"/>
@@ -29911,14 +29918,14 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B32" s="2" t="str">
         <f t="shared" si="5"/>
         <v>corten.jpg</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D32" s="1">
         <v>388.0</v>
@@ -29948,14 +29955,14 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B33" s="2" t="str">
         <f t="shared" si="5"/>
         <v>cosmos.jpg</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D33" s="1">
         <v>389.0</v>
@@ -29985,14 +29992,14 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B34" s="2" t="str">
         <f>CONCAT(A34,".tif")</f>
         <v>cromio.tif</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D34" s="1">
         <v>390.0</v>
@@ -30022,7 +30029,7 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B35" s="2" t="str">
         <f>CONCAT(A35,".jpg")</f>
@@ -30059,7 +30066,7 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B36" s="2" t="str">
         <f t="shared" ref="B36:B37" si="6">CONCAT(A36,".png")</f>
@@ -30096,7 +30103,7 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B37" s="2" t="str">
         <f t="shared" si="6"/>
@@ -30133,7 +30140,7 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B38" s="2" t="str">
         <f t="shared" ref="B38:B44" si="7">CONCAT(A38,".jpg")</f>
@@ -30170,14 +30177,14 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B39" s="2" t="str">
         <f t="shared" si="7"/>
         <v>fontana.jpg</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D39" s="1">
         <v>395.0</v>
@@ -30207,7 +30214,7 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B40" s="2" t="str">
         <f t="shared" si="7"/>
@@ -30244,7 +30251,7 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B41" s="2" t="str">
         <f t="shared" si="7"/>
@@ -30281,7 +30288,7 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B42" s="2" t="str">
         <f t="shared" si="7"/>
@@ -30318,7 +30325,7 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B43" s="2" t="str">
         <f t="shared" si="7"/>
@@ -30355,7 +30362,7 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B44" s="2" t="str">
         <f t="shared" si="7"/>
@@ -30392,7 +30399,7 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B45" s="2" t="str">
         <f>CONCAT(A45,".png")</f>
@@ -30429,7 +30436,7 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B46" s="2" t="str">
         <f t="shared" ref="B46:B47" si="8">CONCAT(A46,".jpg")</f>
@@ -30466,7 +30473,7 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B47" s="2" t="str">
         <f t="shared" si="8"/>
@@ -30503,7 +30510,7 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B48" s="2" t="str">
         <f>CONCAT(A48,".png")</f>
@@ -30540,7 +30547,7 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B49" s="2" t="str">
         <f>CONCAT(A49,".jpg")</f>
@@ -30577,7 +30584,7 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B50" s="2" t="str">
         <f>CONCAT(A50,".tif")</f>
@@ -30614,14 +30621,14 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B51" s="2" t="str">
         <f t="shared" ref="B51:B54" si="9">CONCAT(A51,".png")</f>
         <v>mageo_carvalho.png</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D51" s="1">
         <v>407.0</v>
@@ -30651,14 +30658,14 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B52" s="2" t="str">
         <f t="shared" si="9"/>
         <v>mageo_imbuia.png</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D52" s="1">
         <v>408.0</v>
@@ -30688,14 +30695,14 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B53" s="2" t="str">
         <f t="shared" si="9"/>
         <v>mageo_mel.png</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D53" s="1">
         <v>409.0</v>
@@ -30725,7 +30732,7 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B54" s="2" t="str">
         <f t="shared" si="9"/>
@@ -30762,14 +30769,14 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B55" s="2" t="str">
         <f t="shared" ref="B55:B58" si="10">CONCAT(A55,".jpg")</f>
         <v>marmo.jpg</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D55" s="1">
         <v>411.0</v>
@@ -30799,7 +30806,7 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B56" s="2" t="str">
         <f t="shared" si="10"/>
@@ -30836,7 +30843,7 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B57" s="2" t="str">
         <f t="shared" si="10"/>
@@ -30873,7 +30880,7 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B58" s="2" t="str">
         <f t="shared" si="10"/>
@@ -30910,7 +30917,7 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B59" s="2" t="str">
         <f>CONCAT(A59,".png")</f>
@@ -30947,7 +30954,7 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B60" s="2" t="str">
         <f t="shared" ref="B60:B65" si="11">CONCAT(A60,".jpg")</f>
@@ -30984,7 +30991,7 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B61" s="2" t="str">
         <f t="shared" si="11"/>
@@ -31021,7 +31028,7 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B62" s="2" t="str">
         <f t="shared" si="11"/>
@@ -31058,7 +31065,7 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B63" s="2" t="str">
         <f t="shared" si="11"/>
@@ -31095,7 +31102,7 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B64" s="2" t="str">
         <f t="shared" si="11"/>
@@ -31132,7 +31139,7 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B65" s="2" t="str">
         <f t="shared" si="11"/>
@@ -31169,7 +31176,7 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B66" s="2" t="str">
         <f>CONCAT(A66,".png")</f>
@@ -31206,7 +31213,7 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B67" s="2" t="str">
         <f>CONCAT(A67,".tif")</f>
@@ -31243,7 +31250,7 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B68" s="2" t="str">
         <f t="shared" ref="B68:B71" si="12">CONCAT(A68,".jpg")</f>
@@ -31280,7 +31287,7 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B69" s="2" t="str">
         <f t="shared" si="12"/>
@@ -31317,7 +31324,7 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B70" s="2" t="str">
         <f t="shared" si="12"/>
@@ -31354,14 +31361,14 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B71" s="2" t="str">
         <f t="shared" si="12"/>
         <v>petra.jpg</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D71" s="1">
         <v>427.0</v>
@@ -31391,7 +31398,7 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B72" s="2" t="str">
         <f>CONCAT(A72,".png")</f>
@@ -31428,7 +31435,7 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B73" s="2" t="str">
         <f t="shared" ref="B73:B78" si="13">CONCAT(A73,".jpg")</f>
@@ -31465,14 +31472,14 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B74" s="2" t="str">
         <f t="shared" si="13"/>
         <v>quartzo.jpg</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D74" s="1">
         <v>430.0</v>
@@ -31502,7 +31509,7 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B75" s="2" t="str">
         <f t="shared" si="13"/>
@@ -31539,7 +31546,7 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B76" s="2" t="str">
         <f t="shared" si="13"/>
@@ -31576,14 +31583,14 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B77" s="2" t="str">
         <f t="shared" si="13"/>
         <v>santorini.jpg</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D77" s="1">
         <v>433.0</v>
@@ -31613,7 +31620,7 @@
     </row>
     <row r="78">
       <c r="A78" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B78" s="2" t="str">
         <f t="shared" si="13"/>
@@ -31650,7 +31657,7 @@
     </row>
     <row r="79">
       <c r="A79" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B79" s="2" t="str">
         <f>CONCAT(A79,".tif")</f>
@@ -31687,7 +31694,7 @@
     </row>
     <row r="80">
       <c r="A80" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B80" s="2" t="str">
         <f>CONCAT(A80,".jpg")</f>
@@ -31724,7 +31731,7 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B81" s="2" t="str">
         <f t="shared" ref="B81:B83" si="14">CONCAT(A81,".png")</f>
@@ -31761,14 +31768,14 @@
     </row>
     <row r="82">
       <c r="A82" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B82" s="2" t="str">
         <f t="shared" si="14"/>
         <v>tear.png</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D82" s="1">
         <v>438.0</v>
@@ -31798,14 +31805,14 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B83" s="2" t="str">
         <f t="shared" si="14"/>
         <v>tecno.png</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D83" s="1">
         <v>439.0</v>
@@ -31835,7 +31842,7 @@
     </row>
     <row r="84">
       <c r="A84" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B84" s="2" t="str">
         <f t="shared" ref="B84:B85" si="15">CONCAT(A84,".jpg")</f>
@@ -31872,14 +31879,14 @@
     </row>
     <row r="85">
       <c r="A85" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B85" s="2" t="str">
         <f t="shared" si="15"/>
         <v>tela.jpg</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D85" s="1">
         <v>441.0</v>
@@ -31909,7 +31916,7 @@
     </row>
     <row r="86">
       <c r="A86" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B86" s="2" t="str">
         <f>CONCAT(A86,".png")</f>
@@ -31946,7 +31953,7 @@
     </row>
     <row r="87">
       <c r="A87" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B87" s="2" t="str">
         <f>CONCAT(A87,".jpg")</f>

--- a/dados.xlsx
+++ b/dados.xlsx
@@ -5,6 +5,7 @@
   <sheets>
     <sheet state="visible" name="Grupos" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="Texturas" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="Modelos" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -12,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="134">
   <si>
     <t>objeto</t>
   </si>
@@ -382,6 +383,39 @@
   <si>
     <t>tijolo</t>
   </si>
+  <si>
+    <t>posZ</t>
+  </si>
+  <si>
+    <t>m1_gaveteiro.glb</t>
+  </si>
+  <si>
+    <t>-1.2</t>
+  </si>
+  <si>
+    <t>m2_gaveteiro.glb</t>
+  </si>
+  <si>
+    <t>-0.6</t>
+  </si>
+  <si>
+    <t>m3_gaveteiro.glb</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>m4_gaveteiro.glb</t>
+  </si>
+  <si>
+    <t>0.6</t>
+  </si>
+  <si>
+    <t>m5_gaveteiro.glb</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
 </sst>
 </file>
 
@@ -414,7 +448,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -423,6 +457,12 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -437,6 +477,10 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -57611,4 +57655,90 @@
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="13.75"/>
+    <col customWidth="1" min="2" max="2" width="4.75"/>
+    <col customWidth="1" min="3" max="3" width="6.0"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/dados.xlsx
+++ b/dados.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="135">
   <si>
     <t>objeto</t>
   </si>
@@ -387,6 +387,9 @@
     <t>posZ</t>
   </si>
   <si>
+    <t>botao</t>
+  </si>
+  <si>
     <t>m1_gaveteiro.glb</t>
   </si>
   <si>
@@ -57682,61 +57685,79 @@
       <c r="C1" s="3" t="s">
         <v>25</v>
       </c>
+      <c r="D1" s="3" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="D2" s="3">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="D3" s="3">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="D4" s="3">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="D5" s="3">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="D6" s="3">
+        <v>5.0</v>
+      </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/dados.xlsx
+++ b/dados.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="140">
   <si>
     <t>objeto</t>
   </si>
@@ -434,21 +434,6 @@
   <si>
     <t>m5_prateleira.glb</t>
   </si>
-  <si>
-    <t>m1_vazio.glb</t>
-  </si>
-  <si>
-    <t>m2_vazio.glb</t>
-  </si>
-  <si>
-    <t>m3_vazio.glb</t>
-  </si>
-  <si>
-    <t>m4_vazio.glb</t>
-  </si>
-  <si>
-    <t>m5_vazio.glb</t>
-  </si>
 </sst>
 </file>
 
@@ -57856,64 +57841,29 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>126</v>
-      </c>
+      <c r="B12" s="1"/>
       <c r="C12" s="4"/>
-      <c r="D12" s="1">
-        <v>1.0</v>
-      </c>
+      <c r="D12" s="1"/>
     </row>
     <row r="13">
-      <c r="A13" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>128</v>
-      </c>
+      <c r="B13" s="1"/>
       <c r="C13" s="4"/>
-      <c r="D13" s="1">
-        <v>2.0</v>
-      </c>
+      <c r="D13" s="1"/>
     </row>
     <row r="14">
-      <c r="A14" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>130</v>
-      </c>
+      <c r="B14" s="1"/>
       <c r="C14" s="4"/>
-      <c r="D14" s="1">
-        <v>3.0</v>
-      </c>
+      <c r="D14" s="1"/>
     </row>
     <row r="15">
-      <c r="A15" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>132</v>
-      </c>
+      <c r="B15" s="1"/>
       <c r="C15" s="4"/>
-      <c r="D15" s="1">
-        <v>4.0</v>
-      </c>
+      <c r="D15" s="1"/>
     </row>
     <row r="16">
-      <c r="A16" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>134</v>
-      </c>
+      <c r="B16" s="6"/>
       <c r="C16" s="4"/>
-      <c r="D16" s="1">
-        <v>5.0</v>
-      </c>
+      <c r="D16" s="1"/>
     </row>
     <row r="17">
       <c r="B17" s="4"/>

--- a/dados.xlsx
+++ b/dados.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="157">
   <si>
     <t>objeto</t>
   </si>
@@ -33,52 +33,106 @@
     <t>preco</t>
   </si>
   <si>
-    <t>gavetas_fechadas</t>
+    <t>caixaria</t>
+  </si>
+  <si>
+    <t>caixarias</t>
+  </si>
+  <si>
+    <t>sim</t>
+  </si>
+  <si>
+    <t>porta_fechada</t>
   </si>
   <si>
     <t>tamponamentos</t>
   </si>
   <si>
-    <t>sim</t>
+    <t>porta_aberta</t>
   </si>
   <si>
-    <t>gavetas_abertas</t>
+    <t>soculo</t>
   </si>
   <si>
-    <t>corredicas_abertas</t>
+    <t>tamponamento</t>
+  </si>
+  <si>
+    <t>dobradica_35mm_01_aberta</t>
   </si>
   <si>
     <t>ferragens</t>
   </si>
   <si>
-    <t>frente_aberta</t>
+    <t>dobradica_35mm_02_aberta</t>
   </si>
   <si>
-    <t>frente_fechada</t>
+    <t>dobradica_35mm_01_fechada</t>
   </si>
   <si>
-    <t>corredicas_fechadas</t>
+    <t>dobradica_35mm_02_fechada</t>
   </si>
   <si>
-    <t>base</t>
-  </si>
-  <si>
-    <t>estrutura</t>
-  </si>
-  <si>
-    <t>puxadores2_fechados</t>
+    <t>puxador01_aberto</t>
   </si>
   <si>
     <t>puxadores</t>
   </si>
   <si>
-    <t>puxadores2_abertos</t>
+    <t>puxador02_aberto</t>
   </si>
   <si>
-    <t>puxadores1_fechados</t>
+    <t>puxador03_aberto</t>
   </si>
   <si>
-    <t>puxadores1_abertos</t>
+    <t>puxador04_aberto</t>
+  </si>
+  <si>
+    <t>puxador05_aberto</t>
+  </si>
+  <si>
+    <t>puxador06_aberto</t>
+  </si>
+  <si>
+    <t>puxador07_aberto</t>
+  </si>
+  <si>
+    <t>puxador08_aberto</t>
+  </si>
+  <si>
+    <t>puxador09_aberto</t>
+  </si>
+  <si>
+    <t>puxador10_aberto</t>
+  </si>
+  <si>
+    <t>puxador01_fechado</t>
+  </si>
+  <si>
+    <t>puxador02_fechado</t>
+  </si>
+  <si>
+    <t>puxador03_fechado</t>
+  </si>
+  <si>
+    <t>puxador04_fechado</t>
+  </si>
+  <si>
+    <t>puxador05_fechado</t>
+  </si>
+  <si>
+    <t>puxador06_fechado</t>
+  </si>
+  <si>
+    <t>puxador07_fechado</t>
+  </si>
+  <si>
+    <t>puxador08_fechado</t>
+  </si>
+  <si>
+    <t>puxador09_fechado</t>
+  </si>
+  <si>
+    <t>puxador10_fechado</t>
   </si>
   <si>
     <t>nome_textura</t>
@@ -384,55 +438,52 @@
     <t>tijolo</t>
   </si>
   <si>
+    <t>branco_tx</t>
+  </si>
+  <si>
     <t>posZ</t>
   </si>
   <si>
     <t>botao</t>
   </si>
   <si>
-    <t>m1_gaveteiro.glb</t>
+    <t>modulo_cozinha_pia_inicio.glb</t>
   </si>
   <si>
     <t>-1.2</t>
   </si>
   <si>
-    <t>m2_gaveteiro.glb</t>
+    <t>modulo_cozinha_pia_meio_direita.glb</t>
   </si>
   <si>
     <t>-0.6</t>
   </si>
   <si>
-    <t>m3_gaveteiro.glb</t>
+    <t>modulo_cozinha_pia_meio_esquerda.glb</t>
   </si>
   <si>
     <t>0.0</t>
   </si>
   <si>
-    <t>m4_gaveteiro.glb</t>
-  </si>
-  <si>
     <t>0.6</t>
   </si>
   <si>
-    <t>m5_gaveteiro.glb</t>
+    <t>modulo_cozinha_pia_fim.glb</t>
   </si>
   <si>
     <t>1.2</t>
   </si>
   <si>
-    <t>m1_prateleira.glb</t>
+    <t>modulo_cozinha_prateleira_inicio.glb</t>
   </si>
   <si>
-    <t>m2_prateleira.glb</t>
+    <t>modulo_cozinha_prateleira_meio_direita.glb</t>
   </si>
   <si>
-    <t>m3_prateleira.glb</t>
+    <t>modulo_cozinha_prateleira_meio_esquerda.glb</t>
   </si>
   <si>
-    <t>m4_prateleira.glb</t>
-  </si>
-  <si>
-    <t>m5_prateleira.glb</t>
+    <t>modulo_cozinha_prateleira_fim.glb</t>
   </si>
 </sst>
 </file>
@@ -708,7 +759,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
@@ -764,13 +818,13 @@
         <v>7</v>
       </c>
       <c r="C2" s="4"/>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="1"/>
+      <c r="F2" s="1">
+        <v>100.0</v>
+      </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="2"/>
@@ -797,13 +851,15 @@
         <v>9</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
+      <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="F3" s="1"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -828,19 +884,17 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
-      <c r="F4" s="1">
-        <v>180.0</v>
-      </c>
+      <c r="F4" s="1"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="2"/>
@@ -867,14 +921,16 @@
         <v>12</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="1"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="1"/>
+      <c r="F5" s="1">
+        <v>50.0</v>
+      </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -901,16 +957,16 @@
         <v>13</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C6" s="4"/>
-      <c r="D6" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="1"/>
+      <c r="F6" s="1">
+        <v>200.0</v>
+      </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -937,17 +993,15 @@
         <v>14</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
       <c r="F7" s="1">
-        <v>180.0</v>
+        <v>5.0</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -972,18 +1026,18 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="1"/>
       <c r="F8" s="1">
-        <v>0.2</v>
+        <v>5.0</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -1008,18 +1062,20 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
+      <c r="D9" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="E9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F9" s="1">
-        <v>1.2</v>
+        <v>5.0</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -1044,18 +1100,20 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="F10" s="1">
-        <v>160.0</v>
+        <v>5.0</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -1083,15 +1141,15 @@
         <v>19</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="4"/>
+      <c r="D11" s="1"/>
       <c r="E11" s="4"/>
       <c r="F11" s="1">
-        <v>160.0</v>
+        <v>50.0</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -1116,20 +1174,18 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="4"/>
       <c r="F12" s="1">
-        <v>150.0</v>
+        <v>51.0</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -1154,18 +1210,18 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="4"/>
+      <c r="D13" s="1"/>
       <c r="E13" s="4"/>
       <c r="F13" s="1">
-        <v>150.0</v>
+        <v>52.0</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -1189,12 +1245,20 @@
       <c r="Z13" s="2"/>
     </row>
     <row r="14">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
+      <c r="A14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="1"/>
       <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
+      <c r="F14" s="1">
+        <v>53.0</v>
+      </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -1217,12 +1281,20 @@
       <c r="Z14" s="2"/>
     </row>
     <row r="15">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
+      <c r="A15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="1"/>
       <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
+      <c r="F15" s="1">
+        <v>54.0</v>
+      </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -1245,12 +1317,20 @@
       <c r="Z15" s="2"/>
     </row>
     <row r="16">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
+      <c r="A16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="1"/>
       <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
+      <c r="F16" s="1">
+        <v>55.0</v>
+      </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -1273,12 +1353,20 @@
       <c r="Z16" s="2"/>
     </row>
     <row r="17">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
+      <c r="A17" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="1"/>
       <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
+      <c r="F17" s="1">
+        <v>56.0</v>
+      </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -1301,12 +1389,20 @@
       <c r="Z17" s="2"/>
     </row>
     <row r="18">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
+      <c r="A18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="1"/>
       <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
+      <c r="F18" s="1">
+        <v>57.0</v>
+      </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
@@ -1329,12 +1425,20 @@
       <c r="Z18" s="2"/>
     </row>
     <row r="19">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
+      <c r="A19" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="1"/>
       <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
+      <c r="F19" s="1">
+        <v>58.0</v>
+      </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
@@ -1357,12 +1461,20 @@
       <c r="Z19" s="2"/>
     </row>
     <row r="20">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
+      <c r="A20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="1"/>
       <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
+      <c r="F20" s="1">
+        <v>59.0</v>
+      </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
@@ -1385,12 +1497,22 @@
       <c r="Z20" s="2"/>
     </row>
     <row r="21">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
+      <c r="A21" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
+      <c r="D21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="1">
+        <v>50.0</v>
+      </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
@@ -1413,12 +1535,22 @@
       <c r="Z21" s="2"/>
     </row>
     <row r="22">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
+      <c r="A22" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
+      <c r="D22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="1">
+        <v>51.0</v>
+      </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
@@ -1441,12 +1573,22 @@
       <c r="Z22" s="2"/>
     </row>
     <row r="23">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
+      <c r="A23" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
+      <c r="D23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="1">
+        <v>52.0</v>
+      </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
@@ -1469,12 +1611,22 @@
       <c r="Z23" s="2"/>
     </row>
     <row r="24">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
+      <c r="A24" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
+      <c r="D24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="1">
+        <v>53.0</v>
+      </c>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
@@ -1497,12 +1649,22 @@
       <c r="Z24" s="2"/>
     </row>
     <row r="25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
+      <c r="A25" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
+      <c r="D25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" s="1">
+        <v>54.0</v>
+      </c>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
@@ -1525,12 +1687,22 @@
       <c r="Z25" s="2"/>
     </row>
     <row r="26">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
+      <c r="A26" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
+      <c r="D26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="1">
+        <v>55.0</v>
+      </c>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
@@ -1553,12 +1725,22 @@
       <c r="Z26" s="2"/>
     </row>
     <row r="27">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
+      <c r="A27" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
+      <c r="D27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" s="1">
+        <v>56.0</v>
+      </c>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
@@ -1581,12 +1763,22 @@
       <c r="Z27" s="2"/>
     </row>
     <row r="28">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
+      <c r="A28" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
+      <c r="D28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" s="1">
+        <v>57.0</v>
+      </c>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
@@ -1609,12 +1801,22 @@
       <c r="Z28" s="2"/>
     </row>
     <row r="29">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
+      <c r="A29" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
+      <c r="D29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="1">
+        <v>58.0</v>
+      </c>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
@@ -1637,12 +1839,22 @@
       <c r="Z29" s="2"/>
     </row>
     <row r="30">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
+      <c r="A30" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
+      <c r="D30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" s="1">
+        <v>59.0</v>
+      </c>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
@@ -28847,19 +29059,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
@@ -28885,13 +29097,13 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="D2" s="1">
         <v>360.0</v>
@@ -28921,13 +29133,13 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="D3" s="1">
         <v>361.0</v>
@@ -28957,13 +29169,13 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -28991,13 +29203,13 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
@@ -29027,13 +29239,13 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="4"/>
@@ -29061,13 +29273,13 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
@@ -29097,13 +29309,13 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
@@ -29133,14 +29345,14 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="B9" s="2" t="str">
         <f t="shared" ref="B9:B13" si="1">CONCAT(A9,".jpg")</f>
         <v>alabama.jpg</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="D9" s="1">
         <v>367.0</v>
@@ -29170,14 +29382,14 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="B10" s="2" t="str">
         <f t="shared" si="1"/>
         <v>alecrim.jpg</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="D10" s="1">
         <v>368.0</v>
@@ -29207,14 +29419,14 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="B11" s="2" t="str">
         <f t="shared" si="1"/>
         <v>ametista.jpg</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="D11" s="1">
         <v>369.0</v>
@@ -29244,14 +29456,14 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="B12" s="2" t="str">
         <f t="shared" si="1"/>
         <v>antiqua.jpg</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="D12" s="1">
         <v>370.0</v>
@@ -29281,14 +29493,14 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="B13" s="2" t="str">
         <f t="shared" si="1"/>
         <v>antuerpia.jpg</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="D13" s="1">
         <v>362.0</v>
@@ -29318,14 +29530,14 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="B14" s="2" t="str">
         <f>CONCAT(A14,".png")</f>
         <v>araucaria.png</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="D14" s="1">
         <v>371.0</v>
@@ -29355,14 +29567,14 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="B15" s="2" t="str">
         <f>CONCAT(A15,".jpg")</f>
         <v>areia.jpg</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="D15" s="1">
         <v>372.0</v>
@@ -29392,14 +29604,14 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="B16" s="2" t="str">
         <f t="shared" ref="B16:B17" si="2">CONCAT(A16,".png")</f>
         <v>aura.png</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="D16" s="1">
         <v>373.0</v>
@@ -29429,14 +29641,14 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="B17" s="2" t="str">
         <f t="shared" si="2"/>
         <v>azul_ardosia.png</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="D17" s="1">
         <v>374.0</v>
@@ -29466,14 +29678,14 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="B18" s="2" t="str">
         <f t="shared" ref="B18:B22" si="3">CONCAT(A18,".jpg")</f>
         <v>azul_marinho.jpg</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="D18" s="1">
         <v>375.0</v>
@@ -29503,14 +29715,14 @@
     </row>
     <row r="19">
       <c r="A19" s="3" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="B19" s="2" t="str">
         <f t="shared" si="3"/>
         <v>baviera.jpg</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="D19" s="1">
         <v>376.0</v>
@@ -29540,14 +29752,14 @@
     </row>
     <row r="20">
       <c r="A20" s="3" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="B20" s="2" t="str">
         <f t="shared" si="3"/>
         <v>bilbao.jpg</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="D20" s="1">
         <v>377.0</v>
@@ -29577,14 +29789,14 @@
     </row>
     <row r="21">
       <c r="A21" s="3" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="B21" s="2" t="str">
         <f t="shared" si="3"/>
         <v>branco.jpg</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="D21" s="1">
         <v>363.0</v>
@@ -29614,14 +29826,14 @@
     </row>
     <row r="22">
       <c r="A22" s="3" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="B22" s="2" t="str">
         <f t="shared" si="3"/>
         <v>branco_iceland.jpg</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="D22" s="1">
         <v>378.0</v>
@@ -29651,14 +29863,14 @@
     </row>
     <row r="23">
       <c r="A23" s="3" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="B23" s="2" t="str">
         <f>CONCAT(A23,".tif")</f>
         <v>brisa.tif</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="D23" s="1">
         <v>379.0</v>
@@ -29688,14 +29900,14 @@
     </row>
     <row r="24">
       <c r="A24" s="3" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="B24" s="2" t="str">
         <f t="shared" ref="B24:B28" si="4">CONCAT(A24,".jpg")</f>
         <v>bronzina.jpg</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="D24" s="1">
         <v>380.0</v>
@@ -29725,14 +29937,14 @@
     </row>
     <row r="25">
       <c r="A25" s="3" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="B25" s="2" t="str">
         <f t="shared" si="4"/>
         <v>capuccino.jpg</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="D25" s="1">
         <v>381.0</v>
@@ -29762,14 +29974,14 @@
     </row>
     <row r="26">
       <c r="A26" s="3" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="B26" s="2" t="str">
         <f t="shared" si="4"/>
         <v>caribe.jpg</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="D26" s="1">
         <v>382.0</v>
@@ -29801,14 +30013,14 @@
     </row>
     <row r="27">
       <c r="A27" s="3" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="B27" s="2" t="str">
         <f t="shared" si="4"/>
         <v>carvalho_capri.jpg</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="D27" s="1">
         <v>383.0</v>
@@ -29838,14 +30050,14 @@
     </row>
     <row r="28">
       <c r="A28" s="3" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="B28" s="2" t="str">
         <f t="shared" si="4"/>
         <v>carvalho_natural.jpg</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="D28" s="1">
         <v>384.0</v>
@@ -29875,14 +30087,14 @@
     </row>
     <row r="29">
       <c r="A29" s="3" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="B29" s="2" t="str">
         <f>CONCAT(A29,".png")</f>
         <v>cinza_perfeito.png</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="D29" s="1">
         <v>385.0</v>
@@ -29912,14 +30124,14 @@
     </row>
     <row r="30">
       <c r="A30" s="3" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="B30" s="2" t="str">
         <f t="shared" ref="B30:B33" si="5">CONCAT(A30,".jpg")</f>
         <v>cinza_urban.jpg</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="D30" s="1">
         <v>386.0</v>
@@ -29949,14 +30161,14 @@
     </row>
     <row r="31">
       <c r="A31" s="3" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="B31" s="2" t="str">
         <f t="shared" si="5"/>
         <v>cobre.jpg</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="D31" s="1">
         <v>387.0</v>
@@ -29986,14 +30198,14 @@
     </row>
     <row r="32">
       <c r="A32" s="3" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="B32" s="2" t="str">
         <f t="shared" si="5"/>
         <v>corten.jpg</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="D32" s="1">
         <v>388.0</v>
@@ -30023,14 +30235,14 @@
     </row>
     <row r="33">
       <c r="A33" s="3" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="B33" s="2" t="str">
         <f t="shared" si="5"/>
         <v>cosmos.jpg</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="D33" s="1">
         <v>389.0</v>
@@ -30060,14 +30272,14 @@
     </row>
     <row r="34">
       <c r="A34" s="3" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="B34" s="2" t="str">
         <f>CONCAT(A34,".tif")</f>
         <v>cromio.tif</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="D34" s="1">
         <v>390.0</v>
@@ -30097,14 +30309,14 @@
     </row>
     <row r="35">
       <c r="A35" s="3" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="B35" s="2" t="str">
         <f>CONCAT(A35,".jpg")</f>
         <v>curupixa.jpg</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="D35" s="1">
         <v>391.0</v>
@@ -30134,14 +30346,14 @@
     </row>
     <row r="36">
       <c r="A36" s="3" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="B36" s="2" t="str">
         <f t="shared" ref="B36:B37" si="6">CONCAT(A36,".png")</f>
         <v>curupixa_ripado.png</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="D36" s="1">
         <v>392.0</v>
@@ -30171,14 +30383,14 @@
     </row>
     <row r="37">
       <c r="A37" s="3" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="B37" s="2" t="str">
         <f t="shared" si="6"/>
         <v>erva_mate.png</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="D37" s="1">
         <v>393.0</v>
@@ -30208,14 +30420,14 @@
     </row>
     <row r="38">
       <c r="A38" s="3" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="B38" s="2" t="str">
         <f t="shared" ref="B38:B44" si="7">CONCAT(A38,".jpg")</f>
         <v>fendi.jpg</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="D38" s="1">
         <v>394.0</v>
@@ -30245,14 +30457,14 @@
     </row>
     <row r="39">
       <c r="A39" s="3" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="B39" s="2" t="str">
         <f t="shared" si="7"/>
         <v>fontana.jpg</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="D39" s="1">
         <v>395.0</v>
@@ -30282,14 +30494,14 @@
     </row>
     <row r="40">
       <c r="A40" s="3" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="B40" s="2" t="str">
         <f t="shared" si="7"/>
         <v>freijo.jpg</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="D40" s="1">
         <v>396.0</v>
@@ -30319,14 +30531,14 @@
     </row>
     <row r="41">
       <c r="A41" s="3" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="B41" s="2" t="str">
         <f t="shared" si="7"/>
         <v>fresno_acores.jpg</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="D41" s="1">
         <v>397.0</v>
@@ -30356,14 +30568,14 @@
     </row>
     <row r="42">
       <c r="A42" s="3" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="B42" s="2" t="str">
         <f t="shared" si="7"/>
         <v>fresno_aveiro.jpg</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="D42" s="1">
         <v>398.0</v>
@@ -30393,14 +30605,14 @@
     </row>
     <row r="43">
       <c r="A43" s="3" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="B43" s="2" t="str">
         <f t="shared" si="7"/>
         <v>fresno_coimbra.jpg</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="D43" s="1">
         <v>399.0</v>
@@ -30430,14 +30642,14 @@
     </row>
     <row r="44">
       <c r="A44" s="3" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="B44" s="2" t="str">
         <f t="shared" si="7"/>
         <v>fresno_madeira.jpg</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="D44" s="1">
         <v>400.0</v>
@@ -30467,14 +30679,14 @@
     </row>
     <row r="45">
       <c r="A45" s="3" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="B45" s="2" t="str">
         <f>CONCAT(A45,".png")</f>
         <v>gali.png</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="D45" s="1">
         <v>401.0</v>
@@ -30504,14 +30716,14 @@
     </row>
     <row r="46">
       <c r="A46" s="3" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="B46" s="2" t="str">
         <f t="shared" ref="B46:B47" si="8">CONCAT(A46,".jpg")</f>
         <v>grafite.jpg</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="D46" s="1">
         <v>402.0</v>
@@ -30541,14 +30753,14 @@
     </row>
     <row r="47">
       <c r="A47" s="3" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="B47" s="2" t="str">
         <f t="shared" si="8"/>
         <v>imbuia.jpg</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="D47" s="1">
         <v>403.0</v>
@@ -30578,14 +30790,14 @@
     </row>
     <row r="48">
       <c r="A48" s="3" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="B48" s="2" t="str">
         <f>CONCAT(A48,".png")</f>
         <v>jaspe.png</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="D48" s="1">
         <v>404.0</v>
@@ -30615,14 +30827,14 @@
     </row>
     <row r="49">
       <c r="A49" s="3" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="B49" s="2" t="str">
         <f>CONCAT(A49,".jpg")</f>
         <v>lisboa.jpg</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="D49" s="1">
         <v>405.0</v>
@@ -30652,14 +30864,14 @@
     </row>
     <row r="50">
       <c r="A50" s="3" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="B50" s="2" t="str">
         <f>CONCAT(A50,".tif")</f>
         <v>lume.tif</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="D50" s="1">
         <v>406.0</v>
@@ -30689,14 +30901,14 @@
     </row>
     <row r="51">
       <c r="A51" s="3" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="B51" s="2" t="str">
         <f t="shared" ref="B51:B54" si="9">CONCAT(A51,".png")</f>
         <v>mageo_carvalho.png</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="D51" s="1">
         <v>407.0</v>
@@ -30726,14 +30938,14 @@
     </row>
     <row r="52">
       <c r="A52" s="3" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="B52" s="2" t="str">
         <f t="shared" si="9"/>
         <v>mageo_imbuia.png</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="D52" s="1">
         <v>408.0</v>
@@ -30763,14 +30975,14 @@
     </row>
     <row r="53">
       <c r="A53" s="3" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="B53" s="2" t="str">
         <f t="shared" si="9"/>
         <v>mageo_mel.png</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="D53" s="1">
         <v>409.0</v>
@@ -30800,14 +31012,14 @@
     </row>
     <row r="54">
       <c r="A54" s="3" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="B54" s="2" t="str">
         <f t="shared" si="9"/>
         <v>mangue.png</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="D54" s="1">
         <v>410.0</v>
@@ -30837,14 +31049,14 @@
     </row>
     <row r="55">
       <c r="A55" s="3" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="B55" s="2" t="str">
         <f t="shared" ref="B55:B58" si="10">CONCAT(A55,".jpg")</f>
         <v>marmo.jpg</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="D55" s="1">
         <v>411.0</v>
@@ -30874,14 +31086,14 @@
     </row>
     <row r="56">
       <c r="A56" s="3" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="B56" s="2" t="str">
         <f t="shared" si="10"/>
         <v>marsala.jpg</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="D56" s="1">
         <v>412.0</v>
@@ -30911,14 +31123,14 @@
     </row>
     <row r="57">
       <c r="A57" s="3" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="B57" s="2" t="str">
         <f t="shared" si="10"/>
         <v>maxi_branco.jpg</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="D57" s="1">
         <v>413.0</v>
@@ -30948,14 +31160,14 @@
     </row>
     <row r="58">
       <c r="A58" s="3" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="B58" s="2" t="str">
         <f t="shared" si="10"/>
         <v>metal_champagne.jpg</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="D58" s="1">
         <v>414.0</v>
@@ -30985,14 +31197,14 @@
     </row>
     <row r="59">
       <c r="A59" s="3" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="B59" s="2" t="str">
         <f>CONCAT(A59,".png")</f>
         <v>neblina.png</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="D59" s="1">
         <v>415.0</v>
@@ -31022,14 +31234,14 @@
     </row>
     <row r="60">
       <c r="A60" s="3" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="B60" s="2" t="str">
         <f t="shared" ref="B60:B65" si="11">CONCAT(A60,".jpg")</f>
         <v>nero.jpg</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="D60" s="1">
         <v>416.0</v>
@@ -31059,14 +31271,14 @@
     </row>
     <row r="61">
       <c r="A61" s="3" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="B61" s="2" t="str">
         <f t="shared" si="11"/>
         <v>niquel.jpg</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="D61" s="1">
         <v>417.0</v>
@@ -31096,14 +31308,14 @@
     </row>
     <row r="62">
       <c r="A62" s="3" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="B62" s="2" t="str">
         <f t="shared" si="11"/>
         <v>nogal_champagne.jpg</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="D62" s="1">
         <v>418.0</v>
@@ -31133,14 +31345,14 @@
     </row>
     <row r="63">
       <c r="A63" s="3" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="B63" s="2" t="str">
         <f t="shared" si="11"/>
         <v>nogal_sevilha.jpg</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="D63" s="1">
         <v>419.0</v>
@@ -31170,14 +31382,14 @@
     </row>
     <row r="64">
       <c r="A64" s="3" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="B64" s="2" t="str">
         <f t="shared" si="11"/>
         <v>nogueira_ambar.jpg</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="D64" s="1">
         <v>420.0</v>
@@ -31207,14 +31419,14 @@
     </row>
     <row r="65">
       <c r="A65" s="3" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="B65" s="2" t="str">
         <f t="shared" si="11"/>
         <v>nogueira_rubi.jpg</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="D65" s="1">
         <v>421.0</v>
@@ -31244,14 +31456,14 @@
     </row>
     <row r="66">
       <c r="A66" s="3" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="B66" s="2" t="str">
         <f>CONCAT(A66,".png")</f>
         <v>noite.png</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="D66" s="1">
         <v>422.0</v>
@@ -31281,14 +31493,14 @@
     </row>
     <row r="67">
       <c r="A67" s="3" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="B67" s="2" t="str">
         <f>CONCAT(A67,".tif")</f>
         <v>nuvem.tif</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="D67" s="1">
         <v>423.0</v>
@@ -31318,14 +31530,14 @@
     </row>
     <row r="68">
       <c r="A68" s="3" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="B68" s="2" t="str">
         <f t="shared" ref="B68:B71" si="12">CONCAT(A68,".jpg")</f>
         <v>onix.jpg</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="D68" s="1">
         <v>424.0</v>
@@ -31355,14 +31567,14 @@
     </row>
     <row r="69">
       <c r="A69" s="3" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="B69" s="2" t="str">
         <f t="shared" si="12"/>
         <v>pau_ferro.jpg</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="D69" s="1">
         <v>425.0</v>
@@ -31392,14 +31604,14 @@
     </row>
     <row r="70">
       <c r="A70" s="3" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="B70" s="2" t="str">
         <f t="shared" si="12"/>
         <v>peroba.jpg</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="D70" s="1">
         <v>426.0</v>
@@ -31429,14 +31641,14 @@
     </row>
     <row r="71">
       <c r="A71" s="3" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="B71" s="2" t="str">
         <f t="shared" si="12"/>
         <v>petra.jpg</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="D71" s="1">
         <v>427.0</v>
@@ -31466,14 +31678,14 @@
     </row>
     <row r="72">
       <c r="A72" s="3" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="B72" s="2" t="str">
         <f>CONCAT(A72,".png")</f>
         <v>platina.png</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="D72" s="1">
         <v>428.0</v>
@@ -31503,14 +31715,14 @@
     </row>
     <row r="73">
       <c r="A73" s="3" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="B73" s="2" t="str">
         <f t="shared" ref="B73:B78" si="13">CONCAT(A73,".jpg")</f>
         <v>preto_silk.jpg</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="D73" s="1">
         <v>429.0</v>
@@ -31540,14 +31752,14 @@
     </row>
     <row r="74">
       <c r="A74" s="3" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="B74" s="2" t="str">
         <f t="shared" si="13"/>
         <v>quartzo.jpg</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="D74" s="1">
         <v>430.0</v>
@@ -31577,14 +31789,14 @@
     </row>
     <row r="75">
       <c r="A75" s="3" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="B75" s="2" t="str">
         <f t="shared" si="13"/>
         <v>rosa_milkshake.jpg</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="D75" s="1">
         <v>431.0</v>
@@ -31614,14 +31826,14 @@
     </row>
     <row r="76">
       <c r="A76" s="3" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="B76" s="2" t="str">
         <f t="shared" si="13"/>
         <v>salerno.jpg</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="D76" s="1">
         <v>432.0</v>
@@ -31651,14 +31863,14 @@
     </row>
     <row r="77">
       <c r="A77" s="3" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="B77" s="2" t="str">
         <f t="shared" si="13"/>
         <v>santorini.jpg</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="D77" s="1">
         <v>433.0</v>
@@ -31688,14 +31900,14 @@
     </row>
     <row r="78">
       <c r="A78" s="3" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B78" s="2" t="str">
         <f t="shared" si="13"/>
         <v>savana.jpg</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="D78" s="1">
         <v>434.0</v>
@@ -31725,14 +31937,14 @@
     </row>
     <row r="79">
       <c r="A79" s="3" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="B79" s="2" t="str">
         <f>CONCAT(A79,".tif")</f>
         <v>sonora.tif</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="D79" s="1">
         <v>435.0</v>
@@ -31762,14 +31974,14 @@
     </row>
     <row r="80">
       <c r="A80" s="3" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="B80" s="2" t="str">
         <f>CONCAT(A80,".jpg")</f>
         <v>tauari.jpg</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="D80" s="1">
         <v>436.0</v>
@@ -31799,14 +32011,14 @@
     </row>
     <row r="81">
       <c r="A81" s="3" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="B81" s="2" t="str">
         <f t="shared" ref="B81:B83" si="14">CONCAT(A81,".png")</f>
         <v>tauari_ripado.png</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="D81" s="1">
         <v>437.0</v>
@@ -31836,14 +32048,14 @@
     </row>
     <row r="82">
       <c r="A82" s="3" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="B82" s="2" t="str">
         <f t="shared" si="14"/>
         <v>tear.png</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="D82" s="1">
         <v>438.0</v>
@@ -31873,14 +32085,14 @@
     </row>
     <row r="83">
       <c r="A83" s="3" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="B83" s="2" t="str">
         <f t="shared" si="14"/>
         <v>tecno.png</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="D83" s="1">
         <v>439.0</v>
@@ -31910,14 +32122,14 @@
     </row>
     <row r="84">
       <c r="A84" s="3" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="B84" s="2" t="str">
         <f t="shared" ref="B84:B85" si="15">CONCAT(A84,".jpg")</f>
         <v>teka_bianco.jpg</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="D84" s="1">
         <v>440.0</v>
@@ -31947,14 +32159,14 @@
     </row>
     <row r="85">
       <c r="A85" s="3" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="B85" s="2" t="str">
         <f t="shared" si="15"/>
         <v>tela.jpg</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="D85" s="1">
         <v>441.0</v>
@@ -31984,14 +32196,14 @@
     </row>
     <row r="86">
       <c r="A86" s="3" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="B86" s="2" t="str">
         <f>CONCAT(A86,".png")</f>
         <v>terrino.png</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="D86" s="1">
         <v>442.0</v>
@@ -32021,14 +32233,14 @@
     </row>
     <row r="87">
       <c r="A87" s="3" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="B87" s="2" t="str">
-        <f>CONCAT(A87,".jpg")</f>
+        <f t="shared" ref="B87:B88" si="16">CONCAT(A87,".jpg")</f>
         <v>tijolo.jpg</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="D87" s="1">
         <v>443.0</v>
@@ -32057,10 +32269,19 @@
       <c r="Z87" s="2"/>
     </row>
     <row r="88">
-      <c r="A88" s="2"/>
-      <c r="B88" s="2"/>
-      <c r="C88" s="2"/>
-      <c r="D88" s="4"/>
+      <c r="A88" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B88" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>branco_tx.jpg</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D88" s="1">
+        <v>155.0</v>
+      </c>
       <c r="E88" s="4"/>
       <c r="F88" s="2"/>
       <c r="G88" s="2"/>
@@ -57691,31 +57912,31 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="13.75"/>
+    <col customWidth="1" min="1" max="1" width="36.13"/>
     <col customWidth="1" min="2" max="2" width="4.75"/>
     <col customWidth="1" min="3" max="3" width="6.0"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>8</v>
@@ -57726,10 +57947,10 @@
     </row>
     <row r="3">
       <c r="A3" s="5" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>8</v>
@@ -57740,135 +57961,177 @@
     </row>
     <row r="4">
       <c r="A4" s="5" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="C4" s="1"/>
       <c r="D4" s="1">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1">
         <v>4.0</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="5" t="s">
-        <v>133</v>
+    <row r="8">
+      <c r="A8" s="5" t="s">
+        <v>148</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>134</v>
+      <c r="B8" s="1" t="s">
+        <v>150</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1">
+      <c r="C8" s="1"/>
+      <c r="D8" s="1">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1">
         <v>5.0</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="5" t="s">
-        <v>135</v>
+    <row r="10">
+      <c r="A10" s="5" t="s">
+        <v>153</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>126</v>
+      <c r="B10" s="1" t="s">
+        <v>145</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="1">
+      <c r="C10" s="1"/>
+      <c r="D10" s="1">
         <v>1.0</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="5" t="s">
-        <v>136</v>
+    <row r="11">
+      <c r="A11" s="5" t="s">
+        <v>154</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>128</v>
+      <c r="B11" s="1" t="s">
+        <v>147</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="1">
+      <c r="C11" s="1"/>
+      <c r="D11" s="1">
         <v>2.0</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="5" t="s">
-        <v>137</v>
+    <row r="12">
+      <c r="A12" s="5" t="s">
+        <v>155</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>130</v>
+      <c r="B12" s="1" t="s">
+        <v>147</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="1">
+      <c r="C12" s="1"/>
+      <c r="D12" s="1">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1">
         <v>3.0</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="5" t="s">
-        <v>138</v>
+    <row r="14">
+      <c r="A14" s="5" t="s">
+        <v>155</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>132</v>
+      <c r="B14" s="1" t="s">
+        <v>149</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C14" s="1"/>
+      <c r="D14" s="1">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D16" s="1">
         <v>4.0</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="5" t="s">
-        <v>139</v>
+    <row r="17">
+      <c r="A17" s="5" t="s">
+        <v>156</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>134</v>
+      <c r="B17" s="6" t="s">
+        <v>152</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D17" s="1">
         <v>5.0</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="B12" s="1"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13">
-      <c r="B13" s="1"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14">
-      <c r="B14" s="1"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15">
-      <c r="B15" s="1"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16">
-      <c r="B16" s="6"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17">
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
     </row>
     <row r="18">
       <c r="B18" s="4"/>

--- a/dados.xlsx
+++ b/dados.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="162">
   <si>
     <t>objeto</t>
   </si>
@@ -177,25 +177,40 @@
     <t>bronze.jpg</t>
   </si>
   <si>
-    <t>puxador1</t>
-  </si>
-  <si>
-    <t>puxador1.png</t>
+    <t>puxador01</t>
   </si>
   <si>
     <t>puxadores_tipo</t>
   </si>
   <si>
-    <t>puxador2</t>
+    <t>puxador02</t>
   </si>
   <si>
-    <t>puxador2.png</t>
+    <t>puxador03</t>
+  </si>
+  <si>
+    <t>puxador04</t>
+  </si>
+  <si>
+    <t>puxador05</t>
+  </si>
+  <si>
+    <t>puxador06</t>
+  </si>
+  <si>
+    <t>puxador07</t>
+  </si>
+  <si>
+    <t>puxador08</t>
+  </si>
+  <si>
+    <t>puxador09</t>
+  </si>
+  <si>
+    <t>puxador10</t>
   </si>
   <si>
     <t>metal_polido</t>
-  </si>
-  <si>
-    <t>metal_polido.jpg</t>
   </si>
   <si>
     <t>alabama</t>
@@ -766,7 +781,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="17.38"/>
+    <col customWidth="1" min="1" max="1" width="23.5"/>
     <col customWidth="1" min="5" max="5" width="15.25"/>
   </cols>
   <sheetData>
@@ -1545,9 +1560,7 @@
       <c r="D22" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="E22" s="1"/>
       <c r="F22" s="1">
         <v>51.0</v>
       </c>
@@ -1583,9 +1596,7 @@
       <c r="D23" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="E23" s="1"/>
       <c r="F23" s="1">
         <v>52.0</v>
       </c>
@@ -1621,9 +1632,7 @@
       <c r="D24" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="E24" s="1"/>
       <c r="F24" s="1">
         <v>53.0</v>
       </c>
@@ -1659,9 +1668,7 @@
       <c r="D25" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="E25" s="1"/>
       <c r="F25" s="1">
         <v>54.0</v>
       </c>
@@ -1697,9 +1704,7 @@
       <c r="D26" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="E26" s="1"/>
       <c r="F26" s="1">
         <v>55.0</v>
       </c>
@@ -1735,9 +1740,7 @@
       <c r="D27" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="E27" s="1"/>
       <c r="F27" s="1">
         <v>56.0</v>
       </c>
@@ -1773,9 +1776,7 @@
       <c r="D28" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="E28" s="1"/>
       <c r="F28" s="1">
         <v>57.0</v>
       </c>
@@ -1811,9 +1812,7 @@
       <c r="D29" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="E29" s="1"/>
       <c r="F29" s="1">
         <v>58.0</v>
       </c>
@@ -1849,9 +1848,7 @@
       <c r="D30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="E30" s="1"/>
       <c r="F30" s="1">
         <v>59.0</v>
       </c>
@@ -29047,7 +29044,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
@@ -29241,11 +29241,12 @@
       <c r="A6" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>55</v>
+      <c r="B6" s="2" t="str">
+        <f t="shared" ref="B6:B21" si="1">CONCAT(A6,".jpg")</f>
+        <v>puxador01.jpg</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="4"/>
@@ -29273,13 +29274,14 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>58</v>
+      <c r="B7" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>puxador02.jpg</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
@@ -29309,17 +29311,14 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>60</v>
+      <c r="B8" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>puxador03.jpg</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1" t="s">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -29345,19 +29344,15 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B9" s="2" t="str">
-        <f t="shared" ref="B9:B13" si="1">CONCAT(A9,".jpg")</f>
-        <v>alabama.jpg</v>
+        <f t="shared" si="1"/>
+        <v>puxador04.jpg</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
-      <c r="D9" s="1">
-        <v>367.0</v>
-      </c>
-      <c r="E9" s="4"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -29382,19 +29377,15 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B10" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>alecrim.jpg</v>
+        <v>puxador05.jpg</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
-      <c r="D10" s="1">
-        <v>368.0</v>
-      </c>
-      <c r="E10" s="4"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -29419,19 +29410,15 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B11" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>ametista.jpg</v>
+        <v>puxador06.jpg</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
-      <c r="D11" s="1">
-        <v>369.0</v>
-      </c>
-      <c r="E11" s="4"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -29456,19 +29443,15 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B12" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>antiqua.jpg</v>
+        <v>puxador07.jpg</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
-      <c r="D12" s="1">
-        <v>370.0</v>
-      </c>
-      <c r="E12" s="4"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -29493,19 +29476,15 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B13" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>antuerpia.jpg</v>
+        <v>puxador08.jpg</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
-      <c r="D13" s="1">
-        <v>362.0</v>
-      </c>
-      <c r="E13" s="4"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -29530,19 +29509,15 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B14" s="2" t="str">
-        <f>CONCAT(A14,".png")</f>
-        <v>araucaria.png</v>
+        <f t="shared" si="1"/>
+        <v>puxador09.jpg</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
-      <c r="D14" s="1">
-        <v>371.0</v>
-      </c>
-      <c r="E14" s="4"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -29567,19 +29542,15 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B15" s="2" t="str">
-        <f>CONCAT(A15,".jpg")</f>
-        <v>areia.jpg</v>
+        <f t="shared" si="1"/>
+        <v>puxador10.jpg</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
-      <c r="D15" s="1">
-        <v>372.0</v>
-      </c>
-      <c r="E15" s="4"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -29604,19 +29575,19 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B16" s="2" t="str">
-        <f t="shared" ref="B16:B17" si="2">CONCAT(A16,".png")</f>
-        <v>aura.png</v>
+        <f t="shared" si="1"/>
+        <v>metal_polido.jpg</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
-      <c r="D16" s="1">
-        <v>373.0</v>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1" t="s">
+        <v>8</v>
       </c>
-      <c r="E16" s="4"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -29641,17 +29612,17 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B17" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>azul_ardosia.png</v>
+        <f t="shared" si="1"/>
+        <v>alabama.jpg</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D17" s="1">
-        <v>374.0</v>
+        <v>367.0</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="2"/>
@@ -29678,17 +29649,17 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B18" s="2" t="str">
-        <f t="shared" ref="B18:B22" si="3">CONCAT(A18,".jpg")</f>
-        <v>azul_marinho.jpg</v>
+        <f t="shared" si="1"/>
+        <v>alecrim.jpg</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>46</v>
       </c>
       <c r="D18" s="1">
-        <v>375.0</v>
+        <v>368.0</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="2"/>
@@ -29715,17 +29686,17 @@
     </row>
     <row r="19">
       <c r="A19" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B19" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>baviera.jpg</v>
+        <f t="shared" si="1"/>
+        <v>ametista.jpg</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D19" s="1">
-        <v>376.0</v>
+        <v>369.0</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="2"/>
@@ -29752,17 +29723,17 @@
     </row>
     <row r="20">
       <c r="A20" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B20" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>bilbao.jpg</v>
+        <f t="shared" si="1"/>
+        <v>antiqua.jpg</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D20" s="1">
-        <v>377.0</v>
+        <v>370.0</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="2"/>
@@ -29789,17 +29760,17 @@
     </row>
     <row r="21">
       <c r="A21" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B21" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>branco.jpg</v>
+        <f t="shared" si="1"/>
+        <v>antuerpia.jpg</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D21" s="1">
-        <v>363.0</v>
+        <v>362.0</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="2"/>
@@ -29826,17 +29797,17 @@
     </row>
     <row r="22">
       <c r="A22" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B22" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>branco_iceland.jpg</v>
+        <f>CONCAT(A22,".png")</f>
+        <v>araucaria.png</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D22" s="1">
-        <v>378.0</v>
+        <v>371.0</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="2"/>
@@ -29863,17 +29834,17 @@
     </row>
     <row r="23">
       <c r="A23" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B23" s="2" t="str">
-        <f>CONCAT(A23,".tif")</f>
-        <v>brisa.tif</v>
+        <f>CONCAT(A23,".jpg")</f>
+        <v>areia.jpg</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>46</v>
       </c>
       <c r="D23" s="1">
-        <v>379.0</v>
+        <v>372.0</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="2"/>
@@ -29900,17 +29871,17 @@
     </row>
     <row r="24">
       <c r="A24" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B24" s="2" t="str">
-        <f t="shared" ref="B24:B28" si="4">CONCAT(A24,".jpg")</f>
-        <v>bronzina.jpg</v>
+        <f t="shared" ref="B24:B25" si="2">CONCAT(A24,".png")</f>
+        <v>aura.png</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="D24" s="1">
-        <v>380.0</v>
+        <v>373.0</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="2"/>
@@ -29937,17 +29908,17 @@
     </row>
     <row r="25">
       <c r="A25" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B25" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>capuccino.jpg</v>
+        <f t="shared" si="2"/>
+        <v>azul_ardosia.png</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>46</v>
       </c>
       <c r="D25" s="1">
-        <v>381.0</v>
+        <v>374.0</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="2"/>
@@ -29974,21 +29945,19 @@
     </row>
     <row r="26">
       <c r="A26" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B26" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>caribe.jpg</v>
+        <f t="shared" ref="B26:B30" si="3">CONCAT(A26,".jpg")</f>
+        <v>azul_marinho.jpg</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D26" s="1">
-        <v>382.0</v>
+        <v>375.0</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="E26" s="4"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
@@ -30013,17 +29982,17 @@
     </row>
     <row r="27">
       <c r="A27" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B27" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>carvalho_capri.jpg</v>
+        <f t="shared" si="3"/>
+        <v>baviera.jpg</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D27" s="1">
-        <v>383.0</v>
+        <v>376.0</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="2"/>
@@ -30050,17 +30019,17 @@
     </row>
     <row r="28">
       <c r="A28" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B28" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>carvalho_natural.jpg</v>
+        <f t="shared" si="3"/>
+        <v>bilbao.jpg</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D28" s="1">
-        <v>384.0</v>
+        <v>377.0</v>
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="2"/>
@@ -30087,17 +30056,17 @@
     </row>
     <row r="29">
       <c r="A29" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B29" s="2" t="str">
-        <f>CONCAT(A29,".png")</f>
-        <v>cinza_perfeito.png</v>
+        <f t="shared" si="3"/>
+        <v>branco.jpg</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>46</v>
       </c>
       <c r="D29" s="1">
-        <v>385.0</v>
+        <v>363.0</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="2"/>
@@ -30124,17 +30093,17 @@
     </row>
     <row r="30">
       <c r="A30" s="3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B30" s="2" t="str">
-        <f t="shared" ref="B30:B33" si="5">CONCAT(A30,".jpg")</f>
-        <v>cinza_urban.jpg</v>
+        <f t="shared" si="3"/>
+        <v>branco_iceland.jpg</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>46</v>
       </c>
       <c r="D30" s="1">
-        <v>386.0</v>
+        <v>378.0</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="2"/>
@@ -30161,17 +30130,17 @@
     </row>
     <row r="31">
       <c r="A31" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B31" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>cobre.jpg</v>
+        <f>CONCAT(A31,".tif")</f>
+        <v>brisa.tif</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>46</v>
       </c>
       <c r="D31" s="1">
-        <v>387.0</v>
+        <v>379.0</v>
       </c>
       <c r="E31" s="4"/>
       <c r="F31" s="2"/>
@@ -30198,17 +30167,17 @@
     </row>
     <row r="32">
       <c r="A32" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B32" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>corten.jpg</v>
+        <f t="shared" ref="B32:B36" si="4">CONCAT(A32,".jpg")</f>
+        <v>bronzina.jpg</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="D32" s="1">
-        <v>388.0</v>
+        <v>380.0</v>
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="2"/>
@@ -30235,17 +30204,17 @@
     </row>
     <row r="33">
       <c r="A33" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B33" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>cosmos.jpg</v>
+        <f t="shared" si="4"/>
+        <v>capuccino.jpg</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="D33" s="1">
-        <v>389.0</v>
+        <v>381.0</v>
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="2"/>
@@ -30272,19 +30241,21 @@
     </row>
     <row r="34">
       <c r="A34" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B34" s="2" t="str">
-        <f>CONCAT(A34,".tif")</f>
-        <v>cromio.tif</v>
+        <f t="shared" si="4"/>
+        <v>caribe.jpg</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="D34" s="1">
-        <v>390.0</v>
+        <v>382.0</v>
       </c>
-      <c r="E34" s="4"/>
+      <c r="E34" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
@@ -30309,17 +30280,17 @@
     </row>
     <row r="35">
       <c r="A35" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B35" s="2" t="str">
-        <f>CONCAT(A35,".jpg")</f>
-        <v>curupixa.jpg</v>
+        <f t="shared" si="4"/>
+        <v>carvalho_capri.jpg</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D35" s="1">
-        <v>391.0</v>
+        <v>383.0</v>
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="2"/>
@@ -30346,17 +30317,17 @@
     </row>
     <row r="36">
       <c r="A36" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B36" s="2" t="str">
-        <f t="shared" ref="B36:B37" si="6">CONCAT(A36,".png")</f>
-        <v>curupixa_ripado.png</v>
+        <f t="shared" si="4"/>
+        <v>carvalho_natural.jpg</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D36" s="1">
-        <v>392.0</v>
+        <v>384.0</v>
       </c>
       <c r="E36" s="4"/>
       <c r="F36" s="2"/>
@@ -30383,17 +30354,17 @@
     </row>
     <row r="37">
       <c r="A37" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B37" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>erva_mate.png</v>
+        <f>CONCAT(A37,".png")</f>
+        <v>cinza_perfeito.png</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>46</v>
       </c>
       <c r="D37" s="1">
-        <v>393.0</v>
+        <v>385.0</v>
       </c>
       <c r="E37" s="4"/>
       <c r="F37" s="2"/>
@@ -30420,17 +30391,17 @@
     </row>
     <row r="38">
       <c r="A38" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B38" s="2" t="str">
-        <f t="shared" ref="B38:B44" si="7">CONCAT(A38,".jpg")</f>
-        <v>fendi.jpg</v>
+        <f t="shared" ref="B38:B41" si="5">CONCAT(A38,".jpg")</f>
+        <v>cinza_urban.jpg</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>46</v>
       </c>
       <c r="D38" s="1">
-        <v>394.0</v>
+        <v>386.0</v>
       </c>
       <c r="E38" s="4"/>
       <c r="F38" s="2"/>
@@ -30457,17 +30428,17 @@
     </row>
     <row r="39">
       <c r="A39" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B39" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>fontana.jpg</v>
+        <f t="shared" si="5"/>
+        <v>cobre.jpg</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="D39" s="1">
-        <v>395.0</v>
+        <v>387.0</v>
       </c>
       <c r="E39" s="4"/>
       <c r="F39" s="2"/>
@@ -30494,17 +30465,17 @@
     </row>
     <row r="40">
       <c r="A40" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B40" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>freijo.jpg</v>
+        <f t="shared" si="5"/>
+        <v>corten.jpg</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="D40" s="1">
-        <v>396.0</v>
+        <v>388.0</v>
       </c>
       <c r="E40" s="4"/>
       <c r="F40" s="2"/>
@@ -30531,17 +30502,17 @@
     </row>
     <row r="41">
       <c r="A41" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B41" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>fresno_acores.jpg</v>
+        <f t="shared" si="5"/>
+        <v>cosmos.jpg</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="D41" s="1">
-        <v>397.0</v>
+        <v>389.0</v>
       </c>
       <c r="E41" s="4"/>
       <c r="F41" s="2"/>
@@ -30568,17 +30539,17 @@
     </row>
     <row r="42">
       <c r="A42" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B42" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>fresno_aveiro.jpg</v>
+        <f>CONCAT(A42,".tif")</f>
+        <v>cromio.tif</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="D42" s="1">
-        <v>398.0</v>
+        <v>390.0</v>
       </c>
       <c r="E42" s="4"/>
       <c r="F42" s="2"/>
@@ -30605,17 +30576,17 @@
     </row>
     <row r="43">
       <c r="A43" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B43" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>fresno_coimbra.jpg</v>
+        <f>CONCAT(A43,".jpg")</f>
+        <v>curupixa.jpg</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D43" s="1">
-        <v>399.0</v>
+        <v>391.0</v>
       </c>
       <c r="E43" s="4"/>
       <c r="F43" s="2"/>
@@ -30642,17 +30613,17 @@
     </row>
     <row r="44">
       <c r="A44" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B44" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>fresno_madeira.jpg</v>
+        <f t="shared" ref="B44:B45" si="6">CONCAT(A44,".png")</f>
+        <v>curupixa_ripado.png</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D44" s="1">
-        <v>400.0</v>
+        <v>392.0</v>
       </c>
       <c r="E44" s="4"/>
       <c r="F44" s="2"/>
@@ -30679,17 +30650,17 @@
     </row>
     <row r="45">
       <c r="A45" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B45" s="2" t="str">
-        <f>CONCAT(A45,".png")</f>
-        <v>gali.png</v>
+        <f t="shared" si="6"/>
+        <v>erva_mate.png</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>46</v>
       </c>
       <c r="D45" s="1">
-        <v>401.0</v>
+        <v>393.0</v>
       </c>
       <c r="E45" s="4"/>
       <c r="F45" s="2"/>
@@ -30716,17 +30687,17 @@
     </row>
     <row r="46">
       <c r="A46" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B46" s="2" t="str">
-        <f t="shared" ref="B46:B47" si="8">CONCAT(A46,".jpg")</f>
-        <v>grafite.jpg</v>
+        <f t="shared" ref="B46:B52" si="7">CONCAT(A46,".jpg")</f>
+        <v>fendi.jpg</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>46</v>
       </c>
       <c r="D46" s="1">
-        <v>402.0</v>
+        <v>394.0</v>
       </c>
       <c r="E46" s="4"/>
       <c r="F46" s="2"/>
@@ -30753,17 +30724,17 @@
     </row>
     <row r="47">
       <c r="A47" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B47" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>imbuia.jpg</v>
+        <f t="shared" si="7"/>
+        <v>fontana.jpg</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="D47" s="1">
-        <v>403.0</v>
+        <v>395.0</v>
       </c>
       <c r="E47" s="4"/>
       <c r="F47" s="2"/>
@@ -30790,17 +30761,17 @@
     </row>
     <row r="48">
       <c r="A48" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B48" s="2" t="str">
-        <f>CONCAT(A48,".png")</f>
-        <v>jaspe.png</v>
+        <f t="shared" si="7"/>
+        <v>freijo.jpg</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D48" s="1">
-        <v>404.0</v>
+        <v>396.0</v>
       </c>
       <c r="E48" s="4"/>
       <c r="F48" s="2"/>
@@ -30827,17 +30798,17 @@
     </row>
     <row r="49">
       <c r="A49" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B49" s="2" t="str">
-        <f>CONCAT(A49,".jpg")</f>
-        <v>lisboa.jpg</v>
+        <f t="shared" si="7"/>
+        <v>fresno_acores.jpg</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D49" s="1">
-        <v>405.0</v>
+        <v>397.0</v>
       </c>
       <c r="E49" s="4"/>
       <c r="F49" s="2"/>
@@ -30864,17 +30835,17 @@
     </row>
     <row r="50">
       <c r="A50" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B50" s="2" t="str">
-        <f>CONCAT(A50,".tif")</f>
-        <v>lume.tif</v>
+        <f t="shared" si="7"/>
+        <v>fresno_aveiro.jpg</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D50" s="1">
-        <v>406.0</v>
+        <v>398.0</v>
       </c>
       <c r="E50" s="4"/>
       <c r="F50" s="2"/>
@@ -30901,17 +30872,17 @@
     </row>
     <row r="51">
       <c r="A51" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B51" s="2" t="str">
-        <f t="shared" ref="B51:B54" si="9">CONCAT(A51,".png")</f>
-        <v>mageo_carvalho.png</v>
+        <f t="shared" si="7"/>
+        <v>fresno_coimbra.jpg</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="D51" s="1">
-        <v>407.0</v>
+        <v>399.0</v>
       </c>
       <c r="E51" s="4"/>
       <c r="F51" s="2"/>
@@ -30938,17 +30909,17 @@
     </row>
     <row r="52">
       <c r="A52" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B52" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>mageo_imbuia.png</v>
+        <f t="shared" si="7"/>
+        <v>fresno_madeira.jpg</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="D52" s="1">
-        <v>408.0</v>
+        <v>400.0</v>
       </c>
       <c r="E52" s="4"/>
       <c r="F52" s="2"/>
@@ -30975,17 +30946,17 @@
     </row>
     <row r="53">
       <c r="A53" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B53" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>mageo_mel.png</v>
+        <f>CONCAT(A53,".png")</f>
+        <v>gali.png</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="D53" s="1">
-        <v>409.0</v>
+        <v>401.0</v>
       </c>
       <c r="E53" s="4"/>
       <c r="F53" s="2"/>
@@ -31012,17 +30983,17 @@
     </row>
     <row r="54">
       <c r="A54" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B54" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>mangue.png</v>
+        <f t="shared" ref="B54:B55" si="8">CONCAT(A54,".jpg")</f>
+        <v>grafite.jpg</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="1">
-        <v>410.0</v>
+        <v>402.0</v>
       </c>
       <c r="E54" s="4"/>
       <c r="F54" s="2"/>
@@ -31049,17 +31020,17 @@
     </row>
     <row r="55">
       <c r="A55" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B55" s="2" t="str">
-        <f t="shared" ref="B55:B58" si="10">CONCAT(A55,".jpg")</f>
-        <v>marmo.jpg</v>
+        <f t="shared" si="8"/>
+        <v>imbuia.jpg</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="D55" s="1">
-        <v>411.0</v>
+        <v>403.0</v>
       </c>
       <c r="E55" s="4"/>
       <c r="F55" s="2"/>
@@ -31086,17 +31057,17 @@
     </row>
     <row r="56">
       <c r="A56" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B56" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>marsala.jpg</v>
+        <f>CONCAT(A56,".png")</f>
+        <v>jaspe.png</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>46</v>
       </c>
       <c r="D56" s="1">
-        <v>412.0</v>
+        <v>404.0</v>
       </c>
       <c r="E56" s="4"/>
       <c r="F56" s="2"/>
@@ -31123,17 +31094,17 @@
     </row>
     <row r="57">
       <c r="A57" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B57" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>maxi_branco.jpg</v>
+        <f>CONCAT(A57,".jpg")</f>
+        <v>lisboa.jpg</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D57" s="1">
-        <v>413.0</v>
+        <v>405.0</v>
       </c>
       <c r="E57" s="4"/>
       <c r="F57" s="2"/>
@@ -31160,17 +31131,17 @@
     </row>
     <row r="58">
       <c r="A58" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B58" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>metal_champagne.jpg</v>
+        <f>CONCAT(A58,".tif")</f>
+        <v>lume.tif</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>46</v>
       </c>
       <c r="D58" s="1">
-        <v>414.0</v>
+        <v>406.0</v>
       </c>
       <c r="E58" s="4"/>
       <c r="F58" s="2"/>
@@ -31197,17 +31168,17 @@
     </row>
     <row r="59">
       <c r="A59" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B59" s="2" t="str">
-        <f>CONCAT(A59,".png")</f>
-        <v>neblina.png</v>
+        <f t="shared" ref="B59:B62" si="9">CONCAT(A59,".png")</f>
+        <v>mageo_carvalho.png</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="D59" s="1">
-        <v>415.0</v>
+        <v>407.0</v>
       </c>
       <c r="E59" s="4"/>
       <c r="F59" s="2"/>
@@ -31234,17 +31205,17 @@
     </row>
     <row r="60">
       <c r="A60" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B60" s="2" t="str">
-        <f t="shared" ref="B60:B65" si="11">CONCAT(A60,".jpg")</f>
-        <v>nero.jpg</v>
+        <f t="shared" si="9"/>
+        <v>mageo_imbuia.png</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="D60" s="1">
-        <v>416.0</v>
+        <v>408.0</v>
       </c>
       <c r="E60" s="4"/>
       <c r="F60" s="2"/>
@@ -31271,17 +31242,17 @@
     </row>
     <row r="61">
       <c r="A61" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B61" s="2" t="str">
-        <f t="shared" si="11"/>
-        <v>niquel.jpg</v>
+        <f t="shared" si="9"/>
+        <v>mageo_mel.png</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="D61" s="1">
-        <v>417.0</v>
+        <v>409.0</v>
       </c>
       <c r="E61" s="4"/>
       <c r="F61" s="2"/>
@@ -31308,17 +31279,17 @@
     </row>
     <row r="62">
       <c r="A62" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B62" s="2" t="str">
-        <f t="shared" si="11"/>
-        <v>nogal_champagne.jpg</v>
+        <f t="shared" si="9"/>
+        <v>mangue.png</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D62" s="1">
-        <v>418.0</v>
+        <v>410.0</v>
       </c>
       <c r="E62" s="4"/>
       <c r="F62" s="2"/>
@@ -31345,17 +31316,17 @@
     </row>
     <row r="63">
       <c r="A63" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B63" s="2" t="str">
-        <f t="shared" si="11"/>
-        <v>nogal_sevilha.jpg</v>
+        <f t="shared" ref="B63:B66" si="10">CONCAT(A63,".jpg")</f>
+        <v>marmo.jpg</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="D63" s="1">
-        <v>419.0</v>
+        <v>411.0</v>
       </c>
       <c r="E63" s="4"/>
       <c r="F63" s="2"/>
@@ -31382,17 +31353,17 @@
     </row>
     <row r="64">
       <c r="A64" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B64" s="2" t="str">
-        <f t="shared" si="11"/>
-        <v>nogueira_ambar.jpg</v>
+        <f t="shared" si="10"/>
+        <v>marsala.jpg</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D64" s="1">
-        <v>420.0</v>
+        <v>412.0</v>
       </c>
       <c r="E64" s="4"/>
       <c r="F64" s="2"/>
@@ -31419,17 +31390,17 @@
     </row>
     <row r="65">
       <c r="A65" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B65" s="2" t="str">
-        <f t="shared" si="11"/>
-        <v>nogueira_rubi.jpg</v>
+        <f t="shared" si="10"/>
+        <v>maxi_branco.jpg</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D65" s="1">
-        <v>421.0</v>
+        <v>413.0</v>
       </c>
       <c r="E65" s="4"/>
       <c r="F65" s="2"/>
@@ -31456,17 +31427,17 @@
     </row>
     <row r="66">
       <c r="A66" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B66" s="2" t="str">
-        <f>CONCAT(A66,".png")</f>
-        <v>noite.png</v>
+        <f t="shared" si="10"/>
+        <v>metal_champagne.jpg</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>46</v>
       </c>
       <c r="D66" s="1">
-        <v>422.0</v>
+        <v>414.0</v>
       </c>
       <c r="E66" s="4"/>
       <c r="F66" s="2"/>
@@ -31493,17 +31464,17 @@
     </row>
     <row r="67">
       <c r="A67" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B67" s="2" t="str">
-        <f>CONCAT(A67,".tif")</f>
-        <v>nuvem.tif</v>
+        <f>CONCAT(A67,".png")</f>
+        <v>neblina.png</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>46</v>
       </c>
       <c r="D67" s="1">
-        <v>423.0</v>
+        <v>415.0</v>
       </c>
       <c r="E67" s="4"/>
       <c r="F67" s="2"/>
@@ -31530,17 +31501,17 @@
     </row>
     <row r="68">
       <c r="A68" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B68" s="2" t="str">
-        <f t="shared" ref="B68:B71" si="12">CONCAT(A68,".jpg")</f>
-        <v>onix.jpg</v>
+        <f t="shared" ref="B68:B73" si="11">CONCAT(A68,".jpg")</f>
+        <v>nero.jpg</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D68" s="1">
-        <v>424.0</v>
+        <v>416.0</v>
       </c>
       <c r="E68" s="4"/>
       <c r="F68" s="2"/>
@@ -31567,17 +31538,17 @@
     </row>
     <row r="69">
       <c r="A69" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B69" s="2" t="str">
-        <f t="shared" si="12"/>
-        <v>pau_ferro.jpg</v>
+        <f t="shared" si="11"/>
+        <v>niquel.jpg</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D69" s="1">
-        <v>425.0</v>
+        <v>417.0</v>
       </c>
       <c r="E69" s="4"/>
       <c r="F69" s="2"/>
@@ -31604,17 +31575,17 @@
     </row>
     <row r="70">
       <c r="A70" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B70" s="2" t="str">
-        <f t="shared" si="12"/>
-        <v>peroba.jpg</v>
+        <f t="shared" si="11"/>
+        <v>nogal_champagne.jpg</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D70" s="1">
-        <v>426.0</v>
+        <v>418.0</v>
       </c>
       <c r="E70" s="4"/>
       <c r="F70" s="2"/>
@@ -31641,17 +31612,17 @@
     </row>
     <row r="71">
       <c r="A71" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B71" s="2" t="str">
-        <f t="shared" si="12"/>
-        <v>petra.jpg</v>
+        <f t="shared" si="11"/>
+        <v>nogal_sevilha.jpg</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="D71" s="1">
-        <v>427.0</v>
+        <v>419.0</v>
       </c>
       <c r="E71" s="4"/>
       <c r="F71" s="2"/>
@@ -31678,17 +31649,17 @@
     </row>
     <row r="72">
       <c r="A72" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B72" s="2" t="str">
-        <f>CONCAT(A72,".png")</f>
-        <v>platina.png</v>
+        <f t="shared" si="11"/>
+        <v>nogueira_ambar.jpg</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D72" s="1">
-        <v>428.0</v>
+        <v>420.0</v>
       </c>
       <c r="E72" s="4"/>
       <c r="F72" s="2"/>
@@ -31715,17 +31686,17 @@
     </row>
     <row r="73">
       <c r="A73" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B73" s="2" t="str">
-        <f t="shared" ref="B73:B78" si="13">CONCAT(A73,".jpg")</f>
-        <v>preto_silk.jpg</v>
+        <f t="shared" si="11"/>
+        <v>nogueira_rubi.jpg</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D73" s="1">
-        <v>429.0</v>
+        <v>421.0</v>
       </c>
       <c r="E73" s="4"/>
       <c r="F73" s="2"/>
@@ -31752,17 +31723,17 @@
     </row>
     <row r="74">
       <c r="A74" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B74" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v>quartzo.jpg</v>
+        <f>CONCAT(A74,".png")</f>
+        <v>noite.png</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="D74" s="1">
-        <v>430.0</v>
+        <v>422.0</v>
       </c>
       <c r="E74" s="4"/>
       <c r="F74" s="2"/>
@@ -31789,17 +31760,17 @@
     </row>
     <row r="75">
       <c r="A75" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B75" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v>rosa_milkshake.jpg</v>
+        <f>CONCAT(A75,".tif")</f>
+        <v>nuvem.tif</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>46</v>
       </c>
       <c r="D75" s="1">
-        <v>431.0</v>
+        <v>423.0</v>
       </c>
       <c r="E75" s="4"/>
       <c r="F75" s="2"/>
@@ -31826,17 +31797,17 @@
     </row>
     <row r="76">
       <c r="A76" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B76" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v>salerno.jpg</v>
+        <f t="shared" ref="B76:B79" si="12">CONCAT(A76,".jpg")</f>
+        <v>onix.jpg</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D76" s="1">
-        <v>432.0</v>
+        <v>424.0</v>
       </c>
       <c r="E76" s="4"/>
       <c r="F76" s="2"/>
@@ -31863,17 +31834,17 @@
     </row>
     <row r="77">
       <c r="A77" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B77" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v>santorini.jpg</v>
+        <f t="shared" si="12"/>
+        <v>pau_ferro.jpg</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="D77" s="1">
-        <v>433.0</v>
+        <v>425.0</v>
       </c>
       <c r="E77" s="4"/>
       <c r="F77" s="2"/>
@@ -31900,17 +31871,17 @@
     </row>
     <row r="78">
       <c r="A78" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B78" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v>savana.jpg</v>
+        <f t="shared" si="12"/>
+        <v>peroba.jpg</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D78" s="1">
-        <v>434.0</v>
+        <v>426.0</v>
       </c>
       <c r="E78" s="4"/>
       <c r="F78" s="2"/>
@@ -31937,17 +31908,17 @@
     </row>
     <row r="79">
       <c r="A79" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B79" s="2" t="str">
-        <f>CONCAT(A79,".tif")</f>
-        <v>sonora.tif</v>
+        <f t="shared" si="12"/>
+        <v>petra.jpg</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="D79" s="1">
-        <v>435.0</v>
+        <v>427.0</v>
       </c>
       <c r="E79" s="4"/>
       <c r="F79" s="2"/>
@@ -31974,17 +31945,17 @@
     </row>
     <row r="80">
       <c r="A80" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B80" s="2" t="str">
-        <f>CONCAT(A80,".jpg")</f>
-        <v>tauari.jpg</v>
+        <f>CONCAT(A80,".png")</f>
+        <v>platina.png</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D80" s="1">
-        <v>436.0</v>
+        <v>428.0</v>
       </c>
       <c r="E80" s="4"/>
       <c r="F80" s="2"/>
@@ -32011,17 +31982,17 @@
     </row>
     <row r="81">
       <c r="A81" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B81" s="2" t="str">
-        <f t="shared" ref="B81:B83" si="14">CONCAT(A81,".png")</f>
-        <v>tauari_ripado.png</v>
+        <f t="shared" ref="B81:B86" si="13">CONCAT(A81,".jpg")</f>
+        <v>preto_silk.jpg</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D81" s="1">
-        <v>437.0</v>
+        <v>429.0</v>
       </c>
       <c r="E81" s="4"/>
       <c r="F81" s="2"/>
@@ -32048,17 +32019,17 @@
     </row>
     <row r="82">
       <c r="A82" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B82" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>tear.png</v>
+        <f t="shared" si="13"/>
+        <v>quartzo.jpg</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="D82" s="1">
-        <v>438.0</v>
+        <v>430.0</v>
       </c>
       <c r="E82" s="4"/>
       <c r="F82" s="2"/>
@@ -32085,17 +32056,17 @@
     </row>
     <row r="83">
       <c r="A83" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B83" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>tecno.png</v>
+        <f t="shared" si="13"/>
+        <v>rosa_milkshake.jpg</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="D83" s="1">
-        <v>439.0</v>
+        <v>431.0</v>
       </c>
       <c r="E83" s="4"/>
       <c r="F83" s="2"/>
@@ -32122,17 +32093,17 @@
     </row>
     <row r="84">
       <c r="A84" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B84" s="2" t="str">
-        <f t="shared" ref="B84:B85" si="15">CONCAT(A84,".jpg")</f>
-        <v>teka_bianco.jpg</v>
+        <f t="shared" si="13"/>
+        <v>salerno.jpg</v>
       </c>
       <c r="C84" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D84" s="1">
-        <v>440.0</v>
+        <v>432.0</v>
       </c>
       <c r="E84" s="4"/>
       <c r="F84" s="2"/>
@@ -32159,17 +32130,17 @@
     </row>
     <row r="85">
       <c r="A85" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B85" s="2" t="str">
-        <f t="shared" si="15"/>
-        <v>tela.jpg</v>
+        <f t="shared" si="13"/>
+        <v>santorini.jpg</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="D85" s="1">
-        <v>441.0</v>
+        <v>433.0</v>
       </c>
       <c r="E85" s="4"/>
       <c r="F85" s="2"/>
@@ -32196,17 +32167,17 @@
     </row>
     <row r="86">
       <c r="A86" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B86" s="2" t="str">
-        <f>CONCAT(A86,".png")</f>
-        <v>terrino.png</v>
+        <f t="shared" si="13"/>
+        <v>savana.jpg</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D86" s="1">
-        <v>442.0</v>
+        <v>434.0</v>
       </c>
       <c r="E86" s="4"/>
       <c r="F86" s="2"/>
@@ -32233,17 +32204,17 @@
     </row>
     <row r="87">
       <c r="A87" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B87" s="2" t="str">
-        <f t="shared" ref="B87:B88" si="16">CONCAT(A87,".jpg")</f>
-        <v>tijolo.jpg</v>
+        <f>CONCAT(A87,".tif")</f>
+        <v>sonora.tif</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D87" s="1">
-        <v>443.0</v>
+        <v>435.0</v>
       </c>
       <c r="E87" s="4"/>
       <c r="F87" s="2"/>
@@ -32270,17 +32241,17 @@
     </row>
     <row r="88">
       <c r="A88" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B88" s="2" t="str">
-        <f t="shared" si="16"/>
-        <v>branco_tx.jpg</v>
+        <f>CONCAT(A88,".jpg")</f>
+        <v>tauari.jpg</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="D88" s="1">
-        <v>155.0</v>
+        <v>436.0</v>
       </c>
       <c r="E88" s="4"/>
       <c r="F88" s="2"/>
@@ -32306,10 +32277,19 @@
       <c r="Z88" s="2"/>
     </row>
     <row r="89">
-      <c r="A89" s="2"/>
-      <c r="B89" s="2"/>
-      <c r="C89" s="2"/>
-      <c r="D89" s="4"/>
+      <c r="A89" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B89" s="2" t="str">
+        <f t="shared" ref="B89:B91" si="14">CONCAT(A89,".png")</f>
+        <v>tauari_ripado.png</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D89" s="1">
+        <v>437.0</v>
+      </c>
       <c r="E89" s="4"/>
       <c r="F89" s="2"/>
       <c r="G89" s="2"/>
@@ -32334,10 +32314,19 @@
       <c r="Z89" s="2"/>
     </row>
     <row r="90">
-      <c r="A90" s="2"/>
-      <c r="B90" s="2"/>
-      <c r="C90" s="2"/>
-      <c r="D90" s="4"/>
+      <c r="A90" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B90" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>tear.png</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D90" s="1">
+        <v>438.0</v>
+      </c>
       <c r="E90" s="4"/>
       <c r="F90" s="2"/>
       <c r="G90" s="2"/>
@@ -32362,10 +32351,19 @@
       <c r="Z90" s="2"/>
     </row>
     <row r="91">
-      <c r="A91" s="2"/>
-      <c r="B91" s="2"/>
-      <c r="C91" s="2"/>
-      <c r="D91" s="4"/>
+      <c r="A91" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B91" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>tecno.png</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D91" s="1">
+        <v>439.0</v>
+      </c>
       <c r="E91" s="4"/>
       <c r="F91" s="2"/>
       <c r="G91" s="2"/>
@@ -32390,10 +32388,19 @@
       <c r="Z91" s="2"/>
     </row>
     <row r="92">
-      <c r="A92" s="2"/>
-      <c r="B92" s="2"/>
-      <c r="C92" s="2"/>
-      <c r="D92" s="4"/>
+      <c r="A92" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B92" s="2" t="str">
+        <f t="shared" ref="B92:B93" si="15">CONCAT(A92,".jpg")</f>
+        <v>teka_bianco.jpg</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D92" s="1">
+        <v>440.0</v>
+      </c>
       <c r="E92" s="4"/>
       <c r="F92" s="2"/>
       <c r="G92" s="2"/>
@@ -32418,10 +32425,19 @@
       <c r="Z92" s="2"/>
     </row>
     <row r="93">
-      <c r="A93" s="2"/>
-      <c r="B93" s="2"/>
-      <c r="C93" s="2"/>
-      <c r="D93" s="4"/>
+      <c r="A93" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B93" s="2" t="str">
+        <f t="shared" si="15"/>
+        <v>tela.jpg</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D93" s="1">
+        <v>441.0</v>
+      </c>
       <c r="E93" s="4"/>
       <c r="F93" s="2"/>
       <c r="G93" s="2"/>
@@ -32446,10 +32462,19 @@
       <c r="Z93" s="2"/>
     </row>
     <row r="94">
-      <c r="A94" s="2"/>
-      <c r="B94" s="2"/>
-      <c r="C94" s="2"/>
-      <c r="D94" s="4"/>
+      <c r="A94" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B94" s="2" t="str">
+        <f>CONCAT(A94,".png")</f>
+        <v>terrino.png</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D94" s="1">
+        <v>442.0</v>
+      </c>
       <c r="E94" s="4"/>
       <c r="F94" s="2"/>
       <c r="G94" s="2"/>
@@ -32474,10 +32499,19 @@
       <c r="Z94" s="2"/>
     </row>
     <row r="95">
-      <c r="A95" s="2"/>
-      <c r="B95" s="2"/>
-      <c r="C95" s="2"/>
-      <c r="D95" s="4"/>
+      <c r="A95" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B95" s="2" t="str">
+        <f t="shared" ref="B95:B96" si="16">CONCAT(A95,".jpg")</f>
+        <v>tijolo.jpg</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D95" s="1">
+        <v>443.0</v>
+      </c>
       <c r="E95" s="4"/>
       <c r="F95" s="2"/>
       <c r="G95" s="2"/>
@@ -32502,11 +32536,22 @@
       <c r="Z95" s="2"/>
     </row>
     <row r="96">
-      <c r="A96" s="2"/>
-      <c r="B96" s="2"/>
-      <c r="C96" s="2"/>
-      <c r="D96" s="4"/>
-      <c r="E96" s="4"/>
+      <c r="A96" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B96" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>branco_tx.jpg</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D96" s="1">
+        <v>155.0</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="F96" s="2"/>
       <c r="G96" s="2"/>
       <c r="H96" s="2"/>
@@ -57922,21 +57967,21 @@
         <v>41</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>8</v>
@@ -57947,10 +57992,10 @@
     </row>
     <row r="3">
       <c r="A3" s="5" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>8</v>
@@ -57961,10 +58006,10 @@
     </row>
     <row r="4">
       <c r="A4" s="5" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1">
@@ -57973,10 +58018,10 @@
     </row>
     <row r="5">
       <c r="A5" s="5" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
@@ -57985,10 +58030,10 @@
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>8</v>
@@ -57999,10 +58044,10 @@
     </row>
     <row r="7">
       <c r="A7" s="5" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1">
@@ -58011,10 +58056,10 @@
     </row>
     <row r="8">
       <c r="A8" s="5" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1">
@@ -58023,10 +58068,10 @@
     </row>
     <row r="9">
       <c r="A9" s="5" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1">
@@ -58035,10 +58080,10 @@
     </row>
     <row r="10">
       <c r="A10" s="5" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1">
@@ -58047,10 +58092,10 @@
     </row>
     <row r="11">
       <c r="A11" s="5" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1">
@@ -58059,10 +58104,10 @@
     </row>
     <row r="12">
       <c r="A12" s="5" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1">
@@ -58071,10 +58116,10 @@
     </row>
     <row r="13">
       <c r="A13" s="5" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1">
@@ -58083,10 +58128,10 @@
     </row>
     <row r="14">
       <c r="A14" s="5" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1">
@@ -58095,10 +58140,10 @@
     </row>
     <row r="15">
       <c r="A15" s="5" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1">
@@ -58107,10 +58152,10 @@
     </row>
     <row r="16">
       <c r="A16" s="5" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>8</v>
@@ -58121,10 +58166,10 @@
     </row>
     <row r="17">
       <c r="A17" s="5" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>8</v>

--- a/dados.xlsx
+++ b/dados.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="161">
   <si>
     <t>objeto</t>
   </si>
@@ -465,13 +465,10 @@
     <t>modulo_cozinha_pia_inicio.glb</t>
   </si>
   <si>
-    <t>-1.2</t>
-  </si>
-  <si>
     <t>modulo_cozinha_pia_meio_direita.glb</t>
   </si>
   <si>
-    <t>-0.6</t>
+    <t>0.6</t>
   </si>
   <si>
     <t>modulo_cozinha_pia_meio_esquerda.glb</t>
@@ -480,13 +477,13 @@
     <t>0.0</t>
   </si>
   <si>
-    <t>0.6</t>
+    <t>-0.6</t>
   </si>
   <si>
     <t>modulo_cozinha_pia_fim.glb</t>
   </si>
   <si>
-    <t>1.2</t>
+    <t>-1.2</t>
   </si>
   <si>
     <t>modulo_cozinha_prateleira_inicio.glb</t>
@@ -505,6 +502,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="d.m"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="10.0"/>
@@ -532,7 +532,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -550,6 +550,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0"/>
@@ -57980,8 +57983,8 @@
       <c r="A2" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>150</v>
+      <c r="B2" s="6">
+        <v>45689.0</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>8</v>
@@ -57992,10 +57995,10 @@
     </row>
     <row r="3">
       <c r="A3" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>8</v>
@@ -58006,10 +58009,10 @@
     </row>
     <row r="4">
       <c r="A4" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1">
@@ -58018,10 +58021,10 @@
     </row>
     <row r="5">
       <c r="A5" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
@@ -58030,10 +58033,10 @@
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>8</v>
@@ -58044,10 +58047,10 @@
     </row>
     <row r="7">
       <c r="A7" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1">
@@ -58056,10 +58059,10 @@
     </row>
     <row r="8">
       <c r="A8" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1">
@@ -58068,10 +58071,10 @@
     </row>
     <row r="9">
       <c r="A9" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>157</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1">
@@ -58080,10 +58083,10 @@
     </row>
     <row r="10">
       <c r="A10" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>150</v>
+      <c r="B10" s="6">
+        <v>45689.0</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1">
@@ -58092,10 +58095,10 @@
     </row>
     <row r="11">
       <c r="A11" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1">
@@ -58104,10 +58107,10 @@
     </row>
     <row r="12">
       <c r="A12" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1">
@@ -58116,10 +58119,10 @@
     </row>
     <row r="13">
       <c r="A13" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1">
@@ -58128,10 +58131,10 @@
     </row>
     <row r="14">
       <c r="A14" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1">
@@ -58140,10 +58143,10 @@
     </row>
     <row r="15">
       <c r="A15" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1">
@@ -58152,10 +58155,10 @@
     </row>
     <row r="16">
       <c r="A16" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>8</v>
@@ -58166,10 +58169,10 @@
     </row>
     <row r="17">
       <c r="A17" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>157</v>
+      <c r="B17" s="7" t="s">
+        <v>156</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>8</v>

--- a/dados.xlsx
+++ b/dados.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="162">
   <si>
     <t>objeto</t>
   </si>
@@ -465,6 +465,9 @@
     <t>modulo_cozinha_pia_inicio.glb</t>
   </si>
   <si>
+    <t>1.2</t>
+  </si>
+  <si>
     <t>modulo_cozinha_pia_meio_direita.glb</t>
   </si>
   <si>
@@ -502,9 +505,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="d.m"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="10.0"/>
@@ -532,7 +532,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -550,9 +550,6 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0"/>
@@ -57983,8 +57980,8 @@
       <c r="A2" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="B2" s="6">
-        <v>45689.0</v>
+      <c r="B2" s="6" t="s">
+        <v>150</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>8</v>
@@ -57995,10 +57992,10 @@
     </row>
     <row r="3">
       <c r="A3" s="5" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>8</v>
@@ -58009,10 +58006,10 @@
     </row>
     <row r="4">
       <c r="A4" s="5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1">
@@ -58021,10 +58018,10 @@
     </row>
     <row r="5">
       <c r="A5" s="5" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
@@ -58033,10 +58030,10 @@
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>8</v>
@@ -58047,10 +58044,10 @@
     </row>
     <row r="7">
       <c r="A7" s="5" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1">
@@ -58059,10 +58056,10 @@
     </row>
     <row r="8">
       <c r="A8" s="5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1">
@@ -58071,10 +58068,10 @@
     </row>
     <row r="9">
       <c r="A9" s="5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>156</v>
+      <c r="B9" s="6" t="s">
+        <v>157</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1">
@@ -58083,10 +58080,10 @@
     </row>
     <row r="10">
       <c r="A10" s="5" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
-      <c r="B10" s="6">
-        <v>45689.0</v>
+      <c r="B10" s="6" t="s">
+        <v>150</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1">
@@ -58095,10 +58092,10 @@
     </row>
     <row r="11">
       <c r="A11" s="5" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1">
@@ -58107,10 +58104,10 @@
     </row>
     <row r="12">
       <c r="A12" s="5" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1">
@@ -58119,10 +58116,10 @@
     </row>
     <row r="13">
       <c r="A13" s="5" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1">
@@ -58131,10 +58128,10 @@
     </row>
     <row r="14">
       <c r="A14" s="5" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1">
@@ -58143,10 +58140,10 @@
     </row>
     <row r="15">
       <c r="A15" s="5" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1">
@@ -58155,10 +58152,10 @@
     </row>
     <row r="16">
       <c r="A16" s="5" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>8</v>
@@ -58169,10 +58166,10 @@
     </row>
     <row r="17">
       <c r="A17" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>156</v>
+      <c r="B17" s="6" t="s">
+        <v>157</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>8</v>

--- a/dados.xlsx
+++ b/dados.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="170">
   <si>
     <t>objeto</t>
   </si>
@@ -462,43 +462,67 @@
     <t>botao</t>
   </si>
   <si>
-    <t>modulo_cozinha_pia_inicio.glb</t>
+    <t>modulo1_cozinha_pia_inicio.glb</t>
   </si>
   <si>
     <t>1.2</t>
   </si>
   <si>
-    <t>modulo_cozinha_pia_meio_direita.glb</t>
+    <t>modulo2_cozinha_pia_meio_direita.glb</t>
   </si>
   <si>
     <t>0.6</t>
   </si>
   <si>
-    <t>modulo_cozinha_pia_meio_esquerda.glb</t>
+    <t>modulo2_cozinha_pia_meio_esquerda.glb</t>
+  </si>
+  <si>
+    <t>modulo3_cozinha_pia_meio_direita.glb</t>
   </si>
   <si>
     <t>0.0</t>
   </si>
   <si>
+    <t>modulo3_cozinha_pia_meio_esquerda.glb</t>
+  </si>
+  <si>
+    <t>modulo4_cozinha_pia_meio_direita.glb</t>
+  </si>
+  <si>
     <t>-0.6</t>
   </si>
   <si>
-    <t>modulo_cozinha_pia_fim.glb</t>
+    <t>modulo4_cozinha_pia_meio_esquerda.glb</t>
+  </si>
+  <si>
+    <t>modulo5_cozinha_pia_fim.glb</t>
   </si>
   <si>
     <t>-1.2</t>
   </si>
   <si>
-    <t>modulo_cozinha_prateleira_inicio.glb</t>
+    <t>modulo1_cozinha_prateleira_inicio.glb</t>
   </si>
   <si>
-    <t>modulo_cozinha_prateleira_meio_direita.glb</t>
+    <t>modulo2_cozinha_prateleira_meio_direita.glb</t>
   </si>
   <si>
-    <t>modulo_cozinha_prateleira_meio_esquerda.glb</t>
+    <t>modulo2_cozinha_prateleira_meio_esquerda.glb</t>
   </si>
   <si>
-    <t>modulo_cozinha_prateleira_fim.glb</t>
+    <t>modulo3_cozinha_prateleira_meio_direita.glb</t>
+  </si>
+  <si>
+    <t>modulo3_cozinha_prateleira_meio_esquerda.glb</t>
+  </si>
+  <si>
+    <t>modulo4_cozinha_prateleira_meio_direita.glb</t>
+  </si>
+  <si>
+    <t>modulo4_cozinha_prateleira_meio_esquerda.glb</t>
+  </si>
+  <si>
+    <t>modulo5_cozinha_prateleira_fim.glb</t>
   </si>
 </sst>
 </file>
@@ -58018,10 +58042,10 @@
     </row>
     <row r="5">
       <c r="A5" s="5" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
@@ -58030,10 +58054,10 @@
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>8</v>
@@ -58044,10 +58068,10 @@
     </row>
     <row r="7">
       <c r="A7" s="5" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1">
@@ -58056,10 +58080,10 @@
     </row>
     <row r="8">
       <c r="A8" s="5" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1">
@@ -58068,10 +58092,10 @@
     </row>
     <row r="9">
       <c r="A9" s="5" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1">
@@ -58080,7 +58104,7 @@
     </row>
     <row r="10">
       <c r="A10" s="5" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>150</v>
@@ -58092,7 +58116,7 @@
     </row>
     <row r="11">
       <c r="A11" s="5" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>152</v>
@@ -58104,7 +58128,7 @@
     </row>
     <row r="12">
       <c r="A12" s="5" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>152</v>
@@ -58116,10 +58140,10 @@
     </row>
     <row r="13">
       <c r="A13" s="5" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1">
@@ -58128,10 +58152,10 @@
     </row>
     <row r="14">
       <c r="A14" s="5" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1">
@@ -58140,10 +58164,10 @@
     </row>
     <row r="15">
       <c r="A15" s="5" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1">
@@ -58152,10 +58176,10 @@
     </row>
     <row r="16">
       <c r="A16" s="5" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>8</v>
@@ -58166,10 +58190,10 @@
     </row>
     <row r="17">
       <c r="A17" s="5" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>8</v>

--- a/dados.xlsx
+++ b/dados.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="170">
   <si>
     <t>objeto</t>
   </si>
@@ -29308,9 +29308,7 @@
         <v>55</v>
       </c>
       <c r="D7" s="1"/>
-      <c r="E7" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="E7" s="1"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -57981,7 +57979,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="36.13"/>
+    <col customWidth="1" min="1" max="1" width="37.0"/>
     <col customWidth="1" min="2" max="2" width="4.75"/>
     <col customWidth="1" min="3" max="3" width="6.0"/>
   </cols>

--- a/dados.xlsx
+++ b/dados.xlsx
@@ -556,7 +556,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -571,6 +571,12 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -29085,7 +29091,7 @@
       <c r="A1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -29123,7 +29129,7 @@
       <c r="A2" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>45</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -29159,7 +29165,7 @@
       <c r="A3" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="5" t="s">
         <v>48</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -29195,7 +29201,7 @@
       <c r="A4" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="5" t="s">
         <v>51</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -29229,7 +29235,7 @@
       <c r="A5" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="5" t="s">
         <v>53</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -29265,8 +29271,8 @@
       <c r="A6" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="2" t="str">
-        <f t="shared" ref="B6:B21" si="1">CONCAT(A6,".jpg")</f>
+      <c r="B6" s="6" t="str">
+        <f t="shared" ref="B6:B96" si="1">CONCAT(A6,".jpg")</f>
         <v>puxador01.jpg</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -29300,7 +29306,7 @@
       <c r="A7" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B7" s="2" t="str">
+      <c r="B7" s="6" t="str">
         <f t="shared" si="1"/>
         <v>puxador02.jpg</v>
       </c>
@@ -29335,7 +29341,7 @@
       <c r="A8" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="2" t="str">
+      <c r="B8" s="6" t="str">
         <f t="shared" si="1"/>
         <v>puxador03.jpg</v>
       </c>
@@ -29368,7 +29374,7 @@
       <c r="A9" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B9" s="2" t="str">
+      <c r="B9" s="6" t="str">
         <f t="shared" si="1"/>
         <v>puxador04.jpg</v>
       </c>
@@ -29401,7 +29407,7 @@
       <c r="A10" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B10" s="2" t="str">
+      <c r="B10" s="6" t="str">
         <f t="shared" si="1"/>
         <v>puxador05.jpg</v>
       </c>
@@ -29434,7 +29440,7 @@
       <c r="A11" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B11" s="2" t="str">
+      <c r="B11" s="6" t="str">
         <f t="shared" si="1"/>
         <v>puxador06.jpg</v>
       </c>
@@ -29467,7 +29473,7 @@
       <c r="A12" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B12" s="2" t="str">
+      <c r="B12" s="6" t="str">
         <f t="shared" si="1"/>
         <v>puxador07.jpg</v>
       </c>
@@ -29500,7 +29506,7 @@
       <c r="A13" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B13" s="2" t="str">
+      <c r="B13" s="6" t="str">
         <f t="shared" si="1"/>
         <v>puxador08.jpg</v>
       </c>
@@ -29533,7 +29539,7 @@
       <c r="A14" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B14" s="2" t="str">
+      <c r="B14" s="6" t="str">
         <f t="shared" si="1"/>
         <v>puxador09.jpg</v>
       </c>
@@ -29566,7 +29572,7 @@
       <c r="A15" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B15" s="2" t="str">
+      <c r="B15" s="6" t="str">
         <f t="shared" si="1"/>
         <v>puxador10.jpg</v>
       </c>
@@ -29599,7 +29605,7 @@
       <c r="A16" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B16" s="2" t="str">
+      <c r="B16" s="6" t="str">
         <f t="shared" si="1"/>
         <v>metal_polido.jpg</v>
       </c>
@@ -29636,7 +29642,7 @@
       <c r="A17" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B17" s="2" t="str">
+      <c r="B17" s="6" t="str">
         <f t="shared" si="1"/>
         <v>alabama.jpg</v>
       </c>
@@ -29673,7 +29679,7 @@
       <c r="A18" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="2" t="str">
+      <c r="B18" s="6" t="str">
         <f t="shared" si="1"/>
         <v>alecrim.jpg</v>
       </c>
@@ -29710,7 +29716,7 @@
       <c r="A19" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B19" s="2" t="str">
+      <c r="B19" s="6" t="str">
         <f t="shared" si="1"/>
         <v>ametista.jpg</v>
       </c>
@@ -29747,7 +29753,7 @@
       <c r="A20" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B20" s="2" t="str">
+      <c r="B20" s="6" t="str">
         <f t="shared" si="1"/>
         <v>antiqua.jpg</v>
       </c>
@@ -29784,7 +29790,7 @@
       <c r="A21" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B21" s="2" t="str">
+      <c r="B21" s="6" t="str">
         <f t="shared" si="1"/>
         <v>antuerpia.jpg</v>
       </c>
@@ -29821,9 +29827,9 @@
       <c r="A22" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B22" s="2" t="str">
-        <f>CONCAT(A22,".png")</f>
-        <v>araucaria.png</v>
+      <c r="B22" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>araucaria.jpg</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>49</v>
@@ -29858,8 +29864,8 @@
       <c r="A23" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B23" s="2" t="str">
-        <f>CONCAT(A23,".jpg")</f>
+      <c r="B23" s="6" t="str">
+        <f t="shared" si="1"/>
         <v>areia.jpg</v>
       </c>
       <c r="C23" s="3" t="s">
@@ -29895,9 +29901,9 @@
       <c r="A24" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B24" s="2" t="str">
-        <f t="shared" ref="B24:B25" si="2">CONCAT(A24,".png")</f>
-        <v>aura.png</v>
+      <c r="B24" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>aura.jpg</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>46</v>
@@ -29932,9 +29938,9 @@
       <c r="A25" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B25" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>azul_ardosia.png</v>
+      <c r="B25" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>azul_ardosia.jpg</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>46</v>
@@ -29969,8 +29975,8 @@
       <c r="A26" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B26" s="2" t="str">
-        <f t="shared" ref="B26:B30" si="3">CONCAT(A26,".jpg")</f>
+      <c r="B26" s="6" t="str">
+        <f t="shared" si="1"/>
         <v>azul_marinho.jpg</v>
       </c>
       <c r="C26" s="3" t="s">
@@ -30006,8 +30012,8 @@
       <c r="A27" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B27" s="2" t="str">
-        <f t="shared" si="3"/>
+      <c r="B27" s="6" t="str">
+        <f t="shared" si="1"/>
         <v>baviera.jpg</v>
       </c>
       <c r="C27" s="3" t="s">
@@ -30043,8 +30049,8 @@
       <c r="A28" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B28" s="2" t="str">
-        <f t="shared" si="3"/>
+      <c r="B28" s="6" t="str">
+        <f t="shared" si="1"/>
         <v>bilbao.jpg</v>
       </c>
       <c r="C28" s="3" t="s">
@@ -30080,8 +30086,8 @@
       <c r="A29" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B29" s="2" t="str">
-        <f t="shared" si="3"/>
+      <c r="B29" s="6" t="str">
+        <f t="shared" si="1"/>
         <v>branco.jpg</v>
       </c>
       <c r="C29" s="3" t="s">
@@ -30117,8 +30123,8 @@
       <c r="A30" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B30" s="2" t="str">
-        <f t="shared" si="3"/>
+      <c r="B30" s="6" t="str">
+        <f t="shared" si="1"/>
         <v>branco_iceland.jpg</v>
       </c>
       <c r="C30" s="3" t="s">
@@ -30154,9 +30160,9 @@
       <c r="A31" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B31" s="2" t="str">
-        <f>CONCAT(A31,".tif")</f>
-        <v>brisa.tif</v>
+      <c r="B31" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>brisa.jpg</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>46</v>
@@ -30191,8 +30197,8 @@
       <c r="A32" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B32" s="2" t="str">
-        <f t="shared" ref="B32:B36" si="4">CONCAT(A32,".jpg")</f>
+      <c r="B32" s="6" t="str">
+        <f t="shared" si="1"/>
         <v>bronzina.jpg</v>
       </c>
       <c r="C32" s="3" t="s">
@@ -30228,8 +30234,8 @@
       <c r="A33" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B33" s="2" t="str">
-        <f t="shared" si="4"/>
+      <c r="B33" s="6" t="str">
+        <f t="shared" si="1"/>
         <v>capuccino.jpg</v>
       </c>
       <c r="C33" s="3" t="s">
@@ -30265,8 +30271,8 @@
       <c r="A34" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B34" s="2" t="str">
-        <f t="shared" si="4"/>
+      <c r="B34" s="6" t="str">
+        <f t="shared" si="1"/>
         <v>caribe.jpg</v>
       </c>
       <c r="C34" s="3" t="s">
@@ -30304,8 +30310,8 @@
       <c r="A35" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B35" s="2" t="str">
-        <f t="shared" si="4"/>
+      <c r="B35" s="6" t="str">
+        <f t="shared" si="1"/>
         <v>carvalho_capri.jpg</v>
       </c>
       <c r="C35" s="3" t="s">
@@ -30341,8 +30347,8 @@
       <c r="A36" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B36" s="2" t="str">
-        <f t="shared" si="4"/>
+      <c r="B36" s="6" t="str">
+        <f t="shared" si="1"/>
         <v>carvalho_natural.jpg</v>
       </c>
       <c r="C36" s="3" t="s">
@@ -30378,9 +30384,9 @@
       <c r="A37" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B37" s="2" t="str">
-        <f>CONCAT(A37,".png")</f>
-        <v>cinza_perfeito.png</v>
+      <c r="B37" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>cinza_perfeito.jpg</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>46</v>
@@ -30415,8 +30421,8 @@
       <c r="A38" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B38" s="2" t="str">
-        <f t="shared" ref="B38:B41" si="5">CONCAT(A38,".jpg")</f>
+      <c r="B38" s="6" t="str">
+        <f t="shared" si="1"/>
         <v>cinza_urban.jpg</v>
       </c>
       <c r="C38" s="3" t="s">
@@ -30452,8 +30458,8 @@
       <c r="A39" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B39" s="2" t="str">
-        <f t="shared" si="5"/>
+      <c r="B39" s="6" t="str">
+        <f t="shared" si="1"/>
         <v>cobre.jpg</v>
       </c>
       <c r="C39" s="3" t="s">
@@ -30489,8 +30495,8 @@
       <c r="A40" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B40" s="2" t="str">
-        <f t="shared" si="5"/>
+      <c r="B40" s="6" t="str">
+        <f t="shared" si="1"/>
         <v>corten.jpg</v>
       </c>
       <c r="C40" s="3" t="s">
@@ -30526,8 +30532,8 @@
       <c r="A41" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B41" s="2" t="str">
-        <f t="shared" si="5"/>
+      <c r="B41" s="6" t="str">
+        <f t="shared" si="1"/>
         <v>cosmos.jpg</v>
       </c>
       <c r="C41" s="3" t="s">
@@ -30563,9 +30569,9 @@
       <c r="A42" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B42" s="2" t="str">
-        <f>CONCAT(A42,".tif")</f>
-        <v>cromio.tif</v>
+      <c r="B42" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>cromio.jpg</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>82</v>
@@ -30600,8 +30606,8 @@
       <c r="A43" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B43" s="2" t="str">
-        <f>CONCAT(A43,".jpg")</f>
+      <c r="B43" s="6" t="str">
+        <f t="shared" si="1"/>
         <v>curupixa.jpg</v>
       </c>
       <c r="C43" s="3" t="s">
@@ -30637,9 +30643,9 @@
       <c r="A44" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B44" s="2" t="str">
-        <f t="shared" ref="B44:B45" si="6">CONCAT(A44,".png")</f>
-        <v>curupixa_ripado.png</v>
+      <c r="B44" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>curupixa_ripado.jpg</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>49</v>
@@ -30674,9 +30680,9 @@
       <c r="A45" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B45" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>erva_mate.png</v>
+      <c r="B45" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>erva_mate.jpg</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>46</v>
@@ -30711,8 +30717,8 @@
       <c r="A46" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B46" s="2" t="str">
-        <f t="shared" ref="B46:B52" si="7">CONCAT(A46,".jpg")</f>
+      <c r="B46" s="6" t="str">
+        <f t="shared" si="1"/>
         <v>fendi.jpg</v>
       </c>
       <c r="C46" s="3" t="s">
@@ -30748,8 +30754,8 @@
       <c r="A47" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B47" s="2" t="str">
-        <f t="shared" si="7"/>
+      <c r="B47" s="6" t="str">
+        <f t="shared" si="1"/>
         <v>fontana.jpg</v>
       </c>
       <c r="C47" s="3" t="s">
@@ -30785,8 +30791,8 @@
       <c r="A48" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B48" s="2" t="str">
-        <f t="shared" si="7"/>
+      <c r="B48" s="6" t="str">
+        <f t="shared" si="1"/>
         <v>freijo.jpg</v>
       </c>
       <c r="C48" s="3" t="s">
@@ -30822,8 +30828,8 @@
       <c r="A49" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B49" s="2" t="str">
-        <f t="shared" si="7"/>
+      <c r="B49" s="6" t="str">
+        <f t="shared" si="1"/>
         <v>fresno_acores.jpg</v>
       </c>
       <c r="C49" s="3" t="s">
@@ -30859,8 +30865,8 @@
       <c r="A50" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B50" s="2" t="str">
-        <f t="shared" si="7"/>
+      <c r="B50" s="6" t="str">
+        <f t="shared" si="1"/>
         <v>fresno_aveiro.jpg</v>
       </c>
       <c r="C50" s="3" t="s">
@@ -30896,8 +30902,8 @@
       <c r="A51" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B51" s="2" t="str">
-        <f t="shared" si="7"/>
+      <c r="B51" s="6" t="str">
+        <f t="shared" si="1"/>
         <v>fresno_coimbra.jpg</v>
       </c>
       <c r="C51" s="3" t="s">
@@ -30933,8 +30939,8 @@
       <c r="A52" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B52" s="2" t="str">
-        <f t="shared" si="7"/>
+      <c r="B52" s="6" t="str">
+        <f t="shared" si="1"/>
         <v>fresno_madeira.jpg</v>
       </c>
       <c r="C52" s="3" t="s">
@@ -30970,9 +30976,9 @@
       <c r="A53" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B53" s="2" t="str">
-        <f>CONCAT(A53,".png")</f>
-        <v>gali.png</v>
+      <c r="B53" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>gali.jpg</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>46</v>
@@ -31007,8 +31013,8 @@
       <c r="A54" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B54" s="2" t="str">
-        <f t="shared" ref="B54:B55" si="8">CONCAT(A54,".jpg")</f>
+      <c r="B54" s="6" t="str">
+        <f t="shared" si="1"/>
         <v>grafite.jpg</v>
       </c>
       <c r="C54" s="3" t="s">
@@ -31044,8 +31050,8 @@
       <c r="A55" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B55" s="2" t="str">
-        <f t="shared" si="8"/>
+      <c r="B55" s="6" t="str">
+        <f t="shared" si="1"/>
         <v>imbuia.jpg</v>
       </c>
       <c r="C55" s="3" t="s">
@@ -31081,9 +31087,9 @@
       <c r="A56" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B56" s="2" t="str">
-        <f>CONCAT(A56,".png")</f>
-        <v>jaspe.png</v>
+      <c r="B56" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>jaspe.jpg</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>46</v>
@@ -31118,8 +31124,8 @@
       <c r="A57" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B57" s="2" t="str">
-        <f>CONCAT(A57,".jpg")</f>
+      <c r="B57" s="6" t="str">
+        <f t="shared" si="1"/>
         <v>lisboa.jpg</v>
       </c>
       <c r="C57" s="3" t="s">
@@ -31155,9 +31161,9 @@
       <c r="A58" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B58" s="2" t="str">
-        <f>CONCAT(A58,".tif")</f>
-        <v>lume.tif</v>
+      <c r="B58" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>lume.jpg</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>46</v>
@@ -31192,9 +31198,9 @@
       <c r="A59" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B59" s="2" t="str">
-        <f t="shared" ref="B59:B62" si="9">CONCAT(A59,".png")</f>
-        <v>mageo_carvalho.png</v>
+      <c r="B59" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>mageo_carvalho.jpg</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>82</v>
@@ -31229,9 +31235,9 @@
       <c r="A60" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B60" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>mageo_imbuia.png</v>
+      <c r="B60" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>mageo_imbuia.jpg</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>82</v>
@@ -31266,9 +31272,9 @@
       <c r="A61" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B61" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>mageo_mel.png</v>
+      <c r="B61" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>mageo_mel.jpg</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>82</v>
@@ -31303,9 +31309,9 @@
       <c r="A62" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B62" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>mangue.png</v>
+      <c r="B62" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>mangue.jpg</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>46</v>
@@ -31340,8 +31346,8 @@
       <c r="A63" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B63" s="2" t="str">
-        <f t="shared" ref="B63:B66" si="10">CONCAT(A63,".jpg")</f>
+      <c r="B63" s="6" t="str">
+        <f t="shared" si="1"/>
         <v>marmo.jpg</v>
       </c>
       <c r="C63" s="3" t="s">
@@ -31377,8 +31383,8 @@
       <c r="A64" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B64" s="2" t="str">
-        <f t="shared" si="10"/>
+      <c r="B64" s="6" t="str">
+        <f t="shared" si="1"/>
         <v>marsala.jpg</v>
       </c>
       <c r="C64" s="3" t="s">
@@ -31414,8 +31420,8 @@
       <c r="A65" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B65" s="2" t="str">
-        <f t="shared" si="10"/>
+      <c r="B65" s="6" t="str">
+        <f t="shared" si="1"/>
         <v>maxi_branco.jpg</v>
       </c>
       <c r="C65" s="3" t="s">
@@ -31451,8 +31457,8 @@
       <c r="A66" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="B66" s="2" t="str">
-        <f t="shared" si="10"/>
+      <c r="B66" s="6" t="str">
+        <f t="shared" si="1"/>
         <v>metal_champagne.jpg</v>
       </c>
       <c r="C66" s="3" t="s">
@@ -31488,9 +31494,9 @@
       <c r="A67" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B67" s="2" t="str">
-        <f>CONCAT(A67,".png")</f>
-        <v>neblina.png</v>
+      <c r="B67" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>neblina.jpg</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>46</v>
@@ -31525,8 +31531,8 @@
       <c r="A68" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B68" s="2" t="str">
-        <f t="shared" ref="B68:B73" si="11">CONCAT(A68,".jpg")</f>
+      <c r="B68" s="6" t="str">
+        <f t="shared" si="1"/>
         <v>nero.jpg</v>
       </c>
       <c r="C68" s="3" t="s">
@@ -31562,8 +31568,8 @@
       <c r="A69" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B69" s="2" t="str">
-        <f t="shared" si="11"/>
+      <c r="B69" s="6" t="str">
+        <f t="shared" si="1"/>
         <v>niquel.jpg</v>
       </c>
       <c r="C69" s="3" t="s">
@@ -31599,8 +31605,8 @@
       <c r="A70" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B70" s="2" t="str">
-        <f t="shared" si="11"/>
+      <c r="B70" s="6" t="str">
+        <f t="shared" si="1"/>
         <v>nogal_champagne.jpg</v>
       </c>
       <c r="C70" s="3" t="s">
@@ -31636,8 +31642,8 @@
       <c r="A71" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B71" s="2" t="str">
-        <f t="shared" si="11"/>
+      <c r="B71" s="6" t="str">
+        <f t="shared" si="1"/>
         <v>nogal_sevilha.jpg</v>
       </c>
       <c r="C71" s="3" t="s">
@@ -31673,8 +31679,8 @@
       <c r="A72" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B72" s="2" t="str">
-        <f t="shared" si="11"/>
+      <c r="B72" s="6" t="str">
+        <f t="shared" si="1"/>
         <v>nogueira_ambar.jpg</v>
       </c>
       <c r="C72" s="3" t="s">
@@ -31710,8 +31716,8 @@
       <c r="A73" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B73" s="2" t="str">
-        <f t="shared" si="11"/>
+      <c r="B73" s="6" t="str">
+        <f t="shared" si="1"/>
         <v>nogueira_rubi.jpg</v>
       </c>
       <c r="C73" s="3" t="s">
@@ -31747,9 +31753,9 @@
       <c r="A74" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B74" s="2" t="str">
-        <f>CONCAT(A74,".png")</f>
-        <v>noite.png</v>
+      <c r="B74" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>noite.jpg</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>46</v>
@@ -31784,9 +31790,9 @@
       <c r="A75" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="B75" s="2" t="str">
-        <f>CONCAT(A75,".tif")</f>
-        <v>nuvem.tif</v>
+      <c r="B75" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>nuvem.jpg</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>46</v>
@@ -31821,8 +31827,8 @@
       <c r="A76" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B76" s="2" t="str">
-        <f t="shared" ref="B76:B79" si="12">CONCAT(A76,".jpg")</f>
+      <c r="B76" s="6" t="str">
+        <f t="shared" si="1"/>
         <v>onix.jpg</v>
       </c>
       <c r="C76" s="3" t="s">
@@ -31858,8 +31864,8 @@
       <c r="A77" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B77" s="2" t="str">
-        <f t="shared" si="12"/>
+      <c r="B77" s="6" t="str">
+        <f t="shared" si="1"/>
         <v>pau_ferro.jpg</v>
       </c>
       <c r="C77" s="3" t="s">
@@ -31895,8 +31901,8 @@
       <c r="A78" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B78" s="2" t="str">
-        <f t="shared" si="12"/>
+      <c r="B78" s="6" t="str">
+        <f t="shared" si="1"/>
         <v>peroba.jpg</v>
       </c>
       <c r="C78" s="3" t="s">
@@ -31932,8 +31938,8 @@
       <c r="A79" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B79" s="2" t="str">
-        <f t="shared" si="12"/>
+      <c r="B79" s="6" t="str">
+        <f t="shared" si="1"/>
         <v>petra.jpg</v>
       </c>
       <c r="C79" s="3" t="s">
@@ -31969,9 +31975,9 @@
       <c r="A80" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="B80" s="2" t="str">
-        <f>CONCAT(A80,".png")</f>
-        <v>platina.png</v>
+      <c r="B80" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>platina.jpg</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>46</v>
@@ -32006,8 +32012,8 @@
       <c r="A81" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="B81" s="2" t="str">
-        <f t="shared" ref="B81:B86" si="13">CONCAT(A81,".jpg")</f>
+      <c r="B81" s="6" t="str">
+        <f t="shared" si="1"/>
         <v>preto_silk.jpg</v>
       </c>
       <c r="C81" s="3" t="s">
@@ -32043,8 +32049,8 @@
       <c r="A82" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B82" s="2" t="str">
-        <f t="shared" si="13"/>
+      <c r="B82" s="6" t="str">
+        <f t="shared" si="1"/>
         <v>quartzo.jpg</v>
       </c>
       <c r="C82" s="3" t="s">
@@ -32080,8 +32086,8 @@
       <c r="A83" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="B83" s="2" t="str">
-        <f t="shared" si="13"/>
+      <c r="B83" s="6" t="str">
+        <f t="shared" si="1"/>
         <v>rosa_milkshake.jpg</v>
       </c>
       <c r="C83" s="3" t="s">
@@ -32117,8 +32123,8 @@
       <c r="A84" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B84" s="2" t="str">
-        <f t="shared" si="13"/>
+      <c r="B84" s="6" t="str">
+        <f t="shared" si="1"/>
         <v>salerno.jpg</v>
       </c>
       <c r="C84" s="3" t="s">
@@ -32154,8 +32160,8 @@
       <c r="A85" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="B85" s="2" t="str">
-        <f t="shared" si="13"/>
+      <c r="B85" s="6" t="str">
+        <f t="shared" si="1"/>
         <v>santorini.jpg</v>
       </c>
       <c r="C85" s="3" t="s">
@@ -32191,8 +32197,8 @@
       <c r="A86" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="B86" s="2" t="str">
-        <f t="shared" si="13"/>
+      <c r="B86" s="6" t="str">
+        <f t="shared" si="1"/>
         <v>savana.jpg</v>
       </c>
       <c r="C86" s="3" t="s">
@@ -32228,9 +32234,9 @@
       <c r="A87" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="B87" s="2" t="str">
-        <f>CONCAT(A87,".tif")</f>
-        <v>sonora.tif</v>
+      <c r="B87" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>sonora.jpg</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>49</v>
@@ -32265,8 +32271,8 @@
       <c r="A88" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="B88" s="2" t="str">
-        <f>CONCAT(A88,".jpg")</f>
+      <c r="B88" s="6" t="str">
+        <f t="shared" si="1"/>
         <v>tauari.jpg</v>
       </c>
       <c r="C88" s="3" t="s">
@@ -32302,9 +32308,9 @@
       <c r="A89" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="B89" s="2" t="str">
-        <f t="shared" ref="B89:B91" si="14">CONCAT(A89,".png")</f>
-        <v>tauari_ripado.png</v>
+      <c r="B89" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>tauari_ripado.jpg</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>49</v>
@@ -32339,9 +32345,9 @@
       <c r="A90" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="B90" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>tear.png</v>
+      <c r="B90" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>tear.jpg</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>82</v>
@@ -32376,9 +32382,9 @@
       <c r="A91" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="B91" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>tecno.png</v>
+      <c r="B91" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>tecno.jpg</v>
       </c>
       <c r="C91" s="3" t="s">
         <v>82</v>
@@ -32413,8 +32419,8 @@
       <c r="A92" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="B92" s="2" t="str">
-        <f t="shared" ref="B92:B93" si="15">CONCAT(A92,".jpg")</f>
+      <c r="B92" s="6" t="str">
+        <f t="shared" si="1"/>
         <v>teka_bianco.jpg</v>
       </c>
       <c r="C92" s="3" t="s">
@@ -32450,8 +32456,8 @@
       <c r="A93" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="B93" s="2" t="str">
-        <f t="shared" si="15"/>
+      <c r="B93" s="6" t="str">
+        <f t="shared" si="1"/>
         <v>tela.jpg</v>
       </c>
       <c r="C93" s="3" t="s">
@@ -32487,9 +32493,9 @@
       <c r="A94" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B94" s="2" t="str">
-        <f>CONCAT(A94,".png")</f>
-        <v>terrino.png</v>
+      <c r="B94" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>terrino.jpg</v>
       </c>
       <c r="C94" s="3" t="s">
         <v>46</v>
@@ -32524,8 +32530,8 @@
       <c r="A95" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="B95" s="2" t="str">
-        <f t="shared" ref="B95:B96" si="16">CONCAT(A95,".jpg")</f>
+      <c r="B95" s="6" t="str">
+        <f t="shared" si="1"/>
         <v>tijolo.jpg</v>
       </c>
       <c r="C95" s="3" t="s">
@@ -32561,8 +32567,8 @@
       <c r="A96" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="B96" s="2" t="str">
-        <f t="shared" si="16"/>
+      <c r="B96" s="6" t="str">
+        <f t="shared" si="1"/>
         <v>branco_tx.jpg</v>
       </c>
       <c r="C96" s="3" t="s">
@@ -32598,7 +32604,7 @@
     </row>
     <row r="97">
       <c r="A97" s="2"/>
-      <c r="B97" s="2"/>
+      <c r="B97" s="6"/>
       <c r="C97" s="2"/>
       <c r="D97" s="4"/>
       <c r="E97" s="4"/>
@@ -32626,7 +32632,7 @@
     </row>
     <row r="98">
       <c r="A98" s="2"/>
-      <c r="B98" s="2"/>
+      <c r="B98" s="6"/>
       <c r="C98" s="2"/>
       <c r="D98" s="4"/>
       <c r="E98" s="4"/>
@@ -32654,7 +32660,7 @@
     </row>
     <row r="99">
       <c r="A99" s="2"/>
-      <c r="B99" s="2"/>
+      <c r="B99" s="6"/>
       <c r="C99" s="2"/>
       <c r="D99" s="4"/>
       <c r="E99" s="4"/>
@@ -32682,7 +32688,7 @@
     </row>
     <row r="100">
       <c r="A100" s="2"/>
-      <c r="B100" s="2"/>
+      <c r="B100" s="6"/>
       <c r="C100" s="2"/>
       <c r="D100" s="4"/>
       <c r="E100" s="4"/>
@@ -32710,7 +32716,7 @@
     </row>
     <row r="101">
       <c r="A101" s="2"/>
-      <c r="B101" s="2"/>
+      <c r="B101" s="6"/>
       <c r="C101" s="2"/>
       <c r="D101" s="4"/>
       <c r="E101" s="4"/>
@@ -32738,7 +32744,7 @@
     </row>
     <row r="102">
       <c r="A102" s="2"/>
-      <c r="B102" s="2"/>
+      <c r="B102" s="6"/>
       <c r="C102" s="2"/>
       <c r="D102" s="4"/>
       <c r="E102" s="4"/>
@@ -32766,7 +32772,7 @@
     </row>
     <row r="103">
       <c r="A103" s="2"/>
-      <c r="B103" s="2"/>
+      <c r="B103" s="6"/>
       <c r="C103" s="2"/>
       <c r="D103" s="4"/>
       <c r="E103" s="4"/>
@@ -32794,7 +32800,7 @@
     </row>
     <row r="104">
       <c r="A104" s="2"/>
-      <c r="B104" s="2"/>
+      <c r="B104" s="6"/>
       <c r="C104" s="2"/>
       <c r="D104" s="4"/>
       <c r="E104" s="4"/>
@@ -32822,7 +32828,7 @@
     </row>
     <row r="105">
       <c r="A105" s="2"/>
-      <c r="B105" s="2"/>
+      <c r="B105" s="6"/>
       <c r="C105" s="2"/>
       <c r="D105" s="4"/>
       <c r="E105" s="4"/>
@@ -32850,7 +32856,7 @@
     </row>
     <row r="106">
       <c r="A106" s="2"/>
-      <c r="B106" s="2"/>
+      <c r="B106" s="6"/>
       <c r="C106" s="2"/>
       <c r="D106" s="4"/>
       <c r="E106" s="4"/>
@@ -32878,7 +32884,7 @@
     </row>
     <row r="107">
       <c r="A107" s="2"/>
-      <c r="B107" s="2"/>
+      <c r="B107" s="6"/>
       <c r="C107" s="2"/>
       <c r="D107" s="4"/>
       <c r="E107" s="4"/>
@@ -32906,7 +32912,7 @@
     </row>
     <row r="108">
       <c r="A108" s="2"/>
-      <c r="B108" s="2"/>
+      <c r="B108" s="6"/>
       <c r="C108" s="2"/>
       <c r="D108" s="4"/>
       <c r="E108" s="4"/>
@@ -32934,7 +32940,7 @@
     </row>
     <row r="109">
       <c r="A109" s="2"/>
-      <c r="B109" s="2"/>
+      <c r="B109" s="6"/>
       <c r="C109" s="2"/>
       <c r="D109" s="4"/>
       <c r="E109" s="4"/>
@@ -32962,7 +32968,7 @@
     </row>
     <row r="110">
       <c r="A110" s="2"/>
-      <c r="B110" s="2"/>
+      <c r="B110" s="6"/>
       <c r="C110" s="2"/>
       <c r="D110" s="4"/>
       <c r="E110" s="4"/>
@@ -32990,7 +32996,7 @@
     </row>
     <row r="111">
       <c r="A111" s="2"/>
-      <c r="B111" s="2"/>
+      <c r="B111" s="6"/>
       <c r="C111" s="2"/>
       <c r="D111" s="4"/>
       <c r="E111" s="4"/>
@@ -33018,7 +33024,7 @@
     </row>
     <row r="112">
       <c r="A112" s="2"/>
-      <c r="B112" s="2"/>
+      <c r="B112" s="6"/>
       <c r="C112" s="2"/>
       <c r="D112" s="4"/>
       <c r="E112" s="4"/>
@@ -33046,7 +33052,7 @@
     </row>
     <row r="113">
       <c r="A113" s="2"/>
-      <c r="B113" s="2"/>
+      <c r="B113" s="6"/>
       <c r="C113" s="2"/>
       <c r="D113" s="4"/>
       <c r="E113" s="4"/>
@@ -33074,7 +33080,7 @@
     </row>
     <row r="114">
       <c r="A114" s="2"/>
-      <c r="B114" s="2"/>
+      <c r="B114" s="6"/>
       <c r="C114" s="2"/>
       <c r="D114" s="4"/>
       <c r="E114" s="4"/>
@@ -33102,7 +33108,7 @@
     </row>
     <row r="115">
       <c r="A115" s="2"/>
-      <c r="B115" s="2"/>
+      <c r="B115" s="6"/>
       <c r="C115" s="2"/>
       <c r="D115" s="4"/>
       <c r="E115" s="4"/>
@@ -33130,7 +33136,7 @@
     </row>
     <row r="116">
       <c r="A116" s="2"/>
-      <c r="B116" s="2"/>
+      <c r="B116" s="6"/>
       <c r="C116" s="2"/>
       <c r="D116" s="4"/>
       <c r="E116" s="4"/>
@@ -33158,7 +33164,7 @@
     </row>
     <row r="117">
       <c r="A117" s="2"/>
-      <c r="B117" s="2"/>
+      <c r="B117" s="6"/>
       <c r="C117" s="2"/>
       <c r="D117" s="4"/>
       <c r="E117" s="4"/>
@@ -33186,7 +33192,7 @@
     </row>
     <row r="118">
       <c r="A118" s="2"/>
-      <c r="B118" s="2"/>
+      <c r="B118" s="6"/>
       <c r="C118" s="2"/>
       <c r="D118" s="4"/>
       <c r="E118" s="4"/>
@@ -33214,7 +33220,7 @@
     </row>
     <row r="119">
       <c r="A119" s="2"/>
-      <c r="B119" s="2"/>
+      <c r="B119" s="6"/>
       <c r="C119" s="2"/>
       <c r="D119" s="4"/>
       <c r="E119" s="4"/>
@@ -33242,7 +33248,7 @@
     </row>
     <row r="120">
       <c r="A120" s="2"/>
-      <c r="B120" s="2"/>
+      <c r="B120" s="6"/>
       <c r="C120" s="2"/>
       <c r="D120" s="4"/>
       <c r="E120" s="4"/>
@@ -33270,7 +33276,7 @@
     </row>
     <row r="121">
       <c r="A121" s="2"/>
-      <c r="B121" s="2"/>
+      <c r="B121" s="6"/>
       <c r="C121" s="2"/>
       <c r="D121" s="4"/>
       <c r="E121" s="4"/>
@@ -33298,7 +33304,7 @@
     </row>
     <row r="122">
       <c r="A122" s="2"/>
-      <c r="B122" s="2"/>
+      <c r="B122" s="6"/>
       <c r="C122" s="2"/>
       <c r="D122" s="4"/>
       <c r="E122" s="4"/>
@@ -33326,7 +33332,7 @@
     </row>
     <row r="123">
       <c r="A123" s="2"/>
-      <c r="B123" s="2"/>
+      <c r="B123" s="6"/>
       <c r="C123" s="2"/>
       <c r="D123" s="4"/>
       <c r="E123" s="4"/>
@@ -33354,7 +33360,7 @@
     </row>
     <row r="124">
       <c r="A124" s="2"/>
-      <c r="B124" s="2"/>
+      <c r="B124" s="6"/>
       <c r="C124" s="2"/>
       <c r="D124" s="4"/>
       <c r="E124" s="4"/>
@@ -33382,7 +33388,7 @@
     </row>
     <row r="125">
       <c r="A125" s="2"/>
-      <c r="B125" s="2"/>
+      <c r="B125" s="6"/>
       <c r="C125" s="2"/>
       <c r="D125" s="4"/>
       <c r="E125" s="4"/>
@@ -33410,7 +33416,7 @@
     </row>
     <row r="126">
       <c r="A126" s="2"/>
-      <c r="B126" s="2"/>
+      <c r="B126" s="6"/>
       <c r="C126" s="2"/>
       <c r="D126" s="4"/>
       <c r="E126" s="4"/>
@@ -33438,7 +33444,7 @@
     </row>
     <row r="127">
       <c r="A127" s="2"/>
-      <c r="B127" s="2"/>
+      <c r="B127" s="6"/>
       <c r="C127" s="2"/>
       <c r="D127" s="4"/>
       <c r="E127" s="4"/>
@@ -33466,7 +33472,7 @@
     </row>
     <row r="128">
       <c r="A128" s="2"/>
-      <c r="B128" s="2"/>
+      <c r="B128" s="6"/>
       <c r="C128" s="2"/>
       <c r="D128" s="4"/>
       <c r="E128" s="4"/>
@@ -33494,7 +33500,7 @@
     </row>
     <row r="129">
       <c r="A129" s="2"/>
-      <c r="B129" s="2"/>
+      <c r="B129" s="6"/>
       <c r="C129" s="2"/>
       <c r="D129" s="4"/>
       <c r="E129" s="4"/>
@@ -33522,7 +33528,7 @@
     </row>
     <row r="130">
       <c r="A130" s="2"/>
-      <c r="B130" s="2"/>
+      <c r="B130" s="6"/>
       <c r="C130" s="2"/>
       <c r="D130" s="4"/>
       <c r="E130" s="4"/>
@@ -33550,7 +33556,7 @@
     </row>
     <row r="131">
       <c r="A131" s="2"/>
-      <c r="B131" s="2"/>
+      <c r="B131" s="6"/>
       <c r="C131" s="2"/>
       <c r="D131" s="4"/>
       <c r="E131" s="4"/>
@@ -33578,7 +33584,7 @@
     </row>
     <row r="132">
       <c r="A132" s="2"/>
-      <c r="B132" s="2"/>
+      <c r="B132" s="6"/>
       <c r="C132" s="2"/>
       <c r="D132" s="4"/>
       <c r="E132" s="4"/>
@@ -33606,7 +33612,7 @@
     </row>
     <row r="133">
       <c r="A133" s="2"/>
-      <c r="B133" s="2"/>
+      <c r="B133" s="6"/>
       <c r="C133" s="2"/>
       <c r="D133" s="4"/>
       <c r="E133" s="4"/>
@@ -33634,7 +33640,7 @@
     </row>
     <row r="134">
       <c r="A134" s="2"/>
-      <c r="B134" s="2"/>
+      <c r="B134" s="6"/>
       <c r="C134" s="2"/>
       <c r="D134" s="4"/>
       <c r="E134" s="4"/>
@@ -33662,7 +33668,7 @@
     </row>
     <row r="135">
       <c r="A135" s="2"/>
-      <c r="B135" s="2"/>
+      <c r="B135" s="6"/>
       <c r="C135" s="2"/>
       <c r="D135" s="4"/>
       <c r="E135" s="4"/>
@@ -33690,7 +33696,7 @@
     </row>
     <row r="136">
       <c r="A136" s="2"/>
-      <c r="B136" s="2"/>
+      <c r="B136" s="6"/>
       <c r="C136" s="2"/>
       <c r="D136" s="4"/>
       <c r="E136" s="4"/>
@@ -33718,7 +33724,7 @@
     </row>
     <row r="137">
       <c r="A137" s="2"/>
-      <c r="B137" s="2"/>
+      <c r="B137" s="6"/>
       <c r="C137" s="2"/>
       <c r="D137" s="4"/>
       <c r="E137" s="4"/>
@@ -33746,7 +33752,7 @@
     </row>
     <row r="138">
       <c r="A138" s="2"/>
-      <c r="B138" s="2"/>
+      <c r="B138" s="6"/>
       <c r="C138" s="2"/>
       <c r="D138" s="4"/>
       <c r="E138" s="4"/>
@@ -33774,7 +33780,7 @@
     </row>
     <row r="139">
       <c r="A139" s="2"/>
-      <c r="B139" s="2"/>
+      <c r="B139" s="6"/>
       <c r="C139" s="2"/>
       <c r="D139" s="4"/>
       <c r="E139" s="4"/>
@@ -33802,7 +33808,7 @@
     </row>
     <row r="140">
       <c r="A140" s="2"/>
-      <c r="B140" s="2"/>
+      <c r="B140" s="6"/>
       <c r="C140" s="2"/>
       <c r="D140" s="4"/>
       <c r="E140" s="4"/>
@@ -33830,7 +33836,7 @@
     </row>
     <row r="141">
       <c r="A141" s="2"/>
-      <c r="B141" s="2"/>
+      <c r="B141" s="6"/>
       <c r="C141" s="2"/>
       <c r="D141" s="4"/>
       <c r="E141" s="4"/>
@@ -33858,7 +33864,7 @@
     </row>
     <row r="142">
       <c r="A142" s="2"/>
-      <c r="B142" s="2"/>
+      <c r="B142" s="6"/>
       <c r="C142" s="2"/>
       <c r="D142" s="4"/>
       <c r="E142" s="4"/>
@@ -33886,7 +33892,7 @@
     </row>
     <row r="143">
       <c r="A143" s="2"/>
-      <c r="B143" s="2"/>
+      <c r="B143" s="6"/>
       <c r="C143" s="2"/>
       <c r="D143" s="4"/>
       <c r="E143" s="4"/>
@@ -33914,7 +33920,7 @@
     </row>
     <row r="144">
       <c r="A144" s="2"/>
-      <c r="B144" s="2"/>
+      <c r="B144" s="6"/>
       <c r="C144" s="2"/>
       <c r="D144" s="4"/>
       <c r="E144" s="4"/>
@@ -33942,7 +33948,7 @@
     </row>
     <row r="145">
       <c r="A145" s="2"/>
-      <c r="B145" s="2"/>
+      <c r="B145" s="6"/>
       <c r="C145" s="2"/>
       <c r="D145" s="4"/>
       <c r="E145" s="4"/>
@@ -33970,7 +33976,7 @@
     </row>
     <row r="146">
       <c r="A146" s="2"/>
-      <c r="B146" s="2"/>
+      <c r="B146" s="6"/>
       <c r="C146" s="2"/>
       <c r="D146" s="4"/>
       <c r="E146" s="4"/>
@@ -33998,7 +34004,7 @@
     </row>
     <row r="147">
       <c r="A147" s="2"/>
-      <c r="B147" s="2"/>
+      <c r="B147" s="6"/>
       <c r="C147" s="2"/>
       <c r="D147" s="4"/>
       <c r="E147" s="4"/>
@@ -34026,7 +34032,7 @@
     </row>
     <row r="148">
       <c r="A148" s="2"/>
-      <c r="B148" s="2"/>
+      <c r="B148" s="6"/>
       <c r="C148" s="2"/>
       <c r="D148" s="4"/>
       <c r="E148" s="4"/>
@@ -34054,7 +34060,7 @@
     </row>
     <row r="149">
       <c r="A149" s="2"/>
-      <c r="B149" s="2"/>
+      <c r="B149" s="6"/>
       <c r="C149" s="2"/>
       <c r="D149" s="4"/>
       <c r="E149" s="4"/>
@@ -34082,7 +34088,7 @@
     </row>
     <row r="150">
       <c r="A150" s="2"/>
-      <c r="B150" s="2"/>
+      <c r="B150" s="6"/>
       <c r="C150" s="2"/>
       <c r="D150" s="4"/>
       <c r="E150" s="4"/>
@@ -34110,7 +34116,7 @@
     </row>
     <row r="151">
       <c r="A151" s="2"/>
-      <c r="B151" s="2"/>
+      <c r="B151" s="6"/>
       <c r="C151" s="2"/>
       <c r="D151" s="4"/>
       <c r="E151" s="4"/>
@@ -34138,7 +34144,7 @@
     </row>
     <row r="152">
       <c r="A152" s="2"/>
-      <c r="B152" s="2"/>
+      <c r="B152" s="6"/>
       <c r="C152" s="2"/>
       <c r="D152" s="4"/>
       <c r="E152" s="4"/>
@@ -34166,7 +34172,7 @@
     </row>
     <row r="153">
       <c r="A153" s="2"/>
-      <c r="B153" s="2"/>
+      <c r="B153" s="6"/>
       <c r="C153" s="2"/>
       <c r="D153" s="4"/>
       <c r="E153" s="4"/>
@@ -34194,7 +34200,7 @@
     </row>
     <row r="154">
       <c r="A154" s="2"/>
-      <c r="B154" s="2"/>
+      <c r="B154" s="6"/>
       <c r="C154" s="2"/>
       <c r="D154" s="4"/>
       <c r="E154" s="4"/>
@@ -34222,7 +34228,7 @@
     </row>
     <row r="155">
       <c r="A155" s="2"/>
-      <c r="B155" s="2"/>
+      <c r="B155" s="6"/>
       <c r="C155" s="2"/>
       <c r="D155" s="4"/>
       <c r="E155" s="4"/>
@@ -34250,7 +34256,7 @@
     </row>
     <row r="156">
       <c r="A156" s="2"/>
-      <c r="B156" s="2"/>
+      <c r="B156" s="6"/>
       <c r="C156" s="2"/>
       <c r="D156" s="4"/>
       <c r="E156" s="4"/>
@@ -34278,7 +34284,7 @@
     </row>
     <row r="157">
       <c r="A157" s="2"/>
-      <c r="B157" s="2"/>
+      <c r="B157" s="6"/>
       <c r="C157" s="2"/>
       <c r="D157" s="4"/>
       <c r="E157" s="4"/>
@@ -34306,7 +34312,7 @@
     </row>
     <row r="158">
       <c r="A158" s="2"/>
-      <c r="B158" s="2"/>
+      <c r="B158" s="6"/>
       <c r="C158" s="2"/>
       <c r="D158" s="4"/>
       <c r="E158" s="4"/>
@@ -34334,7 +34340,7 @@
     </row>
     <row r="159">
       <c r="A159" s="2"/>
-      <c r="B159" s="2"/>
+      <c r="B159" s="6"/>
       <c r="C159" s="2"/>
       <c r="D159" s="4"/>
       <c r="E159" s="4"/>
@@ -34362,7 +34368,7 @@
     </row>
     <row r="160">
       <c r="A160" s="2"/>
-      <c r="B160" s="2"/>
+      <c r="B160" s="6"/>
       <c r="C160" s="2"/>
       <c r="D160" s="4"/>
       <c r="E160" s="4"/>
@@ -34390,7 +34396,7 @@
     </row>
     <row r="161">
       <c r="A161" s="2"/>
-      <c r="B161" s="2"/>
+      <c r="B161" s="6"/>
       <c r="C161" s="2"/>
       <c r="D161" s="4"/>
       <c r="E161" s="4"/>
@@ -34418,7 +34424,7 @@
     </row>
     <row r="162">
       <c r="A162" s="2"/>
-      <c r="B162" s="2"/>
+      <c r="B162" s="6"/>
       <c r="C162" s="2"/>
       <c r="D162" s="4"/>
       <c r="E162" s="4"/>
@@ -34446,7 +34452,7 @@
     </row>
     <row r="163">
       <c r="A163" s="2"/>
-      <c r="B163" s="2"/>
+      <c r="B163" s="6"/>
       <c r="C163" s="2"/>
       <c r="D163" s="4"/>
       <c r="E163" s="4"/>
@@ -34474,7 +34480,7 @@
     </row>
     <row r="164">
       <c r="A164" s="2"/>
-      <c r="B164" s="2"/>
+      <c r="B164" s="6"/>
       <c r="C164" s="2"/>
       <c r="D164" s="4"/>
       <c r="E164" s="4"/>
@@ -34502,7 +34508,7 @@
     </row>
     <row r="165">
       <c r="A165" s="2"/>
-      <c r="B165" s="2"/>
+      <c r="B165" s="6"/>
       <c r="C165" s="2"/>
       <c r="D165" s="4"/>
       <c r="E165" s="4"/>
@@ -34530,7 +34536,7 @@
     </row>
     <row r="166">
       <c r="A166" s="2"/>
-      <c r="B166" s="2"/>
+      <c r="B166" s="6"/>
       <c r="C166" s="2"/>
       <c r="D166" s="4"/>
       <c r="E166" s="4"/>
@@ -34558,7 +34564,7 @@
     </row>
     <row r="167">
       <c r="A167" s="2"/>
-      <c r="B167" s="2"/>
+      <c r="B167" s="6"/>
       <c r="C167" s="2"/>
       <c r="D167" s="4"/>
       <c r="E167" s="4"/>
@@ -34586,7 +34592,7 @@
     </row>
     <row r="168">
       <c r="A168" s="2"/>
-      <c r="B168" s="2"/>
+      <c r="B168" s="6"/>
       <c r="C168" s="2"/>
       <c r="D168" s="4"/>
       <c r="E168" s="4"/>
@@ -34614,7 +34620,7 @@
     </row>
     <row r="169">
       <c r="A169" s="2"/>
-      <c r="B169" s="2"/>
+      <c r="B169" s="6"/>
       <c r="C169" s="2"/>
       <c r="D169" s="4"/>
       <c r="E169" s="4"/>
@@ -34642,7 +34648,7 @@
     </row>
     <row r="170">
       <c r="A170" s="2"/>
-      <c r="B170" s="2"/>
+      <c r="B170" s="6"/>
       <c r="C170" s="2"/>
       <c r="D170" s="4"/>
       <c r="E170" s="4"/>
@@ -34670,7 +34676,7 @@
     </row>
     <row r="171">
       <c r="A171" s="2"/>
-      <c r="B171" s="2"/>
+      <c r="B171" s="6"/>
       <c r="C171" s="2"/>
       <c r="D171" s="4"/>
       <c r="E171" s="4"/>
@@ -34698,7 +34704,7 @@
     </row>
     <row r="172">
       <c r="A172" s="2"/>
-      <c r="B172" s="2"/>
+      <c r="B172" s="6"/>
       <c r="C172" s="2"/>
       <c r="D172" s="4"/>
       <c r="E172" s="4"/>
@@ -34726,7 +34732,7 @@
     </row>
     <row r="173">
       <c r="A173" s="2"/>
-      <c r="B173" s="2"/>
+      <c r="B173" s="6"/>
       <c r="C173" s="2"/>
       <c r="D173" s="4"/>
       <c r="E173" s="4"/>
@@ -34754,7 +34760,7 @@
     </row>
     <row r="174">
       <c r="A174" s="2"/>
-      <c r="B174" s="2"/>
+      <c r="B174" s="6"/>
       <c r="C174" s="2"/>
       <c r="D174" s="4"/>
       <c r="E174" s="4"/>
@@ -34782,7 +34788,7 @@
     </row>
     <row r="175">
       <c r="A175" s="2"/>
-      <c r="B175" s="2"/>
+      <c r="B175" s="6"/>
       <c r="C175" s="2"/>
       <c r="D175" s="4"/>
       <c r="E175" s="4"/>
@@ -34810,7 +34816,7 @@
     </row>
     <row r="176">
       <c r="A176" s="2"/>
-      <c r="B176" s="2"/>
+      <c r="B176" s="6"/>
       <c r="C176" s="2"/>
       <c r="D176" s="4"/>
       <c r="E176" s="4"/>
@@ -34838,7 +34844,7 @@
     </row>
     <row r="177">
       <c r="A177" s="2"/>
-      <c r="B177" s="2"/>
+      <c r="B177" s="6"/>
       <c r="C177" s="2"/>
       <c r="D177" s="4"/>
       <c r="E177" s="4"/>
@@ -34866,7 +34872,7 @@
     </row>
     <row r="178">
       <c r="A178" s="2"/>
-      <c r="B178" s="2"/>
+      <c r="B178" s="6"/>
       <c r="C178" s="2"/>
       <c r="D178" s="4"/>
       <c r="E178" s="4"/>
@@ -34894,7 +34900,7 @@
     </row>
     <row r="179">
       <c r="A179" s="2"/>
-      <c r="B179" s="2"/>
+      <c r="B179" s="6"/>
       <c r="C179" s="2"/>
       <c r="D179" s="4"/>
       <c r="E179" s="4"/>
@@ -34922,7 +34928,7 @@
     </row>
     <row r="180">
       <c r="A180" s="2"/>
-      <c r="B180" s="2"/>
+      <c r="B180" s="6"/>
       <c r="C180" s="2"/>
       <c r="D180" s="4"/>
       <c r="E180" s="4"/>
@@ -34950,7 +34956,7 @@
     </row>
     <row r="181">
       <c r="A181" s="2"/>
-      <c r="B181" s="2"/>
+      <c r="B181" s="6"/>
       <c r="C181" s="2"/>
       <c r="D181" s="4"/>
       <c r="E181" s="4"/>
@@ -34978,7 +34984,7 @@
     </row>
     <row r="182">
       <c r="A182" s="2"/>
-      <c r="B182" s="2"/>
+      <c r="B182" s="6"/>
       <c r="C182" s="2"/>
       <c r="D182" s="4"/>
       <c r="E182" s="4"/>
@@ -35006,7 +35012,7 @@
     </row>
     <row r="183">
       <c r="A183" s="2"/>
-      <c r="B183" s="2"/>
+      <c r="B183" s="6"/>
       <c r="C183" s="2"/>
       <c r="D183" s="4"/>
       <c r="E183" s="4"/>
@@ -35034,7 +35040,7 @@
     </row>
     <row r="184">
       <c r="A184" s="2"/>
-      <c r="B184" s="2"/>
+      <c r="B184" s="6"/>
       <c r="C184" s="2"/>
       <c r="D184" s="4"/>
       <c r="E184" s="4"/>
@@ -35062,7 +35068,7 @@
     </row>
     <row r="185">
       <c r="A185" s="2"/>
-      <c r="B185" s="2"/>
+      <c r="B185" s="6"/>
       <c r="C185" s="2"/>
       <c r="D185" s="4"/>
       <c r="E185" s="4"/>
@@ -35090,7 +35096,7 @@
     </row>
     <row r="186">
       <c r="A186" s="2"/>
-      <c r="B186" s="2"/>
+      <c r="B186" s="6"/>
       <c r="C186" s="2"/>
       <c r="D186" s="4"/>
       <c r="E186" s="4"/>
@@ -35118,7 +35124,7 @@
     </row>
     <row r="187">
       <c r="A187" s="2"/>
-      <c r="B187" s="2"/>
+      <c r="B187" s="6"/>
       <c r="C187" s="2"/>
       <c r="D187" s="4"/>
       <c r="E187" s="4"/>
@@ -35146,7 +35152,7 @@
     </row>
     <row r="188">
       <c r="A188" s="2"/>
-      <c r="B188" s="2"/>
+      <c r="B188" s="6"/>
       <c r="C188" s="2"/>
       <c r="D188" s="4"/>
       <c r="E188" s="4"/>
@@ -35174,7 +35180,7 @@
     </row>
     <row r="189">
       <c r="A189" s="2"/>
-      <c r="B189" s="2"/>
+      <c r="B189" s="6"/>
       <c r="C189" s="2"/>
       <c r="D189" s="4"/>
       <c r="E189" s="4"/>
@@ -35202,7 +35208,7 @@
     </row>
     <row r="190">
       <c r="A190" s="2"/>
-      <c r="B190" s="2"/>
+      <c r="B190" s="6"/>
       <c r="C190" s="2"/>
       <c r="D190" s="4"/>
       <c r="E190" s="4"/>
@@ -35230,7 +35236,7 @@
     </row>
     <row r="191">
       <c r="A191" s="2"/>
-      <c r="B191" s="2"/>
+      <c r="B191" s="6"/>
       <c r="C191" s="2"/>
       <c r="D191" s="4"/>
       <c r="E191" s="4"/>
@@ -35258,7 +35264,7 @@
     </row>
     <row r="192">
       <c r="A192" s="2"/>
-      <c r="B192" s="2"/>
+      <c r="B192" s="6"/>
       <c r="C192" s="2"/>
       <c r="D192" s="4"/>
       <c r="E192" s="4"/>
@@ -35286,7 +35292,7 @@
     </row>
     <row r="193">
       <c r="A193" s="2"/>
-      <c r="B193" s="2"/>
+      <c r="B193" s="6"/>
       <c r="C193" s="2"/>
       <c r="D193" s="4"/>
       <c r="E193" s="4"/>
@@ -35314,7 +35320,7 @@
     </row>
     <row r="194">
       <c r="A194" s="2"/>
-      <c r="B194" s="2"/>
+      <c r="B194" s="6"/>
       <c r="C194" s="2"/>
       <c r="D194" s="4"/>
       <c r="E194" s="4"/>
@@ -35342,7 +35348,7 @@
     </row>
     <row r="195">
       <c r="A195" s="2"/>
-      <c r="B195" s="2"/>
+      <c r="B195" s="6"/>
       <c r="C195" s="2"/>
       <c r="D195" s="4"/>
       <c r="E195" s="4"/>
@@ -35370,7 +35376,7 @@
     </row>
     <row r="196">
       <c r="A196" s="2"/>
-      <c r="B196" s="2"/>
+      <c r="B196" s="6"/>
       <c r="C196" s="2"/>
       <c r="D196" s="4"/>
       <c r="E196" s="4"/>
@@ -35398,7 +35404,7 @@
     </row>
     <row r="197">
       <c r="A197" s="2"/>
-      <c r="B197" s="2"/>
+      <c r="B197" s="6"/>
       <c r="C197" s="2"/>
       <c r="D197" s="4"/>
       <c r="E197" s="4"/>
@@ -35426,7 +35432,7 @@
     </row>
     <row r="198">
       <c r="A198" s="2"/>
-      <c r="B198" s="2"/>
+      <c r="B198" s="6"/>
       <c r="C198" s="2"/>
       <c r="D198" s="4"/>
       <c r="E198" s="4"/>
@@ -35454,7 +35460,7 @@
     </row>
     <row r="199">
       <c r="A199" s="2"/>
-      <c r="B199" s="2"/>
+      <c r="B199" s="6"/>
       <c r="C199" s="2"/>
       <c r="D199" s="4"/>
       <c r="E199" s="4"/>
@@ -35482,7 +35488,7 @@
     </row>
     <row r="200">
       <c r="A200" s="2"/>
-      <c r="B200" s="2"/>
+      <c r="B200" s="6"/>
       <c r="C200" s="2"/>
       <c r="D200" s="4"/>
       <c r="E200" s="4"/>
@@ -35510,7 +35516,7 @@
     </row>
     <row r="201">
       <c r="A201" s="2"/>
-      <c r="B201" s="2"/>
+      <c r="B201" s="6"/>
       <c r="C201" s="2"/>
       <c r="D201" s="4"/>
       <c r="E201" s="4"/>
@@ -35538,7 +35544,7 @@
     </row>
     <row r="202">
       <c r="A202" s="2"/>
-      <c r="B202" s="2"/>
+      <c r="B202" s="6"/>
       <c r="C202" s="2"/>
       <c r="D202" s="4"/>
       <c r="E202" s="4"/>
@@ -35566,7 +35572,7 @@
     </row>
     <row r="203">
       <c r="A203" s="2"/>
-      <c r="B203" s="2"/>
+      <c r="B203" s="6"/>
       <c r="C203" s="2"/>
       <c r="D203" s="4"/>
       <c r="E203" s="4"/>
@@ -35594,7 +35600,7 @@
     </row>
     <row r="204">
       <c r="A204" s="2"/>
-      <c r="B204" s="2"/>
+      <c r="B204" s="6"/>
       <c r="C204" s="2"/>
       <c r="D204" s="4"/>
       <c r="E204" s="4"/>
@@ -35622,7 +35628,7 @@
     </row>
     <row r="205">
       <c r="A205" s="2"/>
-      <c r="B205" s="2"/>
+      <c r="B205" s="6"/>
       <c r="C205" s="2"/>
       <c r="D205" s="4"/>
       <c r="E205" s="4"/>
@@ -35650,7 +35656,7 @@
     </row>
     <row r="206">
       <c r="A206" s="2"/>
-      <c r="B206" s="2"/>
+      <c r="B206" s="6"/>
       <c r="C206" s="2"/>
       <c r="D206" s="4"/>
       <c r="E206" s="4"/>
@@ -35678,7 +35684,7 @@
     </row>
     <row r="207">
       <c r="A207" s="2"/>
-      <c r="B207" s="2"/>
+      <c r="B207" s="6"/>
       <c r="C207" s="2"/>
       <c r="D207" s="4"/>
       <c r="E207" s="4"/>
@@ -35706,7 +35712,7 @@
     </row>
     <row r="208">
       <c r="A208" s="2"/>
-      <c r="B208" s="2"/>
+      <c r="B208" s="6"/>
       <c r="C208" s="2"/>
       <c r="D208" s="4"/>
       <c r="E208" s="4"/>
@@ -35734,7 +35740,7 @@
     </row>
     <row r="209">
       <c r="A209" s="2"/>
-      <c r="B209" s="2"/>
+      <c r="B209" s="6"/>
       <c r="C209" s="2"/>
       <c r="D209" s="4"/>
       <c r="E209" s="4"/>
@@ -35762,7 +35768,7 @@
     </row>
     <row r="210">
       <c r="A210" s="2"/>
-      <c r="B210" s="2"/>
+      <c r="B210" s="6"/>
       <c r="C210" s="2"/>
       <c r="D210" s="4"/>
       <c r="E210" s="4"/>
@@ -35790,7 +35796,7 @@
     </row>
     <row r="211">
       <c r="A211" s="2"/>
-      <c r="B211" s="2"/>
+      <c r="B211" s="6"/>
       <c r="C211" s="2"/>
       <c r="D211" s="4"/>
       <c r="E211" s="4"/>
@@ -35818,7 +35824,7 @@
     </row>
     <row r="212">
       <c r="A212" s="2"/>
-      <c r="B212" s="2"/>
+      <c r="B212" s="6"/>
       <c r="C212" s="2"/>
       <c r="D212" s="4"/>
       <c r="E212" s="4"/>
@@ -35846,7 +35852,7 @@
     </row>
     <row r="213">
       <c r="A213" s="2"/>
-      <c r="B213" s="2"/>
+      <c r="B213" s="6"/>
       <c r="C213" s="2"/>
       <c r="D213" s="4"/>
       <c r="E213" s="4"/>
@@ -35874,7 +35880,7 @@
     </row>
     <row r="214">
       <c r="A214" s="2"/>
-      <c r="B214" s="2"/>
+      <c r="B214" s="6"/>
       <c r="C214" s="2"/>
       <c r="D214" s="4"/>
       <c r="E214" s="4"/>
@@ -35902,7 +35908,7 @@
     </row>
     <row r="215">
       <c r="A215" s="2"/>
-      <c r="B215" s="2"/>
+      <c r="B215" s="6"/>
       <c r="C215" s="2"/>
       <c r="D215" s="4"/>
       <c r="E215" s="4"/>
@@ -35930,7 +35936,7 @@
     </row>
     <row r="216">
       <c r="A216" s="2"/>
-      <c r="B216" s="2"/>
+      <c r="B216" s="6"/>
       <c r="C216" s="2"/>
       <c r="D216" s="4"/>
       <c r="E216" s="4"/>
@@ -35958,7 +35964,7 @@
     </row>
     <row r="217">
       <c r="A217" s="2"/>
-      <c r="B217" s="2"/>
+      <c r="B217" s="6"/>
       <c r="C217" s="2"/>
       <c r="D217" s="4"/>
       <c r="E217" s="4"/>
@@ -35986,7 +35992,7 @@
     </row>
     <row r="218">
       <c r="A218" s="2"/>
-      <c r="B218" s="2"/>
+      <c r="B218" s="6"/>
       <c r="C218" s="2"/>
       <c r="D218" s="4"/>
       <c r="E218" s="4"/>
@@ -36014,7 +36020,7 @@
     </row>
     <row r="219">
       <c r="A219" s="2"/>
-      <c r="B219" s="2"/>
+      <c r="B219" s="6"/>
       <c r="C219" s="2"/>
       <c r="D219" s="4"/>
       <c r="E219" s="4"/>
@@ -36042,7 +36048,7 @@
     </row>
     <row r="220">
       <c r="A220" s="2"/>
-      <c r="B220" s="2"/>
+      <c r="B220" s="6"/>
       <c r="C220" s="2"/>
       <c r="D220" s="4"/>
       <c r="E220" s="4"/>
@@ -36070,7 +36076,7 @@
     </row>
     <row r="221">
       <c r="A221" s="2"/>
-      <c r="B221" s="2"/>
+      <c r="B221" s="6"/>
       <c r="C221" s="2"/>
       <c r="D221" s="4"/>
       <c r="E221" s="4"/>
@@ -36098,7 +36104,7 @@
     </row>
     <row r="222">
       <c r="A222" s="2"/>
-      <c r="B222" s="2"/>
+      <c r="B222" s="6"/>
       <c r="C222" s="2"/>
       <c r="D222" s="4"/>
       <c r="E222" s="4"/>
@@ -36126,7 +36132,7 @@
     </row>
     <row r="223">
       <c r="A223" s="2"/>
-      <c r="B223" s="2"/>
+      <c r="B223" s="6"/>
       <c r="C223" s="2"/>
       <c r="D223" s="4"/>
       <c r="E223" s="4"/>
@@ -36154,7 +36160,7 @@
     </row>
     <row r="224">
       <c r="A224" s="2"/>
-      <c r="B224" s="2"/>
+      <c r="B224" s="6"/>
       <c r="C224" s="2"/>
       <c r="D224" s="4"/>
       <c r="E224" s="4"/>
@@ -36182,7 +36188,7 @@
     </row>
     <row r="225">
       <c r="A225" s="2"/>
-      <c r="B225" s="2"/>
+      <c r="B225" s="6"/>
       <c r="C225" s="2"/>
       <c r="D225" s="4"/>
       <c r="E225" s="4"/>
@@ -36210,7 +36216,7 @@
     </row>
     <row r="226">
       <c r="A226" s="2"/>
-      <c r="B226" s="2"/>
+      <c r="B226" s="6"/>
       <c r="C226" s="2"/>
       <c r="D226" s="4"/>
       <c r="E226" s="4"/>
@@ -36238,7 +36244,7 @@
     </row>
     <row r="227">
       <c r="A227" s="2"/>
-      <c r="B227" s="2"/>
+      <c r="B227" s="6"/>
       <c r="C227" s="2"/>
       <c r="D227" s="4"/>
       <c r="E227" s="4"/>
@@ -36266,7 +36272,7 @@
     </row>
     <row r="228">
       <c r="A228" s="2"/>
-      <c r="B228" s="2"/>
+      <c r="B228" s="6"/>
       <c r="C228" s="2"/>
       <c r="D228" s="4"/>
       <c r="E228" s="4"/>
@@ -36294,7 +36300,7 @@
     </row>
     <row r="229">
       <c r="A229" s="2"/>
-      <c r="B229" s="2"/>
+      <c r="B229" s="6"/>
       <c r="C229" s="2"/>
       <c r="D229" s="4"/>
       <c r="E229" s="4"/>
@@ -36322,7 +36328,7 @@
     </row>
     <row r="230">
       <c r="A230" s="2"/>
-      <c r="B230" s="2"/>
+      <c r="B230" s="6"/>
       <c r="C230" s="2"/>
       <c r="D230" s="4"/>
       <c r="E230" s="4"/>
@@ -36350,7 +36356,7 @@
     </row>
     <row r="231">
       <c r="A231" s="2"/>
-      <c r="B231" s="2"/>
+      <c r="B231" s="6"/>
       <c r="C231" s="2"/>
       <c r="D231" s="4"/>
       <c r="E231" s="4"/>
@@ -36378,7 +36384,7 @@
     </row>
     <row r="232">
       <c r="A232" s="2"/>
-      <c r="B232" s="2"/>
+      <c r="B232" s="6"/>
       <c r="C232" s="2"/>
       <c r="D232" s="4"/>
       <c r="E232" s="4"/>
@@ -36406,7 +36412,7 @@
     </row>
     <row r="233">
       <c r="A233" s="2"/>
-      <c r="B233" s="2"/>
+      <c r="B233" s="6"/>
       <c r="C233" s="2"/>
       <c r="D233" s="4"/>
       <c r="E233" s="4"/>
@@ -36434,7 +36440,7 @@
     </row>
     <row r="234">
       <c r="A234" s="2"/>
-      <c r="B234" s="2"/>
+      <c r="B234" s="6"/>
       <c r="C234" s="2"/>
       <c r="D234" s="4"/>
       <c r="E234" s="4"/>
@@ -36462,7 +36468,7 @@
     </row>
     <row r="235">
       <c r="A235" s="2"/>
-      <c r="B235" s="2"/>
+      <c r="B235" s="6"/>
       <c r="C235" s="2"/>
       <c r="D235" s="4"/>
       <c r="E235" s="4"/>
@@ -36490,7 +36496,7 @@
     </row>
     <row r="236">
       <c r="A236" s="2"/>
-      <c r="B236" s="2"/>
+      <c r="B236" s="6"/>
       <c r="C236" s="2"/>
       <c r="D236" s="4"/>
       <c r="E236" s="4"/>
@@ -36518,7 +36524,7 @@
     </row>
     <row r="237">
       <c r="A237" s="2"/>
-      <c r="B237" s="2"/>
+      <c r="B237" s="6"/>
       <c r="C237" s="2"/>
       <c r="D237" s="4"/>
       <c r="E237" s="4"/>
@@ -36546,7 +36552,7 @@
     </row>
     <row r="238">
       <c r="A238" s="2"/>
-      <c r="B238" s="2"/>
+      <c r="B238" s="6"/>
       <c r="C238" s="2"/>
       <c r="D238" s="4"/>
       <c r="E238" s="4"/>
@@ -36574,7 +36580,7 @@
     </row>
     <row r="239">
       <c r="A239" s="2"/>
-      <c r="B239" s="2"/>
+      <c r="B239" s="6"/>
       <c r="C239" s="2"/>
       <c r="D239" s="4"/>
       <c r="E239" s="4"/>
@@ -36602,7 +36608,7 @@
     </row>
     <row r="240">
       <c r="A240" s="2"/>
-      <c r="B240" s="2"/>
+      <c r="B240" s="6"/>
       <c r="C240" s="2"/>
       <c r="D240" s="4"/>
       <c r="E240" s="4"/>
@@ -36630,7 +36636,7 @@
     </row>
     <row r="241">
       <c r="A241" s="2"/>
-      <c r="B241" s="2"/>
+      <c r="B241" s="6"/>
       <c r="C241" s="2"/>
       <c r="D241" s="4"/>
       <c r="E241" s="4"/>
@@ -36658,7 +36664,7 @@
     </row>
     <row r="242">
       <c r="A242" s="2"/>
-      <c r="B242" s="2"/>
+      <c r="B242" s="6"/>
       <c r="C242" s="2"/>
       <c r="D242" s="4"/>
       <c r="E242" s="4"/>
@@ -36686,7 +36692,7 @@
     </row>
     <row r="243">
       <c r="A243" s="2"/>
-      <c r="B243" s="2"/>
+      <c r="B243" s="6"/>
       <c r="C243" s="2"/>
       <c r="D243" s="4"/>
       <c r="E243" s="4"/>
@@ -36714,7 +36720,7 @@
     </row>
     <row r="244">
       <c r="A244" s="2"/>
-      <c r="B244" s="2"/>
+      <c r="B244" s="6"/>
       <c r="C244" s="2"/>
       <c r="D244" s="4"/>
       <c r="E244" s="4"/>
@@ -36742,7 +36748,7 @@
     </row>
     <row r="245">
       <c r="A245" s="2"/>
-      <c r="B245" s="2"/>
+      <c r="B245" s="6"/>
       <c r="C245" s="2"/>
       <c r="D245" s="4"/>
       <c r="E245" s="4"/>
@@ -36770,7 +36776,7 @@
     </row>
     <row r="246">
       <c r="A246" s="2"/>
-      <c r="B246" s="2"/>
+      <c r="B246" s="6"/>
       <c r="C246" s="2"/>
       <c r="D246" s="4"/>
       <c r="E246" s="4"/>
@@ -36798,7 +36804,7 @@
     </row>
     <row r="247">
       <c r="A247" s="2"/>
-      <c r="B247" s="2"/>
+      <c r="B247" s="6"/>
       <c r="C247" s="2"/>
       <c r="D247" s="4"/>
       <c r="E247" s="4"/>
@@ -36826,7 +36832,7 @@
     </row>
     <row r="248">
       <c r="A248" s="2"/>
-      <c r="B248" s="2"/>
+      <c r="B248" s="6"/>
       <c r="C248" s="2"/>
       <c r="D248" s="4"/>
       <c r="E248" s="4"/>
@@ -36854,7 +36860,7 @@
     </row>
     <row r="249">
       <c r="A249" s="2"/>
-      <c r="B249" s="2"/>
+      <c r="B249" s="6"/>
       <c r="C249" s="2"/>
       <c r="D249" s="4"/>
       <c r="E249" s="4"/>
@@ -36882,7 +36888,7 @@
     </row>
     <row r="250">
       <c r="A250" s="2"/>
-      <c r="B250" s="2"/>
+      <c r="B250" s="6"/>
       <c r="C250" s="2"/>
       <c r="D250" s="4"/>
       <c r="E250" s="4"/>
@@ -36910,7 +36916,7 @@
     </row>
     <row r="251">
       <c r="A251" s="2"/>
-      <c r="B251" s="2"/>
+      <c r="B251" s="6"/>
       <c r="C251" s="2"/>
       <c r="D251" s="4"/>
       <c r="E251" s="4"/>
@@ -36938,7 +36944,7 @@
     </row>
     <row r="252">
       <c r="A252" s="2"/>
-      <c r="B252" s="2"/>
+      <c r="B252" s="6"/>
       <c r="C252" s="2"/>
       <c r="D252" s="4"/>
       <c r="E252" s="4"/>
@@ -36966,7 +36972,7 @@
     </row>
     <row r="253">
       <c r="A253" s="2"/>
-      <c r="B253" s="2"/>
+      <c r="B253" s="6"/>
       <c r="C253" s="2"/>
       <c r="D253" s="4"/>
       <c r="E253" s="4"/>
@@ -36994,7 +37000,7 @@
     </row>
     <row r="254">
       <c r="A254" s="2"/>
-      <c r="B254" s="2"/>
+      <c r="B254" s="6"/>
       <c r="C254" s="2"/>
       <c r="D254" s="4"/>
       <c r="E254" s="4"/>
@@ -37022,7 +37028,7 @@
     </row>
     <row r="255">
       <c r="A255" s="2"/>
-      <c r="B255" s="2"/>
+      <c r="B255" s="6"/>
       <c r="C255" s="2"/>
       <c r="D255" s="4"/>
       <c r="E255" s="4"/>
@@ -37050,7 +37056,7 @@
     </row>
     <row r="256">
       <c r="A256" s="2"/>
-      <c r="B256" s="2"/>
+      <c r="B256" s="6"/>
       <c r="C256" s="2"/>
       <c r="D256" s="4"/>
       <c r="E256" s="4"/>
@@ -37078,7 +37084,7 @@
     </row>
     <row r="257">
       <c r="A257" s="2"/>
-      <c r="B257" s="2"/>
+      <c r="B257" s="6"/>
       <c r="C257" s="2"/>
       <c r="D257" s="4"/>
       <c r="E257" s="4"/>
@@ -37106,7 +37112,7 @@
     </row>
     <row r="258">
       <c r="A258" s="2"/>
-      <c r="B258" s="2"/>
+      <c r="B258" s="6"/>
       <c r="C258" s="2"/>
       <c r="D258" s="4"/>
       <c r="E258" s="4"/>
@@ -37134,7 +37140,7 @@
     </row>
     <row r="259">
       <c r="A259" s="2"/>
-      <c r="B259" s="2"/>
+      <c r="B259" s="6"/>
       <c r="C259" s="2"/>
       <c r="D259" s="4"/>
       <c r="E259" s="4"/>
@@ -37162,7 +37168,7 @@
     </row>
     <row r="260">
       <c r="A260" s="2"/>
-      <c r="B260" s="2"/>
+      <c r="B260" s="6"/>
       <c r="C260" s="2"/>
       <c r="D260" s="4"/>
       <c r="E260" s="4"/>
@@ -37190,7 +37196,7 @@
     </row>
     <row r="261">
       <c r="A261" s="2"/>
-      <c r="B261" s="2"/>
+      <c r="B261" s="6"/>
       <c r="C261" s="2"/>
       <c r="D261" s="4"/>
       <c r="E261" s="4"/>
@@ -37218,7 +37224,7 @@
     </row>
     <row r="262">
       <c r="A262" s="2"/>
-      <c r="B262" s="2"/>
+      <c r="B262" s="6"/>
       <c r="C262" s="2"/>
       <c r="D262" s="4"/>
       <c r="E262" s="4"/>
@@ -37246,7 +37252,7 @@
     </row>
     <row r="263">
       <c r="A263" s="2"/>
-      <c r="B263" s="2"/>
+      <c r="B263" s="6"/>
       <c r="C263" s="2"/>
       <c r="D263" s="4"/>
       <c r="E263" s="4"/>
@@ -37274,7 +37280,7 @@
     </row>
     <row r="264">
       <c r="A264" s="2"/>
-      <c r="B264" s="2"/>
+      <c r="B264" s="6"/>
       <c r="C264" s="2"/>
       <c r="D264" s="4"/>
       <c r="E264" s="4"/>
@@ -37302,7 +37308,7 @@
     </row>
     <row r="265">
       <c r="A265" s="2"/>
-      <c r="B265" s="2"/>
+      <c r="B265" s="6"/>
       <c r="C265" s="2"/>
       <c r="D265" s="4"/>
       <c r="E265" s="4"/>
@@ -37330,7 +37336,7 @@
     </row>
     <row r="266">
       <c r="A266" s="2"/>
-      <c r="B266" s="2"/>
+      <c r="B266" s="6"/>
       <c r="C266" s="2"/>
       <c r="D266" s="4"/>
       <c r="E266" s="4"/>
@@ -37358,7 +37364,7 @@
     </row>
     <row r="267">
       <c r="A267" s="2"/>
-      <c r="B267" s="2"/>
+      <c r="B267" s="6"/>
       <c r="C267" s="2"/>
       <c r="D267" s="4"/>
       <c r="E267" s="4"/>
@@ -37386,7 +37392,7 @@
     </row>
     <row r="268">
       <c r="A268" s="2"/>
-      <c r="B268" s="2"/>
+      <c r="B268" s="6"/>
       <c r="C268" s="2"/>
       <c r="D268" s="4"/>
       <c r="E268" s="4"/>
@@ -37414,7 +37420,7 @@
     </row>
     <row r="269">
       <c r="A269" s="2"/>
-      <c r="B269" s="2"/>
+      <c r="B269" s="6"/>
       <c r="C269" s="2"/>
       <c r="D269" s="4"/>
       <c r="E269" s="4"/>
@@ -37442,7 +37448,7 @@
     </row>
     <row r="270">
       <c r="A270" s="2"/>
-      <c r="B270" s="2"/>
+      <c r="B270" s="6"/>
       <c r="C270" s="2"/>
       <c r="D270" s="4"/>
       <c r="E270" s="4"/>
@@ -37470,7 +37476,7 @@
     </row>
     <row r="271">
       <c r="A271" s="2"/>
-      <c r="B271" s="2"/>
+      <c r="B271" s="6"/>
       <c r="C271" s="2"/>
       <c r="D271" s="4"/>
       <c r="E271" s="4"/>
@@ -37498,7 +37504,7 @@
     </row>
     <row r="272">
       <c r="A272" s="2"/>
-      <c r="B272" s="2"/>
+      <c r="B272" s="6"/>
       <c r="C272" s="2"/>
       <c r="D272" s="4"/>
       <c r="E272" s="4"/>
@@ -37526,7 +37532,7 @@
     </row>
     <row r="273">
       <c r="A273" s="2"/>
-      <c r="B273" s="2"/>
+      <c r="B273" s="6"/>
       <c r="C273" s="2"/>
       <c r="D273" s="4"/>
       <c r="E273" s="4"/>
@@ -37554,7 +37560,7 @@
     </row>
     <row r="274">
       <c r="A274" s="2"/>
-      <c r="B274" s="2"/>
+      <c r="B274" s="6"/>
       <c r="C274" s="2"/>
       <c r="D274" s="4"/>
       <c r="E274" s="4"/>
@@ -37582,7 +37588,7 @@
     </row>
     <row r="275">
       <c r="A275" s="2"/>
-      <c r="B275" s="2"/>
+      <c r="B275" s="6"/>
       <c r="C275" s="2"/>
       <c r="D275" s="4"/>
       <c r="E275" s="4"/>
@@ -37610,7 +37616,7 @@
     </row>
     <row r="276">
       <c r="A276" s="2"/>
-      <c r="B276" s="2"/>
+      <c r="B276" s="6"/>
       <c r="C276" s="2"/>
       <c r="D276" s="4"/>
       <c r="E276" s="4"/>
@@ -37638,7 +37644,7 @@
     </row>
     <row r="277">
       <c r="A277" s="2"/>
-      <c r="B277" s="2"/>
+      <c r="B277" s="6"/>
       <c r="C277" s="2"/>
       <c r="D277" s="4"/>
       <c r="E277" s="4"/>
@@ -37666,7 +37672,7 @@
     </row>
     <row r="278">
       <c r="A278" s="2"/>
-      <c r="B278" s="2"/>
+      <c r="B278" s="6"/>
       <c r="C278" s="2"/>
       <c r="D278" s="4"/>
       <c r="E278" s="4"/>
@@ -37694,7 +37700,7 @@
     </row>
     <row r="279">
       <c r="A279" s="2"/>
-      <c r="B279" s="2"/>
+      <c r="B279" s="6"/>
       <c r="C279" s="2"/>
       <c r="D279" s="4"/>
       <c r="E279" s="4"/>
@@ -37722,7 +37728,7 @@
     </row>
     <row r="280">
       <c r="A280" s="2"/>
-      <c r="B280" s="2"/>
+      <c r="B280" s="6"/>
       <c r="C280" s="2"/>
       <c r="D280" s="4"/>
       <c r="E280" s="4"/>
@@ -37750,7 +37756,7 @@
     </row>
     <row r="281">
       <c r="A281" s="2"/>
-      <c r="B281" s="2"/>
+      <c r="B281" s="6"/>
       <c r="C281" s="2"/>
       <c r="D281" s="4"/>
       <c r="E281" s="4"/>
@@ -37778,7 +37784,7 @@
     </row>
     <row r="282">
       <c r="A282" s="2"/>
-      <c r="B282" s="2"/>
+      <c r="B282" s="6"/>
       <c r="C282" s="2"/>
       <c r="D282" s="4"/>
       <c r="E282" s="4"/>
@@ -37806,7 +37812,7 @@
     </row>
     <row r="283">
       <c r="A283" s="2"/>
-      <c r="B283" s="2"/>
+      <c r="B283" s="6"/>
       <c r="C283" s="2"/>
       <c r="D283" s="4"/>
       <c r="E283" s="4"/>
@@ -37834,7 +37840,7 @@
     </row>
     <row r="284">
       <c r="A284" s="2"/>
-      <c r="B284" s="2"/>
+      <c r="B284" s="6"/>
       <c r="C284" s="2"/>
       <c r="D284" s="4"/>
       <c r="E284" s="4"/>
@@ -37862,7 +37868,7 @@
     </row>
     <row r="285">
       <c r="A285" s="2"/>
-      <c r="B285" s="2"/>
+      <c r="B285" s="6"/>
       <c r="C285" s="2"/>
       <c r="D285" s="4"/>
       <c r="E285" s="4"/>
@@ -37890,7 +37896,7 @@
     </row>
     <row r="286">
       <c r="A286" s="2"/>
-      <c r="B286" s="2"/>
+      <c r="B286" s="6"/>
       <c r="C286" s="2"/>
       <c r="D286" s="4"/>
       <c r="E286" s="4"/>
@@ -37918,7 +37924,7 @@
     </row>
     <row r="287">
       <c r="A287" s="2"/>
-      <c r="B287" s="2"/>
+      <c r="B287" s="6"/>
       <c r="C287" s="2"/>
       <c r="D287" s="4"/>
       <c r="E287" s="4"/>
@@ -37946,7 +37952,7 @@
     </row>
     <row r="288">
       <c r="A288" s="2"/>
-      <c r="B288" s="2"/>
+      <c r="B288" s="6"/>
       <c r="C288" s="2"/>
       <c r="D288" s="4"/>
       <c r="E288" s="4"/>
@@ -37974,7 +37980,7 @@
     </row>
     <row r="289">
       <c r="A289" s="2"/>
-      <c r="B289" s="2"/>
+      <c r="B289" s="6"/>
       <c r="C289" s="2"/>
       <c r="D289" s="4"/>
       <c r="E289" s="4"/>
@@ -38002,7 +38008,7 @@
     </row>
     <row r="290">
       <c r="A290" s="2"/>
-      <c r="B290" s="2"/>
+      <c r="B290" s="6"/>
       <c r="C290" s="2"/>
       <c r="D290" s="4"/>
       <c r="E290" s="4"/>
@@ -38030,7 +38036,7 @@
     </row>
     <row r="291">
       <c r="A291" s="2"/>
-      <c r="B291" s="2"/>
+      <c r="B291" s="6"/>
       <c r="C291" s="2"/>
       <c r="D291" s="4"/>
       <c r="E291" s="4"/>
@@ -38058,7 +38064,7 @@
     </row>
     <row r="292">
       <c r="A292" s="2"/>
-      <c r="B292" s="2"/>
+      <c r="B292" s="6"/>
       <c r="C292" s="2"/>
       <c r="D292" s="4"/>
       <c r="E292" s="4"/>
@@ -38086,7 +38092,7 @@
     </row>
     <row r="293">
       <c r="A293" s="2"/>
-      <c r="B293" s="2"/>
+      <c r="B293" s="6"/>
       <c r="C293" s="2"/>
       <c r="D293" s="4"/>
       <c r="E293" s="4"/>
@@ -38114,7 +38120,7 @@
     </row>
     <row r="294">
       <c r="A294" s="2"/>
-      <c r="B294" s="2"/>
+      <c r="B294" s="6"/>
       <c r="C294" s="2"/>
       <c r="D294" s="4"/>
       <c r="E294" s="4"/>
@@ -38142,7 +38148,7 @@
     </row>
     <row r="295">
       <c r="A295" s="2"/>
-      <c r="B295" s="2"/>
+      <c r="B295" s="6"/>
       <c r="C295" s="2"/>
       <c r="D295" s="4"/>
       <c r="E295" s="4"/>
@@ -38170,7 +38176,7 @@
     </row>
     <row r="296">
       <c r="A296" s="2"/>
-      <c r="B296" s="2"/>
+      <c r="B296" s="6"/>
       <c r="C296" s="2"/>
       <c r="D296" s="4"/>
       <c r="E296" s="4"/>
@@ -38198,7 +38204,7 @@
     </row>
     <row r="297">
       <c r="A297" s="2"/>
-      <c r="B297" s="2"/>
+      <c r="B297" s="6"/>
       <c r="C297" s="2"/>
       <c r="D297" s="4"/>
       <c r="E297" s="4"/>
@@ -38226,7 +38232,7 @@
     </row>
     <row r="298">
       <c r="A298" s="2"/>
-      <c r="B298" s="2"/>
+      <c r="B298" s="6"/>
       <c r="C298" s="2"/>
       <c r="D298" s="4"/>
       <c r="E298" s="4"/>
@@ -38254,7 +38260,7 @@
     </row>
     <row r="299">
       <c r="A299" s="2"/>
-      <c r="B299" s="2"/>
+      <c r="B299" s="6"/>
       <c r="C299" s="2"/>
       <c r="D299" s="4"/>
       <c r="E299" s="4"/>
@@ -38282,7 +38288,7 @@
     </row>
     <row r="300">
       <c r="A300" s="2"/>
-      <c r="B300" s="2"/>
+      <c r="B300" s="6"/>
       <c r="C300" s="2"/>
       <c r="D300" s="4"/>
       <c r="E300" s="4"/>
@@ -38310,7 +38316,7 @@
     </row>
     <row r="301">
       <c r="A301" s="2"/>
-      <c r="B301" s="2"/>
+      <c r="B301" s="6"/>
       <c r="C301" s="2"/>
       <c r="D301" s="4"/>
       <c r="E301" s="4"/>
@@ -38338,7 +38344,7 @@
     </row>
     <row r="302">
       <c r="A302" s="2"/>
-      <c r="B302" s="2"/>
+      <c r="B302" s="6"/>
       <c r="C302" s="2"/>
       <c r="D302" s="4"/>
       <c r="E302" s="4"/>
@@ -38366,7 +38372,7 @@
     </row>
     <row r="303">
       <c r="A303" s="2"/>
-      <c r="B303" s="2"/>
+      <c r="B303" s="6"/>
       <c r="C303" s="2"/>
       <c r="D303" s="4"/>
       <c r="E303" s="4"/>
@@ -38394,7 +38400,7 @@
     </row>
     <row r="304">
       <c r="A304" s="2"/>
-      <c r="B304" s="2"/>
+      <c r="B304" s="6"/>
       <c r="C304" s="2"/>
       <c r="D304" s="4"/>
       <c r="E304" s="4"/>
@@ -38422,7 +38428,7 @@
     </row>
     <row r="305">
       <c r="A305" s="2"/>
-      <c r="B305" s="2"/>
+      <c r="B305" s="6"/>
       <c r="C305" s="2"/>
       <c r="D305" s="4"/>
       <c r="E305" s="4"/>
@@ -38450,7 +38456,7 @@
     </row>
     <row r="306">
       <c r="A306" s="2"/>
-      <c r="B306" s="2"/>
+      <c r="B306" s="6"/>
       <c r="C306" s="2"/>
       <c r="D306" s="4"/>
       <c r="E306" s="4"/>
@@ -38478,7 +38484,7 @@
     </row>
     <row r="307">
       <c r="A307" s="2"/>
-      <c r="B307" s="2"/>
+      <c r="B307" s="6"/>
       <c r="C307" s="2"/>
       <c r="D307" s="4"/>
       <c r="E307" s="4"/>
@@ -38506,7 +38512,7 @@
     </row>
     <row r="308">
       <c r="A308" s="2"/>
-      <c r="B308" s="2"/>
+      <c r="B308" s="6"/>
       <c r="C308" s="2"/>
       <c r="D308" s="4"/>
       <c r="E308" s="4"/>
@@ -38534,7 +38540,7 @@
     </row>
     <row r="309">
       <c r="A309" s="2"/>
-      <c r="B309" s="2"/>
+      <c r="B309" s="6"/>
       <c r="C309" s="2"/>
       <c r="D309" s="4"/>
       <c r="E309" s="4"/>
@@ -38562,7 +38568,7 @@
     </row>
     <row r="310">
       <c r="A310" s="2"/>
-      <c r="B310" s="2"/>
+      <c r="B310" s="6"/>
       <c r="C310" s="2"/>
       <c r="D310" s="4"/>
       <c r="E310" s="4"/>
@@ -38590,7 +38596,7 @@
     </row>
     <row r="311">
       <c r="A311" s="2"/>
-      <c r="B311" s="2"/>
+      <c r="B311" s="6"/>
       <c r="C311" s="2"/>
       <c r="D311" s="4"/>
       <c r="E311" s="4"/>
@@ -38618,7 +38624,7 @@
     </row>
     <row r="312">
       <c r="A312" s="2"/>
-      <c r="B312" s="2"/>
+      <c r="B312" s="6"/>
       <c r="C312" s="2"/>
       <c r="D312" s="4"/>
       <c r="E312" s="4"/>
@@ -38646,7 +38652,7 @@
     </row>
     <row r="313">
       <c r="A313" s="2"/>
-      <c r="B313" s="2"/>
+      <c r="B313" s="6"/>
       <c r="C313" s="2"/>
       <c r="D313" s="4"/>
       <c r="E313" s="4"/>
@@ -38674,7 +38680,7 @@
     </row>
     <row r="314">
       <c r="A314" s="2"/>
-      <c r="B314" s="2"/>
+      <c r="B314" s="6"/>
       <c r="C314" s="2"/>
       <c r="D314" s="4"/>
       <c r="E314" s="4"/>
@@ -38702,7 +38708,7 @@
     </row>
     <row r="315">
       <c r="A315" s="2"/>
-      <c r="B315" s="2"/>
+      <c r="B315" s="6"/>
       <c r="C315" s="2"/>
       <c r="D315" s="4"/>
       <c r="E315" s="4"/>
@@ -38730,7 +38736,7 @@
     </row>
     <row r="316">
       <c r="A316" s="2"/>
-      <c r="B316" s="2"/>
+      <c r="B316" s="6"/>
       <c r="C316" s="2"/>
       <c r="D316" s="4"/>
       <c r="E316" s="4"/>
@@ -38758,7 +38764,7 @@
     </row>
     <row r="317">
       <c r="A317" s="2"/>
-      <c r="B317" s="2"/>
+      <c r="B317" s="6"/>
       <c r="C317" s="2"/>
       <c r="D317" s="4"/>
       <c r="E317" s="4"/>
@@ -38786,7 +38792,7 @@
     </row>
     <row r="318">
       <c r="A318" s="2"/>
-      <c r="B318" s="2"/>
+      <c r="B318" s="6"/>
       <c r="C318" s="2"/>
       <c r="D318" s="4"/>
       <c r="E318" s="4"/>
@@ -38814,7 +38820,7 @@
     </row>
     <row r="319">
       <c r="A319" s="2"/>
-      <c r="B319" s="2"/>
+      <c r="B319" s="6"/>
       <c r="C319" s="2"/>
       <c r="D319" s="4"/>
       <c r="E319" s="4"/>
@@ -38842,7 +38848,7 @@
     </row>
     <row r="320">
       <c r="A320" s="2"/>
-      <c r="B320" s="2"/>
+      <c r="B320" s="6"/>
       <c r="C320" s="2"/>
       <c r="D320" s="4"/>
       <c r="E320" s="4"/>
@@ -38870,7 +38876,7 @@
     </row>
     <row r="321">
       <c r="A321" s="2"/>
-      <c r="B321" s="2"/>
+      <c r="B321" s="6"/>
       <c r="C321" s="2"/>
       <c r="D321" s="4"/>
       <c r="E321" s="4"/>
@@ -38898,7 +38904,7 @@
     </row>
     <row r="322">
       <c r="A322" s="2"/>
-      <c r="B322" s="2"/>
+      <c r="B322" s="6"/>
       <c r="C322" s="2"/>
       <c r="D322" s="4"/>
       <c r="E322" s="4"/>
@@ -38926,7 +38932,7 @@
     </row>
     <row r="323">
       <c r="A323" s="2"/>
-      <c r="B323" s="2"/>
+      <c r="B323" s="6"/>
       <c r="C323" s="2"/>
       <c r="D323" s="4"/>
       <c r="E323" s="4"/>
@@ -38954,7 +38960,7 @@
     </row>
     <row r="324">
       <c r="A324" s="2"/>
-      <c r="B324" s="2"/>
+      <c r="B324" s="6"/>
       <c r="C324" s="2"/>
       <c r="D324" s="4"/>
       <c r="E324" s="4"/>
@@ -38982,7 +38988,7 @@
     </row>
     <row r="325">
       <c r="A325" s="2"/>
-      <c r="B325" s="2"/>
+      <c r="B325" s="6"/>
       <c r="C325" s="2"/>
       <c r="D325" s="4"/>
       <c r="E325" s="4"/>
@@ -39010,7 +39016,7 @@
     </row>
     <row r="326">
       <c r="A326" s="2"/>
-      <c r="B326" s="2"/>
+      <c r="B326" s="6"/>
       <c r="C326" s="2"/>
       <c r="D326" s="4"/>
       <c r="E326" s="4"/>
@@ -39038,7 +39044,7 @@
     </row>
     <row r="327">
       <c r="A327" s="2"/>
-      <c r="B327" s="2"/>
+      <c r="B327" s="6"/>
       <c r="C327" s="2"/>
       <c r="D327" s="4"/>
       <c r="E327" s="4"/>
@@ -39066,7 +39072,7 @@
     </row>
     <row r="328">
       <c r="A328" s="2"/>
-      <c r="B328" s="2"/>
+      <c r="B328" s="6"/>
       <c r="C328" s="2"/>
       <c r="D328" s="4"/>
       <c r="E328" s="4"/>
@@ -39094,7 +39100,7 @@
     </row>
     <row r="329">
       <c r="A329" s="2"/>
-      <c r="B329" s="2"/>
+      <c r="B329" s="6"/>
       <c r="C329" s="2"/>
       <c r="D329" s="4"/>
       <c r="E329" s="4"/>
@@ -39122,7 +39128,7 @@
     </row>
     <row r="330">
       <c r="A330" s="2"/>
-      <c r="B330" s="2"/>
+      <c r="B330" s="6"/>
       <c r="C330" s="2"/>
       <c r="D330" s="4"/>
       <c r="E330" s="4"/>
@@ -39150,7 +39156,7 @@
     </row>
     <row r="331">
       <c r="A331" s="2"/>
-      <c r="B331" s="2"/>
+      <c r="B331" s="6"/>
       <c r="C331" s="2"/>
       <c r="D331" s="4"/>
       <c r="E331" s="4"/>
@@ -39178,7 +39184,7 @@
     </row>
     <row r="332">
       <c r="A332" s="2"/>
-      <c r="B332" s="2"/>
+      <c r="B332" s="6"/>
       <c r="C332" s="2"/>
       <c r="D332" s="4"/>
       <c r="E332" s="4"/>
@@ -39206,7 +39212,7 @@
     </row>
     <row r="333">
       <c r="A333" s="2"/>
-      <c r="B333" s="2"/>
+      <c r="B333" s="6"/>
       <c r="C333" s="2"/>
       <c r="D333" s="4"/>
       <c r="E333" s="4"/>
@@ -39234,7 +39240,7 @@
     </row>
     <row r="334">
       <c r="A334" s="2"/>
-      <c r="B334" s="2"/>
+      <c r="B334" s="6"/>
       <c r="C334" s="2"/>
       <c r="D334" s="4"/>
       <c r="E334" s="4"/>
@@ -39262,7 +39268,7 @@
     </row>
     <row r="335">
       <c r="A335" s="2"/>
-      <c r="B335" s="2"/>
+      <c r="B335" s="6"/>
       <c r="C335" s="2"/>
       <c r="D335" s="4"/>
       <c r="E335" s="4"/>
@@ -39290,7 +39296,7 @@
     </row>
     <row r="336">
       <c r="A336" s="2"/>
-      <c r="B336" s="2"/>
+      <c r="B336" s="6"/>
       <c r="C336" s="2"/>
       <c r="D336" s="4"/>
       <c r="E336" s="4"/>
@@ -39318,7 +39324,7 @@
     </row>
     <row r="337">
       <c r="A337" s="2"/>
-      <c r="B337" s="2"/>
+      <c r="B337" s="6"/>
       <c r="C337" s="2"/>
       <c r="D337" s="4"/>
       <c r="E337" s="4"/>
@@ -39346,7 +39352,7 @@
     </row>
     <row r="338">
       <c r="A338" s="2"/>
-      <c r="B338" s="2"/>
+      <c r="B338" s="6"/>
       <c r="C338" s="2"/>
       <c r="D338" s="4"/>
       <c r="E338" s="4"/>
@@ -39374,7 +39380,7 @@
     </row>
     <row r="339">
       <c r="A339" s="2"/>
-      <c r="B339" s="2"/>
+      <c r="B339" s="6"/>
       <c r="C339" s="2"/>
       <c r="D339" s="4"/>
       <c r="E339" s="4"/>
@@ -39402,7 +39408,7 @@
     </row>
     <row r="340">
       <c r="A340" s="2"/>
-      <c r="B340" s="2"/>
+      <c r="B340" s="6"/>
       <c r="C340" s="2"/>
       <c r="D340" s="4"/>
       <c r="E340" s="4"/>
@@ -39430,7 +39436,7 @@
     </row>
     <row r="341">
       <c r="A341" s="2"/>
-      <c r="B341" s="2"/>
+      <c r="B341" s="6"/>
       <c r="C341" s="2"/>
       <c r="D341" s="4"/>
       <c r="E341" s="4"/>
@@ -39458,7 +39464,7 @@
     </row>
     <row r="342">
       <c r="A342" s="2"/>
-      <c r="B342" s="2"/>
+      <c r="B342" s="6"/>
       <c r="C342" s="2"/>
       <c r="D342" s="4"/>
       <c r="E342" s="4"/>
@@ -39486,7 +39492,7 @@
     </row>
     <row r="343">
       <c r="A343" s="2"/>
-      <c r="B343" s="2"/>
+      <c r="B343" s="6"/>
       <c r="C343" s="2"/>
       <c r="D343" s="4"/>
       <c r="E343" s="4"/>
@@ -39514,7 +39520,7 @@
     </row>
     <row r="344">
       <c r="A344" s="2"/>
-      <c r="B344" s="2"/>
+      <c r="B344" s="6"/>
       <c r="C344" s="2"/>
       <c r="D344" s="4"/>
       <c r="E344" s="4"/>
@@ -39542,7 +39548,7 @@
     </row>
     <row r="345">
       <c r="A345" s="2"/>
-      <c r="B345" s="2"/>
+      <c r="B345" s="6"/>
       <c r="C345" s="2"/>
       <c r="D345" s="4"/>
       <c r="E345" s="4"/>
@@ -39570,7 +39576,7 @@
     </row>
     <row r="346">
       <c r="A346" s="2"/>
-      <c r="B346" s="2"/>
+      <c r="B346" s="6"/>
       <c r="C346" s="2"/>
       <c r="D346" s="4"/>
       <c r="E346" s="4"/>
@@ -39598,7 +39604,7 @@
     </row>
     <row r="347">
       <c r="A347" s="2"/>
-      <c r="B347" s="2"/>
+      <c r="B347" s="6"/>
       <c r="C347" s="2"/>
       <c r="D347" s="4"/>
       <c r="E347" s="4"/>
@@ -39626,7 +39632,7 @@
     </row>
     <row r="348">
       <c r="A348" s="2"/>
-      <c r="B348" s="2"/>
+      <c r="B348" s="6"/>
       <c r="C348" s="2"/>
       <c r="D348" s="4"/>
       <c r="E348" s="4"/>
@@ -39654,7 +39660,7 @@
     </row>
     <row r="349">
       <c r="A349" s="2"/>
-      <c r="B349" s="2"/>
+      <c r="B349" s="6"/>
       <c r="C349" s="2"/>
       <c r="D349" s="4"/>
       <c r="E349" s="4"/>
@@ -39682,7 +39688,7 @@
     </row>
     <row r="350">
       <c r="A350" s="2"/>
-      <c r="B350" s="2"/>
+      <c r="B350" s="6"/>
       <c r="C350" s="2"/>
       <c r="D350" s="4"/>
       <c r="E350" s="4"/>
@@ -39710,7 +39716,7 @@
     </row>
     <row r="351">
       <c r="A351" s="2"/>
-      <c r="B351" s="2"/>
+      <c r="B351" s="6"/>
       <c r="C351" s="2"/>
       <c r="D351" s="4"/>
       <c r="E351" s="4"/>
@@ -39738,7 +39744,7 @@
     </row>
     <row r="352">
       <c r="A352" s="2"/>
-      <c r="B352" s="2"/>
+      <c r="B352" s="6"/>
       <c r="C352" s="2"/>
       <c r="D352" s="4"/>
       <c r="E352" s="4"/>
@@ -39766,7 +39772,7 @@
     </row>
     <row r="353">
       <c r="A353" s="2"/>
-      <c r="B353" s="2"/>
+      <c r="B353" s="6"/>
       <c r="C353" s="2"/>
       <c r="D353" s="4"/>
       <c r="E353" s="4"/>
@@ -39794,7 +39800,7 @@
     </row>
     <row r="354">
       <c r="A354" s="2"/>
-      <c r="B354" s="2"/>
+      <c r="B354" s="6"/>
       <c r="C354" s="2"/>
       <c r="D354" s="4"/>
       <c r="E354" s="4"/>
@@ -39822,7 +39828,7 @@
     </row>
     <row r="355">
       <c r="A355" s="2"/>
-      <c r="B355" s="2"/>
+      <c r="B355" s="6"/>
       <c r="C355" s="2"/>
       <c r="D355" s="4"/>
       <c r="E355" s="4"/>
@@ -39850,7 +39856,7 @@
     </row>
     <row r="356">
       <c r="A356" s="2"/>
-      <c r="B356" s="2"/>
+      <c r="B356" s="6"/>
       <c r="C356" s="2"/>
       <c r="D356" s="4"/>
       <c r="E356" s="4"/>
@@ -39878,7 +39884,7 @@
     </row>
     <row r="357">
       <c r="A357" s="2"/>
-      <c r="B357" s="2"/>
+      <c r="B357" s="6"/>
       <c r="C357" s="2"/>
       <c r="D357" s="4"/>
       <c r="E357" s="4"/>
@@ -39906,7 +39912,7 @@
     </row>
     <row r="358">
       <c r="A358" s="2"/>
-      <c r="B358" s="2"/>
+      <c r="B358" s="6"/>
       <c r="C358" s="2"/>
       <c r="D358" s="4"/>
       <c r="E358" s="4"/>
@@ -39934,7 +39940,7 @@
     </row>
     <row r="359">
       <c r="A359" s="2"/>
-      <c r="B359" s="2"/>
+      <c r="B359" s="6"/>
       <c r="C359" s="2"/>
       <c r="D359" s="4"/>
       <c r="E359" s="4"/>
@@ -39962,7 +39968,7 @@
     </row>
     <row r="360">
       <c r="A360" s="2"/>
-      <c r="B360" s="2"/>
+      <c r="B360" s="6"/>
       <c r="C360" s="2"/>
       <c r="D360" s="4"/>
       <c r="E360" s="4"/>
@@ -39990,7 +39996,7 @@
     </row>
     <row r="361">
       <c r="A361" s="2"/>
-      <c r="B361" s="2"/>
+      <c r="B361" s="6"/>
       <c r="C361" s="2"/>
       <c r="D361" s="4"/>
       <c r="E361" s="4"/>
@@ -40018,7 +40024,7 @@
     </row>
     <row r="362">
       <c r="A362" s="2"/>
-      <c r="B362" s="2"/>
+      <c r="B362" s="6"/>
       <c r="C362" s="2"/>
       <c r="D362" s="4"/>
       <c r="E362" s="4"/>
@@ -40046,7 +40052,7 @@
     </row>
     <row r="363">
       <c r="A363" s="2"/>
-      <c r="B363" s="2"/>
+      <c r="B363" s="6"/>
       <c r="C363" s="2"/>
       <c r="D363" s="4"/>
       <c r="E363" s="4"/>
@@ -40074,7 +40080,7 @@
     </row>
     <row r="364">
       <c r="A364" s="2"/>
-      <c r="B364" s="2"/>
+      <c r="B364" s="6"/>
       <c r="C364" s="2"/>
       <c r="D364" s="4"/>
       <c r="E364" s="4"/>
@@ -40102,7 +40108,7 @@
     </row>
     <row r="365">
       <c r="A365" s="2"/>
-      <c r="B365" s="2"/>
+      <c r="B365" s="6"/>
       <c r="C365" s="2"/>
       <c r="D365" s="4"/>
       <c r="E365" s="4"/>
@@ -40130,7 +40136,7 @@
     </row>
     <row r="366">
       <c r="A366" s="2"/>
-      <c r="B366" s="2"/>
+      <c r="B366" s="6"/>
       <c r="C366" s="2"/>
       <c r="D366" s="4"/>
       <c r="E366" s="4"/>
@@ -40158,7 +40164,7 @@
     </row>
     <row r="367">
       <c r="A367" s="2"/>
-      <c r="B367" s="2"/>
+      <c r="B367" s="6"/>
       <c r="C367" s="2"/>
       <c r="D367" s="4"/>
       <c r="E367" s="4"/>
@@ -40186,7 +40192,7 @@
     </row>
     <row r="368">
       <c r="A368" s="2"/>
-      <c r="B368" s="2"/>
+      <c r="B368" s="6"/>
       <c r="C368" s="2"/>
       <c r="D368" s="4"/>
       <c r="E368" s="4"/>
@@ -40214,7 +40220,7 @@
     </row>
     <row r="369">
       <c r="A369" s="2"/>
-      <c r="B369" s="2"/>
+      <c r="B369" s="6"/>
       <c r="C369" s="2"/>
       <c r="D369" s="4"/>
       <c r="E369" s="4"/>
@@ -40242,7 +40248,7 @@
     </row>
     <row r="370">
       <c r="A370" s="2"/>
-      <c r="B370" s="2"/>
+      <c r="B370" s="6"/>
       <c r="C370" s="2"/>
       <c r="D370" s="4"/>
       <c r="E370" s="4"/>
@@ -40270,7 +40276,7 @@
     </row>
     <row r="371">
       <c r="A371" s="2"/>
-      <c r="B371" s="2"/>
+      <c r="B371" s="6"/>
       <c r="C371" s="2"/>
       <c r="D371" s="4"/>
       <c r="E371" s="4"/>
@@ -40298,7 +40304,7 @@
     </row>
     <row r="372">
       <c r="A372" s="2"/>
-      <c r="B372" s="2"/>
+      <c r="B372" s="6"/>
       <c r="C372" s="2"/>
       <c r="D372" s="4"/>
       <c r="E372" s="4"/>
@@ -40326,7 +40332,7 @@
     </row>
     <row r="373">
       <c r="A373" s="2"/>
-      <c r="B373" s="2"/>
+      <c r="B373" s="6"/>
       <c r="C373" s="2"/>
       <c r="D373" s="4"/>
       <c r="E373" s="4"/>
@@ -40354,7 +40360,7 @@
     </row>
     <row r="374">
       <c r="A374" s="2"/>
-      <c r="B374" s="2"/>
+      <c r="B374" s="6"/>
       <c r="C374" s="2"/>
       <c r="D374" s="4"/>
       <c r="E374" s="4"/>
@@ -40382,7 +40388,7 @@
     </row>
     <row r="375">
       <c r="A375" s="2"/>
-      <c r="B375" s="2"/>
+      <c r="B375" s="6"/>
       <c r="C375" s="2"/>
       <c r="D375" s="4"/>
       <c r="E375" s="4"/>
@@ -40410,7 +40416,7 @@
     </row>
     <row r="376">
       <c r="A376" s="2"/>
-      <c r="B376" s="2"/>
+      <c r="B376" s="6"/>
       <c r="C376" s="2"/>
       <c r="D376" s="4"/>
       <c r="E376" s="4"/>
@@ -40438,7 +40444,7 @@
     </row>
     <row r="377">
       <c r="A377" s="2"/>
-      <c r="B377" s="2"/>
+      <c r="B377" s="6"/>
       <c r="C377" s="2"/>
       <c r="D377" s="4"/>
       <c r="E377" s="4"/>
@@ -40466,7 +40472,7 @@
     </row>
     <row r="378">
       <c r="A378" s="2"/>
-      <c r="B378" s="2"/>
+      <c r="B378" s="6"/>
       <c r="C378" s="2"/>
       <c r="D378" s="4"/>
       <c r="E378" s="4"/>
@@ -40494,7 +40500,7 @@
     </row>
     <row r="379">
       <c r="A379" s="2"/>
-      <c r="B379" s="2"/>
+      <c r="B379" s="6"/>
       <c r="C379" s="2"/>
       <c r="D379" s="4"/>
       <c r="E379" s="4"/>
@@ -40522,7 +40528,7 @@
     </row>
     <row r="380">
       <c r="A380" s="2"/>
-      <c r="B380" s="2"/>
+      <c r="B380" s="6"/>
       <c r="C380" s="2"/>
       <c r="D380" s="4"/>
       <c r="E380" s="4"/>
@@ -40550,7 +40556,7 @@
     </row>
     <row r="381">
       <c r="A381" s="2"/>
-      <c r="B381" s="2"/>
+      <c r="B381" s="6"/>
       <c r="C381" s="2"/>
       <c r="D381" s="4"/>
       <c r="E381" s="4"/>
@@ -40578,7 +40584,7 @@
     </row>
     <row r="382">
       <c r="A382" s="2"/>
-      <c r="B382" s="2"/>
+      <c r="B382" s="6"/>
       <c r="C382" s="2"/>
       <c r="D382" s="4"/>
       <c r="E382" s="4"/>
@@ -40606,7 +40612,7 @@
     </row>
     <row r="383">
       <c r="A383" s="2"/>
-      <c r="B383" s="2"/>
+      <c r="B383" s="6"/>
       <c r="C383" s="2"/>
       <c r="D383" s="4"/>
       <c r="E383" s="4"/>
@@ -40634,7 +40640,7 @@
     </row>
     <row r="384">
       <c r="A384" s="2"/>
-      <c r="B384" s="2"/>
+      <c r="B384" s="6"/>
       <c r="C384" s="2"/>
       <c r="D384" s="4"/>
       <c r="E384" s="4"/>
@@ -40662,7 +40668,7 @@
     </row>
     <row r="385">
       <c r="A385" s="2"/>
-      <c r="B385" s="2"/>
+      <c r="B385" s="6"/>
       <c r="C385" s="2"/>
       <c r="D385" s="4"/>
       <c r="E385" s="4"/>
@@ -40690,7 +40696,7 @@
     </row>
     <row r="386">
       <c r="A386" s="2"/>
-      <c r="B386" s="2"/>
+      <c r="B386" s="6"/>
       <c r="C386" s="2"/>
       <c r="D386" s="4"/>
       <c r="E386" s="4"/>
@@ -40718,7 +40724,7 @@
     </row>
     <row r="387">
       <c r="A387" s="2"/>
-      <c r="B387" s="2"/>
+      <c r="B387" s="6"/>
       <c r="C387" s="2"/>
       <c r="D387" s="4"/>
       <c r="E387" s="4"/>
@@ -40746,7 +40752,7 @@
     </row>
     <row r="388">
       <c r="A388" s="2"/>
-      <c r="B388" s="2"/>
+      <c r="B388" s="6"/>
       <c r="C388" s="2"/>
       <c r="D388" s="4"/>
       <c r="E388" s="4"/>
@@ -40774,7 +40780,7 @@
     </row>
     <row r="389">
       <c r="A389" s="2"/>
-      <c r="B389" s="2"/>
+      <c r="B389" s="6"/>
       <c r="C389" s="2"/>
       <c r="D389" s="4"/>
       <c r="E389" s="4"/>
@@ -40802,7 +40808,7 @@
     </row>
     <row r="390">
       <c r="A390" s="2"/>
-      <c r="B390" s="2"/>
+      <c r="B390" s="6"/>
       <c r="C390" s="2"/>
       <c r="D390" s="4"/>
       <c r="E390" s="4"/>
@@ -40830,7 +40836,7 @@
     </row>
     <row r="391">
       <c r="A391" s="2"/>
-      <c r="B391" s="2"/>
+      <c r="B391" s="6"/>
       <c r="C391" s="2"/>
       <c r="D391" s="4"/>
       <c r="E391" s="4"/>
@@ -40858,7 +40864,7 @@
     </row>
     <row r="392">
       <c r="A392" s="2"/>
-      <c r="B392" s="2"/>
+      <c r="B392" s="6"/>
       <c r="C392" s="2"/>
       <c r="D392" s="4"/>
       <c r="E392" s="4"/>
@@ -40886,7 +40892,7 @@
     </row>
     <row r="393">
       <c r="A393" s="2"/>
-      <c r="B393" s="2"/>
+      <c r="B393" s="6"/>
       <c r="C393" s="2"/>
       <c r="D393" s="4"/>
       <c r="E393" s="4"/>
@@ -40914,7 +40920,7 @@
     </row>
     <row r="394">
       <c r="A394" s="2"/>
-      <c r="B394" s="2"/>
+      <c r="B394" s="6"/>
       <c r="C394" s="2"/>
       <c r="D394" s="4"/>
       <c r="E394" s="4"/>
@@ -40942,7 +40948,7 @@
     </row>
     <row r="395">
       <c r="A395" s="2"/>
-      <c r="B395" s="2"/>
+      <c r="B395" s="6"/>
       <c r="C395" s="2"/>
       <c r="D395" s="4"/>
       <c r="E395" s="4"/>
@@ -40970,7 +40976,7 @@
     </row>
     <row r="396">
       <c r="A396" s="2"/>
-      <c r="B396" s="2"/>
+      <c r="B396" s="6"/>
       <c r="C396" s="2"/>
       <c r="D396" s="4"/>
       <c r="E396" s="4"/>
@@ -40998,7 +41004,7 @@
     </row>
     <row r="397">
       <c r="A397" s="2"/>
-      <c r="B397" s="2"/>
+      <c r="B397" s="6"/>
       <c r="C397" s="2"/>
       <c r="D397" s="4"/>
       <c r="E397" s="4"/>
@@ -41026,7 +41032,7 @@
     </row>
     <row r="398">
       <c r="A398" s="2"/>
-      <c r="B398" s="2"/>
+      <c r="B398" s="6"/>
       <c r="C398" s="2"/>
       <c r="D398" s="4"/>
       <c r="E398" s="4"/>
@@ -41054,7 +41060,7 @@
     </row>
     <row r="399">
       <c r="A399" s="2"/>
-      <c r="B399" s="2"/>
+      <c r="B399" s="6"/>
       <c r="C399" s="2"/>
       <c r="D399" s="4"/>
       <c r="E399" s="4"/>
@@ -41082,7 +41088,7 @@
     </row>
     <row r="400">
       <c r="A400" s="2"/>
-      <c r="B400" s="2"/>
+      <c r="B400" s="6"/>
       <c r="C400" s="2"/>
       <c r="D400" s="4"/>
       <c r="E400" s="4"/>
@@ -41110,7 +41116,7 @@
     </row>
     <row r="401">
       <c r="A401" s="2"/>
-      <c r="B401" s="2"/>
+      <c r="B401" s="6"/>
       <c r="C401" s="2"/>
       <c r="D401" s="4"/>
       <c r="E401" s="4"/>
@@ -41138,7 +41144,7 @@
     </row>
     <row r="402">
       <c r="A402" s="2"/>
-      <c r="B402" s="2"/>
+      <c r="B402" s="6"/>
       <c r="C402" s="2"/>
       <c r="D402" s="4"/>
       <c r="E402" s="4"/>
@@ -41166,7 +41172,7 @@
     </row>
     <row r="403">
       <c r="A403" s="2"/>
-      <c r="B403" s="2"/>
+      <c r="B403" s="6"/>
       <c r="C403" s="2"/>
       <c r="D403" s="4"/>
       <c r="E403" s="4"/>
@@ -41194,7 +41200,7 @@
     </row>
     <row r="404">
       <c r="A404" s="2"/>
-      <c r="B404" s="2"/>
+      <c r="B404" s="6"/>
       <c r="C404" s="2"/>
       <c r="D404" s="4"/>
       <c r="E404" s="4"/>
@@ -41222,7 +41228,7 @@
     </row>
     <row r="405">
       <c r="A405" s="2"/>
-      <c r="B405" s="2"/>
+      <c r="B405" s="6"/>
       <c r="C405" s="2"/>
       <c r="D405" s="4"/>
       <c r="E405" s="4"/>
@@ -41250,7 +41256,7 @@
     </row>
     <row r="406">
       <c r="A406" s="2"/>
-      <c r="B406" s="2"/>
+      <c r="B406" s="6"/>
       <c r="C406" s="2"/>
       <c r="D406" s="4"/>
       <c r="E406" s="4"/>
@@ -41278,7 +41284,7 @@
     </row>
     <row r="407">
       <c r="A407" s="2"/>
-      <c r="B407" s="2"/>
+      <c r="B407" s="6"/>
       <c r="C407" s="2"/>
       <c r="D407" s="4"/>
       <c r="E407" s="4"/>
@@ -41306,7 +41312,7 @@
     </row>
     <row r="408">
       <c r="A408" s="2"/>
-      <c r="B408" s="2"/>
+      <c r="B408" s="6"/>
       <c r="C408" s="2"/>
       <c r="D408" s="4"/>
       <c r="E408" s="4"/>
@@ -41334,7 +41340,7 @@
     </row>
     <row r="409">
       <c r="A409" s="2"/>
-      <c r="B409" s="2"/>
+      <c r="B409" s="6"/>
       <c r="C409" s="2"/>
       <c r="D409" s="4"/>
       <c r="E409" s="4"/>
@@ -41362,7 +41368,7 @@
     </row>
     <row r="410">
       <c r="A410" s="2"/>
-      <c r="B410" s="2"/>
+      <c r="B410" s="6"/>
       <c r="C410" s="2"/>
       <c r="D410" s="4"/>
       <c r="E410" s="4"/>
@@ -41390,7 +41396,7 @@
     </row>
     <row r="411">
       <c r="A411" s="2"/>
-      <c r="B411" s="2"/>
+      <c r="B411" s="6"/>
       <c r="C411" s="2"/>
       <c r="D411" s="4"/>
       <c r="E411" s="4"/>
@@ -41418,7 +41424,7 @@
     </row>
     <row r="412">
       <c r="A412" s="2"/>
-      <c r="B412" s="2"/>
+      <c r="B412" s="6"/>
       <c r="C412" s="2"/>
       <c r="D412" s="4"/>
       <c r="E412" s="4"/>
@@ -41446,7 +41452,7 @@
     </row>
     <row r="413">
       <c r="A413" s="2"/>
-      <c r="B413" s="2"/>
+      <c r="B413" s="6"/>
       <c r="C413" s="2"/>
       <c r="D413" s="4"/>
       <c r="E413" s="4"/>
@@ -41474,7 +41480,7 @@
     </row>
     <row r="414">
       <c r="A414" s="2"/>
-      <c r="B414" s="2"/>
+      <c r="B414" s="6"/>
       <c r="C414" s="2"/>
       <c r="D414" s="4"/>
       <c r="E414" s="4"/>
@@ -41502,7 +41508,7 @@
     </row>
     <row r="415">
       <c r="A415" s="2"/>
-      <c r="B415" s="2"/>
+      <c r="B415" s="6"/>
       <c r="C415" s="2"/>
       <c r="D415" s="4"/>
       <c r="E415" s="4"/>
@@ -41530,7 +41536,7 @@
     </row>
     <row r="416">
       <c r="A416" s="2"/>
-      <c r="B416" s="2"/>
+      <c r="B416" s="6"/>
       <c r="C416" s="2"/>
       <c r="D416" s="4"/>
       <c r="E416" s="4"/>
@@ -41558,7 +41564,7 @@
     </row>
     <row r="417">
       <c r="A417" s="2"/>
-      <c r="B417" s="2"/>
+      <c r="B417" s="6"/>
       <c r="C417" s="2"/>
       <c r="D417" s="4"/>
       <c r="E417" s="4"/>
@@ -41586,7 +41592,7 @@
     </row>
     <row r="418">
       <c r="A418" s="2"/>
-      <c r="B418" s="2"/>
+      <c r="B418" s="6"/>
       <c r="C418" s="2"/>
       <c r="D418" s="4"/>
       <c r="E418" s="4"/>
@@ -41614,7 +41620,7 @@
     </row>
     <row r="419">
       <c r="A419" s="2"/>
-      <c r="B419" s="2"/>
+      <c r="B419" s="6"/>
       <c r="C419" s="2"/>
       <c r="D419" s="4"/>
       <c r="E419" s="4"/>
@@ -41642,7 +41648,7 @@
     </row>
     <row r="420">
       <c r="A420" s="2"/>
-      <c r="B420" s="2"/>
+      <c r="B420" s="6"/>
       <c r="C420" s="2"/>
       <c r="D420" s="4"/>
       <c r="E420" s="4"/>
@@ -41670,7 +41676,7 @@
     </row>
     <row r="421">
       <c r="A421" s="2"/>
-      <c r="B421" s="2"/>
+      <c r="B421" s="6"/>
       <c r="C421" s="2"/>
       <c r="D421" s="4"/>
       <c r="E421" s="4"/>
@@ -41698,7 +41704,7 @@
     </row>
     <row r="422">
       <c r="A422" s="2"/>
-      <c r="B422" s="2"/>
+      <c r="B422" s="6"/>
       <c r="C422" s="2"/>
       <c r="D422" s="4"/>
       <c r="E422" s="4"/>
@@ -41726,7 +41732,7 @@
     </row>
     <row r="423">
       <c r="A423" s="2"/>
-      <c r="B423" s="2"/>
+      <c r="B423" s="6"/>
       <c r="C423" s="2"/>
       <c r="D423" s="4"/>
       <c r="E423" s="4"/>
@@ -41754,7 +41760,7 @@
     </row>
     <row r="424">
       <c r="A424" s="2"/>
-      <c r="B424" s="2"/>
+      <c r="B424" s="6"/>
       <c r="C424" s="2"/>
       <c r="D424" s="4"/>
       <c r="E424" s="4"/>
@@ -41782,7 +41788,7 @@
     </row>
     <row r="425">
       <c r="A425" s="2"/>
-      <c r="B425" s="2"/>
+      <c r="B425" s="6"/>
       <c r="C425" s="2"/>
       <c r="D425" s="4"/>
       <c r="E425" s="4"/>
@@ -41810,7 +41816,7 @@
     </row>
     <row r="426">
       <c r="A426" s="2"/>
-      <c r="B426" s="2"/>
+      <c r="B426" s="6"/>
       <c r="C426" s="2"/>
       <c r="D426" s="4"/>
       <c r="E426" s="4"/>
@@ -41838,7 +41844,7 @@
     </row>
     <row r="427">
       <c r="A427" s="2"/>
-      <c r="B427" s="2"/>
+      <c r="B427" s="6"/>
       <c r="C427" s="2"/>
       <c r="D427" s="4"/>
       <c r="E427" s="4"/>
@@ -41866,7 +41872,7 @@
     </row>
     <row r="428">
       <c r="A428" s="2"/>
-      <c r="B428" s="2"/>
+      <c r="B428" s="6"/>
       <c r="C428" s="2"/>
       <c r="D428" s="4"/>
       <c r="E428" s="4"/>
@@ -41894,7 +41900,7 @@
     </row>
     <row r="429">
       <c r="A429" s="2"/>
-      <c r="B429" s="2"/>
+      <c r="B429" s="6"/>
       <c r="C429" s="2"/>
       <c r="D429" s="4"/>
       <c r="E429" s="4"/>
@@ -41922,7 +41928,7 @@
     </row>
     <row r="430">
       <c r="A430" s="2"/>
-      <c r="B430" s="2"/>
+      <c r="B430" s="6"/>
       <c r="C430" s="2"/>
       <c r="D430" s="4"/>
       <c r="E430" s="4"/>
@@ -41950,7 +41956,7 @@
     </row>
     <row r="431">
       <c r="A431" s="2"/>
-      <c r="B431" s="2"/>
+      <c r="B431" s="6"/>
       <c r="C431" s="2"/>
       <c r="D431" s="4"/>
       <c r="E431" s="4"/>
@@ -41978,7 +41984,7 @@
     </row>
     <row r="432">
       <c r="A432" s="2"/>
-      <c r="B432" s="2"/>
+      <c r="B432" s="6"/>
       <c r="C432" s="2"/>
       <c r="D432" s="4"/>
       <c r="E432" s="4"/>
@@ -42006,7 +42012,7 @@
     </row>
     <row r="433">
       <c r="A433" s="2"/>
-      <c r="B433" s="2"/>
+      <c r="B433" s="6"/>
       <c r="C433" s="2"/>
       <c r="D433" s="4"/>
       <c r="E433" s="4"/>
@@ -42034,7 +42040,7 @@
     </row>
     <row r="434">
       <c r="A434" s="2"/>
-      <c r="B434" s="2"/>
+      <c r="B434" s="6"/>
       <c r="C434" s="2"/>
       <c r="D434" s="4"/>
       <c r="E434" s="4"/>
@@ -42062,7 +42068,7 @@
     </row>
     <row r="435">
       <c r="A435" s="2"/>
-      <c r="B435" s="2"/>
+      <c r="B435" s="6"/>
       <c r="C435" s="2"/>
       <c r="D435" s="4"/>
       <c r="E435" s="4"/>
@@ -42090,7 +42096,7 @@
     </row>
     <row r="436">
       <c r="A436" s="2"/>
-      <c r="B436" s="2"/>
+      <c r="B436" s="6"/>
       <c r="C436" s="2"/>
       <c r="D436" s="4"/>
       <c r="E436" s="4"/>
@@ -42118,7 +42124,7 @@
     </row>
     <row r="437">
       <c r="A437" s="2"/>
-      <c r="B437" s="2"/>
+      <c r="B437" s="6"/>
       <c r="C437" s="2"/>
       <c r="D437" s="4"/>
       <c r="E437" s="4"/>
@@ -42146,7 +42152,7 @@
     </row>
     <row r="438">
       <c r="A438" s="2"/>
-      <c r="B438" s="2"/>
+      <c r="B438" s="6"/>
       <c r="C438" s="2"/>
       <c r="D438" s="4"/>
       <c r="E438" s="4"/>
@@ -42174,7 +42180,7 @@
     </row>
     <row r="439">
       <c r="A439" s="2"/>
-      <c r="B439" s="2"/>
+      <c r="B439" s="6"/>
       <c r="C439" s="2"/>
       <c r="D439" s="4"/>
       <c r="E439" s="4"/>
@@ -42202,7 +42208,7 @@
     </row>
     <row r="440">
       <c r="A440" s="2"/>
-      <c r="B440" s="2"/>
+      <c r="B440" s="6"/>
       <c r="C440" s="2"/>
       <c r="D440" s="4"/>
       <c r="E440" s="4"/>
@@ -42230,7 +42236,7 @@
     </row>
     <row r="441">
       <c r="A441" s="2"/>
-      <c r="B441" s="2"/>
+      <c r="B441" s="6"/>
       <c r="C441" s="2"/>
       <c r="D441" s="4"/>
       <c r="E441" s="4"/>
@@ -42258,7 +42264,7 @@
     </row>
     <row r="442">
       <c r="A442" s="2"/>
-      <c r="B442" s="2"/>
+      <c r="B442" s="6"/>
       <c r="C442" s="2"/>
       <c r="D442" s="4"/>
       <c r="E442" s="4"/>
@@ -42286,7 +42292,7 @@
     </row>
     <row r="443">
       <c r="A443" s="2"/>
-      <c r="B443" s="2"/>
+      <c r="B443" s="6"/>
       <c r="C443" s="2"/>
       <c r="D443" s="4"/>
       <c r="E443" s="4"/>
@@ -42314,7 +42320,7 @@
     </row>
     <row r="444">
       <c r="A444" s="2"/>
-      <c r="B444" s="2"/>
+      <c r="B444" s="6"/>
       <c r="C444" s="2"/>
       <c r="D444" s="4"/>
       <c r="E444" s="4"/>
@@ -42342,7 +42348,7 @@
     </row>
     <row r="445">
       <c r="A445" s="2"/>
-      <c r="B445" s="2"/>
+      <c r="B445" s="6"/>
       <c r="C445" s="2"/>
       <c r="D445" s="4"/>
       <c r="E445" s="4"/>
@@ -42370,7 +42376,7 @@
     </row>
     <row r="446">
       <c r="A446" s="2"/>
-      <c r="B446" s="2"/>
+      <c r="B446" s="6"/>
       <c r="C446" s="2"/>
       <c r="D446" s="4"/>
       <c r="E446" s="4"/>
@@ -42398,7 +42404,7 @@
     </row>
     <row r="447">
       <c r="A447" s="2"/>
-      <c r="B447" s="2"/>
+      <c r="B447" s="6"/>
       <c r="C447" s="2"/>
       <c r="D447" s="4"/>
       <c r="E447" s="4"/>
@@ -42426,7 +42432,7 @@
     </row>
     <row r="448">
       <c r="A448" s="2"/>
-      <c r="B448" s="2"/>
+      <c r="B448" s="6"/>
       <c r="C448" s="2"/>
       <c r="D448" s="4"/>
       <c r="E448" s="4"/>
@@ -42454,7 +42460,7 @@
     </row>
     <row r="449">
       <c r="A449" s="2"/>
-      <c r="B449" s="2"/>
+      <c r="B449" s="6"/>
       <c r="C449" s="2"/>
       <c r="D449" s="4"/>
       <c r="E449" s="4"/>
@@ -42482,7 +42488,7 @@
     </row>
     <row r="450">
       <c r="A450" s="2"/>
-      <c r="B450" s="2"/>
+      <c r="B450" s="6"/>
       <c r="C450" s="2"/>
       <c r="D450" s="4"/>
       <c r="E450" s="4"/>
@@ -42510,7 +42516,7 @@
     </row>
     <row r="451">
       <c r="A451" s="2"/>
-      <c r="B451" s="2"/>
+      <c r="B451" s="6"/>
       <c r="C451" s="2"/>
       <c r="D451" s="4"/>
       <c r="E451" s="4"/>
@@ -42538,7 +42544,7 @@
     </row>
     <row r="452">
       <c r="A452" s="2"/>
-      <c r="B452" s="2"/>
+      <c r="B452" s="6"/>
       <c r="C452" s="2"/>
       <c r="D452" s="4"/>
       <c r="E452" s="4"/>
@@ -42566,7 +42572,7 @@
     </row>
     <row r="453">
       <c r="A453" s="2"/>
-      <c r="B453" s="2"/>
+      <c r="B453" s="6"/>
       <c r="C453" s="2"/>
       <c r="D453" s="4"/>
       <c r="E453" s="4"/>
@@ -42594,7 +42600,7 @@
     </row>
     <row r="454">
       <c r="A454" s="2"/>
-      <c r="B454" s="2"/>
+      <c r="B454" s="6"/>
       <c r="C454" s="2"/>
       <c r="D454" s="4"/>
       <c r="E454" s="4"/>
@@ -42622,7 +42628,7 @@
     </row>
     <row r="455">
       <c r="A455" s="2"/>
-      <c r="B455" s="2"/>
+      <c r="B455" s="6"/>
       <c r="C455" s="2"/>
       <c r="D455" s="4"/>
       <c r="E455" s="4"/>
@@ -42650,7 +42656,7 @@
     </row>
     <row r="456">
       <c r="A456" s="2"/>
-      <c r="B456" s="2"/>
+      <c r="B456" s="6"/>
       <c r="C456" s="2"/>
       <c r="D456" s="4"/>
       <c r="E456" s="4"/>
@@ -42678,7 +42684,7 @@
     </row>
     <row r="457">
       <c r="A457" s="2"/>
-      <c r="B457" s="2"/>
+      <c r="B457" s="6"/>
       <c r="C457" s="2"/>
       <c r="D457" s="4"/>
       <c r="E457" s="4"/>
@@ -42706,7 +42712,7 @@
     </row>
     <row r="458">
       <c r="A458" s="2"/>
-      <c r="B458" s="2"/>
+      <c r="B458" s="6"/>
       <c r="C458" s="2"/>
       <c r="D458" s="4"/>
       <c r="E458" s="4"/>
@@ -42734,7 +42740,7 @@
     </row>
     <row r="459">
       <c r="A459" s="2"/>
-      <c r="B459" s="2"/>
+      <c r="B459" s="6"/>
       <c r="C459" s="2"/>
       <c r="D459" s="4"/>
       <c r="E459" s="4"/>
@@ -42762,7 +42768,7 @@
     </row>
     <row r="460">
       <c r="A460" s="2"/>
-      <c r="B460" s="2"/>
+      <c r="B460" s="6"/>
       <c r="C460" s="2"/>
       <c r="D460" s="4"/>
       <c r="E460" s="4"/>
@@ -42790,7 +42796,7 @@
     </row>
     <row r="461">
       <c r="A461" s="2"/>
-      <c r="B461" s="2"/>
+      <c r="B461" s="6"/>
       <c r="C461" s="2"/>
       <c r="D461" s="4"/>
       <c r="E461" s="4"/>
@@ -42818,7 +42824,7 @@
     </row>
     <row r="462">
       <c r="A462" s="2"/>
-      <c r="B462" s="2"/>
+      <c r="B462" s="6"/>
       <c r="C462" s="2"/>
       <c r="D462" s="4"/>
       <c r="E462" s="4"/>
@@ -42846,7 +42852,7 @@
     </row>
     <row r="463">
       <c r="A463" s="2"/>
-      <c r="B463" s="2"/>
+      <c r="B463" s="6"/>
       <c r="C463" s="2"/>
       <c r="D463" s="4"/>
       <c r="E463" s="4"/>
@@ -42874,7 +42880,7 @@
     </row>
     <row r="464">
       <c r="A464" s="2"/>
-      <c r="B464" s="2"/>
+      <c r="B464" s="6"/>
       <c r="C464" s="2"/>
       <c r="D464" s="4"/>
       <c r="E464" s="4"/>
@@ -42902,7 +42908,7 @@
     </row>
     <row r="465">
       <c r="A465" s="2"/>
-      <c r="B465" s="2"/>
+      <c r="B465" s="6"/>
       <c r="C465" s="2"/>
       <c r="D465" s="4"/>
       <c r="E465" s="4"/>
@@ -42930,7 +42936,7 @@
     </row>
     <row r="466">
       <c r="A466" s="2"/>
-      <c r="B466" s="2"/>
+      <c r="B466" s="6"/>
       <c r="C466" s="2"/>
       <c r="D466" s="4"/>
       <c r="E466" s="4"/>
@@ -42958,7 +42964,7 @@
     </row>
     <row r="467">
       <c r="A467" s="2"/>
-      <c r="B467" s="2"/>
+      <c r="B467" s="6"/>
       <c r="C467" s="2"/>
       <c r="D467" s="4"/>
       <c r="E467" s="4"/>
@@ -42986,7 +42992,7 @@
     </row>
     <row r="468">
       <c r="A468" s="2"/>
-      <c r="B468" s="2"/>
+      <c r="B468" s="6"/>
       <c r="C468" s="2"/>
       <c r="D468" s="4"/>
       <c r="E468" s="4"/>
@@ -43014,7 +43020,7 @@
     </row>
     <row r="469">
       <c r="A469" s="2"/>
-      <c r="B469" s="2"/>
+      <c r="B469" s="6"/>
       <c r="C469" s="2"/>
       <c r="D469" s="4"/>
       <c r="E469" s="4"/>
@@ -43042,7 +43048,7 @@
     </row>
     <row r="470">
       <c r="A470" s="2"/>
-      <c r="B470" s="2"/>
+      <c r="B470" s="6"/>
       <c r="C470" s="2"/>
       <c r="D470" s="4"/>
       <c r="E470" s="4"/>
@@ -43070,7 +43076,7 @@
     </row>
     <row r="471">
       <c r="A471" s="2"/>
-      <c r="B471" s="2"/>
+      <c r="B471" s="6"/>
       <c r="C471" s="2"/>
       <c r="D471" s="4"/>
       <c r="E471" s="4"/>
@@ -43098,7 +43104,7 @@
     </row>
     <row r="472">
       <c r="A472" s="2"/>
-      <c r="B472" s="2"/>
+      <c r="B472" s="6"/>
       <c r="C472" s="2"/>
       <c r="D472" s="4"/>
       <c r="E472" s="4"/>
@@ -43126,7 +43132,7 @@
     </row>
     <row r="473">
       <c r="A473" s="2"/>
-      <c r="B473" s="2"/>
+      <c r="B473" s="6"/>
       <c r="C473" s="2"/>
       <c r="D473" s="4"/>
       <c r="E473" s="4"/>
@@ -43154,7 +43160,7 @@
     </row>
     <row r="474">
       <c r="A474" s="2"/>
-      <c r="B474" s="2"/>
+      <c r="B474" s="6"/>
       <c r="C474" s="2"/>
       <c r="D474" s="4"/>
       <c r="E474" s="4"/>
@@ -43182,7 +43188,7 @@
     </row>
     <row r="475">
       <c r="A475" s="2"/>
-      <c r="B475" s="2"/>
+      <c r="B475" s="6"/>
       <c r="C475" s="2"/>
       <c r="D475" s="4"/>
       <c r="E475" s="4"/>
@@ -43210,7 +43216,7 @@
     </row>
     <row r="476">
       <c r="A476" s="2"/>
-      <c r="B476" s="2"/>
+      <c r="B476" s="6"/>
       <c r="C476" s="2"/>
       <c r="D476" s="4"/>
       <c r="E476" s="4"/>
@@ -43238,7 +43244,7 @@
     </row>
     <row r="477">
       <c r="A477" s="2"/>
-      <c r="B477" s="2"/>
+      <c r="B477" s="6"/>
       <c r="C477" s="2"/>
       <c r="D477" s="4"/>
       <c r="E477" s="4"/>
@@ -43266,7 +43272,7 @@
     </row>
     <row r="478">
       <c r="A478" s="2"/>
-      <c r="B478" s="2"/>
+      <c r="B478" s="6"/>
       <c r="C478" s="2"/>
       <c r="D478" s="4"/>
       <c r="E478" s="4"/>
@@ -43294,7 +43300,7 @@
     </row>
     <row r="479">
       <c r="A479" s="2"/>
-      <c r="B479" s="2"/>
+      <c r="B479" s="6"/>
       <c r="C479" s="2"/>
       <c r="D479" s="4"/>
       <c r="E479" s="4"/>
@@ -43322,7 +43328,7 @@
     </row>
     <row r="480">
       <c r="A480" s="2"/>
-      <c r="B480" s="2"/>
+      <c r="B480" s="6"/>
       <c r="C480" s="2"/>
       <c r="D480" s="4"/>
       <c r="E480" s="4"/>
@@ -43350,7 +43356,7 @@
     </row>
     <row r="481">
       <c r="A481" s="2"/>
-      <c r="B481" s="2"/>
+      <c r="B481" s="6"/>
       <c r="C481" s="2"/>
       <c r="D481" s="4"/>
       <c r="E481" s="4"/>
@@ -43378,7 +43384,7 @@
     </row>
     <row r="482">
       <c r="A482" s="2"/>
-      <c r="B482" s="2"/>
+      <c r="B482" s="6"/>
       <c r="C482" s="2"/>
       <c r="D482" s="4"/>
       <c r="E482" s="4"/>
@@ -43406,7 +43412,7 @@
     </row>
     <row r="483">
       <c r="A483" s="2"/>
-      <c r="B483" s="2"/>
+      <c r="B483" s="6"/>
       <c r="C483" s="2"/>
       <c r="D483" s="4"/>
       <c r="E483" s="4"/>
@@ -43434,7 +43440,7 @@
     </row>
     <row r="484">
       <c r="A484" s="2"/>
-      <c r="B484" s="2"/>
+      <c r="B484" s="6"/>
       <c r="C484" s="2"/>
       <c r="D484" s="4"/>
       <c r="E484" s="4"/>
@@ -43462,7 +43468,7 @@
     </row>
     <row r="485">
       <c r="A485" s="2"/>
-      <c r="B485" s="2"/>
+      <c r="B485" s="6"/>
       <c r="C485" s="2"/>
       <c r="D485" s="4"/>
       <c r="E485" s="4"/>
@@ -43490,7 +43496,7 @@
     </row>
     <row r="486">
       <c r="A486" s="2"/>
-      <c r="B486" s="2"/>
+      <c r="B486" s="6"/>
       <c r="C486" s="2"/>
       <c r="D486" s="4"/>
       <c r="E486" s="4"/>
@@ -43518,7 +43524,7 @@
     </row>
     <row r="487">
       <c r="A487" s="2"/>
-      <c r="B487" s="2"/>
+      <c r="B487" s="6"/>
       <c r="C487" s="2"/>
       <c r="D487" s="4"/>
       <c r="E487" s="4"/>
@@ -43546,7 +43552,7 @@
     </row>
     <row r="488">
       <c r="A488" s="2"/>
-      <c r="B488" s="2"/>
+      <c r="B488" s="6"/>
       <c r="C488" s="2"/>
       <c r="D488" s="4"/>
       <c r="E488" s="4"/>
@@ -43574,7 +43580,7 @@
     </row>
     <row r="489">
       <c r="A489" s="2"/>
-      <c r="B489" s="2"/>
+      <c r="B489" s="6"/>
       <c r="C489" s="2"/>
       <c r="D489" s="4"/>
       <c r="E489" s="4"/>
@@ -43602,7 +43608,7 @@
     </row>
     <row r="490">
       <c r="A490" s="2"/>
-      <c r="B490" s="2"/>
+      <c r="B490" s="6"/>
       <c r="C490" s="2"/>
       <c r="D490" s="4"/>
       <c r="E490" s="4"/>
@@ -43630,7 +43636,7 @@
     </row>
     <row r="491">
       <c r="A491" s="2"/>
-      <c r="B491" s="2"/>
+      <c r="B491" s="6"/>
       <c r="C491" s="2"/>
       <c r="D491" s="4"/>
       <c r="E491" s="4"/>
@@ -43658,7 +43664,7 @@
     </row>
     <row r="492">
       <c r="A492" s="2"/>
-      <c r="B492" s="2"/>
+      <c r="B492" s="6"/>
       <c r="C492" s="2"/>
       <c r="D492" s="4"/>
       <c r="E492" s="4"/>
@@ -43686,7 +43692,7 @@
     </row>
     <row r="493">
       <c r="A493" s="2"/>
-      <c r="B493" s="2"/>
+      <c r="B493" s="6"/>
       <c r="C493" s="2"/>
       <c r="D493" s="4"/>
       <c r="E493" s="4"/>
@@ -43714,7 +43720,7 @@
     </row>
     <row r="494">
       <c r="A494" s="2"/>
-      <c r="B494" s="2"/>
+      <c r="B494" s="6"/>
       <c r="C494" s="2"/>
       <c r="D494" s="4"/>
       <c r="E494" s="4"/>
@@ -43742,7 +43748,7 @@
     </row>
     <row r="495">
       <c r="A495" s="2"/>
-      <c r="B495" s="2"/>
+      <c r="B495" s="6"/>
       <c r="C495" s="2"/>
       <c r="D495" s="4"/>
       <c r="E495" s="4"/>
@@ -43770,7 +43776,7 @@
     </row>
     <row r="496">
       <c r="A496" s="2"/>
-      <c r="B496" s="2"/>
+      <c r="B496" s="6"/>
       <c r="C496" s="2"/>
       <c r="D496" s="4"/>
       <c r="E496" s="4"/>
@@ -43798,7 +43804,7 @@
     </row>
     <row r="497">
       <c r="A497" s="2"/>
-      <c r="B497" s="2"/>
+      <c r="B497" s="6"/>
       <c r="C497" s="2"/>
       <c r="D497" s="4"/>
       <c r="E497" s="4"/>
@@ -43826,7 +43832,7 @@
     </row>
     <row r="498">
       <c r="A498" s="2"/>
-      <c r="B498" s="2"/>
+      <c r="B498" s="6"/>
       <c r="C498" s="2"/>
       <c r="D498" s="4"/>
       <c r="E498" s="4"/>
@@ -43854,7 +43860,7 @@
     </row>
     <row r="499">
       <c r="A499" s="2"/>
-      <c r="B499" s="2"/>
+      <c r="B499" s="6"/>
       <c r="C499" s="2"/>
       <c r="D499" s="4"/>
       <c r="E499" s="4"/>
@@ -43882,7 +43888,7 @@
     </row>
     <row r="500">
       <c r="A500" s="2"/>
-      <c r="B500" s="2"/>
+      <c r="B500" s="6"/>
       <c r="C500" s="2"/>
       <c r="D500" s="4"/>
       <c r="E500" s="4"/>
@@ -43910,7 +43916,7 @@
     </row>
     <row r="501">
       <c r="A501" s="2"/>
-      <c r="B501" s="2"/>
+      <c r="B501" s="6"/>
       <c r="C501" s="2"/>
       <c r="D501" s="4"/>
       <c r="E501" s="4"/>
@@ -43938,7 +43944,7 @@
     </row>
     <row r="502">
       <c r="A502" s="2"/>
-      <c r="B502" s="2"/>
+      <c r="B502" s="6"/>
       <c r="C502" s="2"/>
       <c r="D502" s="4"/>
       <c r="E502" s="4"/>
@@ -43966,7 +43972,7 @@
     </row>
     <row r="503">
       <c r="A503" s="2"/>
-      <c r="B503" s="2"/>
+      <c r="B503" s="6"/>
       <c r="C503" s="2"/>
       <c r="D503" s="4"/>
       <c r="E503" s="4"/>
@@ -43994,7 +44000,7 @@
     </row>
     <row r="504">
       <c r="A504" s="2"/>
-      <c r="B504" s="2"/>
+      <c r="B504" s="6"/>
       <c r="C504" s="2"/>
       <c r="D504" s="4"/>
       <c r="E504" s="4"/>
@@ -44022,7 +44028,7 @@
     </row>
     <row r="505">
       <c r="A505" s="2"/>
-      <c r="B505" s="2"/>
+      <c r="B505" s="6"/>
       <c r="C505" s="2"/>
       <c r="D505" s="4"/>
       <c r="E505" s="4"/>
@@ -44050,7 +44056,7 @@
     </row>
     <row r="506">
       <c r="A506" s="2"/>
-      <c r="B506" s="2"/>
+      <c r="B506" s="6"/>
       <c r="C506" s="2"/>
       <c r="D506" s="4"/>
       <c r="E506" s="4"/>
@@ -44078,7 +44084,7 @@
     </row>
     <row r="507">
       <c r="A507" s="2"/>
-      <c r="B507" s="2"/>
+      <c r="B507" s="6"/>
       <c r="C507" s="2"/>
       <c r="D507" s="4"/>
       <c r="E507" s="4"/>
@@ -44106,7 +44112,7 @@
     </row>
     <row r="508">
       <c r="A508" s="2"/>
-      <c r="B508" s="2"/>
+      <c r="B508" s="6"/>
       <c r="C508" s="2"/>
       <c r="D508" s="4"/>
       <c r="E508" s="4"/>
@@ -44134,7 +44140,7 @@
     </row>
     <row r="509">
       <c r="A509" s="2"/>
-      <c r="B509" s="2"/>
+      <c r="B509" s="6"/>
       <c r="C509" s="2"/>
       <c r="D509" s="4"/>
       <c r="E509" s="4"/>
@@ -44162,7 +44168,7 @@
     </row>
     <row r="510">
       <c r="A510" s="2"/>
-      <c r="B510" s="2"/>
+      <c r="B510" s="6"/>
       <c r="C510" s="2"/>
       <c r="D510" s="4"/>
       <c r="E510" s="4"/>
@@ -44190,7 +44196,7 @@
     </row>
     <row r="511">
       <c r="A511" s="2"/>
-      <c r="B511" s="2"/>
+      <c r="B511" s="6"/>
       <c r="C511" s="2"/>
       <c r="D511" s="4"/>
       <c r="E511" s="4"/>
@@ -44218,7 +44224,7 @@
     </row>
     <row r="512">
       <c r="A512" s="2"/>
-      <c r="B512" s="2"/>
+      <c r="B512" s="6"/>
       <c r="C512" s="2"/>
       <c r="D512" s="4"/>
       <c r="E512" s="4"/>
@@ -44246,7 +44252,7 @@
     </row>
     <row r="513">
       <c r="A513" s="2"/>
-      <c r="B513" s="2"/>
+      <c r="B513" s="6"/>
       <c r="C513" s="2"/>
       <c r="D513" s="4"/>
       <c r="E513" s="4"/>
@@ -44274,7 +44280,7 @@
     </row>
     <row r="514">
       <c r="A514" s="2"/>
-      <c r="B514" s="2"/>
+      <c r="B514" s="6"/>
       <c r="C514" s="2"/>
       <c r="D514" s="4"/>
       <c r="E514" s="4"/>
@@ -44302,7 +44308,7 @@
     </row>
     <row r="515">
       <c r="A515" s="2"/>
-      <c r="B515" s="2"/>
+      <c r="B515" s="6"/>
       <c r="C515" s="2"/>
       <c r="D515" s="4"/>
       <c r="E515" s="4"/>
@@ -44330,7 +44336,7 @@
     </row>
     <row r="516">
       <c r="A516" s="2"/>
-      <c r="B516" s="2"/>
+      <c r="B516" s="6"/>
       <c r="C516" s="2"/>
       <c r="D516" s="4"/>
       <c r="E516" s="4"/>
@@ -44358,7 +44364,7 @@
     </row>
     <row r="517">
       <c r="A517" s="2"/>
-      <c r="B517" s="2"/>
+      <c r="B517" s="6"/>
       <c r="C517" s="2"/>
       <c r="D517" s="4"/>
       <c r="E517" s="4"/>
@@ -44386,7 +44392,7 @@
     </row>
     <row r="518">
       <c r="A518" s="2"/>
-      <c r="B518" s="2"/>
+      <c r="B518" s="6"/>
       <c r="C518" s="2"/>
       <c r="D518" s="4"/>
       <c r="E518" s="4"/>
@@ -44414,7 +44420,7 @@
     </row>
     <row r="519">
       <c r="A519" s="2"/>
-      <c r="B519" s="2"/>
+      <c r="B519" s="6"/>
       <c r="C519" s="2"/>
       <c r="D519" s="4"/>
       <c r="E519" s="4"/>
@@ -44442,7 +44448,7 @@
     </row>
     <row r="520">
       <c r="A520" s="2"/>
-      <c r="B520" s="2"/>
+      <c r="B520" s="6"/>
       <c r="C520" s="2"/>
       <c r="D520" s="4"/>
       <c r="E520" s="4"/>
@@ -44470,7 +44476,7 @@
     </row>
     <row r="521">
       <c r="A521" s="2"/>
-      <c r="B521" s="2"/>
+      <c r="B521" s="6"/>
       <c r="C521" s="2"/>
       <c r="D521" s="4"/>
       <c r="E521" s="4"/>
@@ -44498,7 +44504,7 @@
     </row>
     <row r="522">
       <c r="A522" s="2"/>
-      <c r="B522" s="2"/>
+      <c r="B522" s="6"/>
       <c r="C522" s="2"/>
       <c r="D522" s="4"/>
       <c r="E522" s="4"/>
@@ -44526,7 +44532,7 @@
     </row>
     <row r="523">
       <c r="A523" s="2"/>
-      <c r="B523" s="2"/>
+      <c r="B523" s="6"/>
       <c r="C523" s="2"/>
       <c r="D523" s="4"/>
       <c r="E523" s="4"/>
@@ -44554,7 +44560,7 @@
     </row>
     <row r="524">
       <c r="A524" s="2"/>
-      <c r="B524" s="2"/>
+      <c r="B524" s="6"/>
       <c r="C524" s="2"/>
       <c r="D524" s="4"/>
       <c r="E524" s="4"/>
@@ -44582,7 +44588,7 @@
     </row>
     <row r="525">
       <c r="A525" s="2"/>
-      <c r="B525" s="2"/>
+      <c r="B525" s="6"/>
       <c r="C525" s="2"/>
       <c r="D525" s="4"/>
       <c r="E525" s="4"/>
@@ -44610,7 +44616,7 @@
     </row>
     <row r="526">
       <c r="A526" s="2"/>
-      <c r="B526" s="2"/>
+      <c r="B526" s="6"/>
       <c r="C526" s="2"/>
       <c r="D526" s="4"/>
       <c r="E526" s="4"/>
@@ -44638,7 +44644,7 @@
     </row>
     <row r="527">
       <c r="A527" s="2"/>
-      <c r="B527" s="2"/>
+      <c r="B527" s="6"/>
       <c r="C527" s="2"/>
       <c r="D527" s="4"/>
       <c r="E527" s="4"/>
@@ -44666,7 +44672,7 @@
     </row>
     <row r="528">
       <c r="A528" s="2"/>
-      <c r="B528" s="2"/>
+      <c r="B528" s="6"/>
       <c r="C528" s="2"/>
       <c r="D528" s="4"/>
       <c r="E528" s="4"/>
@@ -44694,7 +44700,7 @@
     </row>
     <row r="529">
       <c r="A529" s="2"/>
-      <c r="B529" s="2"/>
+      <c r="B529" s="6"/>
       <c r="C529" s="2"/>
       <c r="D529" s="4"/>
       <c r="E529" s="4"/>
@@ -44722,7 +44728,7 @@
     </row>
     <row r="530">
       <c r="A530" s="2"/>
-      <c r="B530" s="2"/>
+      <c r="B530" s="6"/>
       <c r="C530" s="2"/>
       <c r="D530" s="4"/>
       <c r="E530" s="4"/>
@@ -44750,7 +44756,7 @@
     </row>
     <row r="531">
       <c r="A531" s="2"/>
-      <c r="B531" s="2"/>
+      <c r="B531" s="6"/>
       <c r="C531" s="2"/>
       <c r="D531" s="4"/>
       <c r="E531" s="4"/>
@@ -44778,7 +44784,7 @@
     </row>
     <row r="532">
       <c r="A532" s="2"/>
-      <c r="B532" s="2"/>
+      <c r="B532" s="6"/>
       <c r="C532" s="2"/>
       <c r="D532" s="4"/>
       <c r="E532" s="4"/>
@@ -44806,7 +44812,7 @@
     </row>
     <row r="533">
       <c r="A533" s="2"/>
-      <c r="B533" s="2"/>
+      <c r="B533" s="6"/>
       <c r="C533" s="2"/>
       <c r="D533" s="4"/>
       <c r="E533" s="4"/>
@@ -44834,7 +44840,7 @@
     </row>
     <row r="534">
       <c r="A534" s="2"/>
-      <c r="B534" s="2"/>
+      <c r="B534" s="6"/>
       <c r="C534" s="2"/>
       <c r="D534" s="4"/>
       <c r="E534" s="4"/>
@@ -44862,7 +44868,7 @@
     </row>
     <row r="535">
       <c r="A535" s="2"/>
-      <c r="B535" s="2"/>
+      <c r="B535" s="6"/>
       <c r="C535" s="2"/>
       <c r="D535" s="4"/>
       <c r="E535" s="4"/>
@@ -44890,7 +44896,7 @@
     </row>
     <row r="536">
       <c r="A536" s="2"/>
-      <c r="B536" s="2"/>
+      <c r="B536" s="6"/>
       <c r="C536" s="2"/>
       <c r="D536" s="4"/>
       <c r="E536" s="4"/>
@@ -44918,7 +44924,7 @@
     </row>
     <row r="537">
       <c r="A537" s="2"/>
-      <c r="B537" s="2"/>
+      <c r="B537" s="6"/>
       <c r="C537" s="2"/>
       <c r="D537" s="4"/>
       <c r="E537" s="4"/>
@@ -44946,7 +44952,7 @@
     </row>
     <row r="538">
       <c r="A538" s="2"/>
-      <c r="B538" s="2"/>
+      <c r="B538" s="6"/>
       <c r="C538" s="2"/>
       <c r="D538" s="4"/>
       <c r="E538" s="4"/>
@@ -44974,7 +44980,7 @@
     </row>
     <row r="539">
       <c r="A539" s="2"/>
-      <c r="B539" s="2"/>
+      <c r="B539" s="6"/>
       <c r="C539" s="2"/>
       <c r="D539" s="4"/>
       <c r="E539" s="4"/>
@@ -45002,7 +45008,7 @@
     </row>
     <row r="540">
       <c r="A540" s="2"/>
-      <c r="B540" s="2"/>
+      <c r="B540" s="6"/>
       <c r="C540" s="2"/>
       <c r="D540" s="4"/>
       <c r="E540" s="4"/>
@@ -45030,7 +45036,7 @@
     </row>
     <row r="541">
       <c r="A541" s="2"/>
-      <c r="B541" s="2"/>
+      <c r="B541" s="6"/>
       <c r="C541" s="2"/>
       <c r="D541" s="4"/>
       <c r="E541" s="4"/>
@@ -45058,7 +45064,7 @@
     </row>
     <row r="542">
       <c r="A542" s="2"/>
-      <c r="B542" s="2"/>
+      <c r="B542" s="6"/>
       <c r="C542" s="2"/>
       <c r="D542" s="4"/>
       <c r="E542" s="4"/>
@@ -45086,7 +45092,7 @@
     </row>
     <row r="543">
       <c r="A543" s="2"/>
-      <c r="B543" s="2"/>
+      <c r="B543" s="6"/>
       <c r="C543" s="2"/>
       <c r="D543" s="4"/>
       <c r="E543" s="4"/>
@@ -45114,7 +45120,7 @@
     </row>
     <row r="544">
       <c r="A544" s="2"/>
-      <c r="B544" s="2"/>
+      <c r="B544" s="6"/>
       <c r="C544" s="2"/>
       <c r="D544" s="4"/>
       <c r="E544" s="4"/>
@@ -45142,7 +45148,7 @@
     </row>
     <row r="545">
       <c r="A545" s="2"/>
-      <c r="B545" s="2"/>
+      <c r="B545" s="6"/>
       <c r="C545" s="2"/>
       <c r="D545" s="4"/>
       <c r="E545" s="4"/>
@@ -45170,7 +45176,7 @@
     </row>
     <row r="546">
       <c r="A546" s="2"/>
-      <c r="B546" s="2"/>
+      <c r="B546" s="6"/>
       <c r="C546" s="2"/>
       <c r="D546" s="4"/>
       <c r="E546" s="4"/>
@@ -45198,7 +45204,7 @@
     </row>
     <row r="547">
       <c r="A547" s="2"/>
-      <c r="B547" s="2"/>
+      <c r="B547" s="6"/>
       <c r="C547" s="2"/>
       <c r="D547" s="4"/>
       <c r="E547" s="4"/>
@@ -45226,7 +45232,7 @@
     </row>
     <row r="548">
       <c r="A548" s="2"/>
-      <c r="B548" s="2"/>
+      <c r="B548" s="6"/>
       <c r="C548" s="2"/>
       <c r="D548" s="4"/>
       <c r="E548" s="4"/>
@@ -45254,7 +45260,7 @@
     </row>
     <row r="549">
       <c r="A549" s="2"/>
-      <c r="B549" s="2"/>
+      <c r="B549" s="6"/>
       <c r="C549" s="2"/>
       <c r="D549" s="4"/>
       <c r="E549" s="4"/>
@@ -45282,7 +45288,7 @@
     </row>
     <row r="550">
       <c r="A550" s="2"/>
-      <c r="B550" s="2"/>
+      <c r="B550" s="6"/>
       <c r="C550" s="2"/>
       <c r="D550" s="4"/>
       <c r="E550" s="4"/>
@@ -45310,7 +45316,7 @@
     </row>
     <row r="551">
       <c r="A551" s="2"/>
-      <c r="B551" s="2"/>
+      <c r="B551" s="6"/>
       <c r="C551" s="2"/>
       <c r="D551" s="4"/>
       <c r="E551" s="4"/>
@@ -45338,7 +45344,7 @@
     </row>
     <row r="552">
       <c r="A552" s="2"/>
-      <c r="B552" s="2"/>
+      <c r="B552" s="6"/>
       <c r="C552" s="2"/>
       <c r="D552" s="4"/>
       <c r="E552" s="4"/>
@@ -45366,7 +45372,7 @@
     </row>
     <row r="553">
       <c r="A553" s="2"/>
-      <c r="B553" s="2"/>
+      <c r="B553" s="6"/>
       <c r="C553" s="2"/>
       <c r="D553" s="4"/>
       <c r="E553" s="4"/>
@@ -45394,7 +45400,7 @@
     </row>
     <row r="554">
       <c r="A554" s="2"/>
-      <c r="B554" s="2"/>
+      <c r="B554" s="6"/>
       <c r="C554" s="2"/>
       <c r="D554" s="4"/>
       <c r="E554" s="4"/>
@@ -45422,7 +45428,7 @@
     </row>
     <row r="555">
       <c r="A555" s="2"/>
-      <c r="B555" s="2"/>
+      <c r="B555" s="6"/>
       <c r="C555" s="2"/>
       <c r="D555" s="4"/>
       <c r="E555" s="4"/>
@@ -45450,7 +45456,7 @@
     </row>
     <row r="556">
       <c r="A556" s="2"/>
-      <c r="B556" s="2"/>
+      <c r="B556" s="6"/>
       <c r="C556" s="2"/>
       <c r="D556" s="4"/>
       <c r="E556" s="4"/>
@@ -45478,7 +45484,7 @@
     </row>
     <row r="557">
       <c r="A557" s="2"/>
-      <c r="B557" s="2"/>
+      <c r="B557" s="6"/>
       <c r="C557" s="2"/>
       <c r="D557" s="4"/>
       <c r="E557" s="4"/>
@@ -45506,7 +45512,7 @@
     </row>
     <row r="558">
       <c r="A558" s="2"/>
-      <c r="B558" s="2"/>
+      <c r="B558" s="6"/>
       <c r="C558" s="2"/>
       <c r="D558" s="4"/>
       <c r="E558" s="4"/>
@@ -45534,7 +45540,7 @@
     </row>
     <row r="559">
       <c r="A559" s="2"/>
-      <c r="B559" s="2"/>
+      <c r="B559" s="6"/>
       <c r="C559" s="2"/>
       <c r="D559" s="4"/>
       <c r="E559" s="4"/>
@@ -45562,7 +45568,7 @@
     </row>
     <row r="560">
       <c r="A560" s="2"/>
-      <c r="B560" s="2"/>
+      <c r="B560" s="6"/>
       <c r="C560" s="2"/>
       <c r="D560" s="4"/>
       <c r="E560" s="4"/>
@@ -45590,7 +45596,7 @@
     </row>
     <row r="561">
       <c r="A561" s="2"/>
-      <c r="B561" s="2"/>
+      <c r="B561" s="6"/>
       <c r="C561" s="2"/>
       <c r="D561" s="4"/>
       <c r="E561" s="4"/>
@@ -45618,7 +45624,7 @@
     </row>
     <row r="562">
       <c r="A562" s="2"/>
-      <c r="B562" s="2"/>
+      <c r="B562" s="6"/>
       <c r="C562" s="2"/>
       <c r="D562" s="4"/>
       <c r="E562" s="4"/>
@@ -45646,7 +45652,7 @@
     </row>
     <row r="563">
       <c r="A563" s="2"/>
-      <c r="B563" s="2"/>
+      <c r="B563" s="6"/>
       <c r="C563" s="2"/>
       <c r="D563" s="4"/>
       <c r="E563" s="4"/>
@@ -45674,7 +45680,7 @@
     </row>
     <row r="564">
       <c r="A564" s="2"/>
-      <c r="B564" s="2"/>
+      <c r="B564" s="6"/>
       <c r="C564" s="2"/>
       <c r="D564" s="4"/>
       <c r="E564" s="4"/>
@@ -45702,7 +45708,7 @@
     </row>
     <row r="565">
       <c r="A565" s="2"/>
-      <c r="B565" s="2"/>
+      <c r="B565" s="6"/>
       <c r="C565" s="2"/>
       <c r="D565" s="4"/>
       <c r="E565" s="4"/>
@@ -45730,7 +45736,7 @@
     </row>
     <row r="566">
       <c r="A566" s="2"/>
-      <c r="B566" s="2"/>
+      <c r="B566" s="6"/>
       <c r="C566" s="2"/>
       <c r="D566" s="4"/>
       <c r="E566" s="4"/>
@@ -45758,7 +45764,7 @@
     </row>
     <row r="567">
       <c r="A567" s="2"/>
-      <c r="B567" s="2"/>
+      <c r="B567" s="6"/>
       <c r="C567" s="2"/>
       <c r="D567" s="4"/>
       <c r="E567" s="4"/>
@@ -45786,7 +45792,7 @@
     </row>
     <row r="568">
       <c r="A568" s="2"/>
-      <c r="B568" s="2"/>
+      <c r="B568" s="6"/>
       <c r="C568" s="2"/>
       <c r="D568" s="4"/>
       <c r="E568" s="4"/>
@@ -45814,7 +45820,7 @@
     </row>
     <row r="569">
       <c r="A569" s="2"/>
-      <c r="B569" s="2"/>
+      <c r="B569" s="6"/>
       <c r="C569" s="2"/>
       <c r="D569" s="4"/>
       <c r="E569" s="4"/>
@@ -45842,7 +45848,7 @@
     </row>
     <row r="570">
       <c r="A570" s="2"/>
-      <c r="B570" s="2"/>
+      <c r="B570" s="6"/>
       <c r="C570" s="2"/>
       <c r="D570" s="4"/>
       <c r="E570" s="4"/>
@@ -45870,7 +45876,7 @@
     </row>
     <row r="571">
       <c r="A571" s="2"/>
-      <c r="B571" s="2"/>
+      <c r="B571" s="6"/>
       <c r="C571" s="2"/>
       <c r="D571" s="4"/>
       <c r="E571" s="4"/>
@@ -45898,7 +45904,7 @@
     </row>
     <row r="572">
       <c r="A572" s="2"/>
-      <c r="B572" s="2"/>
+      <c r="B572" s="6"/>
       <c r="C572" s="2"/>
       <c r="D572" s="4"/>
       <c r="E572" s="4"/>
@@ -45926,7 +45932,7 @@
     </row>
     <row r="573">
       <c r="A573" s="2"/>
-      <c r="B573" s="2"/>
+      <c r="B573" s="6"/>
       <c r="C573" s="2"/>
       <c r="D573" s="4"/>
       <c r="E573" s="4"/>
@@ -45954,7 +45960,7 @@
     </row>
     <row r="574">
       <c r="A574" s="2"/>
-      <c r="B574" s="2"/>
+      <c r="B574" s="6"/>
       <c r="C574" s="2"/>
       <c r="D574" s="4"/>
       <c r="E574" s="4"/>
@@ -45982,7 +45988,7 @@
     </row>
     <row r="575">
       <c r="A575" s="2"/>
-      <c r="B575" s="2"/>
+      <c r="B575" s="6"/>
       <c r="C575" s="2"/>
       <c r="D575" s="4"/>
       <c r="E575" s="4"/>
@@ -46010,7 +46016,7 @@
     </row>
     <row r="576">
       <c r="A576" s="2"/>
-      <c r="B576" s="2"/>
+      <c r="B576" s="6"/>
       <c r="C576" s="2"/>
       <c r="D576" s="4"/>
       <c r="E576" s="4"/>
@@ -46038,7 +46044,7 @@
     </row>
     <row r="577">
       <c r="A577" s="2"/>
-      <c r="B577" s="2"/>
+      <c r="B577" s="6"/>
       <c r="C577" s="2"/>
       <c r="D577" s="4"/>
       <c r="E577" s="4"/>
@@ -46066,7 +46072,7 @@
     </row>
     <row r="578">
       <c r="A578" s="2"/>
-      <c r="B578" s="2"/>
+      <c r="B578" s="6"/>
       <c r="C578" s="2"/>
       <c r="D578" s="4"/>
       <c r="E578" s="4"/>
@@ -46094,7 +46100,7 @@
     </row>
     <row r="579">
       <c r="A579" s="2"/>
-      <c r="B579" s="2"/>
+      <c r="B579" s="6"/>
       <c r="C579" s="2"/>
       <c r="D579" s="4"/>
       <c r="E579" s="4"/>
@@ -46122,7 +46128,7 @@
     </row>
     <row r="580">
       <c r="A580" s="2"/>
-      <c r="B580" s="2"/>
+      <c r="B580" s="6"/>
       <c r="C580" s="2"/>
       <c r="D580" s="4"/>
       <c r="E580" s="4"/>
@@ -46150,7 +46156,7 @@
     </row>
     <row r="581">
       <c r="A581" s="2"/>
-      <c r="B581" s="2"/>
+      <c r="B581" s="6"/>
       <c r="C581" s="2"/>
       <c r="D581" s="4"/>
       <c r="E581" s="4"/>
@@ -46178,7 +46184,7 @@
     </row>
     <row r="582">
       <c r="A582" s="2"/>
-      <c r="B582" s="2"/>
+      <c r="B582" s="6"/>
       <c r="C582" s="2"/>
       <c r="D582" s="4"/>
       <c r="E582" s="4"/>
@@ -46206,7 +46212,7 @@
     </row>
     <row r="583">
       <c r="A583" s="2"/>
-      <c r="B583" s="2"/>
+      <c r="B583" s="6"/>
       <c r="C583" s="2"/>
       <c r="D583" s="4"/>
       <c r="E583" s="4"/>
@@ -46234,7 +46240,7 @@
     </row>
     <row r="584">
       <c r="A584" s="2"/>
-      <c r="B584" s="2"/>
+      <c r="B584" s="6"/>
       <c r="C584" s="2"/>
       <c r="D584" s="4"/>
       <c r="E584" s="4"/>
@@ -46262,7 +46268,7 @@
     </row>
     <row r="585">
       <c r="A585" s="2"/>
-      <c r="B585" s="2"/>
+      <c r="B585" s="6"/>
       <c r="C585" s="2"/>
       <c r="D585" s="4"/>
       <c r="E585" s="4"/>
@@ -46290,7 +46296,7 @@
     </row>
     <row r="586">
       <c r="A586" s="2"/>
-      <c r="B586" s="2"/>
+      <c r="B586" s="6"/>
       <c r="C586" s="2"/>
       <c r="D586" s="4"/>
       <c r="E586" s="4"/>
@@ -46318,7 +46324,7 @@
     </row>
     <row r="587">
       <c r="A587" s="2"/>
-      <c r="B587" s="2"/>
+      <c r="B587" s="6"/>
       <c r="C587" s="2"/>
       <c r="D587" s="4"/>
       <c r="E587" s="4"/>
@@ -46346,7 +46352,7 @@
     </row>
     <row r="588">
       <c r="A588" s="2"/>
-      <c r="B588" s="2"/>
+      <c r="B588" s="6"/>
       <c r="C588" s="2"/>
       <c r="D588" s="4"/>
       <c r="E588" s="4"/>
@@ -46374,7 +46380,7 @@
     </row>
     <row r="589">
       <c r="A589" s="2"/>
-      <c r="B589" s="2"/>
+      <c r="B589" s="6"/>
       <c r="C589" s="2"/>
       <c r="D589" s="4"/>
       <c r="E589" s="4"/>
@@ -46402,7 +46408,7 @@
     </row>
     <row r="590">
       <c r="A590" s="2"/>
-      <c r="B590" s="2"/>
+      <c r="B590" s="6"/>
       <c r="C590" s="2"/>
       <c r="D590" s="4"/>
       <c r="E590" s="4"/>
@@ -46430,7 +46436,7 @@
     </row>
     <row r="591">
       <c r="A591" s="2"/>
-      <c r="B591" s="2"/>
+      <c r="B591" s="6"/>
       <c r="C591" s="2"/>
       <c r="D591" s="4"/>
       <c r="E591" s="4"/>
@@ -46458,7 +46464,7 @@
     </row>
     <row r="592">
       <c r="A592" s="2"/>
-      <c r="B592" s="2"/>
+      <c r="B592" s="6"/>
       <c r="C592" s="2"/>
       <c r="D592" s="4"/>
       <c r="E592" s="4"/>
@@ -46486,7 +46492,7 @@
     </row>
     <row r="593">
       <c r="A593" s="2"/>
-      <c r="B593" s="2"/>
+      <c r="B593" s="6"/>
       <c r="C593" s="2"/>
       <c r="D593" s="4"/>
       <c r="E593" s="4"/>
@@ -46514,7 +46520,7 @@
     </row>
     <row r="594">
       <c r="A594" s="2"/>
-      <c r="B594" s="2"/>
+      <c r="B594" s="6"/>
       <c r="C594" s="2"/>
       <c r="D594" s="4"/>
       <c r="E594" s="4"/>
@@ -46542,7 +46548,7 @@
     </row>
     <row r="595">
       <c r="A595" s="2"/>
-      <c r="B595" s="2"/>
+      <c r="B595" s="6"/>
       <c r="C595" s="2"/>
       <c r="D595" s="4"/>
       <c r="E595" s="4"/>
@@ -46570,7 +46576,7 @@
     </row>
     <row r="596">
       <c r="A596" s="2"/>
-      <c r="B596" s="2"/>
+      <c r="B596" s="6"/>
       <c r="C596" s="2"/>
       <c r="D596" s="4"/>
       <c r="E596" s="4"/>
@@ -46598,7 +46604,7 @@
     </row>
     <row r="597">
       <c r="A597" s="2"/>
-      <c r="B597" s="2"/>
+      <c r="B597" s="6"/>
       <c r="C597" s="2"/>
       <c r="D597" s="4"/>
       <c r="E597" s="4"/>
@@ -46626,7 +46632,7 @@
     </row>
     <row r="598">
       <c r="A598" s="2"/>
-      <c r="B598" s="2"/>
+      <c r="B598" s="6"/>
       <c r="C598" s="2"/>
       <c r="D598" s="4"/>
       <c r="E598" s="4"/>
@@ -46654,7 +46660,7 @@
     </row>
     <row r="599">
       <c r="A599" s="2"/>
-      <c r="B599" s="2"/>
+      <c r="B599" s="6"/>
       <c r="C599" s="2"/>
       <c r="D599" s="4"/>
       <c r="E599" s="4"/>
@@ -46682,7 +46688,7 @@
     </row>
     <row r="600">
       <c r="A600" s="2"/>
-      <c r="B600" s="2"/>
+      <c r="B600" s="6"/>
       <c r="C600" s="2"/>
       <c r="D600" s="4"/>
       <c r="E600" s="4"/>
@@ -46710,7 +46716,7 @@
     </row>
     <row r="601">
       <c r="A601" s="2"/>
-      <c r="B601" s="2"/>
+      <c r="B601" s="6"/>
       <c r="C601" s="2"/>
       <c r="D601" s="4"/>
       <c r="E601" s="4"/>
@@ -46738,7 +46744,7 @@
     </row>
     <row r="602">
       <c r="A602" s="2"/>
-      <c r="B602" s="2"/>
+      <c r="B602" s="6"/>
       <c r="C602" s="2"/>
       <c r="D602" s="4"/>
       <c r="E602" s="4"/>
@@ -46766,7 +46772,7 @@
     </row>
     <row r="603">
       <c r="A603" s="2"/>
-      <c r="B603" s="2"/>
+      <c r="B603" s="6"/>
       <c r="C603" s="2"/>
       <c r="D603" s="4"/>
       <c r="E603" s="4"/>
@@ -46794,7 +46800,7 @@
     </row>
     <row r="604">
       <c r="A604" s="2"/>
-      <c r="B604" s="2"/>
+      <c r="B604" s="6"/>
       <c r="C604" s="2"/>
       <c r="D604" s="4"/>
       <c r="E604" s="4"/>
@@ -46822,7 +46828,7 @@
     </row>
     <row r="605">
       <c r="A605" s="2"/>
-      <c r="B605" s="2"/>
+      <c r="B605" s="6"/>
       <c r="C605" s="2"/>
       <c r="D605" s="4"/>
       <c r="E605" s="4"/>
@@ -46850,7 +46856,7 @@
     </row>
     <row r="606">
       <c r="A606" s="2"/>
-      <c r="B606" s="2"/>
+      <c r="B606" s="6"/>
       <c r="C606" s="2"/>
       <c r="D606" s="4"/>
       <c r="E606" s="4"/>
@@ -46878,7 +46884,7 @@
     </row>
     <row r="607">
       <c r="A607" s="2"/>
-      <c r="B607" s="2"/>
+      <c r="B607" s="6"/>
       <c r="C607" s="2"/>
       <c r="D607" s="4"/>
       <c r="E607" s="4"/>
@@ -46906,7 +46912,7 @@
     </row>
     <row r="608">
       <c r="A608" s="2"/>
-      <c r="B608" s="2"/>
+      <c r="B608" s="6"/>
       <c r="C608" s="2"/>
       <c r="D608" s="4"/>
       <c r="E608" s="4"/>
@@ -46934,7 +46940,7 @@
     </row>
     <row r="609">
       <c r="A609" s="2"/>
-      <c r="B609" s="2"/>
+      <c r="B609" s="6"/>
       <c r="C609" s="2"/>
       <c r="D609" s="4"/>
       <c r="E609" s="4"/>
@@ -46962,7 +46968,7 @@
     </row>
     <row r="610">
       <c r="A610" s="2"/>
-      <c r="B610" s="2"/>
+      <c r="B610" s="6"/>
       <c r="C610" s="2"/>
       <c r="D610" s="4"/>
       <c r="E610" s="4"/>
@@ -46990,7 +46996,7 @@
     </row>
     <row r="611">
       <c r="A611" s="2"/>
-      <c r="B611" s="2"/>
+      <c r="B611" s="6"/>
       <c r="C611" s="2"/>
       <c r="D611" s="4"/>
       <c r="E611" s="4"/>
@@ -47018,7 +47024,7 @@
     </row>
     <row r="612">
       <c r="A612" s="2"/>
-      <c r="B612" s="2"/>
+      <c r="B612" s="6"/>
       <c r="C612" s="2"/>
       <c r="D612" s="4"/>
       <c r="E612" s="4"/>
@@ -47046,7 +47052,7 @@
     </row>
     <row r="613">
       <c r="A613" s="2"/>
-      <c r="B613" s="2"/>
+      <c r="B613" s="6"/>
       <c r="C613" s="2"/>
       <c r="D613" s="4"/>
       <c r="E613" s="4"/>
@@ -47074,7 +47080,7 @@
     </row>
     <row r="614">
       <c r="A614" s="2"/>
-      <c r="B614" s="2"/>
+      <c r="B614" s="6"/>
       <c r="C614" s="2"/>
       <c r="D614" s="4"/>
       <c r="E614" s="4"/>
@@ -47102,7 +47108,7 @@
     </row>
     <row r="615">
       <c r="A615" s="2"/>
-      <c r="B615" s="2"/>
+      <c r="B615" s="6"/>
       <c r="C615" s="2"/>
       <c r="D615" s="4"/>
       <c r="E615" s="4"/>
@@ -47130,7 +47136,7 @@
     </row>
     <row r="616">
       <c r="A616" s="2"/>
-      <c r="B616" s="2"/>
+      <c r="B616" s="6"/>
       <c r="C616" s="2"/>
       <c r="D616" s="4"/>
       <c r="E616" s="4"/>
@@ -47158,7 +47164,7 @@
     </row>
     <row r="617">
       <c r="A617" s="2"/>
-      <c r="B617" s="2"/>
+      <c r="B617" s="6"/>
       <c r="C617" s="2"/>
       <c r="D617" s="4"/>
       <c r="E617" s="4"/>
@@ -47186,7 +47192,7 @@
     </row>
     <row r="618">
       <c r="A618" s="2"/>
-      <c r="B618" s="2"/>
+      <c r="B618" s="6"/>
       <c r="C618" s="2"/>
       <c r="D618" s="4"/>
       <c r="E618" s="4"/>
@@ -47214,7 +47220,7 @@
     </row>
     <row r="619">
       <c r="A619" s="2"/>
-      <c r="B619" s="2"/>
+      <c r="B619" s="6"/>
       <c r="C619" s="2"/>
       <c r="D619" s="4"/>
       <c r="E619" s="4"/>
@@ -47242,7 +47248,7 @@
     </row>
     <row r="620">
       <c r="A620" s="2"/>
-      <c r="B620" s="2"/>
+      <c r="B620" s="6"/>
       <c r="C620" s="2"/>
       <c r="D620" s="4"/>
       <c r="E620" s="4"/>
@@ -47270,7 +47276,7 @@
     </row>
     <row r="621">
       <c r="A621" s="2"/>
-      <c r="B621" s="2"/>
+      <c r="B621" s="6"/>
       <c r="C621" s="2"/>
       <c r="D621" s="4"/>
       <c r="E621" s="4"/>
@@ -47298,7 +47304,7 @@
     </row>
     <row r="622">
       <c r="A622" s="2"/>
-      <c r="B622" s="2"/>
+      <c r="B622" s="6"/>
       <c r="C622" s="2"/>
       <c r="D622" s="4"/>
       <c r="E622" s="4"/>
@@ -47326,7 +47332,7 @@
     </row>
     <row r="623">
       <c r="A623" s="2"/>
-      <c r="B623" s="2"/>
+      <c r="B623" s="6"/>
       <c r="C623" s="2"/>
       <c r="D623" s="4"/>
       <c r="E623" s="4"/>
@@ -47354,7 +47360,7 @@
     </row>
     <row r="624">
       <c r="A624" s="2"/>
-      <c r="B624" s="2"/>
+      <c r="B624" s="6"/>
       <c r="C624" s="2"/>
       <c r="D624" s="4"/>
       <c r="E624" s="4"/>
@@ -47382,7 +47388,7 @@
     </row>
     <row r="625">
       <c r="A625" s="2"/>
-      <c r="B625" s="2"/>
+      <c r="B625" s="6"/>
       <c r="C625" s="2"/>
       <c r="D625" s="4"/>
       <c r="E625" s="4"/>
@@ -47410,7 +47416,7 @@
     </row>
     <row r="626">
       <c r="A626" s="2"/>
-      <c r="B626" s="2"/>
+      <c r="B626" s="6"/>
       <c r="C626" s="2"/>
       <c r="D626" s="4"/>
       <c r="E626" s="4"/>
@@ -47438,7 +47444,7 @@
     </row>
     <row r="627">
       <c r="A627" s="2"/>
-      <c r="B627" s="2"/>
+      <c r="B627" s="6"/>
       <c r="C627" s="2"/>
       <c r="D627" s="4"/>
       <c r="E627" s="4"/>
@@ -47466,7 +47472,7 @@
     </row>
     <row r="628">
       <c r="A628" s="2"/>
-      <c r="B628" s="2"/>
+      <c r="B628" s="6"/>
       <c r="C628" s="2"/>
       <c r="D628" s="4"/>
       <c r="E628" s="4"/>
@@ -47494,7 +47500,7 @@
     </row>
     <row r="629">
       <c r="A629" s="2"/>
-      <c r="B629" s="2"/>
+      <c r="B629" s="6"/>
       <c r="C629" s="2"/>
       <c r="D629" s="4"/>
       <c r="E629" s="4"/>
@@ -47522,7 +47528,7 @@
     </row>
     <row r="630">
       <c r="A630" s="2"/>
-      <c r="B630" s="2"/>
+      <c r="B630" s="6"/>
       <c r="C630" s="2"/>
       <c r="D630" s="4"/>
       <c r="E630" s="4"/>
@@ -47550,7 +47556,7 @@
     </row>
     <row r="631">
       <c r="A631" s="2"/>
-      <c r="B631" s="2"/>
+      <c r="B631" s="6"/>
       <c r="C631" s="2"/>
       <c r="D631" s="4"/>
       <c r="E631" s="4"/>
@@ -47578,7 +47584,7 @@
     </row>
     <row r="632">
       <c r="A632" s="2"/>
-      <c r="B632" s="2"/>
+      <c r="B632" s="6"/>
       <c r="C632" s="2"/>
       <c r="D632" s="4"/>
       <c r="E632" s="4"/>
@@ -47606,7 +47612,7 @@
     </row>
     <row r="633">
       <c r="A633" s="2"/>
-      <c r="B633" s="2"/>
+      <c r="B633" s="6"/>
       <c r="C633" s="2"/>
       <c r="D633" s="4"/>
       <c r="E633" s="4"/>
@@ -47634,7 +47640,7 @@
     </row>
     <row r="634">
       <c r="A634" s="2"/>
-      <c r="B634" s="2"/>
+      <c r="B634" s="6"/>
       <c r="C634" s="2"/>
       <c r="D634" s="4"/>
       <c r="E634" s="4"/>
@@ -47662,7 +47668,7 @@
     </row>
     <row r="635">
       <c r="A635" s="2"/>
-      <c r="B635" s="2"/>
+      <c r="B635" s="6"/>
       <c r="C635" s="2"/>
       <c r="D635" s="4"/>
       <c r="E635" s="4"/>
@@ -47690,7 +47696,7 @@
     </row>
     <row r="636">
       <c r="A636" s="2"/>
-      <c r="B636" s="2"/>
+      <c r="B636" s="6"/>
       <c r="C636" s="2"/>
       <c r="D636" s="4"/>
       <c r="E636" s="4"/>
@@ -47718,7 +47724,7 @@
     </row>
     <row r="637">
       <c r="A637" s="2"/>
-      <c r="B637" s="2"/>
+      <c r="B637" s="6"/>
       <c r="C637" s="2"/>
       <c r="D637" s="4"/>
       <c r="E637" s="4"/>
@@ -47746,7 +47752,7 @@
     </row>
     <row r="638">
       <c r="A638" s="2"/>
-      <c r="B638" s="2"/>
+      <c r="B638" s="6"/>
       <c r="C638" s="2"/>
       <c r="D638" s="4"/>
       <c r="E638" s="4"/>
@@ -47774,7 +47780,7 @@
     </row>
     <row r="639">
       <c r="A639" s="2"/>
-      <c r="B639" s="2"/>
+      <c r="B639" s="6"/>
       <c r="C639" s="2"/>
       <c r="D639" s="4"/>
       <c r="E639" s="4"/>
@@ -47802,7 +47808,7 @@
     </row>
     <row r="640">
       <c r="A640" s="2"/>
-      <c r="B640" s="2"/>
+      <c r="B640" s="6"/>
       <c r="C640" s="2"/>
       <c r="D640" s="4"/>
       <c r="E640" s="4"/>
@@ -47830,7 +47836,7 @@
     </row>
     <row r="641">
       <c r="A641" s="2"/>
-      <c r="B641" s="2"/>
+      <c r="B641" s="6"/>
       <c r="C641" s="2"/>
       <c r="D641" s="4"/>
       <c r="E641" s="4"/>
@@ -47858,7 +47864,7 @@
     </row>
     <row r="642">
       <c r="A642" s="2"/>
-      <c r="B642" s="2"/>
+      <c r="B642" s="6"/>
       <c r="C642" s="2"/>
       <c r="D642" s="4"/>
       <c r="E642" s="4"/>
@@ -47886,7 +47892,7 @@
     </row>
     <row r="643">
       <c r="A643" s="2"/>
-      <c r="B643" s="2"/>
+      <c r="B643" s="6"/>
       <c r="C643" s="2"/>
       <c r="D643" s="4"/>
       <c r="E643" s="4"/>
@@ -47914,7 +47920,7 @@
     </row>
     <row r="644">
       <c r="A644" s="2"/>
-      <c r="B644" s="2"/>
+      <c r="B644" s="6"/>
       <c r="C644" s="2"/>
       <c r="D644" s="4"/>
       <c r="E644" s="4"/>
@@ -47942,7 +47948,7 @@
     </row>
     <row r="645">
       <c r="A645" s="2"/>
-      <c r="B645" s="2"/>
+      <c r="B645" s="6"/>
       <c r="C645" s="2"/>
       <c r="D645" s="4"/>
       <c r="E645" s="4"/>
@@ -47970,7 +47976,7 @@
     </row>
     <row r="646">
       <c r="A646" s="2"/>
-      <c r="B646" s="2"/>
+      <c r="B646" s="6"/>
       <c r="C646" s="2"/>
       <c r="D646" s="4"/>
       <c r="E646" s="4"/>
@@ -47998,7 +48004,7 @@
     </row>
     <row r="647">
       <c r="A647" s="2"/>
-      <c r="B647" s="2"/>
+      <c r="B647" s="6"/>
       <c r="C647" s="2"/>
       <c r="D647" s="4"/>
       <c r="E647" s="4"/>
@@ -48026,7 +48032,7 @@
     </row>
     <row r="648">
       <c r="A648" s="2"/>
-      <c r="B648" s="2"/>
+      <c r="B648" s="6"/>
       <c r="C648" s="2"/>
       <c r="D648" s="4"/>
       <c r="E648" s="4"/>
@@ -48054,7 +48060,7 @@
     </row>
     <row r="649">
       <c r="A649" s="2"/>
-      <c r="B649" s="2"/>
+      <c r="B649" s="6"/>
       <c r="C649" s="2"/>
       <c r="D649" s="4"/>
       <c r="E649" s="4"/>
@@ -48082,7 +48088,7 @@
     </row>
     <row r="650">
       <c r="A650" s="2"/>
-      <c r="B650" s="2"/>
+      <c r="B650" s="6"/>
       <c r="C650" s="2"/>
       <c r="D650" s="4"/>
       <c r="E650" s="4"/>
@@ -48110,7 +48116,7 @@
     </row>
     <row r="651">
       <c r="A651" s="2"/>
-      <c r="B651" s="2"/>
+      <c r="B651" s="6"/>
       <c r="C651" s="2"/>
       <c r="D651" s="4"/>
       <c r="E651" s="4"/>
@@ -48138,7 +48144,7 @@
     </row>
     <row r="652">
       <c r="A652" s="2"/>
-      <c r="B652" s="2"/>
+      <c r="B652" s="6"/>
       <c r="C652" s="2"/>
       <c r="D652" s="4"/>
       <c r="E652" s="4"/>
@@ -48166,7 +48172,7 @@
     </row>
     <row r="653">
       <c r="A653" s="2"/>
-      <c r="B653" s="2"/>
+      <c r="B653" s="6"/>
       <c r="C653" s="2"/>
       <c r="D653" s="4"/>
       <c r="E653" s="4"/>
@@ -48194,7 +48200,7 @@
     </row>
     <row r="654">
       <c r="A654" s="2"/>
-      <c r="B654" s="2"/>
+      <c r="B654" s="6"/>
       <c r="C654" s="2"/>
       <c r="D654" s="4"/>
       <c r="E654" s="4"/>
@@ -48222,7 +48228,7 @@
     </row>
     <row r="655">
       <c r="A655" s="2"/>
-      <c r="B655" s="2"/>
+      <c r="B655" s="6"/>
       <c r="C655" s="2"/>
       <c r="D655" s="4"/>
       <c r="E655" s="4"/>
@@ -48250,7 +48256,7 @@
     </row>
     <row r="656">
       <c r="A656" s="2"/>
-      <c r="B656" s="2"/>
+      <c r="B656" s="6"/>
       <c r="C656" s="2"/>
       <c r="D656" s="4"/>
       <c r="E656" s="4"/>
@@ -48278,7 +48284,7 @@
     </row>
     <row r="657">
       <c r="A657" s="2"/>
-      <c r="B657" s="2"/>
+      <c r="B657" s="6"/>
       <c r="C657" s="2"/>
       <c r="D657" s="4"/>
       <c r="E657" s="4"/>
@@ -48306,7 +48312,7 @@
     </row>
     <row r="658">
       <c r="A658" s="2"/>
-      <c r="B658" s="2"/>
+      <c r="B658" s="6"/>
       <c r="C658" s="2"/>
       <c r="D658" s="4"/>
       <c r="E658" s="4"/>
@@ -48334,7 +48340,7 @@
     </row>
     <row r="659">
       <c r="A659" s="2"/>
-      <c r="B659" s="2"/>
+      <c r="B659" s="6"/>
       <c r="C659" s="2"/>
       <c r="D659" s="4"/>
       <c r="E659" s="4"/>
@@ -48362,7 +48368,7 @@
     </row>
     <row r="660">
       <c r="A660" s="2"/>
-      <c r="B660" s="2"/>
+      <c r="B660" s="6"/>
       <c r="C660" s="2"/>
       <c r="D660" s="4"/>
       <c r="E660" s="4"/>
@@ -48390,7 +48396,7 @@
     </row>
     <row r="661">
       <c r="A661" s="2"/>
-      <c r="B661" s="2"/>
+      <c r="B661" s="6"/>
       <c r="C661" s="2"/>
       <c r="D661" s="4"/>
       <c r="E661" s="4"/>
@@ -48418,7 +48424,7 @@
     </row>
     <row r="662">
       <c r="A662" s="2"/>
-      <c r="B662" s="2"/>
+      <c r="B662" s="6"/>
       <c r="C662" s="2"/>
       <c r="D662" s="4"/>
       <c r="E662" s="4"/>
@@ -48446,7 +48452,7 @@
     </row>
     <row r="663">
       <c r="A663" s="2"/>
-      <c r="B663" s="2"/>
+      <c r="B663" s="6"/>
       <c r="C663" s="2"/>
       <c r="D663" s="4"/>
       <c r="E663" s="4"/>
@@ -48474,7 +48480,7 @@
     </row>
     <row r="664">
       <c r="A664" s="2"/>
-      <c r="B664" s="2"/>
+      <c r="B664" s="6"/>
       <c r="C664" s="2"/>
       <c r="D664" s="4"/>
       <c r="E664" s="4"/>
@@ -48502,7 +48508,7 @@
     </row>
     <row r="665">
       <c r="A665" s="2"/>
-      <c r="B665" s="2"/>
+      <c r="B665" s="6"/>
       <c r="C665" s="2"/>
       <c r="D665" s="4"/>
       <c r="E665" s="4"/>
@@ -48530,7 +48536,7 @@
     </row>
     <row r="666">
       <c r="A666" s="2"/>
-      <c r="B666" s="2"/>
+      <c r="B666" s="6"/>
       <c r="C666" s="2"/>
       <c r="D666" s="4"/>
       <c r="E666" s="4"/>
@@ -48558,7 +48564,7 @@
     </row>
     <row r="667">
       <c r="A667" s="2"/>
-      <c r="B667" s="2"/>
+      <c r="B667" s="6"/>
       <c r="C667" s="2"/>
       <c r="D667" s="4"/>
       <c r="E667" s="4"/>
@@ -48586,7 +48592,7 @@
     </row>
     <row r="668">
       <c r="A668" s="2"/>
-      <c r="B668" s="2"/>
+      <c r="B668" s="6"/>
       <c r="C668" s="2"/>
       <c r="D668" s="4"/>
       <c r="E668" s="4"/>
@@ -48614,7 +48620,7 @@
     </row>
     <row r="669">
       <c r="A669" s="2"/>
-      <c r="B669" s="2"/>
+      <c r="B669" s="6"/>
       <c r="C669" s="2"/>
       <c r="D669" s="4"/>
       <c r="E669" s="4"/>
@@ -48642,7 +48648,7 @@
     </row>
     <row r="670">
       <c r="A670" s="2"/>
-      <c r="B670" s="2"/>
+      <c r="B670" s="6"/>
       <c r="C670" s="2"/>
       <c r="D670" s="4"/>
       <c r="E670" s="4"/>
@@ -48670,7 +48676,7 @@
     </row>
     <row r="671">
       <c r="A671" s="2"/>
-      <c r="B671" s="2"/>
+      <c r="B671" s="6"/>
       <c r="C671" s="2"/>
       <c r="D671" s="4"/>
       <c r="E671" s="4"/>
@@ -48698,7 +48704,7 @@
     </row>
     <row r="672">
       <c r="A672" s="2"/>
-      <c r="B672" s="2"/>
+      <c r="B672" s="6"/>
       <c r="C672" s="2"/>
       <c r="D672" s="4"/>
       <c r="E672" s="4"/>
@@ -48726,7 +48732,7 @@
     </row>
     <row r="673">
       <c r="A673" s="2"/>
-      <c r="B673" s="2"/>
+      <c r="B673" s="6"/>
       <c r="C673" s="2"/>
       <c r="D673" s="4"/>
       <c r="E673" s="4"/>
@@ -48754,7 +48760,7 @@
     </row>
     <row r="674">
       <c r="A674" s="2"/>
-      <c r="B674" s="2"/>
+      <c r="B674" s="6"/>
       <c r="C674" s="2"/>
       <c r="D674" s="4"/>
       <c r="E674" s="4"/>
@@ -48782,7 +48788,7 @@
     </row>
     <row r="675">
       <c r="A675" s="2"/>
-      <c r="B675" s="2"/>
+      <c r="B675" s="6"/>
       <c r="C675" s="2"/>
       <c r="D675" s="4"/>
       <c r="E675" s="4"/>
@@ -48810,7 +48816,7 @@
     </row>
     <row r="676">
       <c r="A676" s="2"/>
-      <c r="B676" s="2"/>
+      <c r="B676" s="6"/>
       <c r="C676" s="2"/>
       <c r="D676" s="4"/>
       <c r="E676" s="4"/>
@@ -48838,7 +48844,7 @@
     </row>
     <row r="677">
       <c r="A677" s="2"/>
-      <c r="B677" s="2"/>
+      <c r="B677" s="6"/>
       <c r="C677" s="2"/>
       <c r="D677" s="4"/>
       <c r="E677" s="4"/>
@@ -48866,7 +48872,7 @@
     </row>
     <row r="678">
       <c r="A678" s="2"/>
-      <c r="B678" s="2"/>
+      <c r="B678" s="6"/>
       <c r="C678" s="2"/>
       <c r="D678" s="4"/>
       <c r="E678" s="4"/>
@@ -48894,7 +48900,7 @@
     </row>
     <row r="679">
       <c r="A679" s="2"/>
-      <c r="B679" s="2"/>
+      <c r="B679" s="6"/>
       <c r="C679" s="2"/>
       <c r="D679" s="4"/>
       <c r="E679" s="4"/>
@@ -48922,7 +48928,7 @@
     </row>
     <row r="680">
       <c r="A680" s="2"/>
-      <c r="B680" s="2"/>
+      <c r="B680" s="6"/>
       <c r="C680" s="2"/>
       <c r="D680" s="4"/>
       <c r="E680" s="4"/>
@@ -48950,7 +48956,7 @@
     </row>
     <row r="681">
       <c r="A681" s="2"/>
-      <c r="B681" s="2"/>
+      <c r="B681" s="6"/>
       <c r="C681" s="2"/>
       <c r="D681" s="4"/>
       <c r="E681" s="4"/>
@@ -48978,7 +48984,7 @@
     </row>
     <row r="682">
       <c r="A682" s="2"/>
-      <c r="B682" s="2"/>
+      <c r="B682" s="6"/>
       <c r="C682" s="2"/>
       <c r="D682" s="4"/>
       <c r="E682" s="4"/>
@@ -49006,7 +49012,7 @@
     </row>
     <row r="683">
       <c r="A683" s="2"/>
-      <c r="B683" s="2"/>
+      <c r="B683" s="6"/>
       <c r="C683" s="2"/>
       <c r="D683" s="4"/>
       <c r="E683" s="4"/>
@@ -49034,7 +49040,7 @@
     </row>
     <row r="684">
       <c r="A684" s="2"/>
-      <c r="B684" s="2"/>
+      <c r="B684" s="6"/>
       <c r="C684" s="2"/>
       <c r="D684" s="4"/>
       <c r="E684" s="4"/>
@@ -49062,7 +49068,7 @@
     </row>
     <row r="685">
       <c r="A685" s="2"/>
-      <c r="B685" s="2"/>
+      <c r="B685" s="6"/>
       <c r="C685" s="2"/>
       <c r="D685" s="4"/>
       <c r="E685" s="4"/>
@@ -49090,7 +49096,7 @@
     </row>
     <row r="686">
       <c r="A686" s="2"/>
-      <c r="B686" s="2"/>
+      <c r="B686" s="6"/>
       <c r="C686" s="2"/>
       <c r="D686" s="4"/>
       <c r="E686" s="4"/>
@@ -49118,7 +49124,7 @@
     </row>
     <row r="687">
       <c r="A687" s="2"/>
-      <c r="B687" s="2"/>
+      <c r="B687" s="6"/>
       <c r="C687" s="2"/>
       <c r="D687" s="4"/>
       <c r="E687" s="4"/>
@@ -49146,7 +49152,7 @@
     </row>
     <row r="688">
       <c r="A688" s="2"/>
-      <c r="B688" s="2"/>
+      <c r="B688" s="6"/>
       <c r="C688" s="2"/>
       <c r="D688" s="4"/>
       <c r="E688" s="4"/>
@@ -49174,7 +49180,7 @@
     </row>
     <row r="689">
       <c r="A689" s="2"/>
-      <c r="B689" s="2"/>
+      <c r="B689" s="6"/>
       <c r="C689" s="2"/>
       <c r="D689" s="4"/>
       <c r="E689" s="4"/>
@@ -49202,7 +49208,7 @@
     </row>
     <row r="690">
       <c r="A690" s="2"/>
-      <c r="B690" s="2"/>
+      <c r="B690" s="6"/>
       <c r="C690" s="2"/>
       <c r="D690" s="4"/>
       <c r="E690" s="4"/>
@@ -49230,7 +49236,7 @@
     </row>
     <row r="691">
       <c r="A691" s="2"/>
-      <c r="B691" s="2"/>
+      <c r="B691" s="6"/>
       <c r="C691" s="2"/>
       <c r="D691" s="4"/>
       <c r="E691" s="4"/>
@@ -49258,7 +49264,7 @@
     </row>
     <row r="692">
       <c r="A692" s="2"/>
-      <c r="B692" s="2"/>
+      <c r="B692" s="6"/>
       <c r="C692" s="2"/>
       <c r="D692" s="4"/>
       <c r="E692" s="4"/>
@@ -49286,7 +49292,7 @@
     </row>
     <row r="693">
       <c r="A693" s="2"/>
-      <c r="B693" s="2"/>
+      <c r="B693" s="6"/>
       <c r="C693" s="2"/>
       <c r="D693" s="4"/>
       <c r="E693" s="4"/>
@@ -49314,7 +49320,7 @@
     </row>
     <row r="694">
       <c r="A694" s="2"/>
-      <c r="B694" s="2"/>
+      <c r="B694" s="6"/>
       <c r="C694" s="2"/>
       <c r="D694" s="4"/>
       <c r="E694" s="4"/>
@@ -49342,7 +49348,7 @@
     </row>
     <row r="695">
       <c r="A695" s="2"/>
-      <c r="B695" s="2"/>
+      <c r="B695" s="6"/>
       <c r="C695" s="2"/>
       <c r="D695" s="4"/>
       <c r="E695" s="4"/>
@@ -49370,7 +49376,7 @@
     </row>
     <row r="696">
       <c r="A696" s="2"/>
-      <c r="B696" s="2"/>
+      <c r="B696" s="6"/>
       <c r="C696" s="2"/>
       <c r="D696" s="4"/>
       <c r="E696" s="4"/>
@@ -49398,7 +49404,7 @@
     </row>
     <row r="697">
       <c r="A697" s="2"/>
-      <c r="B697" s="2"/>
+      <c r="B697" s="6"/>
       <c r="C697" s="2"/>
       <c r="D697" s="4"/>
       <c r="E697" s="4"/>
@@ -49426,7 +49432,7 @@
     </row>
     <row r="698">
       <c r="A698" s="2"/>
-      <c r="B698" s="2"/>
+      <c r="B698" s="6"/>
       <c r="C698" s="2"/>
       <c r="D698" s="4"/>
       <c r="E698" s="4"/>
@@ -49454,7 +49460,7 @@
     </row>
     <row r="699">
       <c r="A699" s="2"/>
-      <c r="B699" s="2"/>
+      <c r="B699" s="6"/>
       <c r="C699" s="2"/>
       <c r="D699" s="4"/>
       <c r="E699" s="4"/>
@@ -49482,7 +49488,7 @@
     </row>
     <row r="700">
       <c r="A700" s="2"/>
-      <c r="B700" s="2"/>
+      <c r="B700" s="6"/>
       <c r="C700" s="2"/>
       <c r="D700" s="4"/>
       <c r="E700" s="4"/>
@@ -49510,7 +49516,7 @@
     </row>
     <row r="701">
       <c r="A701" s="2"/>
-      <c r="B701" s="2"/>
+      <c r="B701" s="6"/>
       <c r="C701" s="2"/>
       <c r="D701" s="4"/>
       <c r="E701" s="4"/>
@@ -49538,7 +49544,7 @@
     </row>
     <row r="702">
       <c r="A702" s="2"/>
-      <c r="B702" s="2"/>
+      <c r="B702" s="6"/>
       <c r="C702" s="2"/>
       <c r="D702" s="4"/>
       <c r="E702" s="4"/>
@@ -49566,7 +49572,7 @@
     </row>
     <row r="703">
       <c r="A703" s="2"/>
-      <c r="B703" s="2"/>
+      <c r="B703" s="6"/>
       <c r="C703" s="2"/>
       <c r="D703" s="4"/>
       <c r="E703" s="4"/>
@@ -49594,7 +49600,7 @@
     </row>
     <row r="704">
       <c r="A704" s="2"/>
-      <c r="B704" s="2"/>
+      <c r="B704" s="6"/>
       <c r="C704" s="2"/>
       <c r="D704" s="4"/>
       <c r="E704" s="4"/>
@@ -49622,7 +49628,7 @@
     </row>
     <row r="705">
       <c r="A705" s="2"/>
-      <c r="B705" s="2"/>
+      <c r="B705" s="6"/>
       <c r="C705" s="2"/>
       <c r="D705" s="4"/>
       <c r="E705" s="4"/>
@@ -49650,7 +49656,7 @@
     </row>
     <row r="706">
       <c r="A706" s="2"/>
-      <c r="B706" s="2"/>
+      <c r="B706" s="6"/>
       <c r="C706" s="2"/>
       <c r="D706" s="4"/>
       <c r="E706" s="4"/>
@@ -49678,7 +49684,7 @@
     </row>
     <row r="707">
       <c r="A707" s="2"/>
-      <c r="B707" s="2"/>
+      <c r="B707" s="6"/>
       <c r="C707" s="2"/>
       <c r="D707" s="4"/>
       <c r="E707" s="4"/>
@@ -49706,7 +49712,7 @@
     </row>
     <row r="708">
       <c r="A708" s="2"/>
-      <c r="B708" s="2"/>
+      <c r="B708" s="6"/>
       <c r="C708" s="2"/>
       <c r="D708" s="4"/>
       <c r="E708" s="4"/>
@@ -49734,7 +49740,7 @@
     </row>
     <row r="709">
       <c r="A709" s="2"/>
-      <c r="B709" s="2"/>
+      <c r="B709" s="6"/>
       <c r="C709" s="2"/>
       <c r="D709" s="4"/>
       <c r="E709" s="4"/>
@@ -49762,7 +49768,7 @@
     </row>
     <row r="710">
       <c r="A710" s="2"/>
-      <c r="B710" s="2"/>
+      <c r="B710" s="6"/>
       <c r="C710" s="2"/>
       <c r="D710" s="4"/>
       <c r="E710" s="4"/>
@@ -49790,7 +49796,7 @@
     </row>
     <row r="711">
       <c r="A711" s="2"/>
-      <c r="B711" s="2"/>
+      <c r="B711" s="6"/>
       <c r="C711" s="2"/>
       <c r="D711" s="4"/>
       <c r="E711" s="4"/>
@@ -49818,7 +49824,7 @@
     </row>
     <row r="712">
       <c r="A712" s="2"/>
-      <c r="B712" s="2"/>
+      <c r="B712" s="6"/>
       <c r="C712" s="2"/>
       <c r="D712" s="4"/>
       <c r="E712" s="4"/>
@@ -49846,7 +49852,7 @@
     </row>
     <row r="713">
       <c r="A713" s="2"/>
-      <c r="B713" s="2"/>
+      <c r="B713" s="6"/>
       <c r="C713" s="2"/>
       <c r="D713" s="4"/>
       <c r="E713" s="4"/>
@@ -49874,7 +49880,7 @@
     </row>
     <row r="714">
       <c r="A714" s="2"/>
-      <c r="B714" s="2"/>
+      <c r="B714" s="6"/>
       <c r="C714" s="2"/>
       <c r="D714" s="4"/>
       <c r="E714" s="4"/>
@@ -49902,7 +49908,7 @@
     </row>
     <row r="715">
       <c r="A715" s="2"/>
-      <c r="B715" s="2"/>
+      <c r="B715" s="6"/>
       <c r="C715" s="2"/>
       <c r="D715" s="4"/>
       <c r="E715" s="4"/>
@@ -49930,7 +49936,7 @@
     </row>
     <row r="716">
       <c r="A716" s="2"/>
-      <c r="B716" s="2"/>
+      <c r="B716" s="6"/>
       <c r="C716" s="2"/>
       <c r="D716" s="4"/>
       <c r="E716" s="4"/>
@@ -49958,7 +49964,7 @@
     </row>
     <row r="717">
       <c r="A717" s="2"/>
-      <c r="B717" s="2"/>
+      <c r="B717" s="6"/>
       <c r="C717" s="2"/>
       <c r="D717" s="4"/>
       <c r="E717" s="4"/>
@@ -49986,7 +49992,7 @@
     </row>
     <row r="718">
       <c r="A718" s="2"/>
-      <c r="B718" s="2"/>
+      <c r="B718" s="6"/>
       <c r="C718" s="2"/>
       <c r="D718" s="4"/>
       <c r="E718" s="4"/>
@@ -50014,7 +50020,7 @@
     </row>
     <row r="719">
       <c r="A719" s="2"/>
-      <c r="B719" s="2"/>
+      <c r="B719" s="6"/>
       <c r="C719" s="2"/>
       <c r="D719" s="4"/>
       <c r="E719" s="4"/>
@@ -50042,7 +50048,7 @@
     </row>
     <row r="720">
       <c r="A720" s="2"/>
-      <c r="B720" s="2"/>
+      <c r="B720" s="6"/>
       <c r="C720" s="2"/>
       <c r="D720" s="4"/>
       <c r="E720" s="4"/>
@@ -50070,7 +50076,7 @@
     </row>
     <row r="721">
       <c r="A721" s="2"/>
-      <c r="B721" s="2"/>
+      <c r="B721" s="6"/>
       <c r="C721" s="2"/>
       <c r="D721" s="4"/>
       <c r="E721" s="4"/>
@@ -50098,7 +50104,7 @@
     </row>
     <row r="722">
       <c r="A722" s="2"/>
-      <c r="B722" s="2"/>
+      <c r="B722" s="6"/>
       <c r="C722" s="2"/>
       <c r="D722" s="4"/>
       <c r="E722" s="4"/>
@@ -50126,7 +50132,7 @@
     </row>
     <row r="723">
       <c r="A723" s="2"/>
-      <c r="B723" s="2"/>
+      <c r="B723" s="6"/>
       <c r="C723" s="2"/>
       <c r="D723" s="4"/>
       <c r="E723" s="4"/>
@@ -50154,7 +50160,7 @@
     </row>
     <row r="724">
       <c r="A724" s="2"/>
-      <c r="B724" s="2"/>
+      <c r="B724" s="6"/>
       <c r="C724" s="2"/>
       <c r="D724" s="4"/>
       <c r="E724" s="4"/>
@@ -50182,7 +50188,7 @@
     </row>
     <row r="725">
       <c r="A725" s="2"/>
-      <c r="B725" s="2"/>
+      <c r="B725" s="6"/>
       <c r="C725" s="2"/>
       <c r="D725" s="4"/>
       <c r="E725" s="4"/>
@@ -50210,7 +50216,7 @@
     </row>
     <row r="726">
       <c r="A726" s="2"/>
-      <c r="B726" s="2"/>
+      <c r="B726" s="6"/>
       <c r="C726" s="2"/>
       <c r="D726" s="4"/>
       <c r="E726" s="4"/>
@@ -50238,7 +50244,7 @@
     </row>
     <row r="727">
       <c r="A727" s="2"/>
-      <c r="B727" s="2"/>
+      <c r="B727" s="6"/>
       <c r="C727" s="2"/>
       <c r="D727" s="4"/>
       <c r="E727" s="4"/>
@@ -50266,7 +50272,7 @@
     </row>
     <row r="728">
       <c r="A728" s="2"/>
-      <c r="B728" s="2"/>
+      <c r="B728" s="6"/>
       <c r="C728" s="2"/>
       <c r="D728" s="4"/>
       <c r="E728" s="4"/>
@@ -50294,7 +50300,7 @@
     </row>
     <row r="729">
       <c r="A729" s="2"/>
-      <c r="B729" s="2"/>
+      <c r="B729" s="6"/>
       <c r="C729" s="2"/>
       <c r="D729" s="4"/>
       <c r="E729" s="4"/>
@@ -50322,7 +50328,7 @@
     </row>
     <row r="730">
       <c r="A730" s="2"/>
-      <c r="B730" s="2"/>
+      <c r="B730" s="6"/>
       <c r="C730" s="2"/>
       <c r="D730" s="4"/>
       <c r="E730" s="4"/>
@@ -50350,7 +50356,7 @@
     </row>
     <row r="731">
       <c r="A731" s="2"/>
-      <c r="B731" s="2"/>
+      <c r="B731" s="6"/>
       <c r="C731" s="2"/>
       <c r="D731" s="4"/>
       <c r="E731" s="4"/>
@@ -50378,7 +50384,7 @@
     </row>
     <row r="732">
       <c r="A732" s="2"/>
-      <c r="B732" s="2"/>
+      <c r="B732" s="6"/>
       <c r="C732" s="2"/>
       <c r="D732" s="4"/>
       <c r="E732" s="4"/>
@@ -50406,7 +50412,7 @@
     </row>
     <row r="733">
       <c r="A733" s="2"/>
-      <c r="B733" s="2"/>
+      <c r="B733" s="6"/>
       <c r="C733" s="2"/>
       <c r="D733" s="4"/>
       <c r="E733" s="4"/>
@@ -50434,7 +50440,7 @@
     </row>
     <row r="734">
       <c r="A734" s="2"/>
-      <c r="B734" s="2"/>
+      <c r="B734" s="6"/>
       <c r="C734" s="2"/>
       <c r="D734" s="4"/>
       <c r="E734" s="4"/>
@@ -50462,7 +50468,7 @@
     </row>
     <row r="735">
       <c r="A735" s="2"/>
-      <c r="B735" s="2"/>
+      <c r="B735" s="6"/>
       <c r="C735" s="2"/>
       <c r="D735" s="4"/>
       <c r="E735" s="4"/>
@@ -50490,7 +50496,7 @@
     </row>
     <row r="736">
       <c r="A736" s="2"/>
-      <c r="B736" s="2"/>
+      <c r="B736" s="6"/>
       <c r="C736" s="2"/>
       <c r="D736" s="4"/>
       <c r="E736" s="4"/>
@@ -50518,7 +50524,7 @@
     </row>
     <row r="737">
       <c r="A737" s="2"/>
-      <c r="B737" s="2"/>
+      <c r="B737" s="6"/>
       <c r="C737" s="2"/>
       <c r="D737" s="4"/>
       <c r="E737" s="4"/>
@@ -50546,7 +50552,7 @@
     </row>
     <row r="738">
       <c r="A738" s="2"/>
-      <c r="B738" s="2"/>
+      <c r="B738" s="6"/>
       <c r="C738" s="2"/>
       <c r="D738" s="4"/>
       <c r="E738" s="4"/>
@@ -50574,7 +50580,7 @@
     </row>
     <row r="739">
       <c r="A739" s="2"/>
-      <c r="B739" s="2"/>
+      <c r="B739" s="6"/>
       <c r="C739" s="2"/>
       <c r="D739" s="4"/>
       <c r="E739" s="4"/>
@@ -50602,7 +50608,7 @@
     </row>
     <row r="740">
       <c r="A740" s="2"/>
-      <c r="B740" s="2"/>
+      <c r="B740" s="6"/>
       <c r="C740" s="2"/>
       <c r="D740" s="4"/>
       <c r="E740" s="4"/>
@@ -50630,7 +50636,7 @@
     </row>
     <row r="741">
       <c r="A741" s="2"/>
-      <c r="B741" s="2"/>
+      <c r="B741" s="6"/>
       <c r="C741" s="2"/>
       <c r="D741" s="4"/>
       <c r="E741" s="4"/>
@@ -50658,7 +50664,7 @@
     </row>
     <row r="742">
       <c r="A742" s="2"/>
-      <c r="B742" s="2"/>
+      <c r="B742" s="6"/>
       <c r="C742" s="2"/>
       <c r="D742" s="4"/>
       <c r="E742" s="4"/>
@@ -50686,7 +50692,7 @@
     </row>
     <row r="743">
       <c r="A743" s="2"/>
-      <c r="B743" s="2"/>
+      <c r="B743" s="6"/>
       <c r="C743" s="2"/>
       <c r="D743" s="4"/>
       <c r="E743" s="4"/>
@@ -50714,7 +50720,7 @@
     </row>
     <row r="744">
       <c r="A744" s="2"/>
-      <c r="B744" s="2"/>
+      <c r="B744" s="6"/>
       <c r="C744" s="2"/>
       <c r="D744" s="4"/>
       <c r="E744" s="4"/>
@@ -50742,7 +50748,7 @@
     </row>
     <row r="745">
       <c r="A745" s="2"/>
-      <c r="B745" s="2"/>
+      <c r="B745" s="6"/>
       <c r="C745" s="2"/>
       <c r="D745" s="4"/>
       <c r="E745" s="4"/>
@@ -50770,7 +50776,7 @@
     </row>
     <row r="746">
       <c r="A746" s="2"/>
-      <c r="B746" s="2"/>
+      <c r="B746" s="6"/>
       <c r="C746" s="2"/>
       <c r="D746" s="4"/>
       <c r="E746" s="4"/>
@@ -50798,7 +50804,7 @@
     </row>
     <row r="747">
       <c r="A747" s="2"/>
-      <c r="B747" s="2"/>
+      <c r="B747" s="6"/>
       <c r="C747" s="2"/>
       <c r="D747" s="4"/>
       <c r="E747" s="4"/>
@@ -50826,7 +50832,7 @@
     </row>
     <row r="748">
       <c r="A748" s="2"/>
-      <c r="B748" s="2"/>
+      <c r="B748" s="6"/>
       <c r="C748" s="2"/>
       <c r="D748" s="4"/>
       <c r="E748" s="4"/>
@@ -50854,7 +50860,7 @@
     </row>
     <row r="749">
       <c r="A749" s="2"/>
-      <c r="B749" s="2"/>
+      <c r="B749" s="6"/>
       <c r="C749" s="2"/>
       <c r="D749" s="4"/>
       <c r="E749" s="4"/>
@@ -50882,7 +50888,7 @@
     </row>
     <row r="750">
       <c r="A750" s="2"/>
-      <c r="B750" s="2"/>
+      <c r="B750" s="6"/>
       <c r="C750" s="2"/>
       <c r="D750" s="4"/>
       <c r="E750" s="4"/>
@@ -50910,7 +50916,7 @@
     </row>
     <row r="751">
       <c r="A751" s="2"/>
-      <c r="B751" s="2"/>
+      <c r="B751" s="6"/>
       <c r="C751" s="2"/>
       <c r="D751" s="4"/>
       <c r="E751" s="4"/>
@@ -50938,7 +50944,7 @@
     </row>
     <row r="752">
       <c r="A752" s="2"/>
-      <c r="B752" s="2"/>
+      <c r="B752" s="6"/>
       <c r="C752" s="2"/>
       <c r="D752" s="4"/>
       <c r="E752" s="4"/>
@@ -50966,7 +50972,7 @@
     </row>
     <row r="753">
       <c r="A753" s="2"/>
-      <c r="B753" s="2"/>
+      <c r="B753" s="6"/>
       <c r="C753" s="2"/>
       <c r="D753" s="4"/>
       <c r="E753" s="4"/>
@@ -50994,7 +51000,7 @@
     </row>
     <row r="754">
       <c r="A754" s="2"/>
-      <c r="B754" s="2"/>
+      <c r="B754" s="6"/>
       <c r="C754" s="2"/>
       <c r="D754" s="4"/>
       <c r="E754" s="4"/>
@@ -51022,7 +51028,7 @@
     </row>
     <row r="755">
       <c r="A755" s="2"/>
-      <c r="B755" s="2"/>
+      <c r="B755" s="6"/>
       <c r="C755" s="2"/>
       <c r="D755" s="4"/>
       <c r="E755" s="4"/>
@@ -51050,7 +51056,7 @@
     </row>
     <row r="756">
       <c r="A756" s="2"/>
-      <c r="B756" s="2"/>
+      <c r="B756" s="6"/>
       <c r="C756" s="2"/>
       <c r="D756" s="4"/>
       <c r="E756" s="4"/>
@@ -51078,7 +51084,7 @@
     </row>
     <row r="757">
       <c r="A757" s="2"/>
-      <c r="B757" s="2"/>
+      <c r="B757" s="6"/>
       <c r="C757" s="2"/>
       <c r="D757" s="4"/>
       <c r="E757" s="4"/>
@@ -51106,7 +51112,7 @@
     </row>
     <row r="758">
       <c r="A758" s="2"/>
-      <c r="B758" s="2"/>
+      <c r="B758" s="6"/>
       <c r="C758" s="2"/>
       <c r="D758" s="4"/>
       <c r="E758" s="4"/>
@@ -51134,7 +51140,7 @@
     </row>
     <row r="759">
       <c r="A759" s="2"/>
-      <c r="B759" s="2"/>
+      <c r="B759" s="6"/>
       <c r="C759" s="2"/>
       <c r="D759" s="4"/>
       <c r="E759" s="4"/>
@@ -51162,7 +51168,7 @@
     </row>
     <row r="760">
       <c r="A760" s="2"/>
-      <c r="B760" s="2"/>
+      <c r="B760" s="6"/>
       <c r="C760" s="2"/>
       <c r="D760" s="4"/>
       <c r="E760" s="4"/>
@@ -51190,7 +51196,7 @@
     </row>
     <row r="761">
       <c r="A761" s="2"/>
-      <c r="B761" s="2"/>
+      <c r="B761" s="6"/>
       <c r="C761" s="2"/>
       <c r="D761" s="4"/>
       <c r="E761" s="4"/>
@@ -51218,7 +51224,7 @@
     </row>
     <row r="762">
       <c r="A762" s="2"/>
-      <c r="B762" s="2"/>
+      <c r="B762" s="6"/>
       <c r="C762" s="2"/>
       <c r="D762" s="4"/>
       <c r="E762" s="4"/>
@@ -51246,7 +51252,7 @@
     </row>
     <row r="763">
       <c r="A763" s="2"/>
-      <c r="B763" s="2"/>
+      <c r="B763" s="6"/>
       <c r="C763" s="2"/>
       <c r="D763" s="4"/>
       <c r="E763" s="4"/>
@@ -51274,7 +51280,7 @@
     </row>
     <row r="764">
       <c r="A764" s="2"/>
-      <c r="B764" s="2"/>
+      <c r="B764" s="6"/>
       <c r="C764" s="2"/>
       <c r="D764" s="4"/>
       <c r="E764" s="4"/>
@@ -51302,7 +51308,7 @@
     </row>
     <row r="765">
       <c r="A765" s="2"/>
-      <c r="B765" s="2"/>
+      <c r="B765" s="6"/>
       <c r="C765" s="2"/>
       <c r="D765" s="4"/>
       <c r="E765" s="4"/>
@@ -51330,7 +51336,7 @@
     </row>
     <row r="766">
       <c r="A766" s="2"/>
-      <c r="B766" s="2"/>
+      <c r="B766" s="6"/>
       <c r="C766" s="2"/>
       <c r="D766" s="4"/>
       <c r="E766" s="4"/>
@@ -51358,7 +51364,7 @@
     </row>
     <row r="767">
       <c r="A767" s="2"/>
-      <c r="B767" s="2"/>
+      <c r="B767" s="6"/>
       <c r="C767" s="2"/>
       <c r="D767" s="4"/>
       <c r="E767" s="4"/>
@@ -51386,7 +51392,7 @@
     </row>
     <row r="768">
       <c r="A768" s="2"/>
-      <c r="B768" s="2"/>
+      <c r="B768" s="6"/>
       <c r="C768" s="2"/>
       <c r="D768" s="4"/>
       <c r="E768" s="4"/>
@@ -51414,7 +51420,7 @@
     </row>
     <row r="769">
       <c r="A769" s="2"/>
-      <c r="B769" s="2"/>
+      <c r="B769" s="6"/>
       <c r="C769" s="2"/>
       <c r="D769" s="4"/>
       <c r="E769" s="4"/>
@@ -51442,7 +51448,7 @@
     </row>
     <row r="770">
       <c r="A770" s="2"/>
-      <c r="B770" s="2"/>
+      <c r="B770" s="6"/>
       <c r="C770" s="2"/>
       <c r="D770" s="4"/>
       <c r="E770" s="4"/>
@@ -51470,7 +51476,7 @@
     </row>
     <row r="771">
       <c r="A771" s="2"/>
-      <c r="B771" s="2"/>
+      <c r="B771" s="6"/>
       <c r="C771" s="2"/>
       <c r="D771" s="4"/>
       <c r="E771" s="4"/>
@@ -51498,7 +51504,7 @@
     </row>
     <row r="772">
       <c r="A772" s="2"/>
-      <c r="B772" s="2"/>
+      <c r="B772" s="6"/>
       <c r="C772" s="2"/>
       <c r="D772" s="4"/>
       <c r="E772" s="4"/>
@@ -51526,7 +51532,7 @@
     </row>
     <row r="773">
       <c r="A773" s="2"/>
-      <c r="B773" s="2"/>
+      <c r="B773" s="6"/>
       <c r="C773" s="2"/>
       <c r="D773" s="4"/>
       <c r="E773" s="4"/>
@@ -51554,7 +51560,7 @@
     </row>
     <row r="774">
       <c r="A774" s="2"/>
-      <c r="B774" s="2"/>
+      <c r="B774" s="6"/>
       <c r="C774" s="2"/>
       <c r="D774" s="4"/>
       <c r="E774" s="4"/>
@@ -51582,7 +51588,7 @@
     </row>
     <row r="775">
       <c r="A775" s="2"/>
-      <c r="B775" s="2"/>
+      <c r="B775" s="6"/>
       <c r="C775" s="2"/>
       <c r="D775" s="4"/>
       <c r="E775" s="4"/>
@@ -51610,7 +51616,7 @@
     </row>
     <row r="776">
       <c r="A776" s="2"/>
-      <c r="B776" s="2"/>
+      <c r="B776" s="6"/>
       <c r="C776" s="2"/>
       <c r="D776" s="4"/>
       <c r="E776" s="4"/>
@@ -51638,7 +51644,7 @@
     </row>
     <row r="777">
       <c r="A777" s="2"/>
-      <c r="B777" s="2"/>
+      <c r="B777" s="6"/>
       <c r="C777" s="2"/>
       <c r="D777" s="4"/>
       <c r="E777" s="4"/>
@@ -51666,7 +51672,7 @@
     </row>
     <row r="778">
       <c r="A778" s="2"/>
-      <c r="B778" s="2"/>
+      <c r="B778" s="6"/>
       <c r="C778" s="2"/>
       <c r="D778" s="4"/>
       <c r="E778" s="4"/>
@@ -51694,7 +51700,7 @@
     </row>
     <row r="779">
       <c r="A779" s="2"/>
-      <c r="B779" s="2"/>
+      <c r="B779" s="6"/>
       <c r="C779" s="2"/>
       <c r="D779" s="4"/>
       <c r="E779" s="4"/>
@@ -51722,7 +51728,7 @@
     </row>
     <row r="780">
       <c r="A780" s="2"/>
-      <c r="B780" s="2"/>
+      <c r="B780" s="6"/>
       <c r="C780" s="2"/>
       <c r="D780" s="4"/>
       <c r="E780" s="4"/>
@@ -51750,7 +51756,7 @@
     </row>
     <row r="781">
       <c r="A781" s="2"/>
-      <c r="B781" s="2"/>
+      <c r="B781" s="6"/>
       <c r="C781" s="2"/>
       <c r="D781" s="4"/>
       <c r="E781" s="4"/>
@@ -51778,7 +51784,7 @@
     </row>
     <row r="782">
       <c r="A782" s="2"/>
-      <c r="B782" s="2"/>
+      <c r="B782" s="6"/>
       <c r="C782" s="2"/>
       <c r="D782" s="4"/>
       <c r="E782" s="4"/>
@@ -51806,7 +51812,7 @@
     </row>
     <row r="783">
       <c r="A783" s="2"/>
-      <c r="B783" s="2"/>
+      <c r="B783" s="6"/>
       <c r="C783" s="2"/>
       <c r="D783" s="4"/>
       <c r="E783" s="4"/>
@@ -51834,7 +51840,7 @@
     </row>
     <row r="784">
       <c r="A784" s="2"/>
-      <c r="B784" s="2"/>
+      <c r="B784" s="6"/>
       <c r="C784" s="2"/>
       <c r="D784" s="4"/>
       <c r="E784" s="4"/>
@@ -51862,7 +51868,7 @@
     </row>
     <row r="785">
       <c r="A785" s="2"/>
-      <c r="B785" s="2"/>
+      <c r="B785" s="6"/>
       <c r="C785" s="2"/>
       <c r="D785" s="4"/>
       <c r="E785" s="4"/>
@@ -51890,7 +51896,7 @@
     </row>
     <row r="786">
       <c r="A786" s="2"/>
-      <c r="B786" s="2"/>
+      <c r="B786" s="6"/>
       <c r="C786" s="2"/>
       <c r="D786" s="4"/>
       <c r="E786" s="4"/>
@@ -51918,7 +51924,7 @@
     </row>
     <row r="787">
       <c r="A787" s="2"/>
-      <c r="B787" s="2"/>
+      <c r="B787" s="6"/>
       <c r="C787" s="2"/>
       <c r="D787" s="4"/>
       <c r="E787" s="4"/>
@@ -51946,7 +51952,7 @@
     </row>
     <row r="788">
       <c r="A788" s="2"/>
-      <c r="B788" s="2"/>
+      <c r="B788" s="6"/>
       <c r="C788" s="2"/>
       <c r="D788" s="4"/>
       <c r="E788" s="4"/>
@@ -51974,7 +51980,7 @@
     </row>
     <row r="789">
       <c r="A789" s="2"/>
-      <c r="B789" s="2"/>
+      <c r="B789" s="6"/>
       <c r="C789" s="2"/>
       <c r="D789" s="4"/>
       <c r="E789" s="4"/>
@@ -52002,7 +52008,7 @@
     </row>
     <row r="790">
       <c r="A790" s="2"/>
-      <c r="B790" s="2"/>
+      <c r="B790" s="6"/>
       <c r="C790" s="2"/>
       <c r="D790" s="4"/>
       <c r="E790" s="4"/>
@@ -52030,7 +52036,7 @@
     </row>
     <row r="791">
       <c r="A791" s="2"/>
-      <c r="B791" s="2"/>
+      <c r="B791" s="6"/>
       <c r="C791" s="2"/>
       <c r="D791" s="4"/>
       <c r="E791" s="4"/>
@@ -52058,7 +52064,7 @@
     </row>
     <row r="792">
       <c r="A792" s="2"/>
-      <c r="B792" s="2"/>
+      <c r="B792" s="6"/>
       <c r="C792" s="2"/>
       <c r="D792" s="4"/>
       <c r="E792" s="4"/>
@@ -52086,7 +52092,7 @@
     </row>
     <row r="793">
       <c r="A793" s="2"/>
-      <c r="B793" s="2"/>
+      <c r="B793" s="6"/>
       <c r="C793" s="2"/>
       <c r="D793" s="4"/>
       <c r="E793" s="4"/>
@@ -52114,7 +52120,7 @@
     </row>
     <row r="794">
       <c r="A794" s="2"/>
-      <c r="B794" s="2"/>
+      <c r="B794" s="6"/>
       <c r="C794" s="2"/>
       <c r="D794" s="4"/>
       <c r="E794" s="4"/>
@@ -52142,7 +52148,7 @@
     </row>
     <row r="795">
       <c r="A795" s="2"/>
-      <c r="B795" s="2"/>
+      <c r="B795" s="6"/>
       <c r="C795" s="2"/>
       <c r="D795" s="4"/>
       <c r="E795" s="4"/>
@@ -52170,7 +52176,7 @@
     </row>
     <row r="796">
       <c r="A796" s="2"/>
-      <c r="B796" s="2"/>
+      <c r="B796" s="6"/>
       <c r="C796" s="2"/>
       <c r="D796" s="4"/>
       <c r="E796" s="4"/>
@@ -52198,7 +52204,7 @@
     </row>
     <row r="797">
       <c r="A797" s="2"/>
-      <c r="B797" s="2"/>
+      <c r="B797" s="6"/>
       <c r="C797" s="2"/>
       <c r="D797" s="4"/>
       <c r="E797" s="4"/>
@@ -52226,7 +52232,7 @@
     </row>
     <row r="798">
       <c r="A798" s="2"/>
-      <c r="B798" s="2"/>
+      <c r="B798" s="6"/>
       <c r="C798" s="2"/>
       <c r="D798" s="4"/>
       <c r="E798" s="4"/>
@@ -52254,7 +52260,7 @@
     </row>
     <row r="799">
       <c r="A799" s="2"/>
-      <c r="B799" s="2"/>
+      <c r="B799" s="6"/>
       <c r="C799" s="2"/>
       <c r="D799" s="4"/>
       <c r="E799" s="4"/>
@@ -52282,7 +52288,7 @@
     </row>
     <row r="800">
       <c r="A800" s="2"/>
-      <c r="B800" s="2"/>
+      <c r="B800" s="6"/>
       <c r="C800" s="2"/>
       <c r="D800" s="4"/>
       <c r="E800" s="4"/>
@@ -52310,7 +52316,7 @@
     </row>
     <row r="801">
       <c r="A801" s="2"/>
-      <c r="B801" s="2"/>
+      <c r="B801" s="6"/>
       <c r="C801" s="2"/>
       <c r="D801" s="4"/>
       <c r="E801" s="4"/>
@@ -52338,7 +52344,7 @@
     </row>
     <row r="802">
       <c r="A802" s="2"/>
-      <c r="B802" s="2"/>
+      <c r="B802" s="6"/>
       <c r="C802" s="2"/>
       <c r="D802" s="4"/>
       <c r="E802" s="4"/>
@@ -52366,7 +52372,7 @@
     </row>
     <row r="803">
       <c r="A803" s="2"/>
-      <c r="B803" s="2"/>
+      <c r="B803" s="6"/>
       <c r="C803" s="2"/>
       <c r="D803" s="4"/>
       <c r="E803" s="4"/>
@@ -52394,7 +52400,7 @@
     </row>
     <row r="804">
       <c r="A804" s="2"/>
-      <c r="B804" s="2"/>
+      <c r="B804" s="6"/>
       <c r="C804" s="2"/>
       <c r="D804" s="4"/>
       <c r="E804" s="4"/>
@@ -52422,7 +52428,7 @@
     </row>
     <row r="805">
       <c r="A805" s="2"/>
-      <c r="B805" s="2"/>
+      <c r="B805" s="6"/>
       <c r="C805" s="2"/>
       <c r="D805" s="4"/>
       <c r="E805" s="4"/>
@@ -52450,7 +52456,7 @@
     </row>
     <row r="806">
       <c r="A806" s="2"/>
-      <c r="B806" s="2"/>
+      <c r="B806" s="6"/>
       <c r="C806" s="2"/>
       <c r="D806" s="4"/>
       <c r="E806" s="4"/>
@@ -52478,7 +52484,7 @@
     </row>
     <row r="807">
       <c r="A807" s="2"/>
-      <c r="B807" s="2"/>
+      <c r="B807" s="6"/>
       <c r="C807" s="2"/>
       <c r="D807" s="4"/>
       <c r="E807" s="4"/>
@@ -52506,7 +52512,7 @@
     </row>
     <row r="808">
       <c r="A808" s="2"/>
-      <c r="B808" s="2"/>
+      <c r="B808" s="6"/>
       <c r="C808" s="2"/>
       <c r="D808" s="4"/>
       <c r="E808" s="4"/>
@@ -52534,7 +52540,7 @@
     </row>
     <row r="809">
       <c r="A809" s="2"/>
-      <c r="B809" s="2"/>
+      <c r="B809" s="6"/>
       <c r="C809" s="2"/>
       <c r="D809" s="4"/>
       <c r="E809" s="4"/>
@@ -52562,7 +52568,7 @@
     </row>
     <row r="810">
       <c r="A810" s="2"/>
-      <c r="B810" s="2"/>
+      <c r="B810" s="6"/>
       <c r="C810" s="2"/>
       <c r="D810" s="4"/>
       <c r="E810" s="4"/>
@@ -52590,7 +52596,7 @@
     </row>
     <row r="811">
       <c r="A811" s="2"/>
-      <c r="B811" s="2"/>
+      <c r="B811" s="6"/>
       <c r="C811" s="2"/>
       <c r="D811" s="4"/>
       <c r="E811" s="4"/>
@@ -52618,7 +52624,7 @@
     </row>
     <row r="812">
       <c r="A812" s="2"/>
-      <c r="B812" s="2"/>
+      <c r="B812" s="6"/>
       <c r="C812" s="2"/>
       <c r="D812" s="4"/>
       <c r="E812" s="4"/>
@@ -52646,7 +52652,7 @@
     </row>
     <row r="813">
       <c r="A813" s="2"/>
-      <c r="B813" s="2"/>
+      <c r="B813" s="6"/>
       <c r="C813" s="2"/>
       <c r="D813" s="4"/>
       <c r="E813" s="4"/>
@@ -52674,7 +52680,7 @@
     </row>
     <row r="814">
       <c r="A814" s="2"/>
-      <c r="B814" s="2"/>
+      <c r="B814" s="6"/>
       <c r="C814" s="2"/>
       <c r="D814" s="4"/>
       <c r="E814" s="4"/>
@@ -52702,7 +52708,7 @@
     </row>
     <row r="815">
       <c r="A815" s="2"/>
-      <c r="B815" s="2"/>
+      <c r="B815" s="6"/>
       <c r="C815" s="2"/>
       <c r="D815" s="4"/>
       <c r="E815" s="4"/>
@@ -52730,7 +52736,7 @@
     </row>
     <row r="816">
       <c r="A816" s="2"/>
-      <c r="B816" s="2"/>
+      <c r="B816" s="6"/>
       <c r="C816" s="2"/>
       <c r="D816" s="4"/>
       <c r="E816" s="4"/>
@@ -52758,7 +52764,7 @@
     </row>
     <row r="817">
       <c r="A817" s="2"/>
-      <c r="B817" s="2"/>
+      <c r="B817" s="6"/>
       <c r="C817" s="2"/>
       <c r="D817" s="4"/>
       <c r="E817" s="4"/>
@@ -52786,7 +52792,7 @@
     </row>
     <row r="818">
       <c r="A818" s="2"/>
-      <c r="B818" s="2"/>
+      <c r="B818" s="6"/>
       <c r="C818" s="2"/>
       <c r="D818" s="4"/>
       <c r="E818" s="4"/>
@@ -52814,7 +52820,7 @@
     </row>
     <row r="819">
       <c r="A819" s="2"/>
-      <c r="B819" s="2"/>
+      <c r="B819" s="6"/>
       <c r="C819" s="2"/>
       <c r="D819" s="4"/>
       <c r="E819" s="4"/>
@@ -52842,7 +52848,7 @@
     </row>
     <row r="820">
       <c r="A820" s="2"/>
-      <c r="B820" s="2"/>
+      <c r="B820" s="6"/>
       <c r="C820" s="2"/>
       <c r="D820" s="4"/>
       <c r="E820" s="4"/>
@@ -52870,7 +52876,7 @@
     </row>
     <row r="821">
       <c r="A821" s="2"/>
-      <c r="B821" s="2"/>
+      <c r="B821" s="6"/>
       <c r="C821" s="2"/>
       <c r="D821" s="4"/>
       <c r="E821" s="4"/>
@@ -52898,7 +52904,7 @@
     </row>
     <row r="822">
       <c r="A822" s="2"/>
-      <c r="B822" s="2"/>
+      <c r="B822" s="6"/>
       <c r="C822" s="2"/>
       <c r="D822" s="4"/>
       <c r="E822" s="4"/>
@@ -52926,7 +52932,7 @@
     </row>
     <row r="823">
       <c r="A823" s="2"/>
-      <c r="B823" s="2"/>
+      <c r="B823" s="6"/>
       <c r="C823" s="2"/>
       <c r="D823" s="4"/>
       <c r="E823" s="4"/>
@@ -52954,7 +52960,7 @@
     </row>
     <row r="824">
       <c r="A824" s="2"/>
-      <c r="B824" s="2"/>
+      <c r="B824" s="6"/>
       <c r="C824" s="2"/>
       <c r="D824" s="4"/>
       <c r="E824" s="4"/>
@@ -52982,7 +52988,7 @@
     </row>
     <row r="825">
       <c r="A825" s="2"/>
-      <c r="B825" s="2"/>
+      <c r="B825" s="6"/>
       <c r="C825" s="2"/>
       <c r="D825" s="4"/>
       <c r="E825" s="4"/>
@@ -53010,7 +53016,7 @@
     </row>
     <row r="826">
       <c r="A826" s="2"/>
-      <c r="B826" s="2"/>
+      <c r="B826" s="6"/>
       <c r="C826" s="2"/>
       <c r="D826" s="4"/>
       <c r="E826" s="4"/>
@@ -53038,7 +53044,7 @@
     </row>
     <row r="827">
       <c r="A827" s="2"/>
-      <c r="B827" s="2"/>
+      <c r="B827" s="6"/>
       <c r="C827" s="2"/>
       <c r="D827" s="4"/>
       <c r="E827" s="4"/>
@@ -53066,7 +53072,7 @@
     </row>
     <row r="828">
       <c r="A828" s="2"/>
-      <c r="B828" s="2"/>
+      <c r="B828" s="6"/>
       <c r="C828" s="2"/>
       <c r="D828" s="4"/>
       <c r="E828" s="4"/>
@@ -53094,7 +53100,7 @@
     </row>
     <row r="829">
       <c r="A829" s="2"/>
-      <c r="B829" s="2"/>
+      <c r="B829" s="6"/>
       <c r="C829" s="2"/>
       <c r="D829" s="4"/>
       <c r="E829" s="4"/>
@@ -53122,7 +53128,7 @@
     </row>
     <row r="830">
       <c r="A830" s="2"/>
-      <c r="B830" s="2"/>
+      <c r="B830" s="6"/>
       <c r="C830" s="2"/>
       <c r="D830" s="4"/>
       <c r="E830" s="4"/>
@@ -53150,7 +53156,7 @@
     </row>
     <row r="831">
       <c r="A831" s="2"/>
-      <c r="B831" s="2"/>
+      <c r="B831" s="6"/>
       <c r="C831" s="2"/>
       <c r="D831" s="4"/>
       <c r="E831" s="4"/>
@@ -53178,7 +53184,7 @@
     </row>
     <row r="832">
       <c r="A832" s="2"/>
-      <c r="B832" s="2"/>
+      <c r="B832" s="6"/>
       <c r="C832" s="2"/>
       <c r="D832" s="4"/>
       <c r="E832" s="4"/>
@@ -53206,7 +53212,7 @@
     </row>
     <row r="833">
       <c r="A833" s="2"/>
-      <c r="B833" s="2"/>
+      <c r="B833" s="6"/>
       <c r="C833" s="2"/>
       <c r="D833" s="4"/>
       <c r="E833" s="4"/>
@@ -53234,7 +53240,7 @@
     </row>
     <row r="834">
       <c r="A834" s="2"/>
-      <c r="B834" s="2"/>
+      <c r="B834" s="6"/>
       <c r="C834" s="2"/>
       <c r="D834" s="4"/>
       <c r="E834" s="4"/>
@@ -53262,7 +53268,7 @@
     </row>
     <row r="835">
       <c r="A835" s="2"/>
-      <c r="B835" s="2"/>
+      <c r="B835" s="6"/>
       <c r="C835" s="2"/>
       <c r="D835" s="4"/>
       <c r="E835" s="4"/>
@@ -53290,7 +53296,7 @@
     </row>
     <row r="836">
       <c r="A836" s="2"/>
-      <c r="B836" s="2"/>
+      <c r="B836" s="6"/>
       <c r="C836" s="2"/>
       <c r="D836" s="4"/>
       <c r="E836" s="4"/>
@@ -53318,7 +53324,7 @@
     </row>
     <row r="837">
       <c r="A837" s="2"/>
-      <c r="B837" s="2"/>
+      <c r="B837" s="6"/>
       <c r="C837" s="2"/>
       <c r="D837" s="4"/>
       <c r="E837" s="4"/>
@@ -53346,7 +53352,7 @@
     </row>
     <row r="838">
       <c r="A838" s="2"/>
-      <c r="B838" s="2"/>
+      <c r="B838" s="6"/>
       <c r="C838" s="2"/>
       <c r="D838" s="4"/>
       <c r="E838" s="4"/>
@@ -53374,7 +53380,7 @@
     </row>
     <row r="839">
       <c r="A839" s="2"/>
-      <c r="B839" s="2"/>
+      <c r="B839" s="6"/>
       <c r="C839" s="2"/>
       <c r="D839" s="4"/>
       <c r="E839" s="4"/>
@@ -53402,7 +53408,7 @@
     </row>
     <row r="840">
       <c r="A840" s="2"/>
-      <c r="B840" s="2"/>
+      <c r="B840" s="6"/>
       <c r="C840" s="2"/>
       <c r="D840" s="4"/>
       <c r="E840" s="4"/>
@@ -53430,7 +53436,7 @@
     </row>
     <row r="841">
       <c r="A841" s="2"/>
-      <c r="B841" s="2"/>
+      <c r="B841" s="6"/>
       <c r="C841" s="2"/>
       <c r="D841" s="4"/>
       <c r="E841" s="4"/>
@@ -53458,7 +53464,7 @@
     </row>
     <row r="842">
       <c r="A842" s="2"/>
-      <c r="B842" s="2"/>
+      <c r="B842" s="6"/>
       <c r="C842" s="2"/>
       <c r="D842" s="4"/>
       <c r="E842" s="4"/>
@@ -53486,7 +53492,7 @@
     </row>
     <row r="843">
       <c r="A843" s="2"/>
-      <c r="B843" s="2"/>
+      <c r="B843" s="6"/>
       <c r="C843" s="2"/>
       <c r="D843" s="4"/>
       <c r="E843" s="4"/>
@@ -53514,7 +53520,7 @@
     </row>
     <row r="844">
       <c r="A844" s="2"/>
-      <c r="B844" s="2"/>
+      <c r="B844" s="6"/>
       <c r="C844" s="2"/>
       <c r="D844" s="4"/>
       <c r="E844" s="4"/>
@@ -53542,7 +53548,7 @@
     </row>
     <row r="845">
       <c r="A845" s="2"/>
-      <c r="B845" s="2"/>
+      <c r="B845" s="6"/>
       <c r="C845" s="2"/>
       <c r="D845" s="4"/>
       <c r="E845" s="4"/>
@@ -53570,7 +53576,7 @@
     </row>
     <row r="846">
       <c r="A846" s="2"/>
-      <c r="B846" s="2"/>
+      <c r="B846" s="6"/>
       <c r="C846" s="2"/>
       <c r="D846" s="4"/>
       <c r="E846" s="4"/>
@@ -53598,7 +53604,7 @@
     </row>
     <row r="847">
       <c r="A847" s="2"/>
-      <c r="B847" s="2"/>
+      <c r="B847" s="6"/>
       <c r="C847" s="2"/>
       <c r="D847" s="4"/>
       <c r="E847" s="4"/>
@@ -53626,7 +53632,7 @@
     </row>
     <row r="848">
       <c r="A848" s="2"/>
-      <c r="B848" s="2"/>
+      <c r="B848" s="6"/>
       <c r="C848" s="2"/>
       <c r="D848" s="4"/>
       <c r="E848" s="4"/>
@@ -53654,7 +53660,7 @@
     </row>
     <row r="849">
       <c r="A849" s="2"/>
-      <c r="B849" s="2"/>
+      <c r="B849" s="6"/>
       <c r="C849" s="2"/>
       <c r="D849" s="4"/>
       <c r="E849" s="4"/>
@@ -53682,7 +53688,7 @@
     </row>
     <row r="850">
       <c r="A850" s="2"/>
-      <c r="B850" s="2"/>
+      <c r="B850" s="6"/>
       <c r="C850" s="2"/>
       <c r="D850" s="4"/>
       <c r="E850" s="4"/>
@@ -53710,7 +53716,7 @@
     </row>
     <row r="851">
       <c r="A851" s="2"/>
-      <c r="B851" s="2"/>
+      <c r="B851" s="6"/>
       <c r="C851" s="2"/>
       <c r="D851" s="4"/>
       <c r="E851" s="4"/>
@@ -53738,7 +53744,7 @@
     </row>
     <row r="852">
       <c r="A852" s="2"/>
-      <c r="B852" s="2"/>
+      <c r="B852" s="6"/>
       <c r="C852" s="2"/>
       <c r="D852" s="4"/>
       <c r="E852" s="4"/>
@@ -53766,7 +53772,7 @@
     </row>
     <row r="853">
       <c r="A853" s="2"/>
-      <c r="B853" s="2"/>
+      <c r="B853" s="6"/>
       <c r="C853" s="2"/>
       <c r="D853" s="4"/>
       <c r="E853" s="4"/>
@@ -53794,7 +53800,7 @@
     </row>
     <row r="854">
       <c r="A854" s="2"/>
-      <c r="B854" s="2"/>
+      <c r="B854" s="6"/>
       <c r="C854" s="2"/>
       <c r="D854" s="4"/>
       <c r="E854" s="4"/>
@@ -53822,7 +53828,7 @@
     </row>
     <row r="855">
       <c r="A855" s="2"/>
-      <c r="B855" s="2"/>
+      <c r="B855" s="6"/>
       <c r="C855" s="2"/>
       <c r="D855" s="4"/>
       <c r="E855" s="4"/>
@@ -53850,7 +53856,7 @@
     </row>
     <row r="856">
       <c r="A856" s="2"/>
-      <c r="B856" s="2"/>
+      <c r="B856" s="6"/>
       <c r="C856" s="2"/>
       <c r="D856" s="4"/>
       <c r="E856" s="4"/>
@@ -53878,7 +53884,7 @@
     </row>
     <row r="857">
       <c r="A857" s="2"/>
-      <c r="B857" s="2"/>
+      <c r="B857" s="6"/>
       <c r="C857" s="2"/>
       <c r="D857" s="4"/>
       <c r="E857" s="4"/>
@@ -53906,7 +53912,7 @@
     </row>
     <row r="858">
       <c r="A858" s="2"/>
-      <c r="B858" s="2"/>
+      <c r="B858" s="6"/>
       <c r="C858" s="2"/>
       <c r="D858" s="4"/>
       <c r="E858" s="4"/>
@@ -53934,7 +53940,7 @@
     </row>
     <row r="859">
       <c r="A859" s="2"/>
-      <c r="B859" s="2"/>
+      <c r="B859" s="6"/>
       <c r="C859" s="2"/>
       <c r="D859" s="4"/>
       <c r="E859" s="4"/>
@@ -53962,7 +53968,7 @@
     </row>
     <row r="860">
       <c r="A860" s="2"/>
-      <c r="B860" s="2"/>
+      <c r="B860" s="6"/>
       <c r="C860" s="2"/>
       <c r="D860" s="4"/>
       <c r="E860" s="4"/>
@@ -53990,7 +53996,7 @@
     </row>
     <row r="861">
       <c r="A861" s="2"/>
-      <c r="B861" s="2"/>
+      <c r="B861" s="6"/>
       <c r="C861" s="2"/>
       <c r="D861" s="4"/>
       <c r="E861" s="4"/>
@@ -54018,7 +54024,7 @@
     </row>
     <row r="862">
       <c r="A862" s="2"/>
-      <c r="B862" s="2"/>
+      <c r="B862" s="6"/>
       <c r="C862" s="2"/>
       <c r="D862" s="4"/>
       <c r="E862" s="4"/>
@@ -54046,7 +54052,7 @@
     </row>
     <row r="863">
       <c r="A863" s="2"/>
-      <c r="B863" s="2"/>
+      <c r="B863" s="6"/>
       <c r="C863" s="2"/>
       <c r="D863" s="4"/>
       <c r="E863" s="4"/>
@@ -54074,7 +54080,7 @@
     </row>
     <row r="864">
       <c r="A864" s="2"/>
-      <c r="B864" s="2"/>
+      <c r="B864" s="6"/>
       <c r="C864" s="2"/>
       <c r="D864" s="4"/>
       <c r="E864" s="4"/>
@@ -54102,7 +54108,7 @@
     </row>
     <row r="865">
       <c r="A865" s="2"/>
-      <c r="B865" s="2"/>
+      <c r="B865" s="6"/>
       <c r="C865" s="2"/>
       <c r="D865" s="4"/>
       <c r="E865" s="4"/>
@@ -54130,7 +54136,7 @@
     </row>
     <row r="866">
       <c r="A866" s="2"/>
-      <c r="B866" s="2"/>
+      <c r="B866" s="6"/>
       <c r="C866" s="2"/>
       <c r="D866" s="4"/>
       <c r="E866" s="4"/>
@@ -54158,7 +54164,7 @@
     </row>
     <row r="867">
       <c r="A867" s="2"/>
-      <c r="B867" s="2"/>
+      <c r="B867" s="6"/>
       <c r="C867" s="2"/>
       <c r="D867" s="4"/>
       <c r="E867" s="4"/>
@@ -54186,7 +54192,7 @@
     </row>
     <row r="868">
       <c r="A868" s="2"/>
-      <c r="B868" s="2"/>
+      <c r="B868" s="6"/>
       <c r="C868" s="2"/>
       <c r="D868" s="4"/>
       <c r="E868" s="4"/>
@@ -54214,7 +54220,7 @@
     </row>
     <row r="869">
       <c r="A869" s="2"/>
-      <c r="B869" s="2"/>
+      <c r="B869" s="6"/>
       <c r="C869" s="2"/>
       <c r="D869" s="4"/>
       <c r="E869" s="4"/>
@@ -54242,7 +54248,7 @@
     </row>
     <row r="870">
       <c r="A870" s="2"/>
-      <c r="B870" s="2"/>
+      <c r="B870" s="6"/>
       <c r="C870" s="2"/>
       <c r="D870" s="4"/>
       <c r="E870" s="4"/>
@@ -54270,7 +54276,7 @@
     </row>
     <row r="871">
       <c r="A871" s="2"/>
-      <c r="B871" s="2"/>
+      <c r="B871" s="6"/>
       <c r="C871" s="2"/>
       <c r="D871" s="4"/>
       <c r="E871" s="4"/>
@@ -54298,7 +54304,7 @@
     </row>
     <row r="872">
       <c r="A872" s="2"/>
-      <c r="B872" s="2"/>
+      <c r="B872" s="6"/>
       <c r="C872" s="2"/>
       <c r="D872" s="4"/>
       <c r="E872" s="4"/>
@@ -54326,7 +54332,7 @@
     </row>
     <row r="873">
       <c r="A873" s="2"/>
-      <c r="B873" s="2"/>
+      <c r="B873" s="6"/>
       <c r="C873" s="2"/>
       <c r="D873" s="4"/>
       <c r="E873" s="4"/>
@@ -54354,7 +54360,7 @@
     </row>
     <row r="874">
       <c r="A874" s="2"/>
-      <c r="B874" s="2"/>
+      <c r="B874" s="6"/>
       <c r="C874" s="2"/>
       <c r="D874" s="4"/>
       <c r="E874" s="4"/>
@@ -54382,7 +54388,7 @@
     </row>
     <row r="875">
       <c r="A875" s="2"/>
-      <c r="B875" s="2"/>
+      <c r="B875" s="6"/>
       <c r="C875" s="2"/>
       <c r="D875" s="4"/>
       <c r="E875" s="4"/>
@@ -54410,7 +54416,7 @@
     </row>
     <row r="876">
       <c r="A876" s="2"/>
-      <c r="B876" s="2"/>
+      <c r="B876" s="6"/>
       <c r="C876" s="2"/>
       <c r="D876" s="4"/>
       <c r="E876" s="4"/>
@@ -54438,7 +54444,7 @@
     </row>
     <row r="877">
       <c r="A877" s="2"/>
-      <c r="B877" s="2"/>
+      <c r="B877" s="6"/>
       <c r="C877" s="2"/>
       <c r="D877" s="4"/>
       <c r="E877" s="4"/>
@@ -54466,7 +54472,7 @@
     </row>
     <row r="878">
       <c r="A878" s="2"/>
-      <c r="B878" s="2"/>
+      <c r="B878" s="6"/>
       <c r="C878" s="2"/>
       <c r="D878" s="4"/>
       <c r="E878" s="4"/>
@@ -54494,7 +54500,7 @@
     </row>
     <row r="879">
       <c r="A879" s="2"/>
-      <c r="B879" s="2"/>
+      <c r="B879" s="6"/>
       <c r="C879" s="2"/>
       <c r="D879" s="4"/>
       <c r="E879" s="4"/>
@@ -54522,7 +54528,7 @@
     </row>
     <row r="880">
       <c r="A880" s="2"/>
-      <c r="B880" s="2"/>
+      <c r="B880" s="6"/>
       <c r="C880" s="2"/>
       <c r="D880" s="4"/>
       <c r="E880" s="4"/>
@@ -54550,7 +54556,7 @@
     </row>
     <row r="881">
       <c r="A881" s="2"/>
-      <c r="B881" s="2"/>
+      <c r="B881" s="6"/>
       <c r="C881" s="2"/>
       <c r="D881" s="4"/>
       <c r="E881" s="4"/>
@@ -54578,7 +54584,7 @@
     </row>
     <row r="882">
       <c r="A882" s="2"/>
-      <c r="B882" s="2"/>
+      <c r="B882" s="6"/>
       <c r="C882" s="2"/>
       <c r="D882" s="4"/>
       <c r="E882" s="4"/>
@@ -54606,7 +54612,7 @@
     </row>
     <row r="883">
       <c r="A883" s="2"/>
-      <c r="B883" s="2"/>
+      <c r="B883" s="6"/>
       <c r="C883" s="2"/>
       <c r="D883" s="4"/>
       <c r="E883" s="4"/>
@@ -54634,7 +54640,7 @@
     </row>
     <row r="884">
       <c r="A884" s="2"/>
-      <c r="B884" s="2"/>
+      <c r="B884" s="6"/>
       <c r="C884" s="2"/>
       <c r="D884" s="4"/>
       <c r="E884" s="4"/>
@@ -54662,7 +54668,7 @@
     </row>
     <row r="885">
       <c r="A885" s="2"/>
-      <c r="B885" s="2"/>
+      <c r="B885" s="6"/>
       <c r="C885" s="2"/>
       <c r="D885" s="4"/>
       <c r="E885" s="4"/>
@@ -54690,7 +54696,7 @@
     </row>
     <row r="886">
       <c r="A886" s="2"/>
-      <c r="B886" s="2"/>
+      <c r="B886" s="6"/>
       <c r="C886" s="2"/>
       <c r="D886" s="4"/>
       <c r="E886" s="4"/>
@@ -54718,7 +54724,7 @@
     </row>
     <row r="887">
       <c r="A887" s="2"/>
-      <c r="B887" s="2"/>
+      <c r="B887" s="6"/>
       <c r="C887" s="2"/>
       <c r="D887" s="4"/>
       <c r="E887" s="4"/>
@@ -54746,7 +54752,7 @@
     </row>
     <row r="888">
       <c r="A888" s="2"/>
-      <c r="B888" s="2"/>
+      <c r="B888" s="6"/>
       <c r="C888" s="2"/>
       <c r="D888" s="4"/>
       <c r="E888" s="4"/>
@@ -54774,7 +54780,7 @@
     </row>
     <row r="889">
       <c r="A889" s="2"/>
-      <c r="B889" s="2"/>
+      <c r="B889" s="6"/>
       <c r="C889" s="2"/>
       <c r="D889" s="4"/>
       <c r="E889" s="4"/>
@@ -54802,7 +54808,7 @@
     </row>
     <row r="890">
       <c r="A890" s="2"/>
-      <c r="B890" s="2"/>
+      <c r="B890" s="6"/>
       <c r="C890" s="2"/>
       <c r="D890" s="4"/>
       <c r="E890" s="4"/>
@@ -54830,7 +54836,7 @@
     </row>
     <row r="891">
       <c r="A891" s="2"/>
-      <c r="B891" s="2"/>
+      <c r="B891" s="6"/>
       <c r="C891" s="2"/>
       <c r="D891" s="4"/>
       <c r="E891" s="4"/>
@@ -54858,7 +54864,7 @@
     </row>
     <row r="892">
       <c r="A892" s="2"/>
-      <c r="B892" s="2"/>
+      <c r="B892" s="6"/>
       <c r="C892" s="2"/>
       <c r="D892" s="4"/>
       <c r="E892" s="4"/>
@@ -54886,7 +54892,7 @@
     </row>
     <row r="893">
       <c r="A893" s="2"/>
-      <c r="B893" s="2"/>
+      <c r="B893" s="6"/>
       <c r="C893" s="2"/>
       <c r="D893" s="4"/>
       <c r="E893" s="4"/>
@@ -54914,7 +54920,7 @@
     </row>
     <row r="894">
       <c r="A894" s="2"/>
-      <c r="B894" s="2"/>
+      <c r="B894" s="6"/>
       <c r="C894" s="2"/>
       <c r="D894" s="4"/>
       <c r="E894" s="4"/>
@@ -54942,7 +54948,7 @@
     </row>
     <row r="895">
       <c r="A895" s="2"/>
-      <c r="B895" s="2"/>
+      <c r="B895" s="6"/>
       <c r="C895" s="2"/>
       <c r="D895" s="4"/>
       <c r="E895" s="4"/>
@@ -54970,7 +54976,7 @@
     </row>
     <row r="896">
       <c r="A896" s="2"/>
-      <c r="B896" s="2"/>
+      <c r="B896" s="6"/>
       <c r="C896" s="2"/>
       <c r="D896" s="4"/>
       <c r="E896" s="4"/>
@@ -54998,7 +55004,7 @@
     </row>
     <row r="897">
       <c r="A897" s="2"/>
-      <c r="B897" s="2"/>
+      <c r="B897" s="6"/>
       <c r="C897" s="2"/>
       <c r="D897" s="4"/>
       <c r="E897" s="4"/>
@@ -55026,7 +55032,7 @@
     </row>
     <row r="898">
       <c r="A898" s="2"/>
-      <c r="B898" s="2"/>
+      <c r="B898" s="6"/>
       <c r="C898" s="2"/>
       <c r="D898" s="4"/>
       <c r="E898" s="4"/>
@@ -55054,7 +55060,7 @@
     </row>
     <row r="899">
       <c r="A899" s="2"/>
-      <c r="B899" s="2"/>
+      <c r="B899" s="6"/>
       <c r="C899" s="2"/>
       <c r="D899" s="4"/>
       <c r="E899" s="4"/>
@@ -55082,7 +55088,7 @@
     </row>
     <row r="900">
       <c r="A900" s="2"/>
-      <c r="B900" s="2"/>
+      <c r="B900" s="6"/>
       <c r="C900" s="2"/>
       <c r="D900" s="4"/>
       <c r="E900" s="4"/>
@@ -55110,7 +55116,7 @@
     </row>
     <row r="901">
       <c r="A901" s="2"/>
-      <c r="B901" s="2"/>
+      <c r="B901" s="6"/>
       <c r="C901" s="2"/>
       <c r="D901" s="4"/>
       <c r="E901" s="4"/>
@@ -55138,7 +55144,7 @@
     </row>
     <row r="902">
       <c r="A902" s="2"/>
-      <c r="B902" s="2"/>
+      <c r="B902" s="6"/>
       <c r="C902" s="2"/>
       <c r="D902" s="4"/>
       <c r="E902" s="4"/>
@@ -55166,7 +55172,7 @@
     </row>
     <row r="903">
       <c r="A903" s="2"/>
-      <c r="B903" s="2"/>
+      <c r="B903" s="6"/>
       <c r="C903" s="2"/>
       <c r="D903" s="4"/>
       <c r="E903" s="4"/>
@@ -55194,7 +55200,7 @@
     </row>
     <row r="904">
       <c r="A904" s="2"/>
-      <c r="B904" s="2"/>
+      <c r="B904" s="6"/>
       <c r="C904" s="2"/>
       <c r="D904" s="4"/>
       <c r="E904" s="4"/>
@@ -55222,7 +55228,7 @@
     </row>
     <row r="905">
       <c r="A905" s="2"/>
-      <c r="B905" s="2"/>
+      <c r="B905" s="6"/>
       <c r="C905" s="2"/>
       <c r="D905" s="4"/>
       <c r="E905" s="4"/>
@@ -55250,7 +55256,7 @@
     </row>
     <row r="906">
       <c r="A906" s="2"/>
-      <c r="B906" s="2"/>
+      <c r="B906" s="6"/>
       <c r="C906" s="2"/>
       <c r="D906" s="4"/>
       <c r="E906" s="4"/>
@@ -55278,7 +55284,7 @@
     </row>
     <row r="907">
       <c r="A907" s="2"/>
-      <c r="B907" s="2"/>
+      <c r="B907" s="6"/>
       <c r="C907" s="2"/>
       <c r="D907" s="4"/>
       <c r="E907" s="4"/>
@@ -55306,7 +55312,7 @@
     </row>
     <row r="908">
       <c r="A908" s="2"/>
-      <c r="B908" s="2"/>
+      <c r="B908" s="6"/>
       <c r="C908" s="2"/>
       <c r="D908" s="4"/>
       <c r="E908" s="4"/>
@@ -55334,7 +55340,7 @@
     </row>
     <row r="909">
       <c r="A909" s="2"/>
-      <c r="B909" s="2"/>
+      <c r="B909" s="6"/>
       <c r="C909" s="2"/>
       <c r="D909" s="4"/>
       <c r="E909" s="4"/>
@@ -55362,7 +55368,7 @@
     </row>
     <row r="910">
       <c r="A910" s="2"/>
-      <c r="B910" s="2"/>
+      <c r="B910" s="6"/>
       <c r="C910" s="2"/>
       <c r="D910" s="4"/>
       <c r="E910" s="4"/>
@@ -55390,7 +55396,7 @@
     </row>
     <row r="911">
       <c r="A911" s="2"/>
-      <c r="B911" s="2"/>
+      <c r="B911" s="6"/>
       <c r="C911" s="2"/>
       <c r="D911" s="4"/>
       <c r="E911" s="4"/>
@@ -55418,7 +55424,7 @@
     </row>
     <row r="912">
       <c r="A912" s="2"/>
-      <c r="B912" s="2"/>
+      <c r="B912" s="6"/>
       <c r="C912" s="2"/>
       <c r="D912" s="4"/>
       <c r="E912" s="4"/>
@@ -55446,7 +55452,7 @@
     </row>
     <row r="913">
       <c r="A913" s="2"/>
-      <c r="B913" s="2"/>
+      <c r="B913" s="6"/>
       <c r="C913" s="2"/>
       <c r="D913" s="4"/>
       <c r="E913" s="4"/>
@@ -55474,7 +55480,7 @@
     </row>
     <row r="914">
       <c r="A914" s="2"/>
-      <c r="B914" s="2"/>
+      <c r="B914" s="6"/>
       <c r="C914" s="2"/>
       <c r="D914" s="4"/>
       <c r="E914" s="4"/>
@@ -55502,7 +55508,7 @@
     </row>
     <row r="915">
       <c r="A915" s="2"/>
-      <c r="B915" s="2"/>
+      <c r="B915" s="6"/>
       <c r="C915" s="2"/>
       <c r="D915" s="4"/>
       <c r="E915" s="4"/>
@@ -55530,7 +55536,7 @@
     </row>
     <row r="916">
       <c r="A916" s="2"/>
-      <c r="B916" s="2"/>
+      <c r="B916" s="6"/>
       <c r="C916" s="2"/>
       <c r="D916" s="4"/>
       <c r="E916" s="4"/>
@@ -55558,7 +55564,7 @@
     </row>
     <row r="917">
       <c r="A917" s="2"/>
-      <c r="B917" s="2"/>
+      <c r="B917" s="6"/>
       <c r="C917" s="2"/>
       <c r="D917" s="4"/>
       <c r="E917" s="4"/>
@@ -55586,7 +55592,7 @@
     </row>
     <row r="918">
       <c r="A918" s="2"/>
-      <c r="B918" s="2"/>
+      <c r="B918" s="6"/>
       <c r="C918" s="2"/>
       <c r="D918" s="4"/>
       <c r="E918" s="4"/>
@@ -55614,7 +55620,7 @@
     </row>
     <row r="919">
       <c r="A919" s="2"/>
-      <c r="B919" s="2"/>
+      <c r="B919" s="6"/>
       <c r="C919" s="2"/>
       <c r="D919" s="4"/>
       <c r="E919" s="4"/>
@@ -55642,7 +55648,7 @@
     </row>
     <row r="920">
       <c r="A920" s="2"/>
-      <c r="B920" s="2"/>
+      <c r="B920" s="6"/>
       <c r="C920" s="2"/>
       <c r="D920" s="4"/>
       <c r="E920" s="4"/>
@@ -55670,7 +55676,7 @@
     </row>
     <row r="921">
       <c r="A921" s="2"/>
-      <c r="B921" s="2"/>
+      <c r="B921" s="6"/>
       <c r="C921" s="2"/>
       <c r="D921" s="4"/>
       <c r="E921" s="4"/>
@@ -55698,7 +55704,7 @@
     </row>
     <row r="922">
       <c r="A922" s="2"/>
-      <c r="B922" s="2"/>
+      <c r="B922" s="6"/>
       <c r="C922" s="2"/>
       <c r="D922" s="4"/>
       <c r="E922" s="4"/>
@@ -55726,7 +55732,7 @@
     </row>
     <row r="923">
       <c r="A923" s="2"/>
-      <c r="B923" s="2"/>
+      <c r="B923" s="6"/>
       <c r="C923" s="2"/>
       <c r="D923" s="4"/>
       <c r="E923" s="4"/>
@@ -55754,7 +55760,7 @@
     </row>
     <row r="924">
       <c r="A924" s="2"/>
-      <c r="B924" s="2"/>
+      <c r="B924" s="6"/>
       <c r="C924" s="2"/>
       <c r="D924" s="4"/>
       <c r="E924" s="4"/>
@@ -55782,7 +55788,7 @@
     </row>
     <row r="925">
       <c r="A925" s="2"/>
-      <c r="B925" s="2"/>
+      <c r="B925" s="6"/>
       <c r="C925" s="2"/>
       <c r="D925" s="4"/>
       <c r="E925" s="4"/>
@@ -55810,7 +55816,7 @@
     </row>
     <row r="926">
       <c r="A926" s="2"/>
-      <c r="B926" s="2"/>
+      <c r="B926" s="6"/>
       <c r="C926" s="2"/>
       <c r="D926" s="4"/>
       <c r="E926" s="4"/>
@@ -55838,7 +55844,7 @@
     </row>
     <row r="927">
       <c r="A927" s="2"/>
-      <c r="B927" s="2"/>
+      <c r="B927" s="6"/>
       <c r="C927" s="2"/>
       <c r="D927" s="4"/>
       <c r="E927" s="4"/>
@@ -55866,7 +55872,7 @@
     </row>
     <row r="928">
       <c r="A928" s="2"/>
-      <c r="B928" s="2"/>
+      <c r="B928" s="6"/>
       <c r="C928" s="2"/>
       <c r="D928" s="4"/>
       <c r="E928" s="4"/>
@@ -55894,7 +55900,7 @@
     </row>
     <row r="929">
       <c r="A929" s="2"/>
-      <c r="B929" s="2"/>
+      <c r="B929" s="6"/>
       <c r="C929" s="2"/>
       <c r="D929" s="4"/>
       <c r="E929" s="4"/>
@@ -55922,7 +55928,7 @@
     </row>
     <row r="930">
       <c r="A930" s="2"/>
-      <c r="B930" s="2"/>
+      <c r="B930" s="6"/>
       <c r="C930" s="2"/>
       <c r="D930" s="4"/>
       <c r="E930" s="4"/>
@@ -55950,7 +55956,7 @@
     </row>
     <row r="931">
       <c r="A931" s="2"/>
-      <c r="B931" s="2"/>
+      <c r="B931" s="6"/>
       <c r="C931" s="2"/>
       <c r="D931" s="4"/>
       <c r="E931" s="4"/>
@@ -55978,7 +55984,7 @@
     </row>
     <row r="932">
       <c r="A932" s="2"/>
-      <c r="B932" s="2"/>
+      <c r="B932" s="6"/>
       <c r="C932" s="2"/>
       <c r="D932" s="4"/>
       <c r="E932" s="4"/>
@@ -56006,7 +56012,7 @@
     </row>
     <row r="933">
       <c r="A933" s="2"/>
-      <c r="B933" s="2"/>
+      <c r="B933" s="6"/>
       <c r="C933" s="2"/>
       <c r="D933" s="4"/>
       <c r="E933" s="4"/>
@@ -56034,7 +56040,7 @@
     </row>
     <row r="934">
       <c r="A934" s="2"/>
-      <c r="B934" s="2"/>
+      <c r="B934" s="6"/>
       <c r="C934" s="2"/>
       <c r="D934" s="4"/>
       <c r="E934" s="4"/>
@@ -56062,7 +56068,7 @@
     </row>
     <row r="935">
       <c r="A935" s="2"/>
-      <c r="B935" s="2"/>
+      <c r="B935" s="6"/>
       <c r="C935" s="2"/>
       <c r="D935" s="4"/>
       <c r="E935" s="4"/>
@@ -56090,7 +56096,7 @@
     </row>
     <row r="936">
       <c r="A936" s="2"/>
-      <c r="B936" s="2"/>
+      <c r="B936" s="6"/>
       <c r="C936" s="2"/>
       <c r="D936" s="4"/>
       <c r="E936" s="4"/>
@@ -56118,7 +56124,7 @@
     </row>
     <row r="937">
       <c r="A937" s="2"/>
-      <c r="B937" s="2"/>
+      <c r="B937" s="6"/>
       <c r="C937" s="2"/>
       <c r="D937" s="4"/>
       <c r="E937" s="4"/>
@@ -56146,7 +56152,7 @@
     </row>
     <row r="938">
       <c r="A938" s="2"/>
-      <c r="B938" s="2"/>
+      <c r="B938" s="6"/>
       <c r="C938" s="2"/>
       <c r="D938" s="4"/>
       <c r="E938" s="4"/>
@@ -56174,7 +56180,7 @@
     </row>
     <row r="939">
       <c r="A939" s="2"/>
-      <c r="B939" s="2"/>
+      <c r="B939" s="6"/>
       <c r="C939" s="2"/>
       <c r="D939" s="4"/>
       <c r="E939" s="4"/>
@@ -56202,7 +56208,7 @@
     </row>
     <row r="940">
       <c r="A940" s="2"/>
-      <c r="B940" s="2"/>
+      <c r="B940" s="6"/>
       <c r="C940" s="2"/>
       <c r="D940" s="4"/>
       <c r="E940" s="4"/>
@@ -56230,7 +56236,7 @@
     </row>
     <row r="941">
       <c r="A941" s="2"/>
-      <c r="B941" s="2"/>
+      <c r="B941" s="6"/>
       <c r="C941" s="2"/>
       <c r="D941" s="4"/>
       <c r="E941" s="4"/>
@@ -56258,7 +56264,7 @@
     </row>
     <row r="942">
       <c r="A942" s="2"/>
-      <c r="B942" s="2"/>
+      <c r="B942" s="6"/>
       <c r="C942" s="2"/>
       <c r="D942" s="4"/>
       <c r="E942" s="4"/>
@@ -56286,7 +56292,7 @@
     </row>
     <row r="943">
       <c r="A943" s="2"/>
-      <c r="B943" s="2"/>
+      <c r="B943" s="6"/>
       <c r="C943" s="2"/>
       <c r="D943" s="4"/>
       <c r="E943" s="4"/>
@@ -56314,7 +56320,7 @@
     </row>
     <row r="944">
       <c r="A944" s="2"/>
-      <c r="B944" s="2"/>
+      <c r="B944" s="6"/>
       <c r="C944" s="2"/>
       <c r="D944" s="4"/>
       <c r="E944" s="4"/>
@@ -56342,7 +56348,7 @@
     </row>
     <row r="945">
       <c r="A945" s="2"/>
-      <c r="B945" s="2"/>
+      <c r="B945" s="6"/>
       <c r="C945" s="2"/>
       <c r="D945" s="4"/>
       <c r="E945" s="4"/>
@@ -56370,7 +56376,7 @@
     </row>
     <row r="946">
       <c r="A946" s="2"/>
-      <c r="B946" s="2"/>
+      <c r="B946" s="6"/>
       <c r="C946" s="2"/>
       <c r="D946" s="4"/>
       <c r="E946" s="4"/>
@@ -56398,7 +56404,7 @@
     </row>
     <row r="947">
       <c r="A947" s="2"/>
-      <c r="B947" s="2"/>
+      <c r="B947" s="6"/>
       <c r="C947" s="2"/>
       <c r="D947" s="4"/>
       <c r="E947" s="4"/>
@@ -56426,7 +56432,7 @@
     </row>
     <row r="948">
       <c r="A948" s="2"/>
-      <c r="B948" s="2"/>
+      <c r="B948" s="6"/>
       <c r="C948" s="2"/>
       <c r="D948" s="4"/>
       <c r="E948" s="4"/>
@@ -56454,7 +56460,7 @@
     </row>
     <row r="949">
       <c r="A949" s="2"/>
-      <c r="B949" s="2"/>
+      <c r="B949" s="6"/>
       <c r="C949" s="2"/>
       <c r="D949" s="4"/>
       <c r="E949" s="4"/>
@@ -56482,7 +56488,7 @@
     </row>
     <row r="950">
       <c r="A950" s="2"/>
-      <c r="B950" s="2"/>
+      <c r="B950" s="6"/>
       <c r="C950" s="2"/>
       <c r="D950" s="4"/>
       <c r="E950" s="4"/>
@@ -56510,7 +56516,7 @@
     </row>
     <row r="951">
       <c r="A951" s="2"/>
-      <c r="B951" s="2"/>
+      <c r="B951" s="6"/>
       <c r="C951" s="2"/>
       <c r="D951" s="4"/>
       <c r="E951" s="4"/>
@@ -56538,7 +56544,7 @@
     </row>
     <row r="952">
       <c r="A952" s="2"/>
-      <c r="B952" s="2"/>
+      <c r="B952" s="6"/>
       <c r="C952" s="2"/>
       <c r="D952" s="4"/>
       <c r="E952" s="4"/>
@@ -56566,7 +56572,7 @@
     </row>
     <row r="953">
       <c r="A953" s="2"/>
-      <c r="B953" s="2"/>
+      <c r="B953" s="6"/>
       <c r="C953" s="2"/>
       <c r="D953" s="4"/>
       <c r="E953" s="4"/>
@@ -56594,7 +56600,7 @@
     </row>
     <row r="954">
       <c r="A954" s="2"/>
-      <c r="B954" s="2"/>
+      <c r="B954" s="6"/>
       <c r="C954" s="2"/>
       <c r="D954" s="4"/>
       <c r="E954" s="4"/>
@@ -56622,7 +56628,7 @@
     </row>
     <row r="955">
       <c r="A955" s="2"/>
-      <c r="B955" s="2"/>
+      <c r="B955" s="6"/>
       <c r="C955" s="2"/>
       <c r="D955" s="4"/>
       <c r="E955" s="4"/>
@@ -56650,7 +56656,7 @@
     </row>
     <row r="956">
       <c r="A956" s="2"/>
-      <c r="B956" s="2"/>
+      <c r="B956" s="6"/>
       <c r="C956" s="2"/>
       <c r="D956" s="4"/>
       <c r="E956" s="4"/>
@@ -56678,7 +56684,7 @@
     </row>
     <row r="957">
       <c r="A957" s="2"/>
-      <c r="B957" s="2"/>
+      <c r="B957" s="6"/>
       <c r="C957" s="2"/>
       <c r="D957" s="4"/>
       <c r="E957" s="4"/>
@@ -56706,7 +56712,7 @@
     </row>
     <row r="958">
       <c r="A958" s="2"/>
-      <c r="B958" s="2"/>
+      <c r="B958" s="6"/>
       <c r="C958" s="2"/>
       <c r="D958" s="4"/>
       <c r="E958" s="4"/>
@@ -56734,7 +56740,7 @@
     </row>
     <row r="959">
       <c r="A959" s="2"/>
-      <c r="B959" s="2"/>
+      <c r="B959" s="6"/>
       <c r="C959" s="2"/>
       <c r="D959" s="4"/>
       <c r="E959" s="4"/>
@@ -56762,7 +56768,7 @@
     </row>
     <row r="960">
       <c r="A960" s="2"/>
-      <c r="B960" s="2"/>
+      <c r="B960" s="6"/>
       <c r="C960" s="2"/>
       <c r="D960" s="4"/>
       <c r="E960" s="4"/>
@@ -56790,7 +56796,7 @@
     </row>
     <row r="961">
       <c r="A961" s="2"/>
-      <c r="B961" s="2"/>
+      <c r="B961" s="6"/>
       <c r="C961" s="2"/>
       <c r="D961" s="4"/>
       <c r="E961" s="4"/>
@@ -56818,7 +56824,7 @@
     </row>
     <row r="962">
       <c r="A962" s="2"/>
-      <c r="B962" s="2"/>
+      <c r="B962" s="6"/>
       <c r="C962" s="2"/>
       <c r="D962" s="4"/>
       <c r="E962" s="4"/>
@@ -56846,7 +56852,7 @@
     </row>
     <row r="963">
       <c r="A963" s="2"/>
-      <c r="B963" s="2"/>
+      <c r="B963" s="6"/>
       <c r="C963" s="2"/>
       <c r="D963" s="4"/>
       <c r="E963" s="4"/>
@@ -56874,7 +56880,7 @@
     </row>
     <row r="964">
       <c r="A964" s="2"/>
-      <c r="B964" s="2"/>
+      <c r="B964" s="6"/>
       <c r="C964" s="2"/>
       <c r="D964" s="4"/>
       <c r="E964" s="4"/>
@@ -56902,7 +56908,7 @@
     </row>
     <row r="965">
       <c r="A965" s="2"/>
-      <c r="B965" s="2"/>
+      <c r="B965" s="6"/>
       <c r="C965" s="2"/>
       <c r="D965" s="4"/>
       <c r="E965" s="4"/>
@@ -56930,7 +56936,7 @@
     </row>
     <row r="966">
       <c r="A966" s="2"/>
-      <c r="B966" s="2"/>
+      <c r="B966" s="6"/>
       <c r="C966" s="2"/>
       <c r="D966" s="4"/>
       <c r="E966" s="4"/>
@@ -56958,7 +56964,7 @@
     </row>
     <row r="967">
       <c r="A967" s="2"/>
-      <c r="B967" s="2"/>
+      <c r="B967" s="6"/>
       <c r="C967" s="2"/>
       <c r="D967" s="4"/>
       <c r="E967" s="4"/>
@@ -56986,7 +56992,7 @@
     </row>
     <row r="968">
       <c r="A968" s="2"/>
-      <c r="B968" s="2"/>
+      <c r="B968" s="6"/>
       <c r="C968" s="2"/>
       <c r="D968" s="4"/>
       <c r="E968" s="4"/>
@@ -57014,7 +57020,7 @@
     </row>
     <row r="969">
       <c r="A969" s="2"/>
-      <c r="B969" s="2"/>
+      <c r="B969" s="6"/>
       <c r="C969" s="2"/>
       <c r="D969" s="4"/>
       <c r="E969" s="4"/>
@@ -57042,7 +57048,7 @@
     </row>
     <row r="970">
       <c r="A970" s="2"/>
-      <c r="B970" s="2"/>
+      <c r="B970" s="6"/>
       <c r="C970" s="2"/>
       <c r="D970" s="4"/>
       <c r="E970" s="4"/>
@@ -57070,7 +57076,7 @@
     </row>
     <row r="971">
       <c r="A971" s="2"/>
-      <c r="B971" s="2"/>
+      <c r="B971" s="6"/>
       <c r="C971" s="2"/>
       <c r="D971" s="4"/>
       <c r="E971" s="4"/>
@@ -57098,7 +57104,7 @@
     </row>
     <row r="972">
       <c r="A972" s="2"/>
-      <c r="B972" s="2"/>
+      <c r="B972" s="6"/>
       <c r="C972" s="2"/>
       <c r="D972" s="4"/>
       <c r="E972" s="4"/>
@@ -57126,7 +57132,7 @@
     </row>
     <row r="973">
       <c r="A973" s="2"/>
-      <c r="B973" s="2"/>
+      <c r="B973" s="6"/>
       <c r="C973" s="2"/>
       <c r="D973" s="4"/>
       <c r="E973" s="4"/>
@@ -57154,7 +57160,7 @@
     </row>
     <row r="974">
       <c r="A974" s="2"/>
-      <c r="B974" s="2"/>
+      <c r="B974" s="6"/>
       <c r="C974" s="2"/>
       <c r="D974" s="4"/>
       <c r="E974" s="4"/>
@@ -57182,7 +57188,7 @@
     </row>
     <row r="975">
       <c r="A975" s="2"/>
-      <c r="B975" s="2"/>
+      <c r="B975" s="6"/>
       <c r="C975" s="2"/>
       <c r="D975" s="4"/>
       <c r="E975" s="4"/>
@@ -57210,7 +57216,7 @@
     </row>
     <row r="976">
       <c r="A976" s="2"/>
-      <c r="B976" s="2"/>
+      <c r="B976" s="6"/>
       <c r="C976" s="2"/>
       <c r="D976" s="4"/>
       <c r="E976" s="4"/>
@@ -57238,7 +57244,7 @@
     </row>
     <row r="977">
       <c r="A977" s="2"/>
-      <c r="B977" s="2"/>
+      <c r="B977" s="6"/>
       <c r="C977" s="2"/>
       <c r="D977" s="4"/>
       <c r="E977" s="4"/>
@@ -57266,7 +57272,7 @@
     </row>
     <row r="978">
       <c r="A978" s="2"/>
-      <c r="B978" s="2"/>
+      <c r="B978" s="6"/>
       <c r="C978" s="2"/>
       <c r="D978" s="4"/>
       <c r="E978" s="4"/>
@@ -57294,7 +57300,7 @@
     </row>
     <row r="979">
       <c r="A979" s="2"/>
-      <c r="B979" s="2"/>
+      <c r="B979" s="6"/>
       <c r="C979" s="2"/>
       <c r="D979" s="4"/>
       <c r="E979" s="4"/>
@@ -57322,7 +57328,7 @@
     </row>
     <row r="980">
       <c r="A980" s="2"/>
-      <c r="B980" s="2"/>
+      <c r="B980" s="6"/>
       <c r="C980" s="2"/>
       <c r="D980" s="4"/>
       <c r="E980" s="4"/>
@@ -57350,7 +57356,7 @@
     </row>
     <row r="981">
       <c r="A981" s="2"/>
-      <c r="B981" s="2"/>
+      <c r="B981" s="6"/>
       <c r="C981" s="2"/>
       <c r="D981" s="4"/>
       <c r="E981" s="4"/>
@@ -57378,7 +57384,7 @@
     </row>
     <row r="982">
       <c r="A982" s="2"/>
-      <c r="B982" s="2"/>
+      <c r="B982" s="6"/>
       <c r="C982" s="2"/>
       <c r="D982" s="4"/>
       <c r="E982" s="4"/>
@@ -57406,7 +57412,7 @@
     </row>
     <row r="983">
       <c r="A983" s="2"/>
-      <c r="B983" s="2"/>
+      <c r="B983" s="6"/>
       <c r="C983" s="2"/>
       <c r="D983" s="4"/>
       <c r="E983" s="4"/>
@@ -57434,7 +57440,7 @@
     </row>
     <row r="984">
       <c r="A984" s="2"/>
-      <c r="B984" s="2"/>
+      <c r="B984" s="6"/>
       <c r="C984" s="2"/>
       <c r="D984" s="4"/>
       <c r="E984" s="4"/>
@@ -57462,7 +57468,7 @@
     </row>
     <row r="985">
       <c r="A985" s="2"/>
-      <c r="B985" s="2"/>
+      <c r="B985" s="6"/>
       <c r="C985" s="2"/>
       <c r="D985" s="4"/>
       <c r="E985" s="4"/>
@@ -57490,7 +57496,7 @@
     </row>
     <row r="986">
       <c r="A986" s="2"/>
-      <c r="B986" s="2"/>
+      <c r="B986" s="6"/>
       <c r="C986" s="2"/>
       <c r="D986" s="4"/>
       <c r="E986" s="4"/>
@@ -57518,7 +57524,7 @@
     </row>
     <row r="987">
       <c r="A987" s="2"/>
-      <c r="B987" s="2"/>
+      <c r="B987" s="6"/>
       <c r="C987" s="2"/>
       <c r="D987" s="4"/>
       <c r="E987" s="4"/>
@@ -57546,7 +57552,7 @@
     </row>
     <row r="988">
       <c r="A988" s="2"/>
-      <c r="B988" s="2"/>
+      <c r="B988" s="6"/>
       <c r="C988" s="2"/>
       <c r="D988" s="4"/>
       <c r="E988" s="4"/>
@@ -57574,7 +57580,7 @@
     </row>
     <row r="989">
       <c r="A989" s="2"/>
-      <c r="B989" s="2"/>
+      <c r="B989" s="6"/>
       <c r="C989" s="2"/>
       <c r="D989" s="4"/>
       <c r="E989" s="4"/>
@@ -57602,7 +57608,7 @@
     </row>
     <row r="990">
       <c r="A990" s="2"/>
-      <c r="B990" s="2"/>
+      <c r="B990" s="6"/>
       <c r="C990" s="2"/>
       <c r="D990" s="4"/>
       <c r="E990" s="4"/>
@@ -57630,7 +57636,7 @@
     </row>
     <row r="991">
       <c r="A991" s="2"/>
-      <c r="B991" s="2"/>
+      <c r="B991" s="6"/>
       <c r="C991" s="2"/>
       <c r="D991" s="4"/>
       <c r="E991" s="4"/>
@@ -57658,7 +57664,7 @@
     </row>
     <row r="992">
       <c r="A992" s="2"/>
-      <c r="B992" s="2"/>
+      <c r="B992" s="6"/>
       <c r="C992" s="2"/>
       <c r="D992" s="4"/>
       <c r="E992" s="4"/>
@@ -57686,7 +57692,7 @@
     </row>
     <row r="993">
       <c r="A993" s="2"/>
-      <c r="B993" s="2"/>
+      <c r="B993" s="6"/>
       <c r="C993" s="2"/>
       <c r="D993" s="4"/>
       <c r="E993" s="4"/>
@@ -57714,7 +57720,7 @@
     </row>
     <row r="994">
       <c r="A994" s="2"/>
-      <c r="B994" s="2"/>
+      <c r="B994" s="6"/>
       <c r="C994" s="2"/>
       <c r="D994" s="4"/>
       <c r="E994" s="4"/>
@@ -57742,7 +57748,7 @@
     </row>
     <row r="995">
       <c r="A995" s="2"/>
-      <c r="B995" s="2"/>
+      <c r="B995" s="6"/>
       <c r="C995" s="2"/>
       <c r="D995" s="4"/>
       <c r="E995" s="4"/>
@@ -57770,7 +57776,7 @@
     </row>
     <row r="996">
       <c r="A996" s="2"/>
-      <c r="B996" s="2"/>
+      <c r="B996" s="6"/>
       <c r="C996" s="2"/>
       <c r="D996" s="4"/>
       <c r="E996" s="4"/>
@@ -57798,7 +57804,7 @@
     </row>
     <row r="997">
       <c r="A997" s="2"/>
-      <c r="B997" s="2"/>
+      <c r="B997" s="6"/>
       <c r="C997" s="2"/>
       <c r="D997" s="4"/>
       <c r="E997" s="4"/>
@@ -57826,7 +57832,7 @@
     </row>
     <row r="998">
       <c r="A998" s="2"/>
-      <c r="B998" s="2"/>
+      <c r="B998" s="6"/>
       <c r="C998" s="2"/>
       <c r="D998" s="4"/>
       <c r="E998" s="4"/>
@@ -57854,7 +57860,7 @@
     </row>
     <row r="999">
       <c r="A999" s="2"/>
-      <c r="B999" s="2"/>
+      <c r="B999" s="6"/>
       <c r="C999" s="2"/>
       <c r="D999" s="4"/>
       <c r="E999" s="4"/>
@@ -57882,7 +57888,7 @@
     </row>
     <row r="1000">
       <c r="A1000" s="2"/>
-      <c r="B1000" s="2"/>
+      <c r="B1000" s="6"/>
       <c r="C1000" s="2"/>
       <c r="D1000" s="4"/>
       <c r="E1000" s="4"/>
@@ -57910,7 +57916,7 @@
     </row>
     <row r="1001">
       <c r="A1001" s="2"/>
-      <c r="B1001" s="2"/>
+      <c r="B1001" s="6"/>
       <c r="C1001" s="2"/>
       <c r="D1001" s="4"/>
       <c r="E1001" s="4"/>
@@ -57938,7 +57944,7 @@
     </row>
     <row r="1002">
       <c r="A1002" s="2"/>
-      <c r="B1002" s="2"/>
+      <c r="B1002" s="6"/>
       <c r="C1002" s="2"/>
       <c r="D1002" s="4"/>
       <c r="E1002" s="4"/>
@@ -57999,10 +58005,10 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="8" t="s">
         <v>150</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -58013,7 +58019,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="7" t="s">
         <v>151</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -58027,7 +58033,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="7" t="s">
         <v>153</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -58039,7 +58045,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="7" t="s">
         <v>154</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -58051,7 +58057,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="7" t="s">
         <v>156</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -58065,7 +58071,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="7" t="s">
         <v>157</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -58077,7 +58083,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="7" t="s">
         <v>159</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -58089,10 +58095,10 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="8" t="s">
         <v>161</v>
       </c>
       <c r="C9" s="1"/>
@@ -58101,10 +58107,10 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="8" t="s">
         <v>150</v>
       </c>
       <c r="C10" s="1"/>
@@ -58113,7 +58119,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="7" t="s">
         <v>163</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -58125,7 +58131,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="7" t="s">
         <v>164</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -58137,7 +58143,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="7" t="s">
         <v>165</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -58149,7 +58155,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="7" t="s">
         <v>166</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -58161,7 +58167,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="7" t="s">
         <v>167</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -58173,7 +58179,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="7" t="s">
         <v>168</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -58187,10 +58193,10 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="8" t="s">
         <v>161</v>
       </c>
       <c r="C17" s="1" t="s">

--- a/dados.xlsx
+++ b/dados.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="177">
   <si>
     <t>objeto</t>
   </si>
@@ -462,10 +462,16 @@
     <t>botao</t>
   </si>
   <si>
+    <t>nome_botao</t>
+  </si>
+  <si>
     <t>modulo1_cozinha_pia_inicio.glb</t>
   </si>
   <si>
     <t>1.2</t>
+  </si>
+  <si>
+    <t>Pia</t>
   </si>
   <si>
     <t>modulo2_cozinha_pia_meio_direita.glb</t>
@@ -474,7 +480,13 @@
     <t>0.6</t>
   </si>
   <si>
+    <t>Pia (abre p/ direita)</t>
+  </si>
+  <si>
     <t>modulo2_cozinha_pia_meio_esquerda.glb</t>
+  </si>
+  <si>
+    <t>Pia (abre p/ esquerda)</t>
   </si>
   <si>
     <t>modulo3_cozinha_pia_meio_direita.glb</t>
@@ -504,10 +516,19 @@
     <t>modulo1_cozinha_prateleira_inicio.glb</t>
   </si>
   <si>
+    <t>Prateleira</t>
+  </si>
+  <si>
     <t>modulo2_cozinha_prateleira_meio_direita.glb</t>
   </si>
   <si>
+    <t>Prateleira (abre p/ direita)</t>
+  </si>
+  <si>
     <t>modulo2_cozinha_prateleira_meio_esquerda.glb</t>
+  </si>
+  <si>
+    <t>Prateleira (abre p/ esquerda)</t>
   </si>
   <si>
     <t>modulo3_cozinha_prateleira_meio_direita.glb</t>
@@ -57988,6 +58009,7 @@
     <col customWidth="1" min="1" max="1" width="37.0"/>
     <col customWidth="1" min="2" max="2" width="4.75"/>
     <col customWidth="1" min="3" max="3" width="6.0"/>
+    <col customWidth="1" min="5" max="5" width="22.25"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -58003,13 +58025,16 @@
       <c r="D1" s="1" t="s">
         <v>148</v>
       </c>
+      <c r="E1" s="7" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>8</v>
@@ -58017,13 +58042,16 @@
       <c r="D2" s="1">
         <v>1.0</v>
       </c>
+      <c r="E2" s="7" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>8</v>
@@ -58031,37 +58059,46 @@
       <c r="D3" s="1">
         <v>2.0</v>
       </c>
+      <c r="E3" s="7" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1">
         <v>2.0</v>
       </c>
+      <c r="E4" s="7" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
         <v>3.0</v>
       </c>
+      <c r="E5" s="7" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>8</v>
@@ -58069,121 +58106,151 @@
       <c r="D6" s="1">
         <v>3.0</v>
       </c>
+      <c r="E6" s="7" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1">
         <v>4.0</v>
       </c>
+      <c r="E7" s="7" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1">
         <v>4.0</v>
       </c>
+      <c r="E8" s="7" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1">
         <v>5.0</v>
       </c>
+      <c r="E9" s="7" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1">
         <v>1.0</v>
       </c>
+      <c r="E10" s="7" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="7" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1">
         <v>2.0</v>
       </c>
+      <c r="E11" s="7" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="7" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1">
         <v>2.0</v>
       </c>
+      <c r="E12" s="7" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="7" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1">
         <v>3.0</v>
       </c>
+      <c r="E13" s="7" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="7" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1">
         <v>3.0</v>
       </c>
+      <c r="E14" s="7" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="7" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1">
         <v>4.0</v>
       </c>
+      <c r="E15" s="7" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="7" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>8</v>
@@ -58191,13 +58258,16 @@
       <c r="D16" s="1">
         <v>4.0</v>
       </c>
+      <c r="E16" s="7" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="7" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>8</v>
@@ -58205,6 +58275,9 @@
       <c r="D17" s="1">
         <v>5.0</v>
       </c>
+      <c r="E17" s="7" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="18">
       <c r="B18" s="4"/>

--- a/dados.xlsx
+++ b/dados.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="169">
   <si>
     <t>objeto</t>
   </si>
@@ -465,7 +465,7 @@
     <t>nome_botao</t>
   </si>
   <si>
-    <t>modulo1_cozinha_pia_inicio.glb</t>
+    <t>cozinha_pia_inicio.glb</t>
   </si>
   <si>
     <t>1.2</t>
@@ -474,7 +474,7 @@
     <t>Pia</t>
   </si>
   <si>
-    <t>modulo2_cozinha_pia_meio_direita.glb</t>
+    <t>cozinha_pia_meio_direita.glb</t>
   </si>
   <si>
     <t>0.6</t>
@@ -483,67 +483,43 @@
     <t>Pia (abre p/ direita)</t>
   </si>
   <si>
-    <t>modulo2_cozinha_pia_meio_esquerda.glb</t>
+    <t>cozinha_pia_meio_esquerda.glb</t>
   </si>
   <si>
     <t>Pia (abre p/ esquerda)</t>
   </si>
   <si>
-    <t>modulo3_cozinha_pia_meio_direita.glb</t>
-  </si>
-  <si>
     <t>0.0</t>
-  </si>
-  <si>
-    <t>modulo3_cozinha_pia_meio_esquerda.glb</t>
-  </si>
-  <si>
-    <t>modulo4_cozinha_pia_meio_direita.glb</t>
   </si>
   <si>
     <t>-0.6</t>
   </si>
   <si>
-    <t>modulo4_cozinha_pia_meio_esquerda.glb</t>
-  </si>
-  <si>
-    <t>modulo5_cozinha_pia_fim.glb</t>
+    <t>cozinha_pia_fim.glb</t>
   </si>
   <si>
     <t>-1.2</t>
   </si>
   <si>
-    <t>modulo1_cozinha_prateleira_inicio.glb</t>
+    <t>cozinha_prateleira_inicio.glb</t>
   </si>
   <si>
     <t>Prateleira</t>
   </si>
   <si>
-    <t>modulo2_cozinha_prateleira_meio_direita.glb</t>
+    <t>cozinha_prateleira_meio_direita.glb</t>
   </si>
   <si>
     <t>Prateleira (abre p/ direita)</t>
   </si>
   <si>
-    <t>modulo2_cozinha_prateleira_meio_esquerda.glb</t>
+    <t>cozinha_prateleira_meio_esquerda.glb</t>
   </si>
   <si>
     <t>Prateleira (abre p/ esquerda)</t>
   </si>
   <si>
-    <t>modulo3_cozinha_prateleira_meio_direita.glb</t>
-  </si>
-  <si>
-    <t>modulo3_cozinha_prateleira_meio_esquerda.glb</t>
-  </si>
-  <si>
-    <t>modulo4_cozinha_prateleira_meio_direita.glb</t>
-  </si>
-  <si>
-    <t>modulo4_cozinha_prateleira_meio_esquerda.glb</t>
-  </si>
-  <si>
-    <t>modulo5_cozinha_prateleira_fim.glb</t>
+    <t>cozinha_prateleira_fim.glb</t>
   </si>
 </sst>
 </file>
@@ -58080,10 +58056,10 @@
     </row>
     <row r="5">
       <c r="A5" s="7" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
@@ -58095,10 +58071,10 @@
     </row>
     <row r="6">
       <c r="A6" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>8</v>
@@ -58112,10 +58088,10 @@
     </row>
     <row r="7">
       <c r="A7" s="7" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1">
@@ -58127,10 +58103,10 @@
     </row>
     <row r="8">
       <c r="A8" s="7" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1">
@@ -58142,10 +58118,10 @@
     </row>
     <row r="9">
       <c r="A9" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1">
@@ -58157,7 +58133,7 @@
     </row>
     <row r="10">
       <c r="A10" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>151</v>
@@ -58167,12 +58143,12 @@
         <v>1.0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>154</v>
@@ -58182,12 +58158,12 @@
         <v>2.0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>154</v>
@@ -58197,60 +58173,60 @@
         <v>2.0</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="7" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1">
         <v>3.0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="7" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1">
         <v>3.0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="7" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1">
         <v>4.0</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="7" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>8</v>
@@ -58259,15 +58235,15 @@
         <v>4.0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="7" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>8</v>
@@ -58276,7 +58252,7 @@
         <v>5.0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18">

--- a/dados.xlsx
+++ b/dados.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="177">
   <si>
     <t>objeto</t>
   </si>
@@ -465,7 +465,7 @@
     <t>nome_botao</t>
   </si>
   <si>
-    <t>cozinha_pia_inicio.glb</t>
+    <t>modulo1_cozinha_pia_inicio.glb</t>
   </si>
   <si>
     <t>1.2</t>
@@ -474,7 +474,7 @@
     <t>Pia</t>
   </si>
   <si>
-    <t>cozinha_pia_meio_direita.glb</t>
+    <t>modulo2_cozinha_pia_meio_direita.glb</t>
   </si>
   <si>
     <t>0.6</t>
@@ -483,43 +483,67 @@
     <t>Pia (abre p/ direita)</t>
   </si>
   <si>
-    <t>cozinha_pia_meio_esquerda.glb</t>
+    <t>modulo2_cozinha_pia_meio_esquerda.glb</t>
   </si>
   <si>
     <t>Pia (abre p/ esquerda)</t>
   </si>
   <si>
+    <t>modulo3_cozinha_pia_meio_direita.glb</t>
+  </si>
+  <si>
     <t>0.0</t>
+  </si>
+  <si>
+    <t>modulo3_cozinha_pia_meio_esquerda.glb</t>
+  </si>
+  <si>
+    <t>modulo4_cozinha_pia_meio_direita.glb</t>
   </si>
   <si>
     <t>-0.6</t>
   </si>
   <si>
-    <t>cozinha_pia_fim.glb</t>
+    <t>modulo4_cozinha_pia_meio_esquerda.glb</t>
+  </si>
+  <si>
+    <t>modulo5_cozinha_pia_fim.glb</t>
   </si>
   <si>
     <t>-1.2</t>
   </si>
   <si>
-    <t>cozinha_prateleira_inicio.glb</t>
+    <t>modulo1_cozinha_prateleira_inicio.glb</t>
   </si>
   <si>
     <t>Prateleira</t>
   </si>
   <si>
-    <t>cozinha_prateleira_meio_direita.glb</t>
+    <t>modulo2_cozinha_prateleira_meio_direita.glb</t>
   </si>
   <si>
     <t>Prateleira (abre p/ direita)</t>
   </si>
   <si>
-    <t>cozinha_prateleira_meio_esquerda.glb</t>
+    <t>modulo2_cozinha_prateleira_meio_esquerda.glb</t>
   </si>
   <si>
     <t>Prateleira (abre p/ esquerda)</t>
   </si>
   <si>
-    <t>cozinha_prateleira_fim.glb</t>
+    <t>modulo3_cozinha_prateleira_meio_direita.glb</t>
+  </si>
+  <si>
+    <t>modulo3_cozinha_prateleira_meio_esquerda.glb</t>
+  </si>
+  <si>
+    <t>modulo4_cozinha_prateleira_meio_direita.glb</t>
+  </si>
+  <si>
+    <t>modulo4_cozinha_prateleira_meio_esquerda.glb</t>
+  </si>
+  <si>
+    <t>modulo5_cozinha_prateleira_fim.glb</t>
   </si>
 </sst>
 </file>
@@ -58056,10 +58080,10 @@
     </row>
     <row r="5">
       <c r="A5" s="7" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
@@ -58071,10 +58095,10 @@
     </row>
     <row r="6">
       <c r="A6" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>8</v>
@@ -58088,10 +58112,10 @@
     </row>
     <row r="7">
       <c r="A7" s="7" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1">
@@ -58103,10 +58127,10 @@
     </row>
     <row r="8">
       <c r="A8" s="7" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1">
@@ -58118,10 +58142,10 @@
     </row>
     <row r="9">
       <c r="A9" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1">
@@ -58133,7 +58157,7 @@
     </row>
     <row r="10">
       <c r="A10" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>151</v>
@@ -58143,12 +58167,12 @@
         <v>1.0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>154</v>
@@ -58158,12 +58182,12 @@
         <v>2.0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>154</v>
@@ -58173,60 +58197,60 @@
         <v>2.0</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="7" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1">
         <v>3.0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="7" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1">
         <v>3.0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="7" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1">
         <v>4.0</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="7" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>8</v>
@@ -58235,15 +58259,15 @@
         <v>4.0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="7" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>8</v>
@@ -58252,7 +58276,7 @@
         <v>5.0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18">

--- a/dados.xlsx
+++ b/dados.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="213">
   <si>
     <t>objeto</t>
   </si>
@@ -545,6 +545,114 @@
   <si>
     <t>modulo5_cozinha_prateleira_fim.glb</t>
   </si>
+  <si>
+    <t>modulo1_cozinha_torre-quente.glb</t>
+  </si>
+  <si>
+    <t>Torre quente</t>
+  </si>
+  <si>
+    <t>modulo2_cozinha_torre-quente.glb</t>
+  </si>
+  <si>
+    <t>modulo3_cozinha_torre-quente.glb</t>
+  </si>
+  <si>
+    <t>modulo4_cozinha_torre-quente.glb</t>
+  </si>
+  <si>
+    <t>modulo5_cozinha_torre-quente.glb</t>
+  </si>
+  <si>
+    <t>modulo1_cozinha_forno_inicio.glb</t>
+  </si>
+  <si>
+    <t>Forno</t>
+  </si>
+  <si>
+    <t>modulo2_cozinha_forno_meio.glb</t>
+  </si>
+  <si>
+    <t>modulo3_cozinha_forno_meio.glb</t>
+  </si>
+  <si>
+    <t>modulo4_cozinha_forno_meio.glb</t>
+  </si>
+  <si>
+    <t>modulo5_cozinha_forno_fim.glb</t>
+  </si>
+  <si>
+    <t>modulo1_cozinha_gaveta_inicio.glb</t>
+  </si>
+  <si>
+    <t>Gaveta</t>
+  </si>
+  <si>
+    <t>modulo2_cozinha_gaveta_meio.glb</t>
+  </si>
+  <si>
+    <t>modulo3_cozinha_gaveta_meio.glb</t>
+  </si>
+  <si>
+    <t>modulo4_cozinha_gaveta_meio.glb</t>
+  </si>
+  <si>
+    <t>modulo5_cozinha_gaveta_fim.glb</t>
+  </si>
+  <si>
+    <t>modulo1_cozinha_geladeira.glb</t>
+  </si>
+  <si>
+    <t>Geladeira</t>
+  </si>
+  <si>
+    <t>modulo2_cozinha_geladeira.glb</t>
+  </si>
+  <si>
+    <t>modulo3_cozinha_geladeira.glb</t>
+  </si>
+  <si>
+    <t>modulo4_cozinha_geladeira.glb</t>
+  </si>
+  <si>
+    <t>modulo5_cozinha_geladeira.glb</t>
+  </si>
+  <si>
+    <t>modulo1_cozinha_pia_2-portas_inicio.glb</t>
+  </si>
+  <si>
+    <t>Pia (2 portas)</t>
+  </si>
+  <si>
+    <t>modulo2_cozinha_pia_2-portas_meio.glb</t>
+  </si>
+  <si>
+    <t>modulo3_cozinha_pia_2-portas_meio.glb</t>
+  </si>
+  <si>
+    <t>modulo4_cozinha_pia_2-portas_meio.glb</t>
+  </si>
+  <si>
+    <t>modulo5_cozinha_pia_2-portas_fim.glb</t>
+  </si>
+  <si>
+    <t>modulo1_cozinha_prateleira_2-portas_inicio.glb</t>
+  </si>
+  <si>
+    <t>Prateleira (2 portas)</t>
+  </si>
+  <si>
+    <t>modulo2_cozinha_prateleira_2-portas_meio.glb</t>
+  </si>
+  <si>
+    <t>modulo3_cozinha_prateleira_2-portas_meio.glb</t>
+  </si>
+  <si>
+    <t>modulo4_cozinha_prateleira_2-portas_meio.glb</t>
+  </si>
+  <si>
+    <t>modulo5_cozinha_prateleira_2-portas_fim.glb</t>
+  </si>
 </sst>
 </file>
 
@@ -58036,9 +58144,7 @@
       <c r="B2" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="C2" s="1"/>
       <c r="D2" s="1">
         <v>1.0</v>
       </c>
@@ -58053,9 +58159,7 @@
       <c r="B3" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="C3" s="1"/>
       <c r="D3" s="1">
         <v>2.0</v>
       </c>
@@ -58269,9 +58373,7 @@
       <c r="B17" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="C17" s="1"/>
       <c r="D17" s="1">
         <v>5.0</v>
       </c>
@@ -58280,154 +58382,460 @@
       </c>
     </row>
     <row r="18">
-      <c r="B18" s="4"/>
+      <c r="A18" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>151</v>
+      </c>
       <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
+      <c r="D18" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="19">
-      <c r="B19" s="4"/>
+      <c r="A19" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>154</v>
+      </c>
       <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
+      <c r="D19" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="20">
-      <c r="B20" s="4"/>
+      <c r="A20" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>159</v>
+      </c>
       <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
+      <c r="D20" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="21">
-      <c r="B21" s="4"/>
+      <c r="A21" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>162</v>
+      </c>
       <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
+      <c r="D21" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="22">
-      <c r="B22" s="4"/>
+      <c r="A22" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>165</v>
+      </c>
       <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
+      <c r="D22" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="23">
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
+      <c r="A23" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="24">
-      <c r="B24" s="4"/>
+      <c r="A24" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>154</v>
+      </c>
       <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
+      <c r="D24" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="25">
-      <c r="B25" s="4"/>
+      <c r="A25" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>159</v>
+      </c>
       <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
+      <c r="D25" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="26">
-      <c r="B26" s="4"/>
+      <c r="A26" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>162</v>
+      </c>
       <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
+      <c r="D26" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="27">
-      <c r="B27" s="4"/>
+      <c r="A27" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>165</v>
+      </c>
       <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
+      <c r="D27" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="28">
-      <c r="B28" s="4"/>
+      <c r="A28" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>151</v>
+      </c>
       <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
+      <c r="D28" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="29">
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
+      <c r="A29" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="30">
-      <c r="B30" s="4"/>
+      <c r="A30" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>159</v>
+      </c>
       <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
+      <c r="D30" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="31">
-      <c r="B31" s="4"/>
+      <c r="A31" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>162</v>
+      </c>
       <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
+      <c r="D31" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="32">
-      <c r="B32" s="4"/>
+      <c r="A32" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>165</v>
+      </c>
       <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
+      <c r="D32" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="33">
-      <c r="B33" s="4"/>
+      <c r="A33" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>151</v>
+      </c>
       <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
+      <c r="D33" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="34">
-      <c r="B34" s="4"/>
+      <c r="A34" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>154</v>
+      </c>
       <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
+      <c r="D34" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="35">
-      <c r="B35" s="4"/>
+      <c r="A35" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>159</v>
+      </c>
       <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
+      <c r="D35" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="36">
-      <c r="B36" s="4"/>
+      <c r="A36" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>162</v>
+      </c>
       <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
+      <c r="D36" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="37">
-      <c r="B37" s="4"/>
+      <c r="A37" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>165</v>
+      </c>
       <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
+      <c r="D37" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="38">
-      <c r="B38" s="4"/>
+      <c r="A38" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>151</v>
+      </c>
       <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
+      <c r="D38" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="39">
-      <c r="B39" s="4"/>
+      <c r="A39" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>154</v>
+      </c>
       <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
+      <c r="D39" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="40">
-      <c r="B40" s="4"/>
+      <c r="A40" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>159</v>
+      </c>
       <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
+      <c r="D40" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="41">
-      <c r="B41" s="4"/>
+      <c r="A41" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>162</v>
+      </c>
       <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
+      <c r="D41" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="42">
-      <c r="B42" s="4"/>
+      <c r="A42" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>165</v>
+      </c>
       <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
+      <c r="D42" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="43">
-      <c r="B43" s="4"/>
+      <c r="A43" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>151</v>
+      </c>
       <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
+      <c r="D43" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="44">
-      <c r="B44" s="4"/>
+      <c r="A44" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>154</v>
+      </c>
       <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
+      <c r="D44" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="45">
-      <c r="B45" s="4"/>
+      <c r="A45" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>159</v>
+      </c>
       <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
+      <c r="D45" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="46">
-      <c r="B46" s="4"/>
+      <c r="A46" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>162</v>
+      </c>
       <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
+      <c r="D46" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="47">
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
+      <c r="A47" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="48">
       <c r="B48" s="4"/>

--- a/dados.xlsx
+++ b/dados.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="284">
   <si>
     <t>objeto</t>
   </si>
@@ -156,22 +156,10 @@
     <t>default</t>
   </si>
   <si>
-    <t>azul_petroleo</t>
+    <t>imagem_botao</t>
   </si>
   <si>
-    <t>azul_petroleo.jpg</t>
-  </si>
-  <si>
-    <t>solidas</t>
-  </si>
-  <si>
-    <t>cipres</t>
-  </si>
-  <si>
-    <t>cipres.jpg</t>
-  </si>
-  <si>
-    <t>amadeiradas</t>
+    <t>metal_polido</t>
   </si>
   <si>
     <t>black_metal</t>
@@ -219,247 +207,463 @@
     <t>puxador10</t>
   </si>
   <si>
-    <t>metal_polido</t>
+    <t>alabama</t>
   </si>
   <si>
-    <t>alabama</t>
+    <t>amadeiradas</t>
+  </si>
+  <si>
+    <t>botao-cores-amadeiradas-23_alabama</t>
   </si>
   <si>
     <t>alecrim</t>
   </si>
   <si>
+    <t>solidas</t>
+  </si>
+  <si>
+    <t>botao-cores-solidas-16_alecrim</t>
+  </si>
+  <si>
     <t>ametista</t>
+  </si>
+  <si>
+    <t>botao-cores-solidas-9_ametista</t>
   </si>
   <si>
     <t>antiqua</t>
   </si>
   <si>
+    <t>botao-cores-amadeiradas-15_antiqua</t>
+  </si>
+  <si>
     <t>antuerpia</t>
+  </si>
+  <si>
+    <t>botao-cores-amadeiradas-7_antuerpia</t>
   </si>
   <si>
     <t>araucaria</t>
   </si>
   <si>
+    <t>botao-cores-amadeiradas-2_araucaria</t>
+  </si>
+  <si>
     <t>areia</t>
+  </si>
+  <si>
+    <t>botao-cores-solidas-5_areia</t>
   </si>
   <si>
     <t>aura</t>
   </si>
   <si>
+    <t>diversas</t>
+  </si>
+  <si>
+    <t>botao-cores-diversas-6_aura</t>
+  </si>
+  <si>
     <t>azul_ardosia</t>
+  </si>
+  <si>
+    <t>botao-cores-solidas-18_azul-ardosia</t>
   </si>
   <si>
     <t>azul_marinho</t>
   </si>
   <si>
+    <t>botao-cores-solidas-20_azul-marinho</t>
+  </si>
+  <si>
+    <t>azul_petroleo</t>
+  </si>
+  <si>
+    <t>azul_petroleo.jpg</t>
+  </si>
+  <si>
+    <t>botao-cores-solidas-19_azul-petroleo</t>
+  </si>
+  <si>
     <t>baviera</t>
+  </si>
+  <si>
+    <t>botao-cores-amadeiradas-30_baviera</t>
   </si>
   <si>
     <t>bilbao</t>
   </si>
   <si>
+    <t>botao-cores-amadeiradas-4_bilbao</t>
+  </si>
+  <si>
     <t>branco</t>
   </si>
   <si>
-    <t>branco_iceland</t>
+    <t>botao-cores-solidas-1_branco</t>
   </si>
   <si>
     <t>brisa</t>
   </si>
   <si>
+    <t>botao-cores-solidas-2_brisa</t>
+  </si>
+  <si>
     <t>bronzina</t>
   </si>
   <si>
-    <t>diversas</t>
+    <t>botao-cores-diversas-9_bronzina</t>
   </si>
   <si>
     <t>capuccino</t>
   </si>
   <si>
+    <t>botao-cores-solidas-13_capuccino</t>
+  </si>
+  <si>
     <t>caribe</t>
+  </si>
+  <si>
+    <t>botao-cores-amadeiradas-20_caribe</t>
   </si>
   <si>
     <t>carvalho_capri</t>
   </si>
   <si>
+    <t>botao-cores-amadeiradas-11_carvalho-capri</t>
+  </si>
+  <si>
     <t>carvalho_natural</t>
+  </si>
+  <si>
+    <t>botao-cores-amadeiradas-5_carvalho-natural</t>
   </si>
   <si>
     <t>cinza_perfeito</t>
   </si>
   <si>
+    <t>botao-cores-solidas-27_cinza-perfeito</t>
+  </si>
+  <si>
     <t>cinza_urban</t>
+  </si>
+  <si>
+    <t>botao-cores-diversas-13_cinza-urban</t>
+  </si>
+  <si>
+    <t>cipres</t>
+  </si>
+  <si>
+    <t>cipres.jpg</t>
+  </si>
+  <si>
+    <t>botao-cores-amadeiradas-3_cipres</t>
   </si>
   <si>
     <t>cobre</t>
   </si>
   <si>
+    <t>botao-cores-solidas-15_cobre-texturizado</t>
+  </si>
+  <si>
     <t>corten</t>
+  </si>
+  <si>
+    <t>botao-cores-diversas-10_corten</t>
   </si>
   <si>
     <t>cosmos</t>
   </si>
   <si>
+    <t>botao-cores-diversas-15_cosmos</t>
+  </si>
+  <si>
     <t>cromio</t>
+  </si>
+  <si>
+    <t>botao-cores-diversas-12_cromio</t>
   </si>
   <si>
     <t>curupixa</t>
   </si>
   <si>
-    <t>curupixa_ripado</t>
+    <t>botao-cores-amadeiradas-6_curupixa</t>
   </si>
   <si>
     <t>erva_mate</t>
   </si>
   <si>
+    <t>botao-cores-solidas-17_erva-mate</t>
+  </si>
+  <si>
     <t>fendi</t>
+  </si>
+  <si>
+    <t>botao-cores-solidas-12_fendi</t>
   </si>
   <si>
     <t>fontana</t>
   </si>
   <si>
+    <t>botao-cores-diversas-2_fontana</t>
+  </si>
+  <si>
     <t>freijo</t>
+  </si>
+  <si>
+    <t>botao-cores-amadeiradas-13_freijo</t>
   </si>
   <si>
     <t>fresno_acores</t>
   </si>
   <si>
+    <t>botao-cores-amadeiradas-29_fresno-acores</t>
+  </si>
+  <si>
     <t>fresno_aveiro</t>
+  </si>
+  <si>
+    <t>botao-cores-amadeiradas-16_fresno-aveiro</t>
   </si>
   <si>
     <t>fresno_coimbra</t>
   </si>
   <si>
+    <t>botao-cores-amadeiradas-21_fresno-coimbra</t>
+  </si>
+  <si>
     <t>fresno_madeira</t>
+  </si>
+  <si>
+    <t>botao-cores-amadeiradas-9_fresno-madeira</t>
   </si>
   <si>
     <t>gali</t>
   </si>
   <si>
+    <t>botao-cores-diversas-7_gali</t>
+  </si>
+  <si>
     <t>grafite</t>
+  </si>
+  <si>
+    <t>botao-cores-solidas-22_grafite</t>
   </si>
   <si>
     <t>imbuia</t>
   </si>
   <si>
+    <t>botao-cores-amadeiradas-19_imbuia</t>
+  </si>
+  <si>
     <t>jaspe</t>
+  </si>
+  <si>
+    <t>botao-cores-diversas-8_jaspe</t>
   </si>
   <si>
     <t>lisboa</t>
   </si>
   <si>
+    <t>botao-cores-amadeiradas-26_lisboa</t>
+  </si>
+  <si>
     <t>lume</t>
   </si>
   <si>
-    <t>mageo_carvalho</t>
-  </si>
-  <si>
-    <t>mageo_imbuia</t>
-  </si>
-  <si>
-    <t>mageo_mel</t>
+    <t>botao-cores-solidas-3_lume</t>
   </si>
   <si>
     <t>mangue</t>
   </si>
   <si>
+    <t>botao-cores-solidas-11_mangue</t>
+  </si>
+  <si>
     <t>marmo</t>
+  </si>
+  <si>
+    <t>botao-cores-diversas-16_marmo</t>
   </si>
   <si>
     <t>marsala</t>
   </si>
   <si>
-    <t>maxi_branco</t>
+    <t>botao-cores-solidas-8_marsala</t>
   </si>
   <si>
     <t>metal_champagne</t>
   </si>
   <si>
+    <t>botao-cores-solidas-14_metal-champagne-texturizado</t>
+  </si>
+  <si>
     <t>neblina</t>
+  </si>
+  <si>
+    <t>botao-cores-solidas-26_neblina</t>
   </si>
   <si>
     <t>nero</t>
   </si>
   <si>
+    <t>botao-cores-amadeiradas-31_nero</t>
+  </si>
+  <si>
     <t>niquel</t>
+  </si>
+  <si>
+    <t>botao-cores-solidas-25_niquel</t>
   </si>
   <si>
     <t>nogal_champagne</t>
   </si>
   <si>
+    <t>botao-cores-amadeiradas-25_nogal-champagne</t>
+  </si>
+  <si>
     <t>nogal_sevilha</t>
+  </si>
+  <si>
+    <t>botao-cores-amadeiradas-22_nogal-sevilha</t>
   </si>
   <si>
     <t>nogueira_ambar</t>
   </si>
   <si>
+    <t>botao-cores-amadeiradas-12_nogueira-ambar</t>
+  </si>
+  <si>
     <t>nogueira_rubi</t>
+  </si>
+  <si>
+    <t>botao-cores-amadeiradas-18_nogueira-rubi</t>
   </si>
   <si>
     <t>noite</t>
   </si>
   <si>
+    <t>botao-cores-solidas-23_noite</t>
+  </si>
+  <si>
     <t>nuvem</t>
+  </si>
+  <si>
+    <t>botao-cores-solidas-4_nuvem</t>
   </si>
   <si>
     <t>onix</t>
   </si>
   <si>
+    <t>botao-cores-solidas-24_onix</t>
+  </si>
+  <si>
     <t>pau_ferro</t>
+  </si>
+  <si>
+    <t>botao-cores-amadeiradas-17_pau-ferro</t>
   </si>
   <si>
     <t>peroba</t>
   </si>
   <si>
+    <t>botao-cores-amadeiradas-24_peroba</t>
+  </si>
+  <si>
     <t>petra</t>
+  </si>
+  <si>
+    <t>botao-cores-diversas-14_petra</t>
   </si>
   <si>
     <t>platina</t>
   </si>
   <si>
+    <t>botao-cores-diversas-3_platina</t>
+  </si>
+  <si>
     <t>preto_silk</t>
+  </si>
+  <si>
+    <t>botao-cores-solidas-21_preto-silk-texturizado</t>
   </si>
   <si>
     <t>quartzo</t>
   </si>
   <si>
+    <t>botao-cores-diversas-1_quartzo</t>
+  </si>
+  <si>
     <t>rosa_milkshake</t>
+  </si>
+  <si>
+    <t>botao-cores-solidas-7_rosa-milkshake</t>
   </si>
   <si>
     <t>salerno</t>
   </si>
   <si>
+    <t>botao-cores-amadeiradas-10_salerno</t>
+  </si>
+  <si>
     <t>santorini</t>
+  </si>
+  <si>
+    <t>botao-cores-amadeiradas-28_santorini</t>
   </si>
   <si>
     <t>savana</t>
   </si>
   <si>
+    <t>botao-cores-amadeiradas-27_savana</t>
+  </si>
+  <si>
     <t>sonora</t>
+  </si>
+  <si>
+    <t>botao-cores-amadeiradas-14_sonora</t>
   </si>
   <si>
     <t>tauari</t>
   </si>
   <si>
-    <t>tauari_ripado</t>
+    <t>botao-cores-amadeiradas-8_tauari</t>
   </si>
   <si>
     <t>tear</t>
   </si>
   <si>
+    <t>botao-cores-diversas-4_tear</t>
+  </si>
+  <si>
     <t>tecno</t>
+  </si>
+  <si>
+    <t>botao-cores-diversas-11_tecno</t>
   </si>
   <si>
     <t>teka_bianco</t>
   </si>
   <si>
+    <t>botao-cores-amadeiradas-1_teka-bianco</t>
+  </si>
+  <si>
     <t>tela</t>
+  </si>
+  <si>
+    <t>botao-cores-diversas-5_tela</t>
   </si>
   <si>
     <t>terrino</t>
   </si>
   <si>
+    <t>botao-cores-solidas-6_terrino</t>
+  </si>
+  <si>
     <t>tijolo</t>
+  </si>
+  <si>
+    <t>botao-cores-solidas-10_tijolo</t>
   </si>
   <si>
     <t>branco_tx</t>
@@ -27443,6 +27647,7 @@
     <col customWidth="1" min="2" max="2" width="17.38"/>
     <col customWidth="1" min="3" max="3" width="13.0"/>
     <col customWidth="1" min="4" max="4" width="5.13"/>
+    <col customWidth="1" min="6" max="6" width="31.0"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -27461,7 +27666,9 @@
       <c r="E1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F1" s="4"/>
+      <c r="F1" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
@@ -27485,18 +27692,19 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="5" t="s">
         <v>48</v>
       </c>
+      <c r="B2" s="6" t="str">
+        <f>CONCAT(A2,".jpg")</f>
+        <v>metal_polido.jpg</v>
+      </c>
       <c r="C2" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D2" s="1">
-        <v>360.0</v>
-      </c>
-      <c r="E2" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -27521,18 +27729,16 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>51</v>
-      </c>
       <c r="C3" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D3" s="1">
-        <v>361.0</v>
-      </c>
-      <c r="E3" s="4"/>
+        <v>14</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
@@ -27557,16 +27763,18 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -27591,18 +27799,17 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
+      </c>
+      <c r="B5" s="6" t="str">
+        <f t="shared" ref="B5:B24" si="1">CONCAT(A5,".jpg")</f>
+        <v>puxador01.jpg</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="E5" s="4"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -27627,17 +27834,17 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B6" s="6" t="str">
-        <f t="shared" ref="B6:B96" si="1">CONCAT(A6,".jpg")</f>
-        <v>puxador01.jpg</v>
+        <f t="shared" si="1"/>
+        <v>puxador02.jpg</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D6" s="1"/>
-      <c r="E6" s="4"/>
+      <c r="E6" s="1"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -27662,17 +27869,15 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B7" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>puxador02.jpg</v>
+        <v>puxador03.jpg</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+        <v>54</v>
+      </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -27697,14 +27902,14 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B8" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>puxador03.jpg</v>
+        <v>puxador04.jpg</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -27730,14 +27935,14 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B9" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>puxador04.jpg</v>
+        <v>puxador05.jpg</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -27763,14 +27968,14 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B10" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>puxador05.jpg</v>
+        <v>puxador06.jpg</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -27796,14 +28001,14 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B11" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>puxador06.jpg</v>
+        <v>puxador07.jpg</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -27829,14 +28034,14 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B12" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>puxador07.jpg</v>
+        <v>puxador08.jpg</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -27862,14 +28067,14 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B13" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>puxador08.jpg</v>
+        <v>puxador09.jpg</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -27895,14 +28100,14 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B14" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>puxador09.jpg</v>
+        <v>puxador10.jpg</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -27928,16 +28133,22 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B15" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>puxador10.jpg</v>
+        <v>alabama.jpg</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F15" s="2"/>
+        <v>65</v>
+      </c>
+      <c r="D15" s="1">
+        <v>367.0</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="3" t="s">
+        <v>66</v>
+      </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -27961,20 +28172,22 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B16" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>metal_polido.jpg</v>
+        <v>alecrim.jpg</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" s="2"/>
+        <v>68</v>
+      </c>
+      <c r="D16" s="1">
+        <v>368.0</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="3" t="s">
+        <v>69</v>
+      </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -27998,20 +28211,22 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B17" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>alabama.jpg</v>
+        <v>ametista.jpg</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="D17" s="1">
-        <v>367.0</v>
+        <v>369.0</v>
       </c>
       <c r="E17" s="4"/>
-      <c r="F17" s="2"/>
+      <c r="F17" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -28035,20 +28250,22 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B18" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>alecrim.jpg</v>
+        <v>antiqua.jpg</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="D18" s="1">
-        <v>368.0</v>
+        <v>370.0</v>
       </c>
       <c r="E18" s="4"/>
-      <c r="F18" s="2"/>
+      <c r="F18" s="3" t="s">
+        <v>73</v>
+      </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
@@ -28072,20 +28289,22 @@
     </row>
     <row r="19">
       <c r="A19" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B19" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>ametista.jpg</v>
+        <v>antuerpia.jpg</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="D19" s="1">
-        <v>369.0</v>
+        <v>362.0</v>
       </c>
       <c r="E19" s="4"/>
-      <c r="F19" s="2"/>
+      <c r="F19" s="3" t="s">
+        <v>75</v>
+      </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
@@ -28109,20 +28328,22 @@
     </row>
     <row r="20">
       <c r="A20" s="3" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B20" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>antiqua.jpg</v>
+        <v>araucaria.jpg</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="D20" s="1">
-        <v>370.0</v>
+        <v>371.0</v>
       </c>
       <c r="E20" s="4"/>
-      <c r="F20" s="2"/>
+      <c r="F20" s="3" t="s">
+        <v>77</v>
+      </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
@@ -28146,20 +28367,22 @@
     </row>
     <row r="21">
       <c r="A21" s="3" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B21" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>antuerpia.jpg</v>
+        <v>areia.jpg</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="D21" s="1">
-        <v>362.0</v>
+        <v>372.0</v>
       </c>
       <c r="E21" s="4"/>
-      <c r="F21" s="2"/>
+      <c r="F21" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
@@ -28183,20 +28406,22 @@
     </row>
     <row r="22">
       <c r="A22" s="3" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B22" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>araucaria.jpg</v>
+        <v>aura.jpg</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="D22" s="1">
-        <v>371.0</v>
+        <v>373.0</v>
       </c>
       <c r="E22" s="4"/>
-      <c r="F22" s="2"/>
+      <c r="F22" s="3" t="s">
+        <v>82</v>
+      </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
@@ -28220,20 +28445,22 @@
     </row>
     <row r="23">
       <c r="A23" s="3" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="B23" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>areia.jpg</v>
+        <v>azul_ardosia.jpg</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="D23" s="1">
-        <v>372.0</v>
+        <v>374.0</v>
       </c>
       <c r="E23" s="4"/>
-      <c r="F23" s="2"/>
+      <c r="F23" s="3" t="s">
+        <v>84</v>
+      </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
@@ -28257,20 +28484,22 @@
     </row>
     <row r="24">
       <c r="A24" s="3" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="B24" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>aura.jpg</v>
+        <v>azul_marinho.jpg</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="D24" s="1">
-        <v>373.0</v>
+        <v>375.0</v>
       </c>
       <c r="E24" s="4"/>
-      <c r="F24" s="2"/>
+      <c r="F24" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
@@ -28294,20 +28523,21 @@
     </row>
     <row r="25">
       <c r="A25" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B25" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>azul_ardosia.jpg</v>
+        <v>87</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>88</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="D25" s="1">
-        <v>374.0</v>
-      </c>
-      <c r="E25" s="4"/>
-      <c r="F25" s="2"/>
+        <v>360.0</v>
+      </c>
+      <c r="E25" s="1"/>
+      <c r="F25" s="3" t="s">
+        <v>89</v>
+      </c>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
@@ -28331,20 +28561,22 @@
     </row>
     <row r="26">
       <c r="A26" s="3" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="B26" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>azul_marinho.jpg</v>
+        <f t="shared" ref="B26:B36" si="2">CONCAT(A26,".jpg")</f>
+        <v>baviera.jpg</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="D26" s="1">
-        <v>375.0</v>
+        <v>376.0</v>
       </c>
       <c r="E26" s="4"/>
-      <c r="F26" s="2"/>
+      <c r="F26" s="3" t="s">
+        <v>91</v>
+      </c>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
@@ -28368,20 +28600,22 @@
     </row>
     <row r="27">
       <c r="A27" s="3" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="B27" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>baviera.jpg</v>
+        <f t="shared" si="2"/>
+        <v>bilbao.jpg</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="D27" s="1">
-        <v>376.0</v>
+        <v>377.0</v>
       </c>
       <c r="E27" s="4"/>
-      <c r="F27" s="2"/>
+      <c r="F27" s="3" t="s">
+        <v>93</v>
+      </c>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
@@ -28405,20 +28639,22 @@
     </row>
     <row r="28">
       <c r="A28" s="3" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="B28" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>bilbao.jpg</v>
+        <f t="shared" si="2"/>
+        <v>branco.jpg</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="D28" s="1">
-        <v>377.0</v>
+        <v>363.0</v>
       </c>
       <c r="E28" s="4"/>
-      <c r="F28" s="2"/>
+      <c r="F28" s="3" t="s">
+        <v>95</v>
+      </c>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
@@ -28442,20 +28678,22 @@
     </row>
     <row r="29">
       <c r="A29" s="3" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="B29" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>branco.jpg</v>
+        <f t="shared" si="2"/>
+        <v>brisa.jpg</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="D29" s="1">
-        <v>363.0</v>
+        <v>379.0</v>
       </c>
       <c r="E29" s="4"/>
-      <c r="F29" s="2"/>
+      <c r="F29" s="3" t="s">
+        <v>97</v>
+      </c>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
@@ -28479,20 +28717,22 @@
     </row>
     <row r="30">
       <c r="A30" s="3" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="B30" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>branco_iceland.jpg</v>
+        <f t="shared" si="2"/>
+        <v>bronzina.jpg</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="D30" s="1">
-        <v>378.0</v>
+        <v>380.0</v>
       </c>
       <c r="E30" s="4"/>
-      <c r="F30" s="2"/>
+      <c r="F30" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
@@ -28516,20 +28756,22 @@
     </row>
     <row r="31">
       <c r="A31" s="3" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="B31" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>brisa.jpg</v>
+        <f t="shared" si="2"/>
+        <v>capuccino.jpg</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="D31" s="1">
-        <v>379.0</v>
+        <v>381.0</v>
       </c>
       <c r="E31" s="4"/>
-      <c r="F31" s="2"/>
+      <c r="F31" s="3" t="s">
+        <v>101</v>
+      </c>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
@@ -28553,20 +28795,24 @@
     </row>
     <row r="32">
       <c r="A32" s="3" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="B32" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>bronzina.jpg</v>
+        <f t="shared" si="2"/>
+        <v>caribe.jpg</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="D32" s="1">
-        <v>380.0</v>
-      </c>
-      <c r="E32" s="4"/>
-      <c r="F32" s="2"/>
+        <v>382.0</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
@@ -28590,20 +28836,22 @@
     </row>
     <row r="33">
       <c r="A33" s="3" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="B33" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>capuccino.jpg</v>
+        <f t="shared" si="2"/>
+        <v>carvalho_capri.jpg</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="D33" s="1">
-        <v>381.0</v>
+        <v>383.0</v>
       </c>
       <c r="E33" s="4"/>
-      <c r="F33" s="2"/>
+      <c r="F33" s="3" t="s">
+        <v>105</v>
+      </c>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
@@ -28627,22 +28875,22 @@
     </row>
     <row r="34">
       <c r="A34" s="3" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="B34" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>caribe.jpg</v>
+        <f t="shared" si="2"/>
+        <v>carvalho_natural.jpg</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="D34" s="1">
-        <v>382.0</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F34" s="2"/>
+        <v>384.0</v>
+      </c>
+      <c r="E34" s="4"/>
+      <c r="F34" s="3" t="s">
+        <v>107</v>
+      </c>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
@@ -28666,20 +28914,22 @@
     </row>
     <row r="35">
       <c r="A35" s="3" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="B35" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>carvalho_capri.jpg</v>
+        <f t="shared" si="2"/>
+        <v>cinza_perfeito.jpg</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="D35" s="1">
-        <v>383.0</v>
+        <v>385.0</v>
       </c>
       <c r="E35" s="4"/>
-      <c r="F35" s="2"/>
+      <c r="F35" s="3" t="s">
+        <v>109</v>
+      </c>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
@@ -28703,20 +28953,22 @@
     </row>
     <row r="36">
       <c r="A36" s="3" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="B36" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>carvalho_natural.jpg</v>
+        <f t="shared" si="2"/>
+        <v>cinza_urban.jpg</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="D36" s="1">
-        <v>384.0</v>
+        <v>386.0</v>
       </c>
       <c r="E36" s="4"/>
-      <c r="F36" s="2"/>
+      <c r="F36" s="3" t="s">
+        <v>111</v>
+      </c>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
@@ -28740,20 +28992,21 @@
     </row>
     <row r="37">
       <c r="A37" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B37" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>cinza_perfeito.jpg</v>
+        <v>112</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>113</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="D37" s="1">
-        <v>385.0</v>
+        <v>361.0</v>
       </c>
       <c r="E37" s="4"/>
-      <c r="F37" s="2"/>
+      <c r="F37" s="3" t="s">
+        <v>114</v>
+      </c>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
@@ -28777,20 +29030,22 @@
     </row>
     <row r="38">
       <c r="A38" s="3" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="B38" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>cinza_urban.jpg</v>
+        <f t="shared" ref="B38:B89" si="3">CONCAT(A38,".jpg")</f>
+        <v>cobre.jpg</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="D38" s="1">
-        <v>386.0</v>
+        <v>387.0</v>
       </c>
       <c r="E38" s="4"/>
-      <c r="F38" s="2"/>
+      <c r="F38" s="3" t="s">
+        <v>116</v>
+      </c>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
@@ -28814,20 +29069,22 @@
     </row>
     <row r="39">
       <c r="A39" s="3" t="s">
-        <v>92</v>
+        <v>117</v>
       </c>
       <c r="B39" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>cobre.jpg</v>
+        <f t="shared" si="3"/>
+        <v>corten.jpg</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="D39" s="1">
-        <v>387.0</v>
+        <v>388.0</v>
       </c>
       <c r="E39" s="4"/>
-      <c r="F39" s="2"/>
+      <c r="F39" s="3" t="s">
+        <v>118</v>
+      </c>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
@@ -28851,20 +29108,22 @@
     </row>
     <row r="40">
       <c r="A40" s="3" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="B40" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>corten.jpg</v>
+        <f t="shared" si="3"/>
+        <v>cosmos.jpg</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D40" s="1">
-        <v>388.0</v>
+        <v>389.0</v>
       </c>
       <c r="E40" s="4"/>
-      <c r="F40" s="2"/>
+      <c r="F40" s="3" t="s">
+        <v>120</v>
+      </c>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
@@ -28888,20 +29147,22 @@
     </row>
     <row r="41">
       <c r="A41" s="3" t="s">
-        <v>94</v>
+        <v>121</v>
       </c>
       <c r="B41" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>cosmos.jpg</v>
+        <f t="shared" si="3"/>
+        <v>cromio.jpg</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D41" s="1">
-        <v>389.0</v>
+        <v>390.0</v>
       </c>
       <c r="E41" s="4"/>
-      <c r="F41" s="2"/>
+      <c r="F41" s="3" t="s">
+        <v>122</v>
+      </c>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
@@ -28925,20 +29186,22 @@
     </row>
     <row r="42">
       <c r="A42" s="3" t="s">
-        <v>95</v>
+        <v>123</v>
       </c>
       <c r="B42" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>cromio.jpg</v>
+        <f t="shared" si="3"/>
+        <v>curupixa.jpg</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="D42" s="1">
-        <v>390.0</v>
+        <v>391.0</v>
       </c>
       <c r="E42" s="4"/>
-      <c r="F42" s="2"/>
+      <c r="F42" s="3" t="s">
+        <v>124</v>
+      </c>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
@@ -28962,20 +29225,22 @@
     </row>
     <row r="43">
       <c r="A43" s="3" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="B43" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>curupixa.jpg</v>
+        <f t="shared" si="3"/>
+        <v>erva_mate.jpg</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="D43" s="1">
-        <v>391.0</v>
+        <v>393.0</v>
       </c>
       <c r="E43" s="4"/>
-      <c r="F43" s="2"/>
+      <c r="F43" s="3" t="s">
+        <v>126</v>
+      </c>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
@@ -28999,20 +29264,22 @@
     </row>
     <row r="44">
       <c r="A44" s="3" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="B44" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>curupixa_ripado.jpg</v>
+        <f t="shared" si="3"/>
+        <v>fendi.jpg</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="D44" s="1">
-        <v>392.0</v>
+        <v>394.0</v>
       </c>
       <c r="E44" s="4"/>
-      <c r="F44" s="2"/>
+      <c r="F44" s="3" t="s">
+        <v>128</v>
+      </c>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
@@ -29036,20 +29303,22 @@
     </row>
     <row r="45">
       <c r="A45" s="3" t="s">
-        <v>98</v>
+        <v>129</v>
       </c>
       <c r="B45" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>erva_mate.jpg</v>
+        <f t="shared" si="3"/>
+        <v>fontana.jpg</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="D45" s="1">
-        <v>393.0</v>
+        <v>395.0</v>
       </c>
       <c r="E45" s="4"/>
-      <c r="F45" s="2"/>
+      <c r="F45" s="3" t="s">
+        <v>130</v>
+      </c>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
@@ -29073,20 +29342,22 @@
     </row>
     <row r="46">
       <c r="A46" s="3" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
       <c r="B46" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>fendi.jpg</v>
+        <f t="shared" si="3"/>
+        <v>freijo.jpg</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="D46" s="1">
-        <v>394.0</v>
+        <v>396.0</v>
       </c>
       <c r="E46" s="4"/>
-      <c r="F46" s="2"/>
+      <c r="F46" s="3" t="s">
+        <v>132</v>
+      </c>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
@@ -29110,20 +29381,22 @@
     </row>
     <row r="47">
       <c r="A47" s="3" t="s">
-        <v>100</v>
+        <v>133</v>
       </c>
       <c r="B47" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>fontana.jpg</v>
+        <f t="shared" si="3"/>
+        <v>fresno_acores.jpg</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="D47" s="1">
-        <v>395.0</v>
+        <v>397.0</v>
       </c>
       <c r="E47" s="4"/>
-      <c r="F47" s="2"/>
+      <c r="F47" s="3" t="s">
+        <v>134</v>
+      </c>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
@@ -29147,20 +29420,22 @@
     </row>
     <row r="48">
       <c r="A48" s="3" t="s">
-        <v>101</v>
+        <v>135</v>
       </c>
       <c r="B48" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>freijo.jpg</v>
+        <f t="shared" si="3"/>
+        <v>fresno_aveiro.jpg</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="D48" s="1">
-        <v>396.0</v>
+        <v>398.0</v>
       </c>
       <c r="E48" s="4"/>
-      <c r="F48" s="2"/>
+      <c r="F48" s="3" t="s">
+        <v>136</v>
+      </c>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
@@ -29184,20 +29459,22 @@
     </row>
     <row r="49">
       <c r="A49" s="3" t="s">
-        <v>102</v>
+        <v>137</v>
       </c>
       <c r="B49" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>fresno_acores.jpg</v>
+        <f t="shared" si="3"/>
+        <v>fresno_coimbra.jpg</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="D49" s="1">
-        <v>397.0</v>
+        <v>399.0</v>
       </c>
       <c r="E49" s="4"/>
-      <c r="F49" s="2"/>
+      <c r="F49" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
@@ -29221,20 +29498,22 @@
     </row>
     <row r="50">
       <c r="A50" s="3" t="s">
-        <v>103</v>
+        <v>139</v>
       </c>
       <c r="B50" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>fresno_aveiro.jpg</v>
+        <f t="shared" si="3"/>
+        <v>fresno_madeira.jpg</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="D50" s="1">
-        <v>398.0</v>
+        <v>400.0</v>
       </c>
       <c r="E50" s="4"/>
-      <c r="F50" s="2"/>
+      <c r="F50" s="3" t="s">
+        <v>140</v>
+      </c>
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
@@ -29258,20 +29537,22 @@
     </row>
     <row r="51">
       <c r="A51" s="3" t="s">
-        <v>104</v>
+        <v>141</v>
       </c>
       <c r="B51" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>fresno_coimbra.jpg</v>
+        <f t="shared" si="3"/>
+        <v>gali.jpg</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="D51" s="1">
-        <v>399.0</v>
+        <v>401.0</v>
       </c>
       <c r="E51" s="4"/>
-      <c r="F51" s="2"/>
+      <c r="F51" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
@@ -29295,20 +29576,22 @@
     </row>
     <row r="52">
       <c r="A52" s="3" t="s">
-        <v>105</v>
+        <v>143</v>
       </c>
       <c r="B52" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>fresno_madeira.jpg</v>
+        <f t="shared" si="3"/>
+        <v>grafite.jpg</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="D52" s="1">
-        <v>400.0</v>
+        <v>402.0</v>
       </c>
       <c r="E52" s="4"/>
-      <c r="F52" s="2"/>
+      <c r="F52" s="3" t="s">
+        <v>144</v>
+      </c>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
@@ -29332,20 +29615,22 @@
     </row>
     <row r="53">
       <c r="A53" s="3" t="s">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="B53" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>gali.jpg</v>
+        <f t="shared" si="3"/>
+        <v>imbuia.jpg</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="D53" s="1">
-        <v>401.0</v>
+        <v>403.0</v>
       </c>
       <c r="E53" s="4"/>
-      <c r="F53" s="2"/>
+      <c r="F53" s="3" t="s">
+        <v>146</v>
+      </c>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
@@ -29369,20 +29654,22 @@
     </row>
     <row r="54">
       <c r="A54" s="3" t="s">
-        <v>107</v>
+        <v>147</v>
       </c>
       <c r="B54" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>grafite.jpg</v>
+        <f t="shared" si="3"/>
+        <v>jaspe.jpg</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="D54" s="1">
-        <v>402.0</v>
+        <v>404.0</v>
       </c>
       <c r="E54" s="4"/>
-      <c r="F54" s="2"/>
+      <c r="F54" s="3" t="s">
+        <v>148</v>
+      </c>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
@@ -29406,20 +29693,22 @@
     </row>
     <row r="55">
       <c r="A55" s="3" t="s">
-        <v>108</v>
+        <v>149</v>
       </c>
       <c r="B55" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>imbuia.jpg</v>
+        <f t="shared" si="3"/>
+        <v>lisboa.jpg</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="D55" s="1">
-        <v>403.0</v>
+        <v>405.0</v>
       </c>
       <c r="E55" s="4"/>
-      <c r="F55" s="2"/>
+      <c r="F55" s="3" t="s">
+        <v>150</v>
+      </c>
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
@@ -29443,20 +29732,22 @@
     </row>
     <row r="56">
       <c r="A56" s="3" t="s">
-        <v>109</v>
+        <v>151</v>
       </c>
       <c r="B56" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>jaspe.jpg</v>
+        <f t="shared" si="3"/>
+        <v>lume.jpg</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="D56" s="1">
-        <v>404.0</v>
+        <v>406.0</v>
       </c>
       <c r="E56" s="4"/>
-      <c r="F56" s="2"/>
+      <c r="F56" s="3" t="s">
+        <v>152</v>
+      </c>
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
@@ -29480,20 +29771,22 @@
     </row>
     <row r="57">
       <c r="A57" s="3" t="s">
-        <v>110</v>
+        <v>153</v>
       </c>
       <c r="B57" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>lisboa.jpg</v>
+        <f t="shared" si="3"/>
+        <v>mangue.jpg</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="D57" s="1">
-        <v>405.0</v>
+        <v>410.0</v>
       </c>
       <c r="E57" s="4"/>
-      <c r="F57" s="2"/>
+      <c r="F57" s="3" t="s">
+        <v>154</v>
+      </c>
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
@@ -29517,20 +29810,22 @@
     </row>
     <row r="58">
       <c r="A58" s="3" t="s">
-        <v>111</v>
+        <v>155</v>
       </c>
       <c r="B58" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>lume.jpg</v>
+        <f t="shared" si="3"/>
+        <v>marmo.jpg</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="D58" s="1">
-        <v>406.0</v>
+        <v>411.0</v>
       </c>
       <c r="E58" s="4"/>
-      <c r="F58" s="2"/>
+      <c r="F58" s="3" t="s">
+        <v>156</v>
+      </c>
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
       <c r="I58" s="2"/>
@@ -29554,20 +29849,22 @@
     </row>
     <row r="59">
       <c r="A59" s="3" t="s">
-        <v>112</v>
+        <v>157</v>
       </c>
       <c r="B59" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>mageo_carvalho.jpg</v>
+        <f t="shared" si="3"/>
+        <v>marsala.jpg</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="D59" s="1">
-        <v>407.0</v>
+        <v>412.0</v>
       </c>
       <c r="E59" s="4"/>
-      <c r="F59" s="2"/>
+      <c r="F59" s="3" t="s">
+        <v>158</v>
+      </c>
       <c r="G59" s="2"/>
       <c r="H59" s="2"/>
       <c r="I59" s="2"/>
@@ -29591,20 +29888,22 @@
     </row>
     <row r="60">
       <c r="A60" s="3" t="s">
-        <v>113</v>
+        <v>159</v>
       </c>
       <c r="B60" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>mageo_imbuia.jpg</v>
+        <f t="shared" si="3"/>
+        <v>metal_champagne.jpg</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="D60" s="1">
-        <v>408.0</v>
+        <v>414.0</v>
       </c>
       <c r="E60" s="4"/>
-      <c r="F60" s="2"/>
+      <c r="F60" s="3" t="s">
+        <v>160</v>
+      </c>
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
       <c r="I60" s="2"/>
@@ -29628,20 +29927,22 @@
     </row>
     <row r="61">
       <c r="A61" s="3" t="s">
-        <v>114</v>
+        <v>161</v>
       </c>
       <c r="B61" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>mageo_mel.jpg</v>
+        <f t="shared" si="3"/>
+        <v>neblina.jpg</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="D61" s="1">
-        <v>409.0</v>
+        <v>415.0</v>
       </c>
       <c r="E61" s="4"/>
-      <c r="F61" s="2"/>
+      <c r="F61" s="3" t="s">
+        <v>162</v>
+      </c>
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
       <c r="I61" s="2"/>
@@ -29665,20 +29966,22 @@
     </row>
     <row r="62">
       <c r="A62" s="3" t="s">
-        <v>115</v>
+        <v>163</v>
       </c>
       <c r="B62" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>mangue.jpg</v>
+        <f t="shared" si="3"/>
+        <v>nero.jpg</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="D62" s="1">
-        <v>410.0</v>
+        <v>416.0</v>
       </c>
       <c r="E62" s="4"/>
-      <c r="F62" s="2"/>
+      <c r="F62" s="3" t="s">
+        <v>164</v>
+      </c>
       <c r="G62" s="2"/>
       <c r="H62" s="2"/>
       <c r="I62" s="2"/>
@@ -29702,20 +30005,22 @@
     </row>
     <row r="63">
       <c r="A63" s="3" t="s">
-        <v>116</v>
+        <v>165</v>
       </c>
       <c r="B63" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>marmo.jpg</v>
+        <f t="shared" si="3"/>
+        <v>niquel.jpg</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="D63" s="1">
-        <v>411.0</v>
+        <v>417.0</v>
       </c>
       <c r="E63" s="4"/>
-      <c r="F63" s="2"/>
+      <c r="F63" s="3" t="s">
+        <v>166</v>
+      </c>
       <c r="G63" s="2"/>
       <c r="H63" s="2"/>
       <c r="I63" s="2"/>
@@ -29739,20 +30044,22 @@
     </row>
     <row r="64">
       <c r="A64" s="3" t="s">
-        <v>117</v>
+        <v>167</v>
       </c>
       <c r="B64" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>marsala.jpg</v>
+        <f t="shared" si="3"/>
+        <v>nogal_champagne.jpg</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="D64" s="1">
-        <v>412.0</v>
+        <v>418.0</v>
       </c>
       <c r="E64" s="4"/>
-      <c r="F64" s="2"/>
+      <c r="F64" s="3" t="s">
+        <v>168</v>
+      </c>
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
       <c r="I64" s="2"/>
@@ -29776,20 +30083,22 @@
     </row>
     <row r="65">
       <c r="A65" s="3" t="s">
-        <v>118</v>
+        <v>169</v>
       </c>
       <c r="B65" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>maxi_branco.jpg</v>
+        <f t="shared" si="3"/>
+        <v>nogal_sevilha.jpg</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="D65" s="1">
-        <v>413.0</v>
+        <v>419.0</v>
       </c>
       <c r="E65" s="4"/>
-      <c r="F65" s="2"/>
+      <c r="F65" s="3" t="s">
+        <v>170</v>
+      </c>
       <c r="G65" s="2"/>
       <c r="H65" s="2"/>
       <c r="I65" s="2"/>
@@ -29813,20 +30122,22 @@
     </row>
     <row r="66">
       <c r="A66" s="3" t="s">
-        <v>119</v>
+        <v>171</v>
       </c>
       <c r="B66" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>metal_champagne.jpg</v>
+        <f t="shared" si="3"/>
+        <v>nogueira_ambar.jpg</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="D66" s="1">
-        <v>414.0</v>
+        <v>420.0</v>
       </c>
       <c r="E66" s="4"/>
-      <c r="F66" s="2"/>
+      <c r="F66" s="3" t="s">
+        <v>172</v>
+      </c>
       <c r="G66" s="2"/>
       <c r="H66" s="2"/>
       <c r="I66" s="2"/>
@@ -29850,20 +30161,22 @@
     </row>
     <row r="67">
       <c r="A67" s="3" t="s">
-        <v>120</v>
+        <v>173</v>
       </c>
       <c r="B67" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>neblina.jpg</v>
+        <f t="shared" si="3"/>
+        <v>nogueira_rubi.jpg</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="D67" s="1">
-        <v>415.0</v>
+        <v>421.0</v>
       </c>
       <c r="E67" s="4"/>
-      <c r="F67" s="2"/>
+      <c r="F67" s="3" t="s">
+        <v>174</v>
+      </c>
       <c r="G67" s="2"/>
       <c r="H67" s="2"/>
       <c r="I67" s="2"/>
@@ -29887,20 +30200,22 @@
     </row>
     <row r="68">
       <c r="A68" s="3" t="s">
-        <v>121</v>
+        <v>175</v>
       </c>
       <c r="B68" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>nero.jpg</v>
+        <f t="shared" si="3"/>
+        <v>noite.jpg</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="D68" s="1">
-        <v>416.0</v>
+        <v>422.0</v>
       </c>
       <c r="E68" s="4"/>
-      <c r="F68" s="2"/>
+      <c r="F68" s="3" t="s">
+        <v>176</v>
+      </c>
       <c r="G68" s="2"/>
       <c r="H68" s="2"/>
       <c r="I68" s="2"/>
@@ -29924,20 +30239,22 @@
     </row>
     <row r="69">
       <c r="A69" s="3" t="s">
-        <v>122</v>
+        <v>177</v>
       </c>
       <c r="B69" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>niquel.jpg</v>
+        <f t="shared" si="3"/>
+        <v>nuvem.jpg</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="D69" s="1">
-        <v>417.0</v>
+        <v>423.0</v>
       </c>
       <c r="E69" s="4"/>
-      <c r="F69" s="2"/>
+      <c r="F69" s="3" t="s">
+        <v>178</v>
+      </c>
       <c r="G69" s="2"/>
       <c r="H69" s="2"/>
       <c r="I69" s="2"/>
@@ -29961,20 +30278,22 @@
     </row>
     <row r="70">
       <c r="A70" s="3" t="s">
-        <v>123</v>
+        <v>179</v>
       </c>
       <c r="B70" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>nogal_champagne.jpg</v>
+        <f t="shared" si="3"/>
+        <v>onix.jpg</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="D70" s="1">
-        <v>418.0</v>
+        <v>424.0</v>
       </c>
       <c r="E70" s="4"/>
-      <c r="F70" s="2"/>
+      <c r="F70" s="3" t="s">
+        <v>180</v>
+      </c>
       <c r="G70" s="2"/>
       <c r="H70" s="2"/>
       <c r="I70" s="2"/>
@@ -29998,20 +30317,22 @@
     </row>
     <row r="71">
       <c r="A71" s="3" t="s">
-        <v>124</v>
+        <v>181</v>
       </c>
       <c r="B71" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>nogal_sevilha.jpg</v>
+        <f t="shared" si="3"/>
+        <v>pau_ferro.jpg</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="D71" s="1">
-        <v>419.0</v>
+        <v>425.0</v>
       </c>
       <c r="E71" s="4"/>
-      <c r="F71" s="2"/>
+      <c r="F71" s="3" t="s">
+        <v>182</v>
+      </c>
       <c r="G71" s="2"/>
       <c r="H71" s="2"/>
       <c r="I71" s="2"/>
@@ -30035,20 +30356,22 @@
     </row>
     <row r="72">
       <c r="A72" s="3" t="s">
-        <v>125</v>
+        <v>183</v>
       </c>
       <c r="B72" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>nogueira_ambar.jpg</v>
+        <f t="shared" si="3"/>
+        <v>peroba.jpg</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="D72" s="1">
-        <v>420.0</v>
+        <v>426.0</v>
       </c>
       <c r="E72" s="4"/>
-      <c r="F72" s="2"/>
+      <c r="F72" s="3" t="s">
+        <v>184</v>
+      </c>
       <c r="G72" s="2"/>
       <c r="H72" s="2"/>
       <c r="I72" s="2"/>
@@ -30072,20 +30395,22 @@
     </row>
     <row r="73">
       <c r="A73" s="3" t="s">
-        <v>126</v>
+        <v>185</v>
       </c>
       <c r="B73" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>nogueira_rubi.jpg</v>
+        <f t="shared" si="3"/>
+        <v>petra.jpg</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="D73" s="1">
-        <v>421.0</v>
+        <v>427.0</v>
       </c>
       <c r="E73" s="4"/>
-      <c r="F73" s="2"/>
+      <c r="F73" s="3" t="s">
+        <v>186</v>
+      </c>
       <c r="G73" s="2"/>
       <c r="H73" s="2"/>
       <c r="I73" s="2"/>
@@ -30109,20 +30434,22 @@
     </row>
     <row r="74">
       <c r="A74" s="3" t="s">
-        <v>127</v>
+        <v>187</v>
       </c>
       <c r="B74" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>noite.jpg</v>
+        <f t="shared" si="3"/>
+        <v>platina.jpg</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="D74" s="1">
-        <v>422.0</v>
+        <v>428.0</v>
       </c>
       <c r="E74" s="4"/>
-      <c r="F74" s="2"/>
+      <c r="F74" s="3" t="s">
+        <v>188</v>
+      </c>
       <c r="G74" s="2"/>
       <c r="H74" s="2"/>
       <c r="I74" s="2"/>
@@ -30146,20 +30473,22 @@
     </row>
     <row r="75">
       <c r="A75" s="3" t="s">
-        <v>128</v>
+        <v>189</v>
       </c>
       <c r="B75" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>nuvem.jpg</v>
+        <f t="shared" si="3"/>
+        <v>preto_silk.jpg</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="D75" s="1">
-        <v>423.0</v>
+        <v>429.0</v>
       </c>
       <c r="E75" s="4"/>
-      <c r="F75" s="2"/>
+      <c r="F75" s="3" t="s">
+        <v>190</v>
+      </c>
       <c r="G75" s="2"/>
       <c r="H75" s="2"/>
       <c r="I75" s="2"/>
@@ -30183,20 +30512,22 @@
     </row>
     <row r="76">
       <c r="A76" s="3" t="s">
-        <v>129</v>
+        <v>191</v>
       </c>
       <c r="B76" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>onix.jpg</v>
+        <f t="shared" si="3"/>
+        <v>quartzo.jpg</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="D76" s="1">
-        <v>424.0</v>
+        <v>430.0</v>
       </c>
       <c r="E76" s="4"/>
-      <c r="F76" s="2"/>
+      <c r="F76" s="3" t="s">
+        <v>192</v>
+      </c>
       <c r="G76" s="2"/>
       <c r="H76" s="2"/>
       <c r="I76" s="2"/>
@@ -30220,20 +30551,22 @@
     </row>
     <row r="77">
       <c r="A77" s="3" t="s">
-        <v>130</v>
+        <v>193</v>
       </c>
       <c r="B77" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>pau_ferro.jpg</v>
+        <f t="shared" si="3"/>
+        <v>rosa_milkshake.jpg</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="D77" s="1">
-        <v>425.0</v>
+        <v>431.0</v>
       </c>
       <c r="E77" s="4"/>
-      <c r="F77" s="2"/>
+      <c r="F77" s="3" t="s">
+        <v>194</v>
+      </c>
       <c r="G77" s="2"/>
       <c r="H77" s="2"/>
       <c r="I77" s="2"/>
@@ -30257,20 +30590,22 @@
     </row>
     <row r="78">
       <c r="A78" s="3" t="s">
-        <v>131</v>
+        <v>195</v>
       </c>
       <c r="B78" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>peroba.jpg</v>
+        <f t="shared" si="3"/>
+        <v>salerno.jpg</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="D78" s="1">
-        <v>426.0</v>
+        <v>432.0</v>
       </c>
       <c r="E78" s="4"/>
-      <c r="F78" s="2"/>
+      <c r="F78" s="3" t="s">
+        <v>196</v>
+      </c>
       <c r="G78" s="2"/>
       <c r="H78" s="2"/>
       <c r="I78" s="2"/>
@@ -30294,20 +30629,22 @@
     </row>
     <row r="79">
       <c r="A79" s="3" t="s">
-        <v>132</v>
+        <v>197</v>
       </c>
       <c r="B79" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>petra.jpg</v>
+        <f t="shared" si="3"/>
+        <v>santorini.jpg</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D79" s="1">
-        <v>427.0</v>
+        <v>433.0</v>
       </c>
       <c r="E79" s="4"/>
-      <c r="F79" s="2"/>
+      <c r="F79" s="3" t="s">
+        <v>198</v>
+      </c>
       <c r="G79" s="2"/>
       <c r="H79" s="2"/>
       <c r="I79" s="2"/>
@@ -30331,20 +30668,22 @@
     </row>
     <row r="80">
       <c r="A80" s="3" t="s">
-        <v>133</v>
+        <v>199</v>
       </c>
       <c r="B80" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>platina.jpg</v>
+        <f t="shared" si="3"/>
+        <v>savana.jpg</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="D80" s="1">
-        <v>428.0</v>
+        <v>434.0</v>
       </c>
       <c r="E80" s="4"/>
-      <c r="F80" s="2"/>
+      <c r="F80" s="3" t="s">
+        <v>200</v>
+      </c>
       <c r="G80" s="2"/>
       <c r="H80" s="2"/>
       <c r="I80" s="2"/>
@@ -30368,20 +30707,22 @@
     </row>
     <row r="81">
       <c r="A81" s="3" t="s">
-        <v>134</v>
+        <v>201</v>
       </c>
       <c r="B81" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>preto_silk.jpg</v>
+        <f t="shared" si="3"/>
+        <v>sonora.jpg</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="D81" s="1">
-        <v>429.0</v>
+        <v>435.0</v>
       </c>
       <c r="E81" s="4"/>
-      <c r="F81" s="2"/>
+      <c r="F81" s="3" t="s">
+        <v>202</v>
+      </c>
       <c r="G81" s="2"/>
       <c r="H81" s="2"/>
       <c r="I81" s="2"/>
@@ -30405,20 +30746,22 @@
     </row>
     <row r="82">
       <c r="A82" s="3" t="s">
-        <v>135</v>
+        <v>203</v>
       </c>
       <c r="B82" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>quartzo.jpg</v>
+        <f t="shared" si="3"/>
+        <v>tauari.jpg</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="D82" s="1">
-        <v>430.0</v>
+        <v>436.0</v>
       </c>
       <c r="E82" s="4"/>
-      <c r="F82" s="2"/>
+      <c r="F82" s="3" t="s">
+        <v>204</v>
+      </c>
       <c r="G82" s="2"/>
       <c r="H82" s="2"/>
       <c r="I82" s="2"/>
@@ -30442,20 +30785,22 @@
     </row>
     <row r="83">
       <c r="A83" s="3" t="s">
-        <v>136</v>
+        <v>205</v>
       </c>
       <c r="B83" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>rosa_milkshake.jpg</v>
+        <f t="shared" si="3"/>
+        <v>tear.jpg</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="D83" s="1">
-        <v>431.0</v>
+        <v>438.0</v>
       </c>
       <c r="E83" s="4"/>
-      <c r="F83" s="2"/>
+      <c r="F83" s="3" t="s">
+        <v>206</v>
+      </c>
       <c r="G83" s="2"/>
       <c r="H83" s="2"/>
       <c r="I83" s="2"/>
@@ -30479,20 +30824,22 @@
     </row>
     <row r="84">
       <c r="A84" s="3" t="s">
-        <v>137</v>
+        <v>207</v>
       </c>
       <c r="B84" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>salerno.jpg</v>
+        <f t="shared" si="3"/>
+        <v>tecno.jpg</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="D84" s="1">
-        <v>432.0</v>
+        <v>439.0</v>
       </c>
       <c r="E84" s="4"/>
-      <c r="F84" s="2"/>
+      <c r="F84" s="3" t="s">
+        <v>208</v>
+      </c>
       <c r="G84" s="2"/>
       <c r="H84" s="2"/>
       <c r="I84" s="2"/>
@@ -30516,20 +30863,22 @@
     </row>
     <row r="85">
       <c r="A85" s="3" t="s">
-        <v>138</v>
+        <v>209</v>
       </c>
       <c r="B85" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>santorini.jpg</v>
+        <f t="shared" si="3"/>
+        <v>teka_bianco.jpg</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="D85" s="1">
-        <v>433.0</v>
+        <v>440.0</v>
       </c>
       <c r="E85" s="4"/>
-      <c r="F85" s="2"/>
+      <c r="F85" s="3" t="s">
+        <v>210</v>
+      </c>
       <c r="G85" s="2"/>
       <c r="H85" s="2"/>
       <c r="I85" s="2"/>
@@ -30553,20 +30902,22 @@
     </row>
     <row r="86">
       <c r="A86" s="3" t="s">
-        <v>139</v>
+        <v>211</v>
       </c>
       <c r="B86" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>savana.jpg</v>
+        <f t="shared" si="3"/>
+        <v>tela.jpg</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="D86" s="1">
-        <v>434.0</v>
+        <v>441.0</v>
       </c>
       <c r="E86" s="4"/>
-      <c r="F86" s="2"/>
+      <c r="F86" s="3" t="s">
+        <v>212</v>
+      </c>
       <c r="G86" s="2"/>
       <c r="H86" s="2"/>
       <c r="I86" s="2"/>
@@ -30590,20 +30941,22 @@
     </row>
     <row r="87">
       <c r="A87" s="3" t="s">
-        <v>140</v>
+        <v>213</v>
       </c>
       <c r="B87" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>sonora.jpg</v>
+        <f t="shared" si="3"/>
+        <v>terrino.jpg</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="D87" s="1">
-        <v>435.0</v>
+        <v>442.0</v>
       </c>
       <c r="E87" s="4"/>
-      <c r="F87" s="2"/>
+      <c r="F87" s="3" t="s">
+        <v>214</v>
+      </c>
       <c r="G87" s="2"/>
       <c r="H87" s="2"/>
       <c r="I87" s="2"/>
@@ -30627,20 +30980,22 @@
     </row>
     <row r="88">
       <c r="A88" s="3" t="s">
-        <v>141</v>
+        <v>215</v>
       </c>
       <c r="B88" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>tauari.jpg</v>
+        <f t="shared" si="3"/>
+        <v>tijolo.jpg</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="D88" s="1">
-        <v>436.0</v>
+        <v>443.0</v>
       </c>
       <c r="E88" s="4"/>
-      <c r="F88" s="2"/>
+      <c r="F88" s="3" t="s">
+        <v>216</v>
+      </c>
       <c r="G88" s="2"/>
       <c r="H88" s="2"/>
       <c r="I88" s="2"/>
@@ -30664,19 +31019,21 @@
     </row>
     <row r="89">
       <c r="A89" s="3" t="s">
-        <v>142</v>
+        <v>217</v>
       </c>
       <c r="B89" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>tauari_ripado.jpg</v>
+        <f t="shared" si="3"/>
+        <v>branco_tx.jpg</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="D89" s="1">
-        <v>437.0</v>
-      </c>
-      <c r="E89" s="4"/>
+        <v>155.0</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="F89" s="2"/>
       <c r="G89" s="2"/>
       <c r="H89" s="2"/>
@@ -30700,20 +31057,6 @@
       <c r="Z89" s="2"/>
     </row>
     <row r="90">
-      <c r="A90" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="B90" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>tear.jpg</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D90" s="1">
-        <v>438.0</v>
-      </c>
-      <c r="E90" s="4"/>
       <c r="F90" s="2"/>
       <c r="G90" s="2"/>
       <c r="H90" s="2"/>
@@ -30737,20 +31080,6 @@
       <c r="Z90" s="2"/>
     </row>
     <row r="91">
-      <c r="A91" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="B91" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>tecno.jpg</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D91" s="1">
-        <v>439.0</v>
-      </c>
-      <c r="E91" s="4"/>
       <c r="F91" s="2"/>
       <c r="G91" s="2"/>
       <c r="H91" s="2"/>
@@ -30774,20 +31103,6 @@
       <c r="Z91" s="2"/>
     </row>
     <row r="92">
-      <c r="A92" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="B92" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>teka_bianco.jpg</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D92" s="1">
-        <v>440.0</v>
-      </c>
-      <c r="E92" s="4"/>
       <c r="F92" s="2"/>
       <c r="G92" s="2"/>
       <c r="H92" s="2"/>
@@ -30811,20 +31126,6 @@
       <c r="Z92" s="2"/>
     </row>
     <row r="93">
-      <c r="A93" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="B93" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>tela.jpg</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D93" s="1">
-        <v>441.0</v>
-      </c>
-      <c r="E93" s="4"/>
       <c r="F93" s="2"/>
       <c r="G93" s="2"/>
       <c r="H93" s="2"/>
@@ -30848,20 +31149,6 @@
       <c r="Z93" s="2"/>
     </row>
     <row r="94">
-      <c r="A94" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="B94" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>terrino.jpg</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D94" s="1">
-        <v>442.0</v>
-      </c>
-      <c r="E94" s="4"/>
       <c r="F94" s="2"/>
       <c r="G94" s="2"/>
       <c r="H94" s="2"/>
@@ -30885,20 +31172,6 @@
       <c r="Z94" s="2"/>
     </row>
     <row r="95">
-      <c r="A95" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="B95" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>tijolo.jpg</v>
-      </c>
-      <c r="C95" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D95" s="1">
-        <v>443.0</v>
-      </c>
-      <c r="E95" s="4"/>
       <c r="F95" s="2"/>
       <c r="G95" s="2"/>
       <c r="H95" s="2"/>
@@ -30922,22 +31195,6 @@
       <c r="Z95" s="2"/>
     </row>
     <row r="96">
-      <c r="A96" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="B96" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>branco_tx.jpg</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D96" s="1">
-        <v>155.0</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="F96" s="2"/>
       <c r="G96" s="2"/>
       <c r="H96" s="2"/>
@@ -56354,84 +56611,84 @@
         <v>44</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>150</v>
+        <v>218</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>151</v>
+        <v>219</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>152</v>
+        <v>220</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="7" t="s">
-        <v>153</v>
+        <v>221</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>154</v>
+        <v>222</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1">
         <v>1.0</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>155</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="7" t="s">
-        <v>156</v>
+        <v>224</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>157</v>
+        <v>225</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1">
         <v>2.0</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>158</v>
+        <v>226</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="7" t="s">
-        <v>159</v>
+        <v>227</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>157</v>
+        <v>225</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1">
         <v>2.0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>160</v>
+        <v>228</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="7" t="s">
-        <v>161</v>
+        <v>229</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>162</v>
+        <v>230</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
         <v>3.0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>158</v>
+        <v>226</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="7" t="s">
-        <v>163</v>
+        <v>231</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>162</v>
+        <v>230</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>8</v>
@@ -56440,150 +56697,150 @@
         <v>3.0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>160</v>
+        <v>228</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="7" t="s">
-        <v>164</v>
+        <v>232</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>165</v>
+        <v>233</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1">
         <v>4.0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>158</v>
+        <v>226</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="7" t="s">
-        <v>166</v>
+        <v>234</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>165</v>
+        <v>233</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1">
         <v>4.0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>160</v>
+        <v>228</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="7" t="s">
-        <v>167</v>
+        <v>235</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>168</v>
+        <v>236</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1">
         <v>5.0</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>155</v>
+        <v>223</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="7" t="s">
-        <v>169</v>
+        <v>237</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>154</v>
+        <v>222</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1">
         <v>1.0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>170</v>
+        <v>238</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="7" t="s">
-        <v>171</v>
+        <v>239</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>157</v>
+        <v>225</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1">
         <v>2.0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>172</v>
+        <v>240</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="7" t="s">
-        <v>173</v>
+        <v>241</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>157</v>
+        <v>225</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1">
         <v>2.0</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>174</v>
+        <v>242</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="7" t="s">
-        <v>175</v>
+        <v>243</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>162</v>
+        <v>230</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1">
         <v>3.0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>172</v>
+        <v>240</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="7" t="s">
-        <v>176</v>
+        <v>244</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>162</v>
+        <v>230</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1">
         <v>3.0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>174</v>
+        <v>242</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="7" t="s">
-        <v>177</v>
+        <v>245</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>165</v>
+        <v>233</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1">
         <v>4.0</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>172</v>
+        <v>240</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="7" t="s">
-        <v>178</v>
+        <v>246</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>165</v>
+        <v>233</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>8</v>
@@ -56592,105 +56849,105 @@
         <v>4.0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>174</v>
+        <v>242</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="7" t="s">
-        <v>179</v>
+        <v>247</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>168</v>
+        <v>236</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1">
         <v>5.0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>170</v>
+        <v>238</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="7" t="s">
-        <v>180</v>
+        <v>248</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>154</v>
+        <v>222</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="1">
         <v>1.0</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>181</v>
+        <v>249</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="7" t="s">
-        <v>182</v>
+        <v>250</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>157</v>
+        <v>225</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="1">
         <v>2.0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>181</v>
+        <v>249</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="7" t="s">
-        <v>183</v>
+        <v>251</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>162</v>
+        <v>230</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="1">
         <v>3.0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>181</v>
+        <v>249</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="7" t="s">
-        <v>184</v>
+        <v>252</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>165</v>
+        <v>233</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="1">
         <v>4.0</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>181</v>
+        <v>249</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="7" t="s">
-        <v>185</v>
+        <v>253</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>168</v>
+        <v>236</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="1">
         <v>5.0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>181</v>
+        <v>249</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="7" t="s">
-        <v>186</v>
+        <v>254</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>154</v>
+        <v>222</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>8</v>
@@ -56699,90 +56956,90 @@
         <v>1.0</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>187</v>
+        <v>255</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="7" t="s">
-        <v>188</v>
+        <v>256</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>157</v>
+        <v>225</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="1">
         <v>2.0</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>187</v>
+        <v>255</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="7" t="s">
-        <v>189</v>
+        <v>257</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>162</v>
+        <v>230</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="1">
         <v>3.0</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>187</v>
+        <v>255</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="7" t="s">
-        <v>190</v>
+        <v>258</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>165</v>
+        <v>233</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="1">
         <v>4.0</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>187</v>
+        <v>255</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="7" t="s">
-        <v>191</v>
+        <v>259</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>168</v>
+        <v>236</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="1">
         <v>5.0</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>187</v>
+        <v>255</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="7" t="s">
-        <v>192</v>
+        <v>260</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>154</v>
+        <v>222</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="1">
         <v>1.0</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>193</v>
+        <v>261</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="7" t="s">
-        <v>194</v>
+        <v>262</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>157</v>
+        <v>225</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>8</v>
@@ -56791,270 +57048,270 @@
         <v>2.0</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>193</v>
+        <v>261</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="7" t="s">
-        <v>195</v>
+        <v>263</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>162</v>
+        <v>230</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="1">
         <v>3.0</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>193</v>
+        <v>261</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="7" t="s">
-        <v>196</v>
+        <v>264</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>165</v>
+        <v>233</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="1">
         <v>4.0</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>193</v>
+        <v>261</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="7" t="s">
-        <v>197</v>
+        <v>265</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>168</v>
+        <v>236</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="1">
         <v>5.0</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>193</v>
+        <v>261</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="7" t="s">
-        <v>198</v>
+        <v>266</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>154</v>
+        <v>222</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="1">
         <v>1.0</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>199</v>
+        <v>267</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="7" t="s">
-        <v>200</v>
+        <v>268</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>157</v>
+        <v>225</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="1">
         <v>2.0</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>199</v>
+        <v>267</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="7" t="s">
-        <v>201</v>
+        <v>269</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>162</v>
+        <v>230</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="1">
         <v>3.0</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>199</v>
+        <v>267</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="7" t="s">
-        <v>202</v>
+        <v>270</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>165</v>
+        <v>233</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="1">
         <v>4.0</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>199</v>
+        <v>267</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="7" t="s">
-        <v>203</v>
+        <v>271</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>168</v>
+        <v>236</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="1">
         <v>5.0</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>199</v>
+        <v>267</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="7" t="s">
-        <v>204</v>
+        <v>272</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>154</v>
+        <v>222</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="1">
         <v>1.0</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>205</v>
+        <v>273</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="7" t="s">
-        <v>206</v>
+        <v>274</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>157</v>
+        <v>225</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="1">
         <v>2.0</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>205</v>
+        <v>273</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="7" t="s">
-        <v>207</v>
+        <v>275</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>162</v>
+        <v>230</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="1">
         <v>3.0</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>205</v>
+        <v>273</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="7" t="s">
-        <v>208</v>
+        <v>276</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>165</v>
+        <v>233</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="1">
         <v>4.0</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>205</v>
+        <v>273</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="7" t="s">
-        <v>209</v>
+        <v>277</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>168</v>
+        <v>236</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="1">
         <v>5.0</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>205</v>
+        <v>273</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="7" t="s">
-        <v>210</v>
+        <v>278</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>154</v>
+        <v>222</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="1">
         <v>1.0</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>211</v>
+        <v>279</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="7" t="s">
-        <v>212</v>
+        <v>280</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>157</v>
+        <v>225</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="1">
         <v>2.0</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>211</v>
+        <v>279</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="7" t="s">
-        <v>213</v>
+        <v>281</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>162</v>
+        <v>230</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="1">
         <v>3.0</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>211</v>
+        <v>279</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="7" t="s">
-        <v>214</v>
+        <v>282</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>165</v>
+        <v>233</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="1">
         <v>4.0</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>211</v>
+        <v>279</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="7" t="s">
-        <v>215</v>
+        <v>283</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>168</v>
+        <v>236</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>8</v>
@@ -57063,7 +57320,7 @@
         <v>5.0</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>211</v>
+        <v>279</v>
       </c>
     </row>
     <row r="48">

--- a/dados.xlsx
+++ b/dados.xlsx
@@ -27703,7 +27703,10 @@
       <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="2"/>
+      <c r="F2" s="2" t="str">
+        <f t="shared" ref="F2:F14" si="1">B2</f>
+        <v>metal_polido.jpg</v>
+      </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -27735,7 +27738,10 @@
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="2"/>
+      <c r="F3" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>black_metal.jpg</v>
+      </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -27769,7 +27775,10 @@
       <c r="E4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="2"/>
+      <c r="F4" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>bronze.jpg</v>
+      </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -27794,7 +27803,7 @@
         <v>53</v>
       </c>
       <c r="B5" s="6" t="str">
-        <f t="shared" ref="B5:B24" si="1">CONCAT(A5,".jpg")</f>
+        <f t="shared" ref="B5:B24" si="2">CONCAT(A5,".jpg")</f>
         <v>puxador01.jpg</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -27802,7 +27811,10 @@
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="4"/>
-      <c r="F5" s="2"/>
+      <c r="F5" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>puxador01.jpg</v>
+      </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -27827,15 +27839,18 @@
         <v>55</v>
       </c>
       <c r="B6" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>puxador02.jpg</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="2" t="str">
         <f t="shared" si="1"/>
         <v>puxador02.jpg</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -27860,13 +27875,16 @@
         <v>56</v>
       </c>
       <c r="B7" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>puxador03.jpg</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" s="2" t="str">
         <f t="shared" si="1"/>
         <v>puxador03.jpg</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -27891,13 +27909,16 @@
         <v>57</v>
       </c>
       <c r="B8" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>puxador04.jpg</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="2" t="str">
         <f t="shared" si="1"/>
         <v>puxador04.jpg</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -27922,13 +27943,16 @@
         <v>58</v>
       </c>
       <c r="B9" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>puxador05.jpg</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="2" t="str">
         <f t="shared" si="1"/>
         <v>puxador05.jpg</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -27953,13 +27977,16 @@
         <v>59</v>
       </c>
       <c r="B10" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>puxador06.jpg</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" s="2" t="str">
         <f t="shared" si="1"/>
         <v>puxador06.jpg</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -27984,13 +28011,16 @@
         <v>60</v>
       </c>
       <c r="B11" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>puxador07.jpg</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="2" t="str">
         <f t="shared" si="1"/>
         <v>puxador07.jpg</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -28015,13 +28045,16 @@
         <v>61</v>
       </c>
       <c r="B12" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>puxador08.jpg</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" s="2" t="str">
         <f t="shared" si="1"/>
         <v>puxador08.jpg</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -28046,13 +28079,16 @@
         <v>62</v>
       </c>
       <c r="B13" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>puxador09.jpg</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" s="2" t="str">
         <f t="shared" si="1"/>
         <v>puxador09.jpg</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -28077,13 +28113,16 @@
         <v>63</v>
       </c>
       <c r="B14" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>puxador10.jpg</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" s="2" t="str">
         <f t="shared" si="1"/>
         <v>puxador10.jpg</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -28108,7 +28147,7 @@
         <v>64</v>
       </c>
       <c r="B15" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>alabama.jpg</v>
       </c>
       <c r="C15" s="3" t="s">
@@ -28145,7 +28184,7 @@
         <v>67</v>
       </c>
       <c r="B16" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>alecrim.jpg</v>
       </c>
       <c r="C16" s="3" t="s">
@@ -28182,7 +28221,7 @@
         <v>70</v>
       </c>
       <c r="B17" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>ametista.jpg</v>
       </c>
       <c r="C17" s="3" t="s">
@@ -28219,7 +28258,7 @@
         <v>72</v>
       </c>
       <c r="B18" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>antiqua.jpg</v>
       </c>
       <c r="C18" s="3" t="s">
@@ -28256,7 +28295,7 @@
         <v>74</v>
       </c>
       <c r="B19" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>antuerpia.jpg</v>
       </c>
       <c r="C19" s="3" t="s">
@@ -28293,7 +28332,7 @@
         <v>76</v>
       </c>
       <c r="B20" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>araucaria.jpg</v>
       </c>
       <c r="C20" s="3" t="s">
@@ -28330,7 +28369,7 @@
         <v>78</v>
       </c>
       <c r="B21" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>areia.jpg</v>
       </c>
       <c r="C21" s="3" t="s">
@@ -28367,7 +28406,7 @@
         <v>80</v>
       </c>
       <c r="B22" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>aura.jpg</v>
       </c>
       <c r="C22" s="3" t="s">
@@ -28404,7 +28443,7 @@
         <v>83</v>
       </c>
       <c r="B23" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>azul_ardosia.jpg</v>
       </c>
       <c r="C23" s="3" t="s">
@@ -28441,7 +28480,7 @@
         <v>85</v>
       </c>
       <c r="B24" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>azul_marinho.jpg</v>
       </c>
       <c r="C24" s="3" t="s">
@@ -28514,7 +28553,7 @@
         <v>90</v>
       </c>
       <c r="B26" s="6" t="str">
-        <f t="shared" ref="B26:B36" si="2">CONCAT(A26,".jpg")</f>
+        <f t="shared" ref="B26:B36" si="3">CONCAT(A26,".jpg")</f>
         <v>baviera.jpg</v>
       </c>
       <c r="C26" s="3" t="s">
@@ -28551,7 +28590,7 @@
         <v>92</v>
       </c>
       <c r="B27" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>bilbao.jpg</v>
       </c>
       <c r="C27" s="3" t="s">
@@ -28588,7 +28627,7 @@
         <v>94</v>
       </c>
       <c r="B28" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>branco.jpg</v>
       </c>
       <c r="C28" s="3" t="s">
@@ -28625,7 +28664,7 @@
         <v>96</v>
       </c>
       <c r="B29" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>brisa.jpg</v>
       </c>
       <c r="C29" s="3" t="s">
@@ -28662,7 +28701,7 @@
         <v>98</v>
       </c>
       <c r="B30" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>bronzina.jpg</v>
       </c>
       <c r="C30" s="3" t="s">
@@ -28699,7 +28738,7 @@
         <v>100</v>
       </c>
       <c r="B31" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>capuccino.jpg</v>
       </c>
       <c r="C31" s="3" t="s">
@@ -28736,7 +28775,7 @@
         <v>102</v>
       </c>
       <c r="B32" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>caribe.jpg</v>
       </c>
       <c r="C32" s="3" t="s">
@@ -28775,7 +28814,7 @@
         <v>104</v>
       </c>
       <c r="B33" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>carvalho_capri.jpg</v>
       </c>
       <c r="C33" s="3" t="s">
@@ -28812,7 +28851,7 @@
         <v>106</v>
       </c>
       <c r="B34" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>carvalho_natural.jpg</v>
       </c>
       <c r="C34" s="3" t="s">
@@ -28849,7 +28888,7 @@
         <v>108</v>
       </c>
       <c r="B35" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>cinza_perfeito.jpg</v>
       </c>
       <c r="C35" s="3" t="s">
@@ -28886,7 +28925,7 @@
         <v>110</v>
       </c>
       <c r="B36" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>cinza_urban.jpg</v>
       </c>
       <c r="C36" s="3" t="s">
@@ -28959,7 +28998,7 @@
         <v>115</v>
       </c>
       <c r="B38" s="6" t="str">
-        <f t="shared" ref="B38:B89" si="3">CONCAT(A38,".jpg")</f>
+        <f t="shared" ref="B38:B89" si="4">CONCAT(A38,".jpg")</f>
         <v>cobre.jpg</v>
       </c>
       <c r="C38" s="3" t="s">
@@ -28996,7 +29035,7 @@
         <v>117</v>
       </c>
       <c r="B39" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>corten.jpg</v>
       </c>
       <c r="C39" s="3" t="s">
@@ -29033,7 +29072,7 @@
         <v>119</v>
       </c>
       <c r="B40" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>cosmos.jpg</v>
       </c>
       <c r="C40" s="3" t="s">
@@ -29070,7 +29109,7 @@
         <v>121</v>
       </c>
       <c r="B41" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>cromio.jpg</v>
       </c>
       <c r="C41" s="3" t="s">
@@ -29107,7 +29146,7 @@
         <v>123</v>
       </c>
       <c r="B42" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>curupixa.jpg</v>
       </c>
       <c r="C42" s="3" t="s">
@@ -29144,7 +29183,7 @@
         <v>125</v>
       </c>
       <c r="B43" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>erva_mate.jpg</v>
       </c>
       <c r="C43" s="3" t="s">
@@ -29181,7 +29220,7 @@
         <v>127</v>
       </c>
       <c r="B44" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>fendi.jpg</v>
       </c>
       <c r="C44" s="3" t="s">
@@ -29218,7 +29257,7 @@
         <v>129</v>
       </c>
       <c r="B45" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>fontana.jpg</v>
       </c>
       <c r="C45" s="3" t="s">
@@ -29255,7 +29294,7 @@
         <v>131</v>
       </c>
       <c r="B46" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>freijo.jpg</v>
       </c>
       <c r="C46" s="3" t="s">
@@ -29292,7 +29331,7 @@
         <v>133</v>
       </c>
       <c r="B47" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>fresno_acores.jpg</v>
       </c>
       <c r="C47" s="3" t="s">
@@ -29329,7 +29368,7 @@
         <v>135</v>
       </c>
       <c r="B48" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>fresno_aveiro.jpg</v>
       </c>
       <c r="C48" s="3" t="s">
@@ -29366,7 +29405,7 @@
         <v>137</v>
       </c>
       <c r="B49" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>fresno_coimbra.jpg</v>
       </c>
       <c r="C49" s="3" t="s">
@@ -29403,7 +29442,7 @@
         <v>139</v>
       </c>
       <c r="B50" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>fresno_madeira.jpg</v>
       </c>
       <c r="C50" s="3" t="s">
@@ -29440,7 +29479,7 @@
         <v>141</v>
       </c>
       <c r="B51" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>gali.jpg</v>
       </c>
       <c r="C51" s="3" t="s">
@@ -29477,7 +29516,7 @@
         <v>143</v>
       </c>
       <c r="B52" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>grafite.jpg</v>
       </c>
       <c r="C52" s="3" t="s">
@@ -29514,7 +29553,7 @@
         <v>145</v>
       </c>
       <c r="B53" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>imbuia.jpg</v>
       </c>
       <c r="C53" s="3" t="s">
@@ -29551,7 +29590,7 @@
         <v>147</v>
       </c>
       <c r="B54" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>jaspe.jpg</v>
       </c>
       <c r="C54" s="3" t="s">
@@ -29588,7 +29627,7 @@
         <v>149</v>
       </c>
       <c r="B55" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>lisboa.jpg</v>
       </c>
       <c r="C55" s="3" t="s">
@@ -29625,7 +29664,7 @@
         <v>151</v>
       </c>
       <c r="B56" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>lume.jpg</v>
       </c>
       <c r="C56" s="3" t="s">
@@ -29662,7 +29701,7 @@
         <v>153</v>
       </c>
       <c r="B57" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>mangue.jpg</v>
       </c>
       <c r="C57" s="3" t="s">
@@ -29699,7 +29738,7 @@
         <v>155</v>
       </c>
       <c r="B58" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>marmo.jpg</v>
       </c>
       <c r="C58" s="3" t="s">
@@ -29736,7 +29775,7 @@
         <v>157</v>
       </c>
       <c r="B59" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>marsala.jpg</v>
       </c>
       <c r="C59" s="3" t="s">
@@ -29773,7 +29812,7 @@
         <v>159</v>
       </c>
       <c r="B60" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>metal_champagne.jpg</v>
       </c>
       <c r="C60" s="3" t="s">
@@ -29810,7 +29849,7 @@
         <v>161</v>
       </c>
       <c r="B61" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>neblina.jpg</v>
       </c>
       <c r="C61" s="3" t="s">
@@ -29847,7 +29886,7 @@
         <v>163</v>
       </c>
       <c r="B62" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>nero.jpg</v>
       </c>
       <c r="C62" s="3" t="s">
@@ -29884,7 +29923,7 @@
         <v>165</v>
       </c>
       <c r="B63" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>niquel.jpg</v>
       </c>
       <c r="C63" s="3" t="s">
@@ -29921,7 +29960,7 @@
         <v>167</v>
       </c>
       <c r="B64" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>nogal_champagne.jpg</v>
       </c>
       <c r="C64" s="3" t="s">
@@ -29958,7 +29997,7 @@
         <v>169</v>
       </c>
       <c r="B65" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>nogal_sevilha.jpg</v>
       </c>
       <c r="C65" s="3" t="s">
@@ -29995,7 +30034,7 @@
         <v>171</v>
       </c>
       <c r="B66" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>nogueira_ambar.jpg</v>
       </c>
       <c r="C66" s="3" t="s">
@@ -30032,7 +30071,7 @@
         <v>173</v>
       </c>
       <c r="B67" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>nogueira_rubi.jpg</v>
       </c>
       <c r="C67" s="3" t="s">
@@ -30069,7 +30108,7 @@
         <v>175</v>
       </c>
       <c r="B68" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>noite.jpg</v>
       </c>
       <c r="C68" s="3" t="s">
@@ -30106,7 +30145,7 @@
         <v>177</v>
       </c>
       <c r="B69" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>nuvem.jpg</v>
       </c>
       <c r="C69" s="3" t="s">
@@ -30143,7 +30182,7 @@
         <v>179</v>
       </c>
       <c r="B70" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>onix.jpg</v>
       </c>
       <c r="C70" s="3" t="s">
@@ -30180,7 +30219,7 @@
         <v>181</v>
       </c>
       <c r="B71" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>pau_ferro.jpg</v>
       </c>
       <c r="C71" s="3" t="s">
@@ -30217,7 +30256,7 @@
         <v>183</v>
       </c>
       <c r="B72" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>peroba.jpg</v>
       </c>
       <c r="C72" s="3" t="s">
@@ -30254,7 +30293,7 @@
         <v>185</v>
       </c>
       <c r="B73" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>petra.jpg</v>
       </c>
       <c r="C73" s="3" t="s">
@@ -30291,7 +30330,7 @@
         <v>187</v>
       </c>
       <c r="B74" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>platina.jpg</v>
       </c>
       <c r="C74" s="3" t="s">
@@ -30328,7 +30367,7 @@
         <v>189</v>
       </c>
       <c r="B75" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>preto_silk.jpg</v>
       </c>
       <c r="C75" s="3" t="s">
@@ -30365,7 +30404,7 @@
         <v>191</v>
       </c>
       <c r="B76" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>quartzo.jpg</v>
       </c>
       <c r="C76" s="3" t="s">
@@ -30402,7 +30441,7 @@
         <v>193</v>
       </c>
       <c r="B77" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>rosa_milkshake.jpg</v>
       </c>
       <c r="C77" s="3" t="s">
@@ -30439,7 +30478,7 @@
         <v>195</v>
       </c>
       <c r="B78" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>salerno.jpg</v>
       </c>
       <c r="C78" s="3" t="s">
@@ -30476,7 +30515,7 @@
         <v>197</v>
       </c>
       <c r="B79" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>santorini.jpg</v>
       </c>
       <c r="C79" s="3" t="s">
@@ -30513,7 +30552,7 @@
         <v>199</v>
       </c>
       <c r="B80" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>savana.jpg</v>
       </c>
       <c r="C80" s="3" t="s">
@@ -30550,7 +30589,7 @@
         <v>201</v>
       </c>
       <c r="B81" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>sonora.jpg</v>
       </c>
       <c r="C81" s="3" t="s">
@@ -30587,7 +30626,7 @@
         <v>203</v>
       </c>
       <c r="B82" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>tauari.jpg</v>
       </c>
       <c r="C82" s="3" t="s">
@@ -30624,7 +30663,7 @@
         <v>205</v>
       </c>
       <c r="B83" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>tear.jpg</v>
       </c>
       <c r="C83" s="3" t="s">
@@ -30661,7 +30700,7 @@
         <v>207</v>
       </c>
       <c r="B84" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>tecno.jpg</v>
       </c>
       <c r="C84" s="3" t="s">
@@ -30698,7 +30737,7 @@
         <v>209</v>
       </c>
       <c r="B85" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>teka_bianco.jpg</v>
       </c>
       <c r="C85" s="3" t="s">
@@ -30735,7 +30774,7 @@
         <v>211</v>
       </c>
       <c r="B86" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>tela.jpg</v>
       </c>
       <c r="C86" s="3" t="s">
@@ -30772,7 +30811,7 @@
         <v>213</v>
       </c>
       <c r="B87" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>terrino.jpg</v>
       </c>
       <c r="C87" s="3" t="s">
@@ -30809,7 +30848,7 @@
         <v>215</v>
       </c>
       <c r="B88" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>tijolo.jpg</v>
       </c>
       <c r="C88" s="3" t="s">
@@ -30846,7 +30885,7 @@
         <v>217</v>
       </c>
       <c r="B89" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>branco_tx.jpg</v>
       </c>
       <c r="C89" s="3" t="s">
@@ -30858,7 +30897,10 @@
       <c r="E89" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F89" s="2"/>
+      <c r="F89" s="2" t="str">
+        <f>B89</f>
+        <v>branco_tx.jpg</v>
+      </c>
       <c r="G89" s="2"/>
       <c r="H89" s="2"/>
       <c r="I89" s="2"/>

--- a/dados.xlsx
+++ b/dados.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="285">
   <si>
     <t>objeto</t>
   </si>
@@ -168,6 +168,9 @@
     <t>black_metal.jpg</t>
   </si>
   <si>
+    <t>puxadores-textura</t>
+  </si>
+  <si>
     <t>bronze</t>
   </si>
   <si>
@@ -177,7 +180,7 @@
     <t>puxador01</t>
   </si>
   <si>
-    <t>puxadores_tipo</t>
+    <t>puxadores-tipo</t>
   </si>
   <si>
     <t>puxador02</t>
@@ -27645,7 +27648,7 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="14.75"/>
     <col customWidth="1" min="2" max="2" width="17.38"/>
-    <col customWidth="1" min="3" max="3" width="13.0"/>
+    <col customWidth="1" min="3" max="3" width="14.75"/>
     <col customWidth="1" min="4" max="4" width="5.13"/>
     <col customWidth="1" min="6" max="6" width="43.63"/>
   </cols>
@@ -27734,7 +27737,7 @@
         <v>50</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -27763,13 +27766,13 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>14</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
@@ -27800,14 +27803,14 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B5" s="6" t="str">
         <f t="shared" ref="B5:B24" si="2">CONCAT(A5,".jpg")</f>
         <v>puxador01.jpg</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="4"/>
@@ -27836,14 +27839,14 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B6" s="6" t="str">
         <f t="shared" si="2"/>
         <v>puxador02.jpg</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -27872,14 +27875,14 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B7" s="6" t="str">
         <f t="shared" si="2"/>
         <v>puxador03.jpg</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F7" s="2" t="str">
         <f t="shared" si="1"/>
@@ -27906,14 +27909,14 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B8" s="6" t="str">
         <f t="shared" si="2"/>
         <v>puxador04.jpg</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F8" s="2" t="str">
         <f t="shared" si="1"/>
@@ -27940,14 +27943,14 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B9" s="6" t="str">
         <f t="shared" si="2"/>
         <v>puxador05.jpg</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F9" s="2" t="str">
         <f t="shared" si="1"/>
@@ -27974,14 +27977,14 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B10" s="6" t="str">
         <f t="shared" si="2"/>
         <v>puxador06.jpg</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F10" s="2" t="str">
         <f t="shared" si="1"/>
@@ -28008,14 +28011,14 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B11" s="6" t="str">
         <f t="shared" si="2"/>
         <v>puxador07.jpg</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F11" s="2" t="str">
         <f t="shared" si="1"/>
@@ -28042,14 +28045,14 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B12" s="6" t="str">
         <f t="shared" si="2"/>
         <v>puxador08.jpg</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F12" s="2" t="str">
         <f t="shared" si="1"/>
@@ -28076,14 +28079,14 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B13" s="6" t="str">
         <f t="shared" si="2"/>
         <v>puxador09.jpg</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F13" s="2" t="str">
         <f t="shared" si="1"/>
@@ -28110,14 +28113,14 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B14" s="6" t="str">
         <f t="shared" si="2"/>
         <v>puxador10.jpg</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F14" s="2" t="str">
         <f t="shared" si="1"/>
@@ -28144,21 +28147,21 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B15" s="6" t="str">
         <f t="shared" si="2"/>
         <v>alabama.jpg</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D15" s="1">
         <v>367.0</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -28181,21 +28184,21 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B16" s="6" t="str">
         <f t="shared" si="2"/>
         <v>alecrim.jpg</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D16" s="1">
         <v>368.0</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -28218,21 +28221,21 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B17" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ametista.jpg</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D17" s="1">
         <v>369.0</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -28255,21 +28258,21 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B18" s="6" t="str">
         <f t="shared" si="2"/>
         <v>antiqua.jpg</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D18" s="1">
         <v>370.0</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
@@ -28292,21 +28295,21 @@
     </row>
     <row r="19">
       <c r="A19" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B19" s="6" t="str">
         <f t="shared" si="2"/>
         <v>antuerpia.jpg</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D19" s="1">
         <v>362.0</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
@@ -28329,21 +28332,21 @@
     </row>
     <row r="20">
       <c r="A20" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B20" s="6" t="str">
         <f t="shared" si="2"/>
         <v>araucaria.jpg</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D20" s="1">
         <v>371.0</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
@@ -28366,21 +28369,21 @@
     </row>
     <row r="21">
       <c r="A21" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B21" s="6" t="str">
         <f t="shared" si="2"/>
         <v>areia.jpg</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D21" s="1">
         <v>372.0</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
@@ -28403,21 +28406,21 @@
     </row>
     <row r="22">
       <c r="A22" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B22" s="6" t="str">
         <f t="shared" si="2"/>
         <v>aura.jpg</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D22" s="1">
         <v>373.0</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
@@ -28440,21 +28443,21 @@
     </row>
     <row r="23">
       <c r="A23" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B23" s="6" t="str">
         <f t="shared" si="2"/>
         <v>azul_ardosia.jpg</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D23" s="1">
         <v>374.0</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
@@ -28477,21 +28480,21 @@
     </row>
     <row r="24">
       <c r="A24" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B24" s="6" t="str">
         <f t="shared" si="2"/>
         <v>azul_marinho.jpg</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D24" s="1">
         <v>375.0</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
@@ -28514,20 +28517,20 @@
     </row>
     <row r="25">
       <c r="A25" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D25" s="1">
         <v>360.0</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
@@ -28550,21 +28553,21 @@
     </row>
     <row r="26">
       <c r="A26" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B26" s="6" t="str">
         <f t="shared" ref="B26:B36" si="3">CONCAT(A26,".jpg")</f>
         <v>baviera.jpg</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D26" s="1">
         <v>376.0</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
@@ -28587,21 +28590,21 @@
     </row>
     <row r="27">
       <c r="A27" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B27" s="6" t="str">
         <f t="shared" si="3"/>
         <v>bilbao.jpg</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D27" s="1">
         <v>377.0</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
@@ -28624,21 +28627,21 @@
     </row>
     <row r="28">
       <c r="A28" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B28" s="6" t="str">
         <f t="shared" si="3"/>
         <v>branco.jpg</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D28" s="1">
         <v>363.0</v>
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
@@ -28661,21 +28664,21 @@
     </row>
     <row r="29">
       <c r="A29" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B29" s="6" t="str">
         <f t="shared" si="3"/>
         <v>brisa.jpg</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D29" s="1">
         <v>379.0</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
@@ -28698,21 +28701,21 @@
     </row>
     <row r="30">
       <c r="A30" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B30" s="6" t="str">
         <f t="shared" si="3"/>
         <v>bronzina.jpg</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D30" s="1">
         <v>380.0</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
@@ -28735,21 +28738,21 @@
     </row>
     <row r="31">
       <c r="A31" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B31" s="6" t="str">
         <f t="shared" si="3"/>
         <v>capuccino.jpg</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D31" s="1">
         <v>381.0</v>
       </c>
       <c r="E31" s="4"/>
       <c r="F31" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
@@ -28772,14 +28775,14 @@
     </row>
     <row r="32">
       <c r="A32" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B32" s="6" t="str">
         <f t="shared" si="3"/>
         <v>caribe.jpg</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D32" s="1">
         <v>382.0</v>
@@ -28788,7 +28791,7 @@
         <v>8</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
@@ -28811,21 +28814,21 @@
     </row>
     <row r="33">
       <c r="A33" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B33" s="6" t="str">
         <f t="shared" si="3"/>
         <v>carvalho_capri.jpg</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D33" s="1">
         <v>383.0</v>
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
@@ -28848,21 +28851,21 @@
     </row>
     <row r="34">
       <c r="A34" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B34" s="6" t="str">
         <f t="shared" si="3"/>
         <v>carvalho_natural.jpg</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D34" s="1">
         <v>384.0</v>
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
@@ -28885,21 +28888,21 @@
     </row>
     <row r="35">
       <c r="A35" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B35" s="6" t="str">
         <f t="shared" si="3"/>
         <v>cinza_perfeito.jpg</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D35" s="1">
         <v>385.0</v>
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
@@ -28922,21 +28925,21 @@
     </row>
     <row r="36">
       <c r="A36" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B36" s="6" t="str">
         <f t="shared" si="3"/>
         <v>cinza_urban.jpg</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D36" s="1">
         <v>386.0</v>
       </c>
       <c r="E36" s="4"/>
       <c r="F36" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
@@ -28959,20 +28962,20 @@
     </row>
     <row r="37">
       <c r="A37" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D37" s="1">
         <v>361.0</v>
       </c>
       <c r="E37" s="4"/>
       <c r="F37" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
@@ -28995,21 +28998,21 @@
     </row>
     <row r="38">
       <c r="A38" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B38" s="6" t="str">
         <f t="shared" ref="B38:B89" si="4">CONCAT(A38,".jpg")</f>
         <v>cobre.jpg</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D38" s="1">
         <v>387.0</v>
       </c>
       <c r="E38" s="4"/>
       <c r="F38" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
@@ -29032,21 +29035,21 @@
     </row>
     <row r="39">
       <c r="A39" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B39" s="6" t="str">
         <f t="shared" si="4"/>
         <v>corten.jpg</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D39" s="1">
         <v>388.0</v>
       </c>
       <c r="E39" s="4"/>
       <c r="F39" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
@@ -29069,21 +29072,21 @@
     </row>
     <row r="40">
       <c r="A40" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B40" s="6" t="str">
         <f t="shared" si="4"/>
         <v>cosmos.jpg</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D40" s="1">
         <v>389.0</v>
       </c>
       <c r="E40" s="4"/>
       <c r="F40" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
@@ -29106,21 +29109,21 @@
     </row>
     <row r="41">
       <c r="A41" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B41" s="6" t="str">
         <f t="shared" si="4"/>
         <v>cromio.jpg</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D41" s="1">
         <v>390.0</v>
       </c>
       <c r="E41" s="4"/>
       <c r="F41" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
@@ -29143,21 +29146,21 @@
     </row>
     <row r="42">
       <c r="A42" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B42" s="6" t="str">
         <f t="shared" si="4"/>
         <v>curupixa.jpg</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D42" s="1">
         <v>391.0</v>
       </c>
       <c r="E42" s="4"/>
       <c r="F42" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
@@ -29180,21 +29183,21 @@
     </row>
     <row r="43">
       <c r="A43" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B43" s="6" t="str">
         <f t="shared" si="4"/>
         <v>erva_mate.jpg</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D43" s="1">
         <v>393.0</v>
       </c>
       <c r="E43" s="4"/>
       <c r="F43" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
@@ -29217,21 +29220,21 @@
     </row>
     <row r="44">
       <c r="A44" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B44" s="6" t="str">
         <f t="shared" si="4"/>
         <v>fendi.jpg</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D44" s="1">
         <v>394.0</v>
       </c>
       <c r="E44" s="4"/>
       <c r="F44" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
@@ -29254,21 +29257,21 @@
     </row>
     <row r="45">
       <c r="A45" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B45" s="6" t="str">
         <f t="shared" si="4"/>
         <v>fontana.jpg</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D45" s="1">
         <v>395.0</v>
       </c>
       <c r="E45" s="4"/>
       <c r="F45" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
@@ -29291,21 +29294,21 @@
     </row>
     <row r="46">
       <c r="A46" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B46" s="6" t="str">
         <f t="shared" si="4"/>
         <v>freijo.jpg</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D46" s="1">
         <v>396.0</v>
       </c>
       <c r="E46" s="4"/>
       <c r="F46" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
@@ -29328,21 +29331,21 @@
     </row>
     <row r="47">
       <c r="A47" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B47" s="6" t="str">
         <f t="shared" si="4"/>
         <v>fresno_acores.jpg</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D47" s="1">
         <v>397.0</v>
       </c>
       <c r="E47" s="4"/>
       <c r="F47" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
@@ -29365,21 +29368,21 @@
     </row>
     <row r="48">
       <c r="A48" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B48" s="6" t="str">
         <f t="shared" si="4"/>
         <v>fresno_aveiro.jpg</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D48" s="1">
         <v>398.0</v>
       </c>
       <c r="E48" s="4"/>
       <c r="F48" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
@@ -29402,21 +29405,21 @@
     </row>
     <row r="49">
       <c r="A49" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B49" s="6" t="str">
         <f t="shared" si="4"/>
         <v>fresno_coimbra.jpg</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D49" s="1">
         <v>399.0</v>
       </c>
       <c r="E49" s="4"/>
       <c r="F49" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
@@ -29439,21 +29442,21 @@
     </row>
     <row r="50">
       <c r="A50" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B50" s="6" t="str">
         <f t="shared" si="4"/>
         <v>fresno_madeira.jpg</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D50" s="1">
         <v>400.0</v>
       </c>
       <c r="E50" s="4"/>
       <c r="F50" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
@@ -29476,21 +29479,21 @@
     </row>
     <row r="51">
       <c r="A51" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B51" s="6" t="str">
         <f t="shared" si="4"/>
         <v>gali.jpg</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D51" s="1">
         <v>401.0</v>
       </c>
       <c r="E51" s="4"/>
       <c r="F51" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
@@ -29513,21 +29516,21 @@
     </row>
     <row r="52">
       <c r="A52" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B52" s="6" t="str">
         <f t="shared" si="4"/>
         <v>grafite.jpg</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D52" s="1">
         <v>402.0</v>
       </c>
       <c r="E52" s="4"/>
       <c r="F52" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
@@ -29550,21 +29553,21 @@
     </row>
     <row r="53">
       <c r="A53" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B53" s="6" t="str">
         <f t="shared" si="4"/>
         <v>imbuia.jpg</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D53" s="1">
         <v>403.0</v>
       </c>
       <c r="E53" s="4"/>
       <c r="F53" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
@@ -29587,21 +29590,21 @@
     </row>
     <row r="54">
       <c r="A54" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B54" s="6" t="str">
         <f t="shared" si="4"/>
         <v>jaspe.jpg</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D54" s="1">
         <v>404.0</v>
       </c>
       <c r="E54" s="4"/>
       <c r="F54" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
@@ -29624,21 +29627,21 @@
     </row>
     <row r="55">
       <c r="A55" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B55" s="6" t="str">
         <f t="shared" si="4"/>
         <v>lisboa.jpg</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D55" s="1">
         <v>405.0</v>
       </c>
       <c r="E55" s="4"/>
       <c r="F55" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
@@ -29661,21 +29664,21 @@
     </row>
     <row r="56">
       <c r="A56" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B56" s="6" t="str">
         <f t="shared" si="4"/>
         <v>lume.jpg</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D56" s="1">
         <v>406.0</v>
       </c>
       <c r="E56" s="4"/>
       <c r="F56" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
@@ -29698,21 +29701,21 @@
     </row>
     <row r="57">
       <c r="A57" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B57" s="6" t="str">
         <f t="shared" si="4"/>
         <v>mangue.jpg</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D57" s="1">
         <v>410.0</v>
       </c>
       <c r="E57" s="4"/>
       <c r="F57" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
@@ -29735,21 +29738,21 @@
     </row>
     <row r="58">
       <c r="A58" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B58" s="6" t="str">
         <f t="shared" si="4"/>
         <v>marmo.jpg</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D58" s="1">
         <v>411.0</v>
       </c>
       <c r="E58" s="4"/>
       <c r="F58" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
@@ -29772,21 +29775,21 @@
     </row>
     <row r="59">
       <c r="A59" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B59" s="6" t="str">
         <f t="shared" si="4"/>
         <v>marsala.jpg</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D59" s="1">
         <v>412.0</v>
       </c>
       <c r="E59" s="4"/>
       <c r="F59" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G59" s="2"/>
       <c r="H59" s="2"/>
@@ -29809,21 +29812,21 @@
     </row>
     <row r="60">
       <c r="A60" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B60" s="6" t="str">
         <f t="shared" si="4"/>
         <v>metal_champagne.jpg</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D60" s="1">
         <v>414.0</v>
       </c>
       <c r="E60" s="4"/>
       <c r="F60" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
@@ -29846,21 +29849,21 @@
     </row>
     <row r="61">
       <c r="A61" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B61" s="6" t="str">
         <f t="shared" si="4"/>
         <v>neblina.jpg</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D61" s="1">
         <v>415.0</v>
       </c>
       <c r="E61" s="4"/>
       <c r="F61" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
@@ -29883,21 +29886,21 @@
     </row>
     <row r="62">
       <c r="A62" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B62" s="6" t="str">
         <f t="shared" si="4"/>
         <v>nero.jpg</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D62" s="1">
         <v>416.0</v>
       </c>
       <c r="E62" s="4"/>
       <c r="F62" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G62" s="2"/>
       <c r="H62" s="2"/>
@@ -29920,21 +29923,21 @@
     </row>
     <row r="63">
       <c r="A63" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B63" s="6" t="str">
         <f t="shared" si="4"/>
         <v>niquel.jpg</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D63" s="1">
         <v>417.0</v>
       </c>
       <c r="E63" s="4"/>
       <c r="F63" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G63" s="2"/>
       <c r="H63" s="2"/>
@@ -29957,21 +29960,21 @@
     </row>
     <row r="64">
       <c r="A64" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B64" s="6" t="str">
         <f t="shared" si="4"/>
         <v>nogal_champagne.jpg</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D64" s="1">
         <v>418.0</v>
       </c>
       <c r="E64" s="4"/>
       <c r="F64" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
@@ -29994,21 +29997,21 @@
     </row>
     <row r="65">
       <c r="A65" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B65" s="6" t="str">
         <f t="shared" si="4"/>
         <v>nogal_sevilha.jpg</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D65" s="1">
         <v>419.0</v>
       </c>
       <c r="E65" s="4"/>
       <c r="F65" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G65" s="2"/>
       <c r="H65" s="2"/>
@@ -30031,21 +30034,21 @@
     </row>
     <row r="66">
       <c r="A66" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B66" s="6" t="str">
         <f t="shared" si="4"/>
         <v>nogueira_ambar.jpg</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D66" s="1">
         <v>420.0</v>
       </c>
       <c r="E66" s="4"/>
       <c r="F66" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G66" s="2"/>
       <c r="H66" s="2"/>
@@ -30068,21 +30071,21 @@
     </row>
     <row r="67">
       <c r="A67" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B67" s="6" t="str">
         <f t="shared" si="4"/>
         <v>nogueira_rubi.jpg</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D67" s="1">
         <v>421.0</v>
       </c>
       <c r="E67" s="4"/>
       <c r="F67" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G67" s="2"/>
       <c r="H67" s="2"/>
@@ -30105,21 +30108,21 @@
     </row>
     <row r="68">
       <c r="A68" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B68" s="6" t="str">
         <f t="shared" si="4"/>
         <v>noite.jpg</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D68" s="1">
         <v>422.0</v>
       </c>
       <c r="E68" s="4"/>
       <c r="F68" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G68" s="2"/>
       <c r="H68" s="2"/>
@@ -30142,21 +30145,21 @@
     </row>
     <row r="69">
       <c r="A69" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B69" s="6" t="str">
         <f t="shared" si="4"/>
         <v>nuvem.jpg</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D69" s="1">
         <v>423.0</v>
       </c>
       <c r="E69" s="4"/>
       <c r="F69" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G69" s="2"/>
       <c r="H69" s="2"/>
@@ -30179,21 +30182,21 @@
     </row>
     <row r="70">
       <c r="A70" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B70" s="6" t="str">
         <f t="shared" si="4"/>
         <v>onix.jpg</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D70" s="1">
         <v>424.0</v>
       </c>
       <c r="E70" s="4"/>
       <c r="F70" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G70" s="2"/>
       <c r="H70" s="2"/>
@@ -30216,21 +30219,21 @@
     </row>
     <row r="71">
       <c r="A71" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B71" s="6" t="str">
         <f t="shared" si="4"/>
         <v>pau_ferro.jpg</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D71" s="1">
         <v>425.0</v>
       </c>
       <c r="E71" s="4"/>
       <c r="F71" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G71" s="2"/>
       <c r="H71" s="2"/>
@@ -30253,21 +30256,21 @@
     </row>
     <row r="72">
       <c r="A72" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B72" s="6" t="str">
         <f t="shared" si="4"/>
         <v>peroba.jpg</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D72" s="1">
         <v>426.0</v>
       </c>
       <c r="E72" s="4"/>
       <c r="F72" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G72" s="2"/>
       <c r="H72" s="2"/>
@@ -30290,21 +30293,21 @@
     </row>
     <row r="73">
       <c r="A73" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B73" s="6" t="str">
         <f t="shared" si="4"/>
         <v>petra.jpg</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D73" s="1">
         <v>427.0</v>
       </c>
       <c r="E73" s="4"/>
       <c r="F73" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G73" s="2"/>
       <c r="H73" s="2"/>
@@ -30327,21 +30330,21 @@
     </row>
     <row r="74">
       <c r="A74" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B74" s="6" t="str">
         <f t="shared" si="4"/>
         <v>platina.jpg</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D74" s="1">
         <v>428.0</v>
       </c>
       <c r="E74" s="4"/>
       <c r="F74" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G74" s="2"/>
       <c r="H74" s="2"/>
@@ -30364,21 +30367,21 @@
     </row>
     <row r="75">
       <c r="A75" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B75" s="6" t="str">
         <f t="shared" si="4"/>
         <v>preto_silk.jpg</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D75" s="1">
         <v>429.0</v>
       </c>
       <c r="E75" s="4"/>
       <c r="F75" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G75" s="2"/>
       <c r="H75" s="2"/>
@@ -30401,21 +30404,21 @@
     </row>
     <row r="76">
       <c r="A76" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B76" s="6" t="str">
         <f t="shared" si="4"/>
         <v>quartzo.jpg</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D76" s="1">
         <v>430.0</v>
       </c>
       <c r="E76" s="4"/>
       <c r="F76" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G76" s="2"/>
       <c r="H76" s="2"/>
@@ -30438,21 +30441,21 @@
     </row>
     <row r="77">
       <c r="A77" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B77" s="6" t="str">
         <f t="shared" si="4"/>
         <v>rosa_milkshake.jpg</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D77" s="1">
         <v>431.0</v>
       </c>
       <c r="E77" s="4"/>
       <c r="F77" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G77" s="2"/>
       <c r="H77" s="2"/>
@@ -30475,21 +30478,21 @@
     </row>
     <row r="78">
       <c r="A78" s="3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B78" s="6" t="str">
         <f t="shared" si="4"/>
         <v>salerno.jpg</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D78" s="1">
         <v>432.0</v>
       </c>
       <c r="E78" s="4"/>
       <c r="F78" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G78" s="2"/>
       <c r="H78" s="2"/>
@@ -30512,21 +30515,21 @@
     </row>
     <row r="79">
       <c r="A79" s="3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B79" s="6" t="str">
         <f t="shared" si="4"/>
         <v>santorini.jpg</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D79" s="1">
         <v>433.0</v>
       </c>
       <c r="E79" s="4"/>
       <c r="F79" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G79" s="2"/>
       <c r="H79" s="2"/>
@@ -30549,21 +30552,21 @@
     </row>
     <row r="80">
       <c r="A80" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B80" s="6" t="str">
         <f t="shared" si="4"/>
         <v>savana.jpg</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D80" s="1">
         <v>434.0</v>
       </c>
       <c r="E80" s="4"/>
       <c r="F80" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G80" s="2"/>
       <c r="H80" s="2"/>
@@ -30586,21 +30589,21 @@
     </row>
     <row r="81">
       <c r="A81" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B81" s="6" t="str">
         <f t="shared" si="4"/>
         <v>sonora.jpg</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D81" s="1">
         <v>435.0</v>
       </c>
       <c r="E81" s="4"/>
       <c r="F81" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G81" s="2"/>
       <c r="H81" s="2"/>
@@ -30623,21 +30626,21 @@
     </row>
     <row r="82">
       <c r="A82" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B82" s="6" t="str">
         <f t="shared" si="4"/>
         <v>tauari.jpg</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D82" s="1">
         <v>436.0</v>
       </c>
       <c r="E82" s="4"/>
       <c r="F82" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G82" s="2"/>
       <c r="H82" s="2"/>
@@ -30660,21 +30663,21 @@
     </row>
     <row r="83">
       <c r="A83" s="3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B83" s="6" t="str">
         <f t="shared" si="4"/>
         <v>tear.jpg</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D83" s="1">
         <v>438.0</v>
       </c>
       <c r="E83" s="4"/>
       <c r="F83" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G83" s="2"/>
       <c r="H83" s="2"/>
@@ -30697,21 +30700,21 @@
     </row>
     <row r="84">
       <c r="A84" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B84" s="6" t="str">
         <f t="shared" si="4"/>
         <v>tecno.jpg</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D84" s="1">
         <v>439.0</v>
       </c>
       <c r="E84" s="4"/>
       <c r="F84" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G84" s="2"/>
       <c r="H84" s="2"/>
@@ -30734,21 +30737,21 @@
     </row>
     <row r="85">
       <c r="A85" s="3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B85" s="6" t="str">
         <f t="shared" si="4"/>
         <v>teka_bianco.jpg</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D85" s="1">
         <v>440.0</v>
       </c>
       <c r="E85" s="4"/>
       <c r="F85" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G85" s="2"/>
       <c r="H85" s="2"/>
@@ -30771,21 +30774,21 @@
     </row>
     <row r="86">
       <c r="A86" s="3" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B86" s="6" t="str">
         <f t="shared" si="4"/>
         <v>tela.jpg</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D86" s="1">
         <v>441.0</v>
       </c>
       <c r="E86" s="4"/>
       <c r="F86" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G86" s="2"/>
       <c r="H86" s="2"/>
@@ -30808,21 +30811,21 @@
     </row>
     <row r="87">
       <c r="A87" s="3" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B87" s="6" t="str">
         <f t="shared" si="4"/>
         <v>terrino.jpg</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D87" s="1">
         <v>442.0</v>
       </c>
       <c r="E87" s="4"/>
       <c r="F87" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G87" s="2"/>
       <c r="H87" s="2"/>
@@ -30845,21 +30848,21 @@
     </row>
     <row r="88">
       <c r="A88" s="3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B88" s="6" t="str">
         <f t="shared" si="4"/>
         <v>tijolo.jpg</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D88" s="1">
         <v>443.0</v>
       </c>
       <c r="E88" s="4"/>
       <c r="F88" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G88" s="2"/>
       <c r="H88" s="2"/>
@@ -30882,7 +30885,7 @@
     </row>
     <row r="89">
       <c r="A89" s="3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B89" s="6" t="str">
         <f t="shared" si="4"/>
@@ -54649,84 +54652,84 @@
         <v>44</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1">
         <v>1.0</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1">
         <v>2.0</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1">
         <v>2.0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
         <v>3.0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>231</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>230</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>8</v>
@@ -54735,150 +54738,150 @@
         <v>3.0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1">
         <v>4.0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>234</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>233</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1">
         <v>4.0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1">
         <v>5.0</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1">
         <v>1.0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1">
         <v>2.0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1">
         <v>2.0</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1">
         <v>3.0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1">
         <v>3.0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1">
         <v>4.0</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>8</v>
@@ -54887,105 +54890,105 @@
         <v>4.0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1">
         <v>5.0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="1">
         <v>1.0</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="1">
         <v>2.0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="1">
         <v>3.0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="1">
         <v>4.0</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="1">
         <v>5.0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>8</v>
@@ -54994,90 +54997,90 @@
         <v>1.0</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="1">
         <v>2.0</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="1">
         <v>3.0</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="1">
         <v>4.0</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="1">
         <v>5.0</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="1">
         <v>1.0</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>8</v>
@@ -55086,270 +55089,270 @@
         <v>2.0</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="1">
         <v>3.0</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="1">
         <v>4.0</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="1">
         <v>5.0</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="1">
         <v>1.0</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="1">
         <v>2.0</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="1">
         <v>3.0</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="1">
         <v>4.0</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="1">
         <v>5.0</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="1">
         <v>1.0</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="1">
         <v>2.0</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="1">
         <v>3.0</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="1">
         <v>4.0</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="1">
         <v>5.0</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="1">
         <v>1.0</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="1">
         <v>2.0</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="1">
         <v>3.0</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="1">
         <v>4.0</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>8</v>
@@ -55358,7 +55361,7 @@
         <v>5.0</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="48">

--- a/dados.xlsx
+++ b/dados.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="286">
   <si>
     <t>objeto</t>
   </si>
@@ -681,6 +681,9 @@
     <t>nome_botao</t>
   </si>
   <si>
+    <t>largura_padrao</t>
+  </si>
+  <si>
     <t>modulo1_cozinha_pia_inicio.glb</t>
   </si>
   <si>
@@ -54663,73 +54666,88 @@
       <c r="E1" s="7" t="s">
         <v>221</v>
       </c>
+      <c r="F1" s="7" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1">
         <v>1.0</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
+      </c>
+      <c r="F2" s="7">
+        <v>600.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1">
         <v>2.0</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
+      </c>
+      <c r="F3" s="7">
+        <v>600.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1">
         <v>2.0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
+      </c>
+      <c r="F4" s="7">
+        <v>600.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
         <v>3.0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
+      </c>
+      <c r="F5" s="7">
+        <v>600.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>232</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>231</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>8</v>
@@ -54738,150 +54756,180 @@
         <v>3.0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
+      </c>
+      <c r="F6" s="7">
+        <v>600.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1">
         <v>4.0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
+      </c>
+      <c r="F7" s="7">
+        <v>600.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>235</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>234</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1">
         <v>4.0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
+      </c>
+      <c r="F8" s="7">
+        <v>600.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1">
         <v>5.0</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
+      </c>
+      <c r="F9" s="7">
+        <v>600.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1">
         <v>1.0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
+      </c>
+      <c r="F10" s="7">
+        <v>600.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1">
         <v>2.0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
+      </c>
+      <c r="F11" s="7">
+        <v>600.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1">
         <v>2.0</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
+      </c>
+      <c r="F12" s="7">
+        <v>600.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1">
         <v>3.0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
+      </c>
+      <c r="F13" s="7">
+        <v>600.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1">
         <v>3.0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
+      </c>
+      <c r="F14" s="7">
+        <v>600.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1">
         <v>4.0</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
+      </c>
+      <c r="F15" s="7">
+        <v>600.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>8</v>
@@ -54890,105 +54938,126 @@
         <v>4.0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
+      </c>
+      <c r="F16" s="7">
+        <v>600.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1">
         <v>5.0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
+      </c>
+      <c r="F17" s="7">
+        <v>600.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="1">
         <v>1.0</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
+      </c>
+      <c r="F18" s="7">
+        <v>600.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="1">
         <v>2.0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
+      </c>
+      <c r="F19" s="7">
+        <v>600.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="1">
         <v>3.0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
+      </c>
+      <c r="F20" s="7">
+        <v>600.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="1">
         <v>4.0</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
+      </c>
+      <c r="F21" s="7">
+        <v>600.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="1">
         <v>5.0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
+      </c>
+      <c r="F22" s="7">
+        <v>600.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>8</v>
@@ -54997,90 +55066,108 @@
         <v>1.0</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
+      </c>
+      <c r="F23" s="7">
+        <v>600.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="1">
         <v>2.0</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
+      </c>
+      <c r="F24" s="7">
+        <v>600.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="1">
         <v>3.0</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
+      </c>
+      <c r="F25" s="7">
+        <v>600.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="1">
         <v>4.0</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
+      </c>
+      <c r="F26" s="7">
+        <v>600.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="1">
         <v>5.0</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
+      </c>
+      <c r="F27" s="7">
+        <v>600.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="1">
         <v>1.0</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
+      </c>
+      <c r="F28" s="7">
+        <v>600.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>8</v>
@@ -55089,270 +55176,324 @@
         <v>2.0</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
+      </c>
+      <c r="F29" s="7">
+        <v>600.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="1">
         <v>3.0</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
+      </c>
+      <c r="F30" s="7">
+        <v>600.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="1">
         <v>4.0</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
+      </c>
+      <c r="F31" s="7">
+        <v>600.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="1">
         <v>5.0</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
+      </c>
+      <c r="F32" s="7">
+        <v>600.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="1">
         <v>1.0</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
+      </c>
+      <c r="F33" s="7">
+        <v>800.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="1">
         <v>2.0</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
+      </c>
+      <c r="F34" s="7">
+        <v>800.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="1">
         <v>3.0</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
+      </c>
+      <c r="F35" s="7">
+        <v>800.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="1">
         <v>4.0</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
+      </c>
+      <c r="F36" s="7">
+        <v>800.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="1">
         <v>5.0</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
+      </c>
+      <c r="F37" s="7">
+        <v>800.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="1">
         <v>1.0</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
+      </c>
+      <c r="F38" s="7">
+        <v>600.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="1">
         <v>2.0</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
+      </c>
+      <c r="F39" s="7">
+        <v>600.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="1">
         <v>3.0</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
+      </c>
+      <c r="F40" s="7">
+        <v>600.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="1">
         <v>4.0</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
+      </c>
+      <c r="F41" s="7">
+        <v>600.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="1">
         <v>5.0</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
+      </c>
+      <c r="F42" s="7">
+        <v>600.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="1">
         <v>1.0</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
+      </c>
+      <c r="F43" s="7">
+        <v>600.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="1">
         <v>2.0</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
+      </c>
+      <c r="F44" s="7">
+        <v>600.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="1">
         <v>3.0</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
+      </c>
+      <c r="F45" s="7">
+        <v>600.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="1">
         <v>4.0</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
+      </c>
+      <c r="F46" s="7">
+        <v>600.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>8</v>
@@ -55361,7 +55502,10 @@
         <v>5.0</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
+      </c>
+      <c r="F47" s="7">
+        <v>600.0</v>
       </c>
     </row>
     <row r="48">

--- a/dados.xlsx
+++ b/dados.xlsx
@@ -55159,7 +55159,7 @@
         <v>263</v>
       </c>
       <c r="F28" s="7">
-        <v>600.0</v>
+        <v>400.0</v>
       </c>
     </row>
     <row r="29">
@@ -55179,7 +55179,7 @@
         <v>263</v>
       </c>
       <c r="F29" s="7">
-        <v>600.0</v>
+        <v>400.0</v>
       </c>
     </row>
     <row r="30">
@@ -55197,7 +55197,7 @@
         <v>263</v>
       </c>
       <c r="F30" s="7">
-        <v>600.0</v>
+        <v>400.0</v>
       </c>
     </row>
     <row r="31">
@@ -55215,7 +55215,7 @@
         <v>263</v>
       </c>
       <c r="F31" s="7">
-        <v>600.0</v>
+        <v>400.0</v>
       </c>
     </row>
     <row r="32">
@@ -55233,7 +55233,7 @@
         <v>263</v>
       </c>
       <c r="F32" s="7">
-        <v>600.0</v>
+        <v>400.0</v>
       </c>
     </row>
     <row r="33">

--- a/dados.xlsx
+++ b/dados.xlsx
@@ -55159,7 +55159,7 @@
         <v>263</v>
       </c>
       <c r="F28" s="7">
-        <v>400.0</v>
+        <v>450.0</v>
       </c>
     </row>
     <row r="29">
@@ -55179,7 +55179,7 @@
         <v>263</v>
       </c>
       <c r="F29" s="7">
-        <v>400.0</v>
+        <v>450.0</v>
       </c>
     </row>
     <row r="30">
@@ -55197,7 +55197,7 @@
         <v>263</v>
       </c>
       <c r="F30" s="7">
-        <v>400.0</v>
+        <v>450.0</v>
       </c>
     </row>
     <row r="31">
@@ -55215,7 +55215,7 @@
         <v>263</v>
       </c>
       <c r="F31" s="7">
-        <v>400.0</v>
+        <v>450.0</v>
       </c>
     </row>
     <row r="32">
@@ -55233,7 +55233,7 @@
         <v>263</v>
       </c>
       <c r="F32" s="7">
-        <v>400.0</v>
+        <v>450.0</v>
       </c>
     </row>
     <row r="33">
